--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,66 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Italy Serie A</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>AC Milan</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Inter Milan</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['20', '90+5']</t>
+  </si>
+  <si>
+    <t>['89', '90+5']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['30', '82']</t>
+  </si>
+  <si>
+    <t>['30', '68']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +330,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +842,830 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7492157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45521.5625</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2">
+        <v>3.6</v>
+      </c>
+      <c r="R2">
+        <v>2.2</v>
+      </c>
+      <c r="S2">
+        <v>2.88</v>
+      </c>
+      <c r="T2">
+        <v>1.36</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>2.75</v>
+      </c>
+      <c r="W2">
+        <v>1.4</v>
+      </c>
+      <c r="X2">
+        <v>7</v>
+      </c>
+      <c r="Y2">
+        <v>1.1</v>
+      </c>
+      <c r="Z2">
+        <v>3.25</v>
+      </c>
+      <c r="AA2">
+        <v>3.2</v>
+      </c>
+      <c r="AB2">
+        <v>2.3</v>
+      </c>
+      <c r="AC2">
+        <v>1.07</v>
+      </c>
+      <c r="AD2">
+        <v>13</v>
+      </c>
+      <c r="AE2">
+        <v>1.25</v>
+      </c>
+      <c r="AF2">
+        <v>3.52</v>
+      </c>
+      <c r="AG2">
+        <v>1.88</v>
+      </c>
+      <c r="AH2">
+        <v>1.88</v>
+      </c>
+      <c r="AI2">
+        <v>1.67</v>
+      </c>
+      <c r="AJ2">
+        <v>2.1</v>
+      </c>
+      <c r="AK2">
+        <v>1.66</v>
+      </c>
+      <c r="AL2">
+        <v>1.32</v>
+      </c>
+      <c r="AM2">
+        <v>1.34</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>7</v>
+      </c>
+      <c r="AV2">
+        <v>8</v>
+      </c>
+      <c r="AW2">
+        <v>4</v>
+      </c>
+      <c r="AX2">
+        <v>3</v>
+      </c>
+      <c r="AY2">
+        <v>11</v>
+      </c>
+      <c r="AZ2">
+        <v>11</v>
+      </c>
+      <c r="BA2">
+        <v>4</v>
+      </c>
+      <c r="BB2">
+        <v>9</v>
+      </c>
+      <c r="BC2">
+        <v>13</v>
+      </c>
+      <c r="BD2">
+        <v>2.3</v>
+      </c>
+      <c r="BE2">
+        <v>6.25</v>
+      </c>
+      <c r="BF2">
+        <v>1.77</v>
+      </c>
+      <c r="BG2">
+        <v>1.41</v>
+      </c>
+      <c r="BH2">
+        <v>2.63</v>
+      </c>
+      <c r="BI2">
+        <v>1.72</v>
+      </c>
+      <c r="BJ2">
+        <v>1.98</v>
+      </c>
+      <c r="BK2">
+        <v>2.15</v>
+      </c>
+      <c r="BL2">
+        <v>1.61</v>
+      </c>
+      <c r="BM2">
+        <v>2.8</v>
+      </c>
+      <c r="BN2">
+        <v>1.37</v>
+      </c>
+      <c r="BO2">
+        <v>3.65</v>
+      </c>
+      <c r="BP2">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7492151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45521.5625</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>2.25</v>
+      </c>
+      <c r="S3">
+        <v>2.1</v>
+      </c>
+      <c r="T3">
+        <v>1.36</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>2.75</v>
+      </c>
+      <c r="W3">
+        <v>1.4</v>
+      </c>
+      <c r="X3">
+        <v>7</v>
+      </c>
+      <c r="Y3">
+        <v>1.1</v>
+      </c>
+      <c r="Z3">
+        <v>5.5</v>
+      </c>
+      <c r="AA3">
+        <v>3.8</v>
+      </c>
+      <c r="AB3">
+        <v>1.61</v>
+      </c>
+      <c r="AC3">
+        <v>1.01</v>
+      </c>
+      <c r="AD3">
+        <v>9.6</v>
+      </c>
+      <c r="AE3">
+        <v>1.26</v>
+      </c>
+      <c r="AF3">
+        <v>3.44</v>
+      </c>
+      <c r="AG3">
+        <v>1.85</v>
+      </c>
+      <c r="AH3">
+        <v>1.85</v>
+      </c>
+      <c r="AI3">
+        <v>1.95</v>
+      </c>
+      <c r="AJ3">
+        <v>1.8</v>
+      </c>
+      <c r="AK3">
+        <v>2.42</v>
+      </c>
+      <c r="AL3">
+        <v>1.24</v>
+      </c>
+      <c r="AM3">
+        <v>1.14</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>8</v>
+      </c>
+      <c r="AV3">
+        <v>9</v>
+      </c>
+      <c r="AW3">
+        <v>5</v>
+      </c>
+      <c r="AX3">
+        <v>6</v>
+      </c>
+      <c r="AY3">
+        <v>13</v>
+      </c>
+      <c r="AZ3">
+        <v>15</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>4</v>
+      </c>
+      <c r="BC3">
+        <v>5</v>
+      </c>
+      <c r="BD3">
+        <v>2.9</v>
+      </c>
+      <c r="BE3">
+        <v>6.75</v>
+      </c>
+      <c r="BF3">
+        <v>1.5</v>
+      </c>
+      <c r="BG3">
+        <v>1.3</v>
+      </c>
+      <c r="BH3">
+        <v>3.15</v>
+      </c>
+      <c r="BI3">
+        <v>1.52</v>
+      </c>
+      <c r="BJ3">
+        <v>2.33</v>
+      </c>
+      <c r="BK3">
+        <v>1.98</v>
+      </c>
+      <c r="BL3">
+        <v>1.82</v>
+      </c>
+      <c r="BM3">
+        <v>2.33</v>
+      </c>
+      <c r="BN3">
+        <v>1.52</v>
+      </c>
+      <c r="BO3">
+        <v>2.95</v>
+      </c>
+      <c r="BP3">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7492156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45521.65625</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4">
+        <v>2.3</v>
+      </c>
+      <c r="R4">
+        <v>2.25</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>1.36</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>2.75</v>
+      </c>
+      <c r="W4">
+        <v>1.4</v>
+      </c>
+      <c r="X4">
+        <v>8</v>
+      </c>
+      <c r="Y4">
+        <v>1.08</v>
+      </c>
+      <c r="Z4">
+        <v>1.57</v>
+      </c>
+      <c r="AA4">
+        <v>3.8</v>
+      </c>
+      <c r="AB4">
+        <v>6.5</v>
+      </c>
+      <c r="AC4">
+        <v>1.07</v>
+      </c>
+      <c r="AD4">
+        <v>13</v>
+      </c>
+      <c r="AE4">
+        <v>1.27</v>
+      </c>
+      <c r="AF4">
+        <v>3.38</v>
+      </c>
+      <c r="AG4">
+        <v>1.85</v>
+      </c>
+      <c r="AH4">
+        <v>1.85</v>
+      </c>
+      <c r="AI4">
+        <v>1.8</v>
+      </c>
+      <c r="AJ4">
+        <v>1.95</v>
+      </c>
+      <c r="AK4">
+        <v>1.2</v>
+      </c>
+      <c r="AL4">
+        <v>1.28</v>
+      </c>
+      <c r="AM4">
+        <v>2.22</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>7</v>
+      </c>
+      <c r="AV4">
+        <v>4</v>
+      </c>
+      <c r="AW4">
+        <v>10</v>
+      </c>
+      <c r="AX4">
+        <v>3</v>
+      </c>
+      <c r="AY4">
+        <v>17</v>
+      </c>
+      <c r="AZ4">
+        <v>7</v>
+      </c>
+      <c r="BA4">
+        <v>9</v>
+      </c>
+      <c r="BB4">
+        <v>2</v>
+      </c>
+      <c r="BC4">
+        <v>11</v>
+      </c>
+      <c r="BD4">
+        <v>1.35</v>
+      </c>
+      <c r="BE4">
+        <v>6.75</v>
+      </c>
+      <c r="BF4">
+        <v>3.55</v>
+      </c>
+      <c r="BG4">
+        <v>1.44</v>
+      </c>
+      <c r="BH4">
+        <v>2.55</v>
+      </c>
+      <c r="BI4">
+        <v>1.74</v>
+      </c>
+      <c r="BJ4">
+        <v>1.96</v>
+      </c>
+      <c r="BK4">
+        <v>2.18</v>
+      </c>
+      <c r="BL4">
+        <v>1.58</v>
+      </c>
+      <c r="BM4">
+        <v>2.8</v>
+      </c>
+      <c r="BN4">
+        <v>1.36</v>
+      </c>
+      <c r="BO4">
+        <v>3.8</v>
+      </c>
+      <c r="BP4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7492150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45521.65625</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5">
+        <v>3.1</v>
+      </c>
+      <c r="R5">
+        <v>2.1</v>
+      </c>
+      <c r="S5">
+        <v>3.6</v>
+      </c>
+      <c r="T5">
+        <v>1.44</v>
+      </c>
+      <c r="U5">
+        <v>2.63</v>
+      </c>
+      <c r="V5">
+        <v>3.25</v>
+      </c>
+      <c r="W5">
+        <v>1.33</v>
+      </c>
+      <c r="X5">
+        <v>9</v>
+      </c>
+      <c r="Y5">
+        <v>1.07</v>
+      </c>
+      <c r="Z5">
+        <v>2.9</v>
+      </c>
+      <c r="AA5">
+        <v>3.2</v>
+      </c>
+      <c r="AB5">
+        <v>2.5</v>
+      </c>
+      <c r="AC5">
+        <v>1.09</v>
+      </c>
+      <c r="AD5">
+        <v>10.5</v>
+      </c>
+      <c r="AE5">
+        <v>1.33</v>
+      </c>
+      <c r="AF5">
+        <v>3.2</v>
+      </c>
+      <c r="AG5">
+        <v>2.05</v>
+      </c>
+      <c r="AH5">
+        <v>1.73</v>
+      </c>
+      <c r="AI5">
+        <v>1.8</v>
+      </c>
+      <c r="AJ5">
+        <v>1.95</v>
+      </c>
+      <c r="AK5">
+        <v>1.35</v>
+      </c>
+      <c r="AL5">
+        <v>1.28</v>
+      </c>
+      <c r="AM5">
+        <v>1.55</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>3</v>
+      </c>
+      <c r="AV5">
+        <v>2</v>
+      </c>
+      <c r="AW5">
+        <v>3</v>
+      </c>
+      <c r="AX5">
+        <v>2</v>
+      </c>
+      <c r="AY5">
+        <v>6</v>
+      </c>
+      <c r="AZ5">
+        <v>4</v>
+      </c>
+      <c r="BA5">
+        <v>7</v>
+      </c>
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5">
+        <v>10</v>
+      </c>
+      <c r="BD5">
+        <v>1.82</v>
+      </c>
+      <c r="BE5">
+        <v>6.4</v>
+      </c>
+      <c r="BF5">
+        <v>2.18</v>
+      </c>
+      <c r="BG5">
+        <v>1.3</v>
+      </c>
+      <c r="BH5">
+        <v>3.15</v>
+      </c>
+      <c r="BI5">
+        <v>1.5</v>
+      </c>
+      <c r="BJ5">
+        <v>2.33</v>
+      </c>
+      <c r="BK5">
+        <v>1.88</v>
+      </c>
+      <c r="BL5">
+        <v>1.92</v>
+      </c>
+      <c r="BM5">
+        <v>2.3</v>
+      </c>
+      <c r="BN5">
+        <v>1.53</v>
+      </c>
+      <c r="BO5">
+        <v>2.95</v>
+      </c>
+      <c r="BP5">
+        <v>1.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -238,6 +238,18 @@
     <t>Empoli</t>
   </si>
   <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
     <t>Fiorentina</t>
   </si>
   <si>
@@ -250,6 +262,18 @@
     <t>Monza</t>
   </si>
   <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
     <t>['22']</t>
   </si>
   <si>
@@ -262,6 +286,15 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['50', '75', '90+4']</t>
+  </si>
+  <si>
+    <t>['11', '44', '81']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -269,6 +302,12 @@
   </si>
   <si>
     <t>['30', '68']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -630,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP5"/>
+  <dimension ref="A1:BP9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,7 +904,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -886,10 +925,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1071,7 +1110,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1092,10 +1131,10 @@
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1277,7 +1316,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1298,10 +1337,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1483,7 +1522,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1504,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1664,6 +1703,830 @@
       </c>
       <c r="BP5">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7492148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45522.5625</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q6">
+        <v>2.63</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>4.75</v>
+      </c>
+      <c r="T6">
+        <v>1.5</v>
+      </c>
+      <c r="U6">
+        <v>2.5</v>
+      </c>
+      <c r="V6">
+        <v>3.4</v>
+      </c>
+      <c r="W6">
+        <v>1.3</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6">
+        <v>1.06</v>
+      </c>
+      <c r="Z6">
+        <v>1.77</v>
+      </c>
+      <c r="AA6">
+        <v>3.38</v>
+      </c>
+      <c r="AB6">
+        <v>4.17</v>
+      </c>
+      <c r="AC6">
+        <v>1.05</v>
+      </c>
+      <c r="AD6">
+        <v>7.2</v>
+      </c>
+      <c r="AE6">
+        <v>1.41</v>
+      </c>
+      <c r="AF6">
+        <v>2.67</v>
+      </c>
+      <c r="AG6">
+        <v>1.96</v>
+      </c>
+      <c r="AH6">
+        <v>1.76</v>
+      </c>
+      <c r="AI6">
+        <v>2.05</v>
+      </c>
+      <c r="AJ6">
+        <v>1.7</v>
+      </c>
+      <c r="AK6">
+        <v>1.24</v>
+      </c>
+      <c r="AL6">
+        <v>1.32</v>
+      </c>
+      <c r="AM6">
+        <v>1.85</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>8</v>
+      </c>
+      <c r="AV6">
+        <v>3</v>
+      </c>
+      <c r="AW6">
+        <v>8</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>16</v>
+      </c>
+      <c r="AZ6">
+        <v>4</v>
+      </c>
+      <c r="BA6">
+        <v>9</v>
+      </c>
+      <c r="BB6">
+        <v>5</v>
+      </c>
+      <c r="BC6">
+        <v>14</v>
+      </c>
+      <c r="BD6">
+        <v>1.28</v>
+      </c>
+      <c r="BE6">
+        <v>7.5</v>
+      </c>
+      <c r="BF6">
+        <v>4.1</v>
+      </c>
+      <c r="BG6">
+        <v>1.3</v>
+      </c>
+      <c r="BH6">
+        <v>3.15</v>
+      </c>
+      <c r="BI6">
+        <v>1.47</v>
+      </c>
+      <c r="BJ6">
+        <v>2.5</v>
+      </c>
+      <c r="BK6">
+        <v>1.85</v>
+      </c>
+      <c r="BL6">
+        <v>1.85</v>
+      </c>
+      <c r="BM6">
+        <v>2.37</v>
+      </c>
+      <c r="BN6">
+        <v>1.51</v>
+      </c>
+      <c r="BO6">
+        <v>3.2</v>
+      </c>
+      <c r="BP6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7492152</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45522.5625</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7">
+        <v>4.5</v>
+      </c>
+      <c r="R7">
+        <v>2.2</v>
+      </c>
+      <c r="S7">
+        <v>2.5</v>
+      </c>
+      <c r="T7">
+        <v>1.36</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>2.75</v>
+      </c>
+      <c r="W7">
+        <v>1.4</v>
+      </c>
+      <c r="X7">
+        <v>7</v>
+      </c>
+      <c r="Y7">
+        <v>1.1</v>
+      </c>
+      <c r="Z7">
+        <v>4.82</v>
+      </c>
+      <c r="AA7">
+        <v>3.87</v>
+      </c>
+      <c r="AB7">
+        <v>1.58</v>
+      </c>
+      <c r="AC7">
+        <v>1.01</v>
+      </c>
+      <c r="AD7">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE7">
+        <v>1.27</v>
+      </c>
+      <c r="AF7">
+        <v>3.38</v>
+      </c>
+      <c r="AG7">
+        <v>1.93</v>
+      </c>
+      <c r="AH7">
+        <v>1.95</v>
+      </c>
+      <c r="AI7">
+        <v>1.75</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7">
+        <v>1.93</v>
+      </c>
+      <c r="AL7">
+        <v>1.28</v>
+      </c>
+      <c r="AM7">
+        <v>1.25</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>5</v>
+      </c>
+      <c r="AV7">
+        <v>5</v>
+      </c>
+      <c r="AW7">
+        <v>5</v>
+      </c>
+      <c r="AX7">
+        <v>8</v>
+      </c>
+      <c r="AY7">
+        <v>10</v>
+      </c>
+      <c r="AZ7">
+        <v>13</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>5</v>
+      </c>
+      <c r="BC7">
+        <v>6</v>
+      </c>
+      <c r="BD7">
+        <v>3.15</v>
+      </c>
+      <c r="BE7">
+        <v>7</v>
+      </c>
+      <c r="BF7">
+        <v>1.43</v>
+      </c>
+      <c r="BG7">
+        <v>1.3</v>
+      </c>
+      <c r="BH7">
+        <v>3.1</v>
+      </c>
+      <c r="BI7">
+        <v>1.48</v>
+      </c>
+      <c r="BJ7">
+        <v>2.47</v>
+      </c>
+      <c r="BK7">
+        <v>1.85</v>
+      </c>
+      <c r="BL7">
+        <v>1.85</v>
+      </c>
+      <c r="BM7">
+        <v>2.37</v>
+      </c>
+      <c r="BN7">
+        <v>1.51</v>
+      </c>
+      <c r="BO7">
+        <v>3.3</v>
+      </c>
+      <c r="BP7">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7492154</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45522.65625</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>2.3</v>
+      </c>
+      <c r="S8">
+        <v>6.5</v>
+      </c>
+      <c r="T8">
+        <v>1.36</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>2.63</v>
+      </c>
+      <c r="W8">
+        <v>1.44</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>1.1</v>
+      </c>
+      <c r="Z8">
+        <v>1.38</v>
+      </c>
+      <c r="AA8">
+        <v>4.09</v>
+      </c>
+      <c r="AB8">
+        <v>7.62</v>
+      </c>
+      <c r="AC8">
+        <v>1.01</v>
+      </c>
+      <c r="AD8">
+        <v>9.9</v>
+      </c>
+      <c r="AE8">
+        <v>1.25</v>
+      </c>
+      <c r="AF8">
+        <v>3.52</v>
+      </c>
+      <c r="AG8">
+        <v>1.88</v>
+      </c>
+      <c r="AH8">
+        <v>1.98</v>
+      </c>
+      <c r="AI8">
+        <v>1.95</v>
+      </c>
+      <c r="AJ8">
+        <v>1.8</v>
+      </c>
+      <c r="AK8">
+        <v>1.11</v>
+      </c>
+      <c r="AL8">
+        <v>1.22</v>
+      </c>
+      <c r="AM8">
+        <v>2.7</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>7</v>
+      </c>
+      <c r="AV8">
+        <v>3</v>
+      </c>
+      <c r="AW8">
+        <v>5</v>
+      </c>
+      <c r="AX8">
+        <v>6</v>
+      </c>
+      <c r="AY8">
+        <v>12</v>
+      </c>
+      <c r="AZ8">
+        <v>9</v>
+      </c>
+      <c r="BA8">
+        <v>6</v>
+      </c>
+      <c r="BB8">
+        <v>3</v>
+      </c>
+      <c r="BC8">
+        <v>9</v>
+      </c>
+      <c r="BD8">
+        <v>1.29</v>
+      </c>
+      <c r="BE8">
+        <v>7.5</v>
+      </c>
+      <c r="BF8">
+        <v>3.95</v>
+      </c>
+      <c r="BG8">
+        <v>1.29</v>
+      </c>
+      <c r="BH8">
+        <v>3.2</v>
+      </c>
+      <c r="BI8">
+        <v>1.47</v>
+      </c>
+      <c r="BJ8">
+        <v>2.5</v>
+      </c>
+      <c r="BK8">
+        <v>1.85</v>
+      </c>
+      <c r="BL8">
+        <v>1.85</v>
+      </c>
+      <c r="BM8">
+        <v>2.37</v>
+      </c>
+      <c r="BN8">
+        <v>1.51</v>
+      </c>
+      <c r="BO8">
+        <v>3.2</v>
+      </c>
+      <c r="BP8">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7492149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45522.65625</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9">
+        <v>4.33</v>
+      </c>
+      <c r="R9">
+        <v>2.2</v>
+      </c>
+      <c r="S9">
+        <v>2.6</v>
+      </c>
+      <c r="T9">
+        <v>1.4</v>
+      </c>
+      <c r="U9">
+        <v>2.75</v>
+      </c>
+      <c r="V9">
+        <v>2.75</v>
+      </c>
+      <c r="W9">
+        <v>1.4</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <v>1.08</v>
+      </c>
+      <c r="Z9">
+        <v>4.34</v>
+      </c>
+      <c r="AA9">
+        <v>3.48</v>
+      </c>
+      <c r="AB9">
+        <v>1.72</v>
+      </c>
+      <c r="AC9">
+        <v>1.02</v>
+      </c>
+      <c r="AD9">
+        <v>8.6</v>
+      </c>
+      <c r="AE9">
+        <v>1.28</v>
+      </c>
+      <c r="AF9">
+        <v>3.3</v>
+      </c>
+      <c r="AG9">
+        <v>1.85</v>
+      </c>
+      <c r="AH9">
+        <v>1.85</v>
+      </c>
+      <c r="AI9">
+        <v>1.75</v>
+      </c>
+      <c r="AJ9">
+        <v>2</v>
+      </c>
+      <c r="AK9">
+        <v>1.87</v>
+      </c>
+      <c r="AL9">
+        <v>1.25</v>
+      </c>
+      <c r="AM9">
+        <v>1.28</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>3</v>
+      </c>
+      <c r="AV9">
+        <v>4</v>
+      </c>
+      <c r="AW9">
+        <v>8</v>
+      </c>
+      <c r="AX9">
+        <v>7</v>
+      </c>
+      <c r="AY9">
+        <v>11</v>
+      </c>
+      <c r="AZ9">
+        <v>11</v>
+      </c>
+      <c r="BA9">
+        <v>5</v>
+      </c>
+      <c r="BB9">
+        <v>3</v>
+      </c>
+      <c r="BC9">
+        <v>8</v>
+      </c>
+      <c r="BD9">
+        <v>2.15</v>
+      </c>
+      <c r="BE9">
+        <v>6.25</v>
+      </c>
+      <c r="BF9">
+        <v>1.89</v>
+      </c>
+      <c r="BG9">
+        <v>1.36</v>
+      </c>
+      <c r="BH9">
+        <v>2.8</v>
+      </c>
+      <c r="BI9">
+        <v>1.46</v>
+      </c>
+      <c r="BJ9">
+        <v>2.52</v>
+      </c>
+      <c r="BK9">
+        <v>1.85</v>
+      </c>
+      <c r="BL9">
+        <v>1.85</v>
+      </c>
+      <c r="BM9">
+        <v>2.37</v>
+      </c>
+      <c r="BN9">
+        <v>1.51</v>
+      </c>
+      <c r="BO9">
+        <v>3.2</v>
+      </c>
+      <c r="BP9">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -250,6 +250,12 @@
     <t>Cagliari</t>
   </si>
   <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
     <t>Fiorentina</t>
   </si>
   <si>
@@ -274,6 +280,12 @@
     <t>Roma</t>
   </si>
   <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
     <t>['22']</t>
   </si>
   <si>
@@ -295,6 +307,9 @@
     <t>['11', '44', '81']</t>
   </si>
   <si>
+    <t>['23', '45+1', '90+1']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -308,6 +323,9 @@
   </si>
   <si>
     <t>['3']</t>
+  </si>
+  <si>
+    <t>['35', '45', '57', '66']</t>
   </si>
 </sst>
 </file>
@@ -669,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP9"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +922,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -925,10 +943,10 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1110,7 +1128,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1131,10 +1149,10 @@
         <v>4</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1316,7 +1334,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1337,10 +1355,10 @@
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1522,7 +1540,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1543,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1728,7 +1746,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1749,10 +1767,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -1934,7 +1952,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1955,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q7">
         <v>4.5</v>
@@ -2140,7 +2158,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -2161,10 +2179,10 @@
         <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2346,7 +2364,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2367,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -2526,6 +2544,418 @@
         <v>3.2</v>
       </c>
       <c r="BP9">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7492155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45523.5625</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10">
+        <v>4.5</v>
+      </c>
+      <c r="R10">
+        <v>2.2</v>
+      </c>
+      <c r="S10">
+        <v>2.5</v>
+      </c>
+      <c r="T10">
+        <v>1.4</v>
+      </c>
+      <c r="U10">
+        <v>2.75</v>
+      </c>
+      <c r="V10">
+        <v>2.75</v>
+      </c>
+      <c r="W10">
+        <v>1.4</v>
+      </c>
+      <c r="X10">
+        <v>8</v>
+      </c>
+      <c r="Y10">
+        <v>1.08</v>
+      </c>
+      <c r="Z10">
+        <v>4.1</v>
+      </c>
+      <c r="AA10">
+        <v>3.7</v>
+      </c>
+      <c r="AB10">
+        <v>1.86</v>
+      </c>
+      <c r="AC10">
+        <v>1.01</v>
+      </c>
+      <c r="AD10">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE10">
+        <v>1.27</v>
+      </c>
+      <c r="AF10">
+        <v>3.38</v>
+      </c>
+      <c r="AG10">
+        <v>1.91</v>
+      </c>
+      <c r="AH10">
+        <v>1.9</v>
+      </c>
+      <c r="AI10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ10">
+        <v>1.95</v>
+      </c>
+      <c r="AK10">
+        <v>1.96</v>
+      </c>
+      <c r="AL10">
+        <v>1.25</v>
+      </c>
+      <c r="AM10">
+        <v>1.24</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>3</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>5</v>
+      </c>
+      <c r="AV10">
+        <v>7</v>
+      </c>
+      <c r="AW10">
+        <v>13</v>
+      </c>
+      <c r="AX10">
+        <v>4</v>
+      </c>
+      <c r="AY10">
+        <v>18</v>
+      </c>
+      <c r="AZ10">
+        <v>11</v>
+      </c>
+      <c r="BA10">
+        <v>5</v>
+      </c>
+      <c r="BB10">
+        <v>3</v>
+      </c>
+      <c r="BC10">
+        <v>8</v>
+      </c>
+      <c r="BD10">
+        <v>2.55</v>
+      </c>
+      <c r="BE10">
+        <v>6.5</v>
+      </c>
+      <c r="BF10">
+        <v>1.64</v>
+      </c>
+      <c r="BG10">
+        <v>1.3</v>
+      </c>
+      <c r="BH10">
+        <v>3.05</v>
+      </c>
+      <c r="BI10">
+        <v>1.48</v>
+      </c>
+      <c r="BJ10">
+        <v>2.47</v>
+      </c>
+      <c r="BK10">
+        <v>1.9</v>
+      </c>
+      <c r="BL10">
+        <v>1.8</v>
+      </c>
+      <c r="BM10">
+        <v>2.47</v>
+      </c>
+      <c r="BN10">
+        <v>1.48</v>
+      </c>
+      <c r="BO10">
+        <v>3.15</v>
+      </c>
+      <c r="BP10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7492153</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45523.65625</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11">
+        <v>1.83</v>
+      </c>
+      <c r="R11">
+        <v>2.4</v>
+      </c>
+      <c r="S11">
+        <v>8.5</v>
+      </c>
+      <c r="T11">
+        <v>1.36</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>2.63</v>
+      </c>
+      <c r="W11">
+        <v>1.44</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>1.1</v>
+      </c>
+      <c r="Z11">
+        <v>1.35</v>
+      </c>
+      <c r="AA11">
+        <v>5</v>
+      </c>
+      <c r="AB11">
+        <v>9</v>
+      </c>
+      <c r="AC11">
+        <v>1.04</v>
+      </c>
+      <c r="AD11">
+        <v>13</v>
+      </c>
+      <c r="AE11">
+        <v>1.28</v>
+      </c>
+      <c r="AF11">
+        <v>3.75</v>
+      </c>
+      <c r="AG11">
+        <v>1.81</v>
+      </c>
+      <c r="AH11">
+        <v>2.01</v>
+      </c>
+      <c r="AI11">
+        <v>2.2</v>
+      </c>
+      <c r="AJ11">
+        <v>1.62</v>
+      </c>
+      <c r="AK11">
+        <v>1.04</v>
+      </c>
+      <c r="AL11">
+        <v>1.14</v>
+      </c>
+      <c r="AM11">
+        <v>3.3</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>3</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>8</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>6</v>
+      </c>
+      <c r="AX11">
+        <v>2</v>
+      </c>
+      <c r="AY11">
+        <v>14</v>
+      </c>
+      <c r="AZ11">
+        <v>2</v>
+      </c>
+      <c r="BA11">
+        <v>3</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>3</v>
+      </c>
+      <c r="BD11">
+        <v>1.24</v>
+      </c>
+      <c r="BE11">
+        <v>8</v>
+      </c>
+      <c r="BF11">
+        <v>4.4</v>
+      </c>
+      <c r="BG11">
+        <v>1.36</v>
+      </c>
+      <c r="BH11">
+        <v>2.85</v>
+      </c>
+      <c r="BI11">
+        <v>1.47</v>
+      </c>
+      <c r="BJ11">
+        <v>2.5</v>
+      </c>
+      <c r="BK11">
+        <v>1.85</v>
+      </c>
+      <c r="BL11">
+        <v>1.85</v>
+      </c>
+      <c r="BM11">
+        <v>2.37</v>
+      </c>
+      <c r="BN11">
+        <v>1.51</v>
+      </c>
+      <c r="BO11">
+        <v>3.2</v>
+      </c>
+      <c r="BP11">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -256,21 +256,21 @@
     <t>Juventus</t>
   </si>
   <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Inter Milan</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
     <t>Fiorentina</t>
   </si>
   <si>
-    <t>Inter Milan</t>
-  </si>
-  <si>
     <t>Torino</t>
   </si>
   <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
     <t>Napoli</t>
   </si>
   <si>
@@ -310,6 +310,15 @@
     <t>['23', '45+1', '90+1']</t>
   </si>
   <si>
+    <t>['5', '49']</t>
+  </si>
+  <si>
+    <t>['2', '77']</t>
+  </si>
+  <si>
+    <t>['5', '70']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -326,6 +335,15 @@
   </si>
   <si>
     <t>['35', '45', '57', '66']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['45+7']</t>
   </si>
 </sst>
 </file>
@@ -687,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +940,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -946,7 +964,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1024,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1152,7 +1170,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1334,7 +1352,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1358,7 +1376,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1540,7 +1558,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1746,7 +1764,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1770,7 +1788,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2182,7 +2200,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2594,7 +2612,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -2957,6 +2975,830 @@
       </c>
       <c r="BP11">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7492167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45528.5625</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12">
+        <v>3.75</v>
+      </c>
+      <c r="R12">
+        <v>1.91</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>1.53</v>
+      </c>
+      <c r="U12">
+        <v>2.38</v>
+      </c>
+      <c r="V12">
+        <v>3.3</v>
+      </c>
+      <c r="W12">
+        <v>1.28</v>
+      </c>
+      <c r="X12">
+        <v>8</v>
+      </c>
+      <c r="Y12">
+        <v>1.05</v>
+      </c>
+      <c r="Z12">
+        <v>3.12</v>
+      </c>
+      <c r="AA12">
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <v>2.37</v>
+      </c>
+      <c r="AC12">
+        <v>1.1</v>
+      </c>
+      <c r="AD12">
+        <v>6.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.45</v>
+      </c>
+      <c r="AF12">
+        <v>2.7</v>
+      </c>
+      <c r="AG12">
+        <v>2.31</v>
+      </c>
+      <c r="AH12">
+        <v>1.62</v>
+      </c>
+      <c r="AI12">
+        <v>1.95</v>
+      </c>
+      <c r="AJ12">
+        <v>1.77</v>
+      </c>
+      <c r="AK12">
+        <v>1.55</v>
+      </c>
+      <c r="AL12">
+        <v>1.3</v>
+      </c>
+      <c r="AM12">
+        <v>1.33</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>4</v>
+      </c>
+      <c r="AV12">
+        <v>6</v>
+      </c>
+      <c r="AW12">
+        <v>4</v>
+      </c>
+      <c r="AX12">
+        <v>11</v>
+      </c>
+      <c r="AY12">
+        <v>8</v>
+      </c>
+      <c r="AZ12">
+        <v>17</v>
+      </c>
+      <c r="BA12">
+        <v>4</v>
+      </c>
+      <c r="BB12">
+        <v>13</v>
+      </c>
+      <c r="BC12">
+        <v>17</v>
+      </c>
+      <c r="BD12">
+        <v>2.65</v>
+      </c>
+      <c r="BE12">
+        <v>6.75</v>
+      </c>
+      <c r="BF12">
+        <v>1.56</v>
+      </c>
+      <c r="BG12">
+        <v>1.29</v>
+      </c>
+      <c r="BH12">
+        <v>3.15</v>
+      </c>
+      <c r="BI12">
+        <v>1.5</v>
+      </c>
+      <c r="BJ12">
+        <v>2.35</v>
+      </c>
+      <c r="BK12">
+        <v>1.82</v>
+      </c>
+      <c r="BL12">
+        <v>1.86</v>
+      </c>
+      <c r="BM12">
+        <v>2.3</v>
+      </c>
+      <c r="BN12">
+        <v>1.54</v>
+      </c>
+      <c r="BO12">
+        <v>2.95</v>
+      </c>
+      <c r="BP12">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7492164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45528.5625</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13">
+        <v>4.75</v>
+      </c>
+      <c r="R13">
+        <v>2.3</v>
+      </c>
+      <c r="S13">
+        <v>2.3</v>
+      </c>
+      <c r="T13">
+        <v>1.33</v>
+      </c>
+      <c r="U13">
+        <v>3.3</v>
+      </c>
+      <c r="V13">
+        <v>2.55</v>
+      </c>
+      <c r="W13">
+        <v>1.5</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>1.12</v>
+      </c>
+      <c r="Z13">
+        <v>4.04</v>
+      </c>
+      <c r="AA13">
+        <v>3.71</v>
+      </c>
+      <c r="AB13">
+        <v>1.77</v>
+      </c>
+      <c r="AC13">
+        <v>1.03</v>
+      </c>
+      <c r="AD13">
+        <v>15</v>
+      </c>
+      <c r="AE13">
+        <v>1.22</v>
+      </c>
+      <c r="AF13">
+        <v>4.33</v>
+      </c>
+      <c r="AG13">
+        <v>1.8</v>
+      </c>
+      <c r="AH13">
+        <v>2.01</v>
+      </c>
+      <c r="AI13">
+        <v>1.68</v>
+      </c>
+      <c r="AJ13">
+        <v>2.15</v>
+      </c>
+      <c r="AK13">
+        <v>2.15</v>
+      </c>
+      <c r="AL13">
+        <v>1.22</v>
+      </c>
+      <c r="AM13">
+        <v>1.2</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>2</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>1.45</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1.45</v>
+      </c>
+      <c r="AU13">
+        <v>6</v>
+      </c>
+      <c r="AV13">
+        <v>6</v>
+      </c>
+      <c r="AW13">
+        <v>3</v>
+      </c>
+      <c r="AX13">
+        <v>9</v>
+      </c>
+      <c r="AY13">
+        <v>9</v>
+      </c>
+      <c r="AZ13">
+        <v>15</v>
+      </c>
+      <c r="BA13">
+        <v>3</v>
+      </c>
+      <c r="BB13">
+        <v>9</v>
+      </c>
+      <c r="BC13">
+        <v>12</v>
+      </c>
+      <c r="BD13">
+        <v>2.48</v>
+      </c>
+      <c r="BE13">
+        <v>6.5</v>
+      </c>
+      <c r="BF13">
+        <v>1.65</v>
+      </c>
+      <c r="BG13">
+        <v>1.32</v>
+      </c>
+      <c r="BH13">
+        <v>3</v>
+      </c>
+      <c r="BI13">
+        <v>1.55</v>
+      </c>
+      <c r="BJ13">
+        <v>2.25</v>
+      </c>
+      <c r="BK13">
+        <v>1.91</v>
+      </c>
+      <c r="BL13">
+        <v>1.77</v>
+      </c>
+      <c r="BM13">
+        <v>2.4</v>
+      </c>
+      <c r="BN13">
+        <v>1.49</v>
+      </c>
+      <c r="BO13">
+        <v>3.15</v>
+      </c>
+      <c r="BP13">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7492161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45528.65625</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14">
+        <v>1.57</v>
+      </c>
+      <c r="R14">
+        <v>2.62</v>
+      </c>
+      <c r="S14">
+        <v>9</v>
+      </c>
+      <c r="T14">
+        <v>1.28</v>
+      </c>
+      <c r="U14">
+        <v>3.4</v>
+      </c>
+      <c r="V14">
+        <v>2.3</v>
+      </c>
+      <c r="W14">
+        <v>1.55</v>
+      </c>
+      <c r="X14">
+        <v>5.25</v>
+      </c>
+      <c r="Y14">
+        <v>1.12</v>
+      </c>
+      <c r="Z14">
+        <v>1.22</v>
+      </c>
+      <c r="AA14">
+        <v>5.81</v>
+      </c>
+      <c r="AB14">
+        <v>10.11</v>
+      </c>
+      <c r="AC14">
+        <v>1.03</v>
+      </c>
+      <c r="AD14">
+        <v>11</v>
+      </c>
+      <c r="AE14">
+        <v>1.18</v>
+      </c>
+      <c r="AF14">
+        <v>4.75</v>
+      </c>
+      <c r="AG14">
+        <v>1.62</v>
+      </c>
+      <c r="AH14">
+        <v>2.31</v>
+      </c>
+      <c r="AI14">
+        <v>2.3</v>
+      </c>
+      <c r="AJ14">
+        <v>1.55</v>
+      </c>
+      <c r="AK14">
+        <v>1.04</v>
+      </c>
+      <c r="AL14">
+        <v>1.1</v>
+      </c>
+      <c r="AM14">
+        <v>4.2</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>3</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>4</v>
+      </c>
+      <c r="AV14">
+        <v>5</v>
+      </c>
+      <c r="AW14">
+        <v>5</v>
+      </c>
+      <c r="AX14">
+        <v>4</v>
+      </c>
+      <c r="AY14">
+        <v>9</v>
+      </c>
+      <c r="AZ14">
+        <v>9</v>
+      </c>
+      <c r="BA14">
+        <v>10</v>
+      </c>
+      <c r="BB14">
+        <v>6</v>
+      </c>
+      <c r="BC14">
+        <v>16</v>
+      </c>
+      <c r="BD14">
+        <v>1.18</v>
+      </c>
+      <c r="BE14">
+        <v>9</v>
+      </c>
+      <c r="BF14">
+        <v>5.1</v>
+      </c>
+      <c r="BG14">
+        <v>1.23</v>
+      </c>
+      <c r="BH14">
+        <v>3.65</v>
+      </c>
+      <c r="BI14">
+        <v>1.41</v>
+      </c>
+      <c r="BJ14">
+        <v>2.65</v>
+      </c>
+      <c r="BK14">
+        <v>1.67</v>
+      </c>
+      <c r="BL14">
+        <v>2.04</v>
+      </c>
+      <c r="BM14">
+        <v>2.05</v>
+      </c>
+      <c r="BN14">
+        <v>1.67</v>
+      </c>
+      <c r="BO14">
+        <v>2.55</v>
+      </c>
+      <c r="BP14">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7492162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45528.65625</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15">
+        <v>3.3</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>3.6</v>
+      </c>
+      <c r="T15">
+        <v>1.5</v>
+      </c>
+      <c r="U15">
+        <v>2.6</v>
+      </c>
+      <c r="V15">
+        <v>3.25</v>
+      </c>
+      <c r="W15">
+        <v>1.33</v>
+      </c>
+      <c r="X15">
+        <v>8.5</v>
+      </c>
+      <c r="Y15">
+        <v>1.06</v>
+      </c>
+      <c r="Z15">
+        <v>2.59</v>
+      </c>
+      <c r="AA15">
+        <v>3.05</v>
+      </c>
+      <c r="AB15">
+        <v>2.77</v>
+      </c>
+      <c r="AC15">
+        <v>1.08</v>
+      </c>
+      <c r="AD15">
+        <v>8.5</v>
+      </c>
+      <c r="AE15">
+        <v>1.4</v>
+      </c>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
+        <v>2.26</v>
+      </c>
+      <c r="AH15">
+        <v>1.64</v>
+      </c>
+      <c r="AI15">
+        <v>1.88</v>
+      </c>
+      <c r="AJ15">
+        <v>1.9</v>
+      </c>
+      <c r="AK15">
+        <v>1.44</v>
+      </c>
+      <c r="AL15">
+        <v>1.32</v>
+      </c>
+      <c r="AM15">
+        <v>1.52</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>3</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>3</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>6</v>
+      </c>
+      <c r="AX15">
+        <v>7</v>
+      </c>
+      <c r="AY15">
+        <v>9</v>
+      </c>
+      <c r="AZ15">
+        <v>9</v>
+      </c>
+      <c r="BA15">
+        <v>8</v>
+      </c>
+      <c r="BB15">
+        <v>3</v>
+      </c>
+      <c r="BC15">
+        <v>11</v>
+      </c>
+      <c r="BD15">
+        <v>1.67</v>
+      </c>
+      <c r="BE15">
+        <v>6.5</v>
+      </c>
+      <c r="BF15">
+        <v>2.48</v>
+      </c>
+      <c r="BG15">
+        <v>1.37</v>
+      </c>
+      <c r="BH15">
+        <v>2.8</v>
+      </c>
+      <c r="BI15">
+        <v>1.65</v>
+      </c>
+      <c r="BJ15">
+        <v>2.08</v>
+      </c>
+      <c r="BK15">
+        <v>2.04</v>
+      </c>
+      <c r="BL15">
+        <v>1.68</v>
+      </c>
+      <c r="BM15">
+        <v>2.63</v>
+      </c>
+      <c r="BN15">
+        <v>1.42</v>
+      </c>
+      <c r="BO15">
+        <v>3.45</v>
+      </c>
+      <c r="BP15">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -271,15 +271,15 @@
     <t>Torino</t>
   </si>
   <si>
+    <t>Roma</t>
+  </si>
+  <si>
     <t>Napoli</t>
   </si>
   <si>
     <t>Venezia</t>
   </si>
   <si>
-    <t>Roma</t>
-  </si>
-  <si>
     <t>Atalanta</t>
   </si>
   <si>
@@ -319,6 +319,15 @@
     <t>['5', '70']</t>
   </si>
   <si>
+    <t>['31', '49']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['45+2', '75', '90+4']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -344,6 +353,12 @@
   </si>
   <si>
     <t>['45+7']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['45', '61']</t>
   </si>
 </sst>
 </file>
@@ -705,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,7 +979,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1170,7 +1185,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1376,7 +1391,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1788,7 +1803,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -1970,7 +1985,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2176,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -2200,7 +2215,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2281,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2382,7 +2397,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2612,7 +2627,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -2693,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3024,7 +3039,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3230,7 +3245,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3642,7 +3657,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -3799,6 +3814,830 @@
       </c>
       <c r="BP15">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7492159</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45529.5625</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16">
+        <v>1.95</v>
+      </c>
+      <c r="R16">
+        <v>2.38</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16">
+        <v>1.36</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>2.63</v>
+      </c>
+      <c r="W16">
+        <v>1.44</v>
+      </c>
+      <c r="X16">
+        <v>7</v>
+      </c>
+      <c r="Y16">
+        <v>1.1</v>
+      </c>
+      <c r="Z16">
+        <v>1.44</v>
+      </c>
+      <c r="AA16">
+        <v>4.6</v>
+      </c>
+      <c r="AB16">
+        <v>6.75</v>
+      </c>
+      <c r="AC16">
+        <v>1.04</v>
+      </c>
+      <c r="AD16">
+        <v>13.75</v>
+      </c>
+      <c r="AE16">
+        <v>1.27</v>
+      </c>
+      <c r="AF16">
+        <v>3.83</v>
+      </c>
+      <c r="AG16">
+        <v>1.83</v>
+      </c>
+      <c r="AH16">
+        <v>1.95</v>
+      </c>
+      <c r="AI16">
+        <v>2.05</v>
+      </c>
+      <c r="AJ16">
+        <v>1.7</v>
+      </c>
+      <c r="AK16">
+        <v>1.07</v>
+      </c>
+      <c r="AL16">
+        <v>1.18</v>
+      </c>
+      <c r="AM16">
+        <v>2.88</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>1</v>
+      </c>
+      <c r="AQ16">
+        <v>0.5</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT16">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU16">
+        <v>9</v>
+      </c>
+      <c r="AV16">
+        <v>5</v>
+      </c>
+      <c r="AW16">
+        <v>4</v>
+      </c>
+      <c r="AX16">
+        <v>2</v>
+      </c>
+      <c r="AY16">
+        <v>13</v>
+      </c>
+      <c r="AZ16">
+        <v>7</v>
+      </c>
+      <c r="BA16">
+        <v>7</v>
+      </c>
+      <c r="BB16">
+        <v>3</v>
+      </c>
+      <c r="BC16">
+        <v>10</v>
+      </c>
+      <c r="BD16">
+        <v>1.13</v>
+      </c>
+      <c r="BE16">
+        <v>10</v>
+      </c>
+      <c r="BF16">
+        <v>6.1</v>
+      </c>
+      <c r="BG16">
+        <v>1.27</v>
+      </c>
+      <c r="BH16">
+        <v>3.3</v>
+      </c>
+      <c r="BI16">
+        <v>1.47</v>
+      </c>
+      <c r="BJ16">
+        <v>2.48</v>
+      </c>
+      <c r="BK16">
+        <v>1.74</v>
+      </c>
+      <c r="BL16">
+        <v>1.95</v>
+      </c>
+      <c r="BM16">
+        <v>2.15</v>
+      </c>
+      <c r="BN16">
+        <v>1.61</v>
+      </c>
+      <c r="BO16">
+        <v>2.7</v>
+      </c>
+      <c r="BP16">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7492166</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45529.5625</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17">
+        <v>3.6</v>
+      </c>
+      <c r="R17">
+        <v>2.1</v>
+      </c>
+      <c r="S17">
+        <v>3.1</v>
+      </c>
+      <c r="T17">
+        <v>1.44</v>
+      </c>
+      <c r="U17">
+        <v>2.63</v>
+      </c>
+      <c r="V17">
+        <v>3.25</v>
+      </c>
+      <c r="W17">
+        <v>1.33</v>
+      </c>
+      <c r="X17">
+        <v>9</v>
+      </c>
+      <c r="Y17">
+        <v>1.07</v>
+      </c>
+      <c r="Z17">
+        <v>2.8</v>
+      </c>
+      <c r="AA17">
+        <v>3.1</v>
+      </c>
+      <c r="AB17">
+        <v>2.65</v>
+      </c>
+      <c r="AC17">
+        <v>1.09</v>
+      </c>
+      <c r="AD17">
+        <v>10</v>
+      </c>
+      <c r="AE17">
+        <v>1.36</v>
+      </c>
+      <c r="AF17">
+        <v>3.2</v>
+      </c>
+      <c r="AG17">
+        <v>2.1</v>
+      </c>
+      <c r="AH17">
+        <v>1.7</v>
+      </c>
+      <c r="AI17">
+        <v>1.8</v>
+      </c>
+      <c r="AJ17">
+        <v>1.95</v>
+      </c>
+      <c r="AK17">
+        <v>1.58</v>
+      </c>
+      <c r="AL17">
+        <v>1.3</v>
+      </c>
+      <c r="AM17">
+        <v>1.38</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>3</v>
+      </c>
+      <c r="AP17">
+        <v>3</v>
+      </c>
+      <c r="AQ17">
+        <v>1.5</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>1.42</v>
+      </c>
+      <c r="AT17">
+        <v>1.42</v>
+      </c>
+      <c r="AU17">
+        <v>8</v>
+      </c>
+      <c r="AV17">
+        <v>10</v>
+      </c>
+      <c r="AW17">
+        <v>4</v>
+      </c>
+      <c r="AX17">
+        <v>12</v>
+      </c>
+      <c r="AY17">
+        <v>12</v>
+      </c>
+      <c r="AZ17">
+        <v>22</v>
+      </c>
+      <c r="BA17">
+        <v>4</v>
+      </c>
+      <c r="BB17">
+        <v>6</v>
+      </c>
+      <c r="BC17">
+        <v>10</v>
+      </c>
+      <c r="BD17">
+        <v>2.1</v>
+      </c>
+      <c r="BE17">
+        <v>6.4</v>
+      </c>
+      <c r="BF17">
+        <v>1.9</v>
+      </c>
+      <c r="BG17">
+        <v>1.36</v>
+      </c>
+      <c r="BH17">
+        <v>2.8</v>
+      </c>
+      <c r="BI17">
+        <v>1.62</v>
+      </c>
+      <c r="BJ17">
+        <v>2.14</v>
+      </c>
+      <c r="BK17">
+        <v>2</v>
+      </c>
+      <c r="BL17">
+        <v>1.71</v>
+      </c>
+      <c r="BM17">
+        <v>2.55</v>
+      </c>
+      <c r="BN17">
+        <v>1.44</v>
+      </c>
+      <c r="BO17">
+        <v>3.4</v>
+      </c>
+      <c r="BP17">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7492165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45529.65625</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q18">
+        <v>2.05</v>
+      </c>
+      <c r="R18">
+        <v>2.3</v>
+      </c>
+      <c r="S18">
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <v>1.36</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>2.75</v>
+      </c>
+      <c r="W18">
+        <v>1.4</v>
+      </c>
+      <c r="X18">
+        <v>7</v>
+      </c>
+      <c r="Y18">
+        <v>1.1</v>
+      </c>
+      <c r="Z18">
+        <v>1.61</v>
+      </c>
+      <c r="AA18">
+        <v>3.9</v>
+      </c>
+      <c r="AB18">
+        <v>5.5</v>
+      </c>
+      <c r="AC18">
+        <v>1.05</v>
+      </c>
+      <c r="AD18">
+        <v>12.5</v>
+      </c>
+      <c r="AE18">
+        <v>1.29</v>
+      </c>
+      <c r="AF18">
+        <v>3.65</v>
+      </c>
+      <c r="AG18">
+        <v>1.88</v>
+      </c>
+      <c r="AH18">
+        <v>1.88</v>
+      </c>
+      <c r="AI18">
+        <v>2</v>
+      </c>
+      <c r="AJ18">
+        <v>1.75</v>
+      </c>
+      <c r="AK18">
+        <v>1.14</v>
+      </c>
+      <c r="AL18">
+        <v>1.23</v>
+      </c>
+      <c r="AM18">
+        <v>2.5</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>8</v>
+      </c>
+      <c r="AV18">
+        <v>5</v>
+      </c>
+      <c r="AW18">
+        <v>10</v>
+      </c>
+      <c r="AX18">
+        <v>6</v>
+      </c>
+      <c r="AY18">
+        <v>18</v>
+      </c>
+      <c r="AZ18">
+        <v>11</v>
+      </c>
+      <c r="BA18">
+        <v>8</v>
+      </c>
+      <c r="BB18">
+        <v>5</v>
+      </c>
+      <c r="BC18">
+        <v>13</v>
+      </c>
+      <c r="BD18">
+        <v>1.46</v>
+      </c>
+      <c r="BE18">
+        <v>7</v>
+      </c>
+      <c r="BF18">
+        <v>3.05</v>
+      </c>
+      <c r="BG18">
+        <v>1.29</v>
+      </c>
+      <c r="BH18">
+        <v>3.2</v>
+      </c>
+      <c r="BI18">
+        <v>1.5</v>
+      </c>
+      <c r="BJ18">
+        <v>2.4</v>
+      </c>
+      <c r="BK18">
+        <v>1.8</v>
+      </c>
+      <c r="BL18">
+        <v>1.88</v>
+      </c>
+      <c r="BM18">
+        <v>2.23</v>
+      </c>
+      <c r="BN18">
+        <v>1.56</v>
+      </c>
+      <c r="BO18">
+        <v>2.9</v>
+      </c>
+      <c r="BP18">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7492163</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45529.65625</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19">
+        <v>2.6</v>
+      </c>
+      <c r="R19">
+        <v>2.2</v>
+      </c>
+      <c r="S19">
+        <v>4.33</v>
+      </c>
+      <c r="T19">
+        <v>1.4</v>
+      </c>
+      <c r="U19">
+        <v>2.75</v>
+      </c>
+      <c r="V19">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>1.36</v>
+      </c>
+      <c r="X19">
+        <v>8</v>
+      </c>
+      <c r="Y19">
+        <v>1.08</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <v>3.4</v>
+      </c>
+      <c r="AB19">
+        <v>3.75</v>
+      </c>
+      <c r="AC19">
+        <v>1.02</v>
+      </c>
+      <c r="AD19">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE19">
+        <v>1.29</v>
+      </c>
+      <c r="AF19">
+        <v>3.24</v>
+      </c>
+      <c r="AG19">
+        <v>2</v>
+      </c>
+      <c r="AH19">
+        <v>1.8</v>
+      </c>
+      <c r="AI19">
+        <v>1.8</v>
+      </c>
+      <c r="AJ19">
+        <v>1.95</v>
+      </c>
+      <c r="AK19">
+        <v>1.24</v>
+      </c>
+      <c r="AL19">
+        <v>1.3</v>
+      </c>
+      <c r="AM19">
+        <v>1.92</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>6</v>
+      </c>
+      <c r="AV19">
+        <v>3</v>
+      </c>
+      <c r="AW19">
+        <v>4</v>
+      </c>
+      <c r="AX19">
+        <v>4</v>
+      </c>
+      <c r="AY19">
+        <v>10</v>
+      </c>
+      <c r="AZ19">
+        <v>7</v>
+      </c>
+      <c r="BA19">
+        <v>7</v>
+      </c>
+      <c r="BB19">
+        <v>5</v>
+      </c>
+      <c r="BC19">
+        <v>12</v>
+      </c>
+      <c r="BD19">
+        <v>1.45</v>
+      </c>
+      <c r="BE19">
+        <v>7</v>
+      </c>
+      <c r="BF19">
+        <v>3.05</v>
+      </c>
+      <c r="BG19">
+        <v>1.26</v>
+      </c>
+      <c r="BH19">
+        <v>3.4</v>
+      </c>
+      <c r="BI19">
+        <v>1.46</v>
+      </c>
+      <c r="BJ19">
+        <v>2.5</v>
+      </c>
+      <c r="BK19">
+        <v>1.75</v>
+      </c>
+      <c r="BL19">
+        <v>1.95</v>
+      </c>
+      <c r="BM19">
+        <v>2.18</v>
+      </c>
+      <c r="BN19">
+        <v>1.58</v>
+      </c>
+      <c r="BO19">
+        <v>2.8</v>
+      </c>
+      <c r="BP19">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -319,7 +319,7 @@
     <t>['5', '70']</t>
   </si>
   <si>
-    <t>['31', '49']</t>
+    <t>['31', '50']</t>
   </si>
   <si>
     <t>['80']</t>
@@ -328,6 +328,9 @@
     <t>['45+2', '75', '90+4']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -359,6 +362,12 @@
   </si>
   <si>
     <t>['45', '61']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['28', '39', '53']</t>
   </si>
 </sst>
 </file>
@@ -720,7 +729,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,7 +988,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1185,7 +1194,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1391,7 +1400,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1803,7 +1812,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2087,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2215,7 +2224,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2627,7 +2636,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -2914,7 +2923,7 @@
         <v>3</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3039,7 +3048,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3245,7 +3254,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3657,7 +3666,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4069,7 +4078,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17">
         <v>3.6</v>
@@ -4275,7 +4284,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4638,6 +4647,418 @@
       </c>
       <c r="BP19">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7492158</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45530.5625</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q20">
+        <v>2.75</v>
+      </c>
+      <c r="R20">
+        <v>2.2</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>1.4</v>
+      </c>
+      <c r="U20">
+        <v>2.75</v>
+      </c>
+      <c r="V20">
+        <v>2.75</v>
+      </c>
+      <c r="W20">
+        <v>1.4</v>
+      </c>
+      <c r="X20">
+        <v>8</v>
+      </c>
+      <c r="Y20">
+        <v>1.08</v>
+      </c>
+      <c r="Z20">
+        <v>2.05</v>
+      </c>
+      <c r="AA20">
+        <v>3.45</v>
+      </c>
+      <c r="AB20">
+        <v>3.5</v>
+      </c>
+      <c r="AC20">
+        <v>1.07</v>
+      </c>
+      <c r="AD20">
+        <v>11</v>
+      </c>
+      <c r="AE20">
+        <v>1.32</v>
+      </c>
+      <c r="AF20">
+        <v>3.4</v>
+      </c>
+      <c r="AG20">
+        <v>1.94</v>
+      </c>
+      <c r="AH20">
+        <v>1.79</v>
+      </c>
+      <c r="AI20">
+        <v>1.75</v>
+      </c>
+      <c r="AJ20">
+        <v>2</v>
+      </c>
+      <c r="AK20">
+        <v>1.32</v>
+      </c>
+      <c r="AL20">
+        <v>1.26</v>
+      </c>
+      <c r="AM20">
+        <v>1.78</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>0.5</v>
+      </c>
+      <c r="AR20">
+        <v>1.16</v>
+      </c>
+      <c r="AS20">
+        <v>0.32</v>
+      </c>
+      <c r="AT20">
+        <v>1.48</v>
+      </c>
+      <c r="AU20">
+        <v>6</v>
+      </c>
+      <c r="AV20">
+        <v>5</v>
+      </c>
+      <c r="AW20">
+        <v>4</v>
+      </c>
+      <c r="AX20">
+        <v>4</v>
+      </c>
+      <c r="AY20">
+        <v>10</v>
+      </c>
+      <c r="AZ20">
+        <v>9</v>
+      </c>
+      <c r="BA20">
+        <v>5</v>
+      </c>
+      <c r="BB20">
+        <v>6</v>
+      </c>
+      <c r="BC20">
+        <v>11</v>
+      </c>
+      <c r="BD20">
+        <v>1.54</v>
+      </c>
+      <c r="BE20">
+        <v>6.75</v>
+      </c>
+      <c r="BF20">
+        <v>2.7</v>
+      </c>
+      <c r="BG20">
+        <v>1.29</v>
+      </c>
+      <c r="BH20">
+        <v>3.15</v>
+      </c>
+      <c r="BI20">
+        <v>1.5</v>
+      </c>
+      <c r="BJ20">
+        <v>2.35</v>
+      </c>
+      <c r="BK20">
+        <v>1.83</v>
+      </c>
+      <c r="BL20">
+        <v>1.85</v>
+      </c>
+      <c r="BM20">
+        <v>2.3</v>
+      </c>
+      <c r="BN20">
+        <v>1.53</v>
+      </c>
+      <c r="BO20">
+        <v>2.9</v>
+      </c>
+      <c r="BP20">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7492160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45530.65625</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21">
+        <v>5.5</v>
+      </c>
+      <c r="R21">
+        <v>2.2</v>
+      </c>
+      <c r="S21">
+        <v>2.3</v>
+      </c>
+      <c r="T21">
+        <v>1.44</v>
+      </c>
+      <c r="U21">
+        <v>2.63</v>
+      </c>
+      <c r="V21">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>1.36</v>
+      </c>
+      <c r="X21">
+        <v>9</v>
+      </c>
+      <c r="Y21">
+        <v>1.07</v>
+      </c>
+      <c r="Z21">
+        <v>4</v>
+      </c>
+      <c r="AA21">
+        <v>3.4</v>
+      </c>
+      <c r="AB21">
+        <v>1.95</v>
+      </c>
+      <c r="AC21">
+        <v>1.08</v>
+      </c>
+      <c r="AD21">
+        <v>10</v>
+      </c>
+      <c r="AE21">
+        <v>1.32</v>
+      </c>
+      <c r="AF21">
+        <v>3.06</v>
+      </c>
+      <c r="AG21">
+        <v>2.1</v>
+      </c>
+      <c r="AH21">
+        <v>1.67</v>
+      </c>
+      <c r="AI21">
+        <v>2</v>
+      </c>
+      <c r="AJ21">
+        <v>1.75</v>
+      </c>
+      <c r="AK21">
+        <v>2.14</v>
+      </c>
+      <c r="AL21">
+        <v>1.28</v>
+      </c>
+      <c r="AM21">
+        <v>1.18</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>1.5</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>1.14</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>1.14</v>
+      </c>
+      <c r="AU21">
+        <v>2</v>
+      </c>
+      <c r="AV21">
+        <v>6</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <v>3</v>
+      </c>
+      <c r="AZ21">
+        <v>8</v>
+      </c>
+      <c r="BA21">
+        <v>4</v>
+      </c>
+      <c r="BB21">
+        <v>1</v>
+      </c>
+      <c r="BC21">
+        <v>5</v>
+      </c>
+      <c r="BD21">
+        <v>2.65</v>
+      </c>
+      <c r="BE21">
+        <v>6.75</v>
+      </c>
+      <c r="BF21">
+        <v>1.58</v>
+      </c>
+      <c r="BG21">
+        <v>1.3</v>
+      </c>
+      <c r="BH21">
+        <v>3.05</v>
+      </c>
+      <c r="BI21">
+        <v>1.53</v>
+      </c>
+      <c r="BJ21">
+        <v>2.3</v>
+      </c>
+      <c r="BK21">
+        <v>1.88</v>
+      </c>
+      <c r="BL21">
+        <v>1.81</v>
+      </c>
+      <c r="BM21">
+        <v>2.35</v>
+      </c>
+      <c r="BN21">
+        <v>1.5</v>
+      </c>
+      <c r="BO21">
+        <v>3.05</v>
+      </c>
+      <c r="BP21">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="120">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,9 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['3', '10', '47', '56']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -368,6 +371,9 @@
   </si>
   <si>
     <t>['28', '39', '53']</t>
+  </si>
+  <si>
+    <t>['86']</t>
   </si>
 </sst>
 </file>
@@ -729,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -988,7 +994,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1194,7 +1200,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1400,7 +1406,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1481,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1812,7 +1818,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2224,7 +2230,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2636,7 +2642,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -2717,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3048,7 +3054,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3254,7 +3260,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3666,7 +3672,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4078,7 +4084,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17">
         <v>3.6</v>
@@ -4159,7 +4165,7 @@
         <v>3</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4284,7 +4290,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4696,7 +4702,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4902,7 +4908,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5059,6 +5065,418 @@
       </c>
       <c r="BP21">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7492177</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45534.5625</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22">
+        <v>4.33</v>
+      </c>
+      <c r="R22">
+        <v>2.1</v>
+      </c>
+      <c r="S22">
+        <v>2.75</v>
+      </c>
+      <c r="T22">
+        <v>1.44</v>
+      </c>
+      <c r="U22">
+        <v>2.63</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>1.36</v>
+      </c>
+      <c r="X22">
+        <v>9</v>
+      </c>
+      <c r="Y22">
+        <v>1.07</v>
+      </c>
+      <c r="Z22">
+        <v>3.75</v>
+      </c>
+      <c r="AA22">
+        <v>3.45</v>
+      </c>
+      <c r="AB22">
+        <v>2.05</v>
+      </c>
+      <c r="AC22">
+        <v>1.06</v>
+      </c>
+      <c r="AD22">
+        <v>10</v>
+      </c>
+      <c r="AE22">
+        <v>1.33</v>
+      </c>
+      <c r="AF22">
+        <v>3.3</v>
+      </c>
+      <c r="AG22">
+        <v>2</v>
+      </c>
+      <c r="AH22">
+        <v>1.81</v>
+      </c>
+      <c r="AI22">
+        <v>1.91</v>
+      </c>
+      <c r="AJ22">
+        <v>1.91</v>
+      </c>
+      <c r="AK22">
+        <v>1.83</v>
+      </c>
+      <c r="AL22">
+        <v>1.28</v>
+      </c>
+      <c r="AM22">
+        <v>1.28</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>2</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0.85</v>
+      </c>
+      <c r="AT22">
+        <v>0.85</v>
+      </c>
+      <c r="AU22">
+        <v>5</v>
+      </c>
+      <c r="AV22">
+        <v>7</v>
+      </c>
+      <c r="AW22">
+        <v>6</v>
+      </c>
+      <c r="AX22">
+        <v>4</v>
+      </c>
+      <c r="AY22">
+        <v>11</v>
+      </c>
+      <c r="AZ22">
+        <v>11</v>
+      </c>
+      <c r="BA22">
+        <v>3</v>
+      </c>
+      <c r="BB22">
+        <v>3</v>
+      </c>
+      <c r="BC22">
+        <v>6</v>
+      </c>
+      <c r="BD22">
+        <v>2.9</v>
+      </c>
+      <c r="BE22">
+        <v>6.75</v>
+      </c>
+      <c r="BF22">
+        <v>1.49</v>
+      </c>
+      <c r="BG22">
+        <v>1.35</v>
+      </c>
+      <c r="BH22">
+        <v>2.9</v>
+      </c>
+      <c r="BI22">
+        <v>1.6</v>
+      </c>
+      <c r="BJ22">
+        <v>2.17</v>
+      </c>
+      <c r="BK22">
+        <v>2</v>
+      </c>
+      <c r="BL22">
+        <v>1.8</v>
+      </c>
+      <c r="BM22">
+        <v>2.55</v>
+      </c>
+      <c r="BN22">
+        <v>1.44</v>
+      </c>
+      <c r="BO22">
+        <v>3.3</v>
+      </c>
+      <c r="BP22">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7492171</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45534.65625</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23">
+        <v>2.2</v>
+      </c>
+      <c r="R23">
+        <v>2.38</v>
+      </c>
+      <c r="S23">
+        <v>4.75</v>
+      </c>
+      <c r="T23">
+        <v>1.3</v>
+      </c>
+      <c r="U23">
+        <v>3.4</v>
+      </c>
+      <c r="V23">
+        <v>2.5</v>
+      </c>
+      <c r="W23">
+        <v>1.5</v>
+      </c>
+      <c r="X23">
+        <v>6</v>
+      </c>
+      <c r="Y23">
+        <v>1.13</v>
+      </c>
+      <c r="Z23">
+        <v>1.75</v>
+      </c>
+      <c r="AA23">
+        <v>3.95</v>
+      </c>
+      <c r="AB23">
+        <v>4.4</v>
+      </c>
+      <c r="AC23">
+        <v>1.03</v>
+      </c>
+      <c r="AD23">
+        <v>15</v>
+      </c>
+      <c r="AE23">
+        <v>1.2</v>
+      </c>
+      <c r="AF23">
+        <v>4.5</v>
+      </c>
+      <c r="AG23">
+        <v>1.64</v>
+      </c>
+      <c r="AH23">
+        <v>2.25</v>
+      </c>
+      <c r="AI23">
+        <v>1.67</v>
+      </c>
+      <c r="AJ23">
+        <v>2.1</v>
+      </c>
+      <c r="AK23">
+        <v>1.22</v>
+      </c>
+      <c r="AL23">
+        <v>1.25</v>
+      </c>
+      <c r="AM23">
+        <v>2.1</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>1.5</v>
+      </c>
+      <c r="AP23">
+        <v>3</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1.3</v>
+      </c>
+      <c r="AS23">
+        <v>1.95</v>
+      </c>
+      <c r="AT23">
+        <v>3.25</v>
+      </c>
+      <c r="AU23">
+        <v>5</v>
+      </c>
+      <c r="AV23">
+        <v>2</v>
+      </c>
+      <c r="AW23">
+        <v>5</v>
+      </c>
+      <c r="AX23">
+        <v>6</v>
+      </c>
+      <c r="AY23">
+        <v>10</v>
+      </c>
+      <c r="AZ23">
+        <v>8</v>
+      </c>
+      <c r="BA23">
+        <v>3</v>
+      </c>
+      <c r="BB23">
+        <v>4</v>
+      </c>
+      <c r="BC23">
+        <v>7</v>
+      </c>
+      <c r="BD23">
+        <v>1.55</v>
+      </c>
+      <c r="BE23">
+        <v>6.5</v>
+      </c>
+      <c r="BF23">
+        <v>2.7</v>
+      </c>
+      <c r="BG23">
+        <v>1.3</v>
+      </c>
+      <c r="BH23">
+        <v>3.15</v>
+      </c>
+      <c r="BI23">
+        <v>1.52</v>
+      </c>
+      <c r="BJ23">
+        <v>2.33</v>
+      </c>
+      <c r="BK23">
+        <v>2</v>
+      </c>
+      <c r="BL23">
+        <v>1.8</v>
+      </c>
+      <c r="BM23">
+        <v>2.32</v>
+      </c>
+      <c r="BN23">
+        <v>1.53</v>
+      </c>
+      <c r="BO23">
+        <v>2.95</v>
+      </c>
+      <c r="BP23">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -334,6 +334,18 @@
     <t>['3', '10', '47', '56']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['90+2', '90+6']</t>
+  </si>
+  <si>
+    <t>['62', '66']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -361,9 +373,6 @@
     <t>['45+7']</t>
   </si>
   <si>
-    <t>['26']</t>
-  </si>
-  <si>
     <t>['45', '61']</t>
   </si>
   <si>
@@ -374,6 +383,12 @@
   </si>
   <si>
     <t>['86']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['8', '72']</t>
   </si>
 </sst>
 </file>
@@ -735,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +1009,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1200,7 +1215,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1406,7 +1421,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1818,7 +1833,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2230,7 +2245,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2308,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2642,7 +2657,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -2720,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3054,7 +3069,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3260,7 +3275,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3341,7 +3356,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>1.45</v>
@@ -3672,7 +3687,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4084,7 +4099,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q17">
         <v>3.6</v>
@@ -4290,7 +4305,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4371,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="AQ18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4702,7 +4717,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4908,7 +4923,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5114,7 +5129,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5477,6 +5492,830 @@
       </c>
       <c r="BP23">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7492168</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45535.5625</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q24">
+        <v>2.25</v>
+      </c>
+      <c r="R24">
+        <v>2.1</v>
+      </c>
+      <c r="S24">
+        <v>6</v>
+      </c>
+      <c r="T24">
+        <v>1.44</v>
+      </c>
+      <c r="U24">
+        <v>2.63</v>
+      </c>
+      <c r="V24">
+        <v>3.25</v>
+      </c>
+      <c r="W24">
+        <v>1.33</v>
+      </c>
+      <c r="X24">
+        <v>9</v>
+      </c>
+      <c r="Y24">
+        <v>1.07</v>
+      </c>
+      <c r="Z24">
+        <v>1.65</v>
+      </c>
+      <c r="AA24">
+        <v>3.9</v>
+      </c>
+      <c r="AB24">
+        <v>6</v>
+      </c>
+      <c r="AC24">
+        <v>1.07</v>
+      </c>
+      <c r="AD24">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE24">
+        <v>1.37</v>
+      </c>
+      <c r="AF24">
+        <v>3.15</v>
+      </c>
+      <c r="AG24">
+        <v>2.12</v>
+      </c>
+      <c r="AH24">
+        <v>1.72</v>
+      </c>
+      <c r="AI24">
+        <v>2.05</v>
+      </c>
+      <c r="AJ24">
+        <v>1.7</v>
+      </c>
+      <c r="AK24">
+        <v>1.15</v>
+      </c>
+      <c r="AL24">
+        <v>1.22</v>
+      </c>
+      <c r="AM24">
+        <v>2.25</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>3</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>2</v>
+      </c>
+      <c r="AR24">
+        <v>2.04</v>
+      </c>
+      <c r="AS24">
+        <v>1.17</v>
+      </c>
+      <c r="AT24">
+        <v>3.21</v>
+      </c>
+      <c r="AU24">
+        <v>4</v>
+      </c>
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>9</v>
+      </c>
+      <c r="AX24">
+        <v>1</v>
+      </c>
+      <c r="AY24">
+        <v>13</v>
+      </c>
+      <c r="AZ24">
+        <v>4</v>
+      </c>
+      <c r="BA24">
+        <v>6</v>
+      </c>
+      <c r="BB24">
+        <v>3</v>
+      </c>
+      <c r="BC24">
+        <v>9</v>
+      </c>
+      <c r="BD24">
+        <v>1.36</v>
+      </c>
+      <c r="BE24">
+        <v>7</v>
+      </c>
+      <c r="BF24">
+        <v>3.45</v>
+      </c>
+      <c r="BG24">
+        <v>1.3</v>
+      </c>
+      <c r="BH24">
+        <v>3.15</v>
+      </c>
+      <c r="BI24">
+        <v>1.5</v>
+      </c>
+      <c r="BJ24">
+        <v>2.4</v>
+      </c>
+      <c r="BK24">
+        <v>1.85</v>
+      </c>
+      <c r="BL24">
+        <v>1.85</v>
+      </c>
+      <c r="BM24">
+        <v>2.37</v>
+      </c>
+      <c r="BN24">
+        <v>1.51</v>
+      </c>
+      <c r="BO24">
+        <v>3.2</v>
+      </c>
+      <c r="BP24">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7492174</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45535.5625</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>107</v>
+      </c>
+      <c r="P25" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>1.5</v>
+      </c>
+      <c r="U25">
+        <v>2.5</v>
+      </c>
+      <c r="V25">
+        <v>3.4</v>
+      </c>
+      <c r="W25">
+        <v>1.3</v>
+      </c>
+      <c r="X25">
+        <v>10</v>
+      </c>
+      <c r="Y25">
+        <v>1.06</v>
+      </c>
+      <c r="Z25">
+        <v>2.15</v>
+      </c>
+      <c r="AA25">
+        <v>3.3</v>
+      </c>
+      <c r="AB25">
+        <v>3.7</v>
+      </c>
+      <c r="AC25">
+        <v>1.05</v>
+      </c>
+      <c r="AD25">
+        <v>7.2</v>
+      </c>
+      <c r="AE25">
+        <v>1.4</v>
+      </c>
+      <c r="AF25">
+        <v>2.71</v>
+      </c>
+      <c r="AG25">
+        <v>2.18</v>
+      </c>
+      <c r="AH25">
+        <v>1.68</v>
+      </c>
+      <c r="AI25">
+        <v>1.95</v>
+      </c>
+      <c r="AJ25">
+        <v>1.8</v>
+      </c>
+      <c r="AK25">
+        <v>1.33</v>
+      </c>
+      <c r="AL25">
+        <v>1.3</v>
+      </c>
+      <c r="AM25">
+        <v>1.68</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>1.5</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>1.74</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>1.74</v>
+      </c>
+      <c r="AU25">
+        <v>5</v>
+      </c>
+      <c r="AV25">
+        <v>3</v>
+      </c>
+      <c r="AW25">
+        <v>8</v>
+      </c>
+      <c r="AX25">
+        <v>7</v>
+      </c>
+      <c r="AY25">
+        <v>13</v>
+      </c>
+      <c r="AZ25">
+        <v>10</v>
+      </c>
+      <c r="BA25">
+        <v>7</v>
+      </c>
+      <c r="BB25">
+        <v>10</v>
+      </c>
+      <c r="BC25">
+        <v>17</v>
+      </c>
+      <c r="BD25">
+        <v>1.64</v>
+      </c>
+      <c r="BE25">
+        <v>6.75</v>
+      </c>
+      <c r="BF25">
+        <v>2.5</v>
+      </c>
+      <c r="BG25">
+        <v>1.29</v>
+      </c>
+      <c r="BH25">
+        <v>3.2</v>
+      </c>
+      <c r="BI25">
+        <v>1.45</v>
+      </c>
+      <c r="BJ25">
+        <v>2.55</v>
+      </c>
+      <c r="BK25">
+        <v>1.8</v>
+      </c>
+      <c r="BL25">
+        <v>1.9</v>
+      </c>
+      <c r="BM25">
+        <v>2.32</v>
+      </c>
+      <c r="BN25">
+        <v>1.54</v>
+      </c>
+      <c r="BO25">
+        <v>3.1</v>
+      </c>
+      <c r="BP25">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7492175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45535.65625</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>2.4</v>
+      </c>
+      <c r="S26">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>1.3</v>
+      </c>
+      <c r="U26">
+        <v>3.4</v>
+      </c>
+      <c r="V26">
+        <v>2.5</v>
+      </c>
+      <c r="W26">
+        <v>1.5</v>
+      </c>
+      <c r="X26">
+        <v>6</v>
+      </c>
+      <c r="Y26">
+        <v>1.13</v>
+      </c>
+      <c r="Z26">
+        <v>1.5</v>
+      </c>
+      <c r="AA26">
+        <v>4.6</v>
+      </c>
+      <c r="AB26">
+        <v>6.5</v>
+      </c>
+      <c r="AC26">
+        <v>1.03</v>
+      </c>
+      <c r="AD26">
+        <v>15</v>
+      </c>
+      <c r="AE26">
+        <v>1.22</v>
+      </c>
+      <c r="AF26">
+        <v>4.33</v>
+      </c>
+      <c r="AG26">
+        <v>1.71</v>
+      </c>
+      <c r="AH26">
+        <v>2.15</v>
+      </c>
+      <c r="AI26">
+        <v>1.8</v>
+      </c>
+      <c r="AJ26">
+        <v>1.95</v>
+      </c>
+      <c r="AK26">
+        <v>1.11</v>
+      </c>
+      <c r="AL26">
+        <v>1.21</v>
+      </c>
+      <c r="AM26">
+        <v>2.7</v>
+      </c>
+      <c r="AN26">
+        <v>3</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>3</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>1.28</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>1.28</v>
+      </c>
+      <c r="AU26">
+        <v>8</v>
+      </c>
+      <c r="AV26">
+        <v>3</v>
+      </c>
+      <c r="AW26">
+        <v>10</v>
+      </c>
+      <c r="AX26">
+        <v>6</v>
+      </c>
+      <c r="AY26">
+        <v>18</v>
+      </c>
+      <c r="AZ26">
+        <v>9</v>
+      </c>
+      <c r="BA26">
+        <v>6</v>
+      </c>
+      <c r="BB26">
+        <v>4</v>
+      </c>
+      <c r="BC26">
+        <v>10</v>
+      </c>
+      <c r="BD26">
+        <v>1.21</v>
+      </c>
+      <c r="BE26">
+        <v>8.5</v>
+      </c>
+      <c r="BF26">
+        <v>4.8</v>
+      </c>
+      <c r="BG26">
+        <v>1.28</v>
+      </c>
+      <c r="BH26">
+        <v>3.2</v>
+      </c>
+      <c r="BI26">
+        <v>1.43</v>
+      </c>
+      <c r="BJ26">
+        <v>2.62</v>
+      </c>
+      <c r="BK26">
+        <v>1.8</v>
+      </c>
+      <c r="BL26">
+        <v>1.9</v>
+      </c>
+      <c r="BM26">
+        <v>2.3</v>
+      </c>
+      <c r="BN26">
+        <v>1.55</v>
+      </c>
+      <c r="BO26">
+        <v>3.1</v>
+      </c>
+      <c r="BP26">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7492173</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45535.65625</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27" t="s">
+        <v>109</v>
+      </c>
+      <c r="P27" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27">
+        <v>3.4</v>
+      </c>
+      <c r="R27">
+        <v>2.2</v>
+      </c>
+      <c r="S27">
+        <v>3.1</v>
+      </c>
+      <c r="T27">
+        <v>1.36</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>2.75</v>
+      </c>
+      <c r="W27">
+        <v>1.4</v>
+      </c>
+      <c r="X27">
+        <v>7</v>
+      </c>
+      <c r="Y27">
+        <v>1.1</v>
+      </c>
+      <c r="Z27">
+        <v>2.9</v>
+      </c>
+      <c r="AA27">
+        <v>3.4</v>
+      </c>
+      <c r="AB27">
+        <v>2.45</v>
+      </c>
+      <c r="AC27">
+        <v>1.05</v>
+      </c>
+      <c r="AD27">
+        <v>12</v>
+      </c>
+      <c r="AE27">
+        <v>1.3</v>
+      </c>
+      <c r="AF27">
+        <v>3.6</v>
+      </c>
+      <c r="AG27">
+        <v>1.84</v>
+      </c>
+      <c r="AH27">
+        <v>1.92</v>
+      </c>
+      <c r="AI27">
+        <v>1.7</v>
+      </c>
+      <c r="AJ27">
+        <v>2.05</v>
+      </c>
+      <c r="AK27">
+        <v>1.57</v>
+      </c>
+      <c r="AL27">
+        <v>1.31</v>
+      </c>
+      <c r="AM27">
+        <v>1.44</v>
+      </c>
+      <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>2</v>
+      </c>
+      <c r="AQ27">
+        <v>0.5</v>
+      </c>
+      <c r="AR27">
+        <v>1.67</v>
+      </c>
+      <c r="AS27">
+        <v>1.81</v>
+      </c>
+      <c r="AT27">
+        <v>3.48</v>
+      </c>
+      <c r="AU27">
+        <v>6</v>
+      </c>
+      <c r="AV27">
+        <v>5</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>4</v>
+      </c>
+      <c r="AY27">
+        <v>6</v>
+      </c>
+      <c r="AZ27">
+        <v>9</v>
+      </c>
+      <c r="BA27">
+        <v>5</v>
+      </c>
+      <c r="BB27">
+        <v>7</v>
+      </c>
+      <c r="BC27">
+        <v>12</v>
+      </c>
+      <c r="BD27">
+        <v>1.95</v>
+      </c>
+      <c r="BE27">
+        <v>6.4</v>
+      </c>
+      <c r="BF27">
+        <v>2.05</v>
+      </c>
+      <c r="BG27">
+        <v>1.29</v>
+      </c>
+      <c r="BH27">
+        <v>3.3</v>
+      </c>
+      <c r="BI27">
+        <v>1.6</v>
+      </c>
+      <c r="BJ27">
+        <v>2.2</v>
+      </c>
+      <c r="BK27">
+        <v>2</v>
+      </c>
+      <c r="BL27">
+        <v>1.72</v>
+      </c>
+      <c r="BM27">
+        <v>2.65</v>
+      </c>
+      <c r="BN27">
+        <v>1.42</v>
+      </c>
+      <c r="BO27">
+        <v>3.3</v>
+      </c>
+      <c r="BP27">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,12 @@
     <t>['62', '66']</t>
   </si>
   <si>
+    <t>['45', '90+6']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -389,6 +395,12 @@
   </si>
   <si>
     <t>['8', '72']</t>
+  </si>
+  <si>
+    <t>['18', '32']</t>
+  </si>
+  <si>
+    <t>['55', '64']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,7 +1021,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1215,7 +1227,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1293,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1421,7 +1433,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1833,7 +1845,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2245,7 +2257,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2657,7 +2669,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -2941,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3069,7 +3081,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3275,7 +3287,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3687,7 +3699,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4305,7 +4317,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4717,7 +4729,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4798,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -4923,7 +4935,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5129,7 +5141,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5541,7 +5553,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -5953,7 +5965,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6159,7 +6171,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6315,6 +6327,830 @@
         <v>3.3</v>
       </c>
       <c r="BP27">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7492169</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45536.5625</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q28">
+        <v>2.25</v>
+      </c>
+      <c r="R28">
+        <v>2.2</v>
+      </c>
+      <c r="S28">
+        <v>5.5</v>
+      </c>
+      <c r="T28">
+        <v>1.4</v>
+      </c>
+      <c r="U28">
+        <v>2.75</v>
+      </c>
+      <c r="V28">
+        <v>2.75</v>
+      </c>
+      <c r="W28">
+        <v>1.4</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>1.08</v>
+      </c>
+      <c r="Z28">
+        <v>1.57</v>
+      </c>
+      <c r="AA28">
+        <v>4</v>
+      </c>
+      <c r="AB28">
+        <v>6</v>
+      </c>
+      <c r="AC28">
+        <v>1.02</v>
+      </c>
+      <c r="AD28">
+        <v>9.1</v>
+      </c>
+      <c r="AE28">
+        <v>1.28</v>
+      </c>
+      <c r="AF28">
+        <v>3.3</v>
+      </c>
+      <c r="AG28">
+        <v>1.83</v>
+      </c>
+      <c r="AH28">
+        <v>1.95</v>
+      </c>
+      <c r="AI28">
+        <v>1.95</v>
+      </c>
+      <c r="AJ28">
+        <v>1.8</v>
+      </c>
+      <c r="AK28">
+        <v>1.11</v>
+      </c>
+      <c r="AL28">
+        <v>1.22</v>
+      </c>
+      <c r="AM28">
+        <v>2.2</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>1</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>1.74</v>
+      </c>
+      <c r="AS28">
+        <v>0.59</v>
+      </c>
+      <c r="AT28">
+        <v>2.33</v>
+      </c>
+      <c r="AU28">
+        <v>7</v>
+      </c>
+      <c r="AV28">
+        <v>4</v>
+      </c>
+      <c r="AW28">
+        <v>5</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>12</v>
+      </c>
+      <c r="AZ28">
+        <v>4</v>
+      </c>
+      <c r="BA28">
+        <v>7</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>7</v>
+      </c>
+      <c r="BD28">
+        <v>1.29</v>
+      </c>
+      <c r="BE28">
+        <v>7</v>
+      </c>
+      <c r="BF28">
+        <v>3.95</v>
+      </c>
+      <c r="BG28">
+        <v>1.37</v>
+      </c>
+      <c r="BH28">
+        <v>2.8</v>
+      </c>
+      <c r="BI28">
+        <v>1.47</v>
+      </c>
+      <c r="BJ28">
+        <v>2.5</v>
+      </c>
+      <c r="BK28">
+        <v>1.85</v>
+      </c>
+      <c r="BL28">
+        <v>1.85</v>
+      </c>
+      <c r="BM28">
+        <v>2.37</v>
+      </c>
+      <c r="BN28">
+        <v>1.51</v>
+      </c>
+      <c r="BO28">
+        <v>3.2</v>
+      </c>
+      <c r="BP28">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7492170</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45536.5625</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q29">
+        <v>2.75</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>4.75</v>
+      </c>
+      <c r="T29">
+        <v>1.5</v>
+      </c>
+      <c r="U29">
+        <v>2.5</v>
+      </c>
+      <c r="V29">
+        <v>3.5</v>
+      </c>
+      <c r="W29">
+        <v>1.29</v>
+      </c>
+      <c r="X29">
+        <v>11</v>
+      </c>
+      <c r="Y29">
+        <v>1.05</v>
+      </c>
+      <c r="Z29">
+        <v>2.15</v>
+      </c>
+      <c r="AA29">
+        <v>3.1</v>
+      </c>
+      <c r="AB29">
+        <v>3.75</v>
+      </c>
+      <c r="AC29">
+        <v>1.09</v>
+      </c>
+      <c r="AD29">
+        <v>8</v>
+      </c>
+      <c r="AE29">
+        <v>1.47</v>
+      </c>
+      <c r="AF29">
+        <v>2.75</v>
+      </c>
+      <c r="AG29">
+        <v>2.3</v>
+      </c>
+      <c r="AH29">
+        <v>1.6</v>
+      </c>
+      <c r="AI29">
+        <v>2.05</v>
+      </c>
+      <c r="AJ29">
+        <v>1.7</v>
+      </c>
+      <c r="AK29">
+        <v>1.21</v>
+      </c>
+      <c r="AL29">
+        <v>1.29</v>
+      </c>
+      <c r="AM29">
+        <v>1.77</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0.5</v>
+      </c>
+      <c r="AQ29">
+        <v>3</v>
+      </c>
+      <c r="AR29">
+        <v>1.56</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>1.56</v>
+      </c>
+      <c r="AU29">
+        <v>2</v>
+      </c>
+      <c r="AV29">
+        <v>4</v>
+      </c>
+      <c r="AW29">
+        <v>7</v>
+      </c>
+      <c r="AX29">
+        <v>5</v>
+      </c>
+      <c r="AY29">
+        <v>9</v>
+      </c>
+      <c r="AZ29">
+        <v>9</v>
+      </c>
+      <c r="BA29">
+        <v>3</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
+      <c r="BC29">
+        <v>4</v>
+      </c>
+      <c r="BD29">
+        <v>1.73</v>
+      </c>
+      <c r="BE29">
+        <v>6.5</v>
+      </c>
+      <c r="BF29">
+        <v>2.33</v>
+      </c>
+      <c r="BG29">
+        <v>1.29</v>
+      </c>
+      <c r="BH29">
+        <v>3.3</v>
+      </c>
+      <c r="BI29">
+        <v>1.57</v>
+      </c>
+      <c r="BJ29">
+        <v>2.25</v>
+      </c>
+      <c r="BK29">
+        <v>2</v>
+      </c>
+      <c r="BL29">
+        <v>1.72</v>
+      </c>
+      <c r="BM29">
+        <v>2.65</v>
+      </c>
+      <c r="BN29">
+        <v>1.42</v>
+      </c>
+      <c r="BO29">
+        <v>3.15</v>
+      </c>
+      <c r="BP29">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7492176</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45536.65625</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>111</v>
+      </c>
+      <c r="P30" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q30">
+        <v>2.75</v>
+      </c>
+      <c r="R30">
+        <v>2.1</v>
+      </c>
+      <c r="S30">
+        <v>4.33</v>
+      </c>
+      <c r="T30">
+        <v>1.44</v>
+      </c>
+      <c r="U30">
+        <v>2.63</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>1.36</v>
+      </c>
+      <c r="X30">
+        <v>9</v>
+      </c>
+      <c r="Y30">
+        <v>1.07</v>
+      </c>
+      <c r="Z30">
+        <v>1.85</v>
+      </c>
+      <c r="AA30">
+        <v>3.5</v>
+      </c>
+      <c r="AB30">
+        <v>4.4</v>
+      </c>
+      <c r="AC30">
+        <v>1.03</v>
+      </c>
+      <c r="AD30">
+        <v>8.1</v>
+      </c>
+      <c r="AE30">
+        <v>1.33</v>
+      </c>
+      <c r="AF30">
+        <v>3</v>
+      </c>
+      <c r="AG30">
+        <v>2</v>
+      </c>
+      <c r="AH30">
+        <v>1.8</v>
+      </c>
+      <c r="AI30">
+        <v>1.91</v>
+      </c>
+      <c r="AJ30">
+        <v>1.91</v>
+      </c>
+      <c r="AK30">
+        <v>1.22</v>
+      </c>
+      <c r="AL30">
+        <v>1.25</v>
+      </c>
+      <c r="AM30">
+        <v>1.82</v>
+      </c>
+      <c r="AN30">
+        <v>3</v>
+      </c>
+      <c r="AO30">
+        <v>0.5</v>
+      </c>
+      <c r="AP30">
+        <v>3</v>
+      </c>
+      <c r="AQ30">
+        <v>0.33</v>
+      </c>
+      <c r="AR30">
+        <v>0.95</v>
+      </c>
+      <c r="AS30">
+        <v>0.8</v>
+      </c>
+      <c r="AT30">
+        <v>1.75</v>
+      </c>
+      <c r="AU30">
+        <v>4</v>
+      </c>
+      <c r="AV30">
+        <v>5</v>
+      </c>
+      <c r="AW30">
+        <v>5</v>
+      </c>
+      <c r="AX30">
+        <v>10</v>
+      </c>
+      <c r="AY30">
+        <v>9</v>
+      </c>
+      <c r="AZ30">
+        <v>15</v>
+      </c>
+      <c r="BA30">
+        <v>4</v>
+      </c>
+      <c r="BB30">
+        <v>6</v>
+      </c>
+      <c r="BC30">
+        <v>10</v>
+      </c>
+      <c r="BD30">
+        <v>1.82</v>
+      </c>
+      <c r="BE30">
+        <v>6.4</v>
+      </c>
+      <c r="BF30">
+        <v>2.18</v>
+      </c>
+      <c r="BG30">
+        <v>1.3</v>
+      </c>
+      <c r="BH30">
+        <v>3.15</v>
+      </c>
+      <c r="BI30">
+        <v>1.52</v>
+      </c>
+      <c r="BJ30">
+        <v>2.33</v>
+      </c>
+      <c r="BK30">
+        <v>1.88</v>
+      </c>
+      <c r="BL30">
+        <v>1.92</v>
+      </c>
+      <c r="BM30">
+        <v>2.33</v>
+      </c>
+      <c r="BN30">
+        <v>1.52</v>
+      </c>
+      <c r="BO30">
+        <v>3</v>
+      </c>
+      <c r="BP30">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7492172</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45536.65625</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q31">
+        <v>2.38</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="T31">
+        <v>1.4</v>
+      </c>
+      <c r="U31">
+        <v>2.75</v>
+      </c>
+      <c r="V31">
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>1.36</v>
+      </c>
+      <c r="X31">
+        <v>9</v>
+      </c>
+      <c r="Y31">
+        <v>1.07</v>
+      </c>
+      <c r="Z31">
+        <v>1.95</v>
+      </c>
+      <c r="AA31">
+        <v>3.5</v>
+      </c>
+      <c r="AB31">
+        <v>4</v>
+      </c>
+      <c r="AC31">
+        <v>1.02</v>
+      </c>
+      <c r="AD31">
+        <v>8.5</v>
+      </c>
+      <c r="AE31">
+        <v>1.31</v>
+      </c>
+      <c r="AF31">
+        <v>3.12</v>
+      </c>
+      <c r="AG31">
+        <v>2.05</v>
+      </c>
+      <c r="AH31">
+        <v>1.75</v>
+      </c>
+      <c r="AI31">
+        <v>1.95</v>
+      </c>
+      <c r="AJ31">
+        <v>1.8</v>
+      </c>
+      <c r="AK31">
+        <v>1.18</v>
+      </c>
+      <c r="AL31">
+        <v>1.22</v>
+      </c>
+      <c r="AM31">
+        <v>2</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>1.66</v>
+      </c>
+      <c r="AS31">
+        <v>1.44</v>
+      </c>
+      <c r="AT31">
+        <v>3.1</v>
+      </c>
+      <c r="AU31">
+        <v>2</v>
+      </c>
+      <c r="AV31">
+        <v>2</v>
+      </c>
+      <c r="AW31">
+        <v>4</v>
+      </c>
+      <c r="AX31">
+        <v>2</v>
+      </c>
+      <c r="AY31">
+        <v>6</v>
+      </c>
+      <c r="AZ31">
+        <v>4</v>
+      </c>
+      <c r="BA31">
+        <v>6</v>
+      </c>
+      <c r="BB31">
+        <v>4</v>
+      </c>
+      <c r="BC31">
+        <v>10</v>
+      </c>
+      <c r="BD31">
+        <v>1.47</v>
+      </c>
+      <c r="BE31">
+        <v>6.75</v>
+      </c>
+      <c r="BF31">
+        <v>3.05</v>
+      </c>
+      <c r="BG31">
+        <v>1.29</v>
+      </c>
+      <c r="BH31">
+        <v>3.3</v>
+      </c>
+      <c r="BI31">
+        <v>1.57</v>
+      </c>
+      <c r="BJ31">
+        <v>2.25</v>
+      </c>
+      <c r="BK31">
+        <v>2</v>
+      </c>
+      <c r="BL31">
+        <v>1.72</v>
+      </c>
+      <c r="BM31">
+        <v>2.65</v>
+      </c>
+      <c r="BN31">
+        <v>1.42</v>
+      </c>
+      <c r="BO31">
+        <v>3.3</v>
+      </c>
+      <c r="BP31">
         <v>1.27</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -280,12 +280,12 @@
     <t>Venezia</t>
   </si>
   <si>
+    <t>Como</t>
+  </si>
+  <si>
     <t>Atalanta</t>
   </si>
   <si>
-    <t>Como</t>
-  </si>
-  <si>
     <t>['22']</t>
   </si>
   <si>
@@ -352,6 +352,15 @@
     <t>['43']</t>
   </si>
   <si>
+    <t>['5', '53']</t>
+  </si>
+  <si>
+    <t>['2', '16', '25', '29']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -401,6 +410,12 @@
   </si>
   <si>
     <t>['55', '64']</t>
+  </si>
+  <si>
+    <t>['76', '90+1']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -762,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1021,7 +1036,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1227,7 +1242,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1305,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1433,7 +1448,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1511,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -1845,7 +1860,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2257,7 +2272,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2338,7 +2353,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2645,7 +2660,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2669,7 +2684,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -2851,7 +2866,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -3081,7 +3096,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3287,7 +3302,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3699,7 +3714,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -3986,7 +4001,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4087,7 +4102,7 @@
         <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -4317,7 +4332,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4604,7 +4619,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4705,7 +4720,7 @@
         <v>77</v>
       </c>
       <c r="H20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4729,7 +4744,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4935,7 +4950,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5016,7 +5031,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -5141,7 +5156,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5323,7 +5338,7 @@
         <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -5553,7 +5568,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -5965,7 +5980,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6171,7 +6186,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6377,7 +6392,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6583,7 +6598,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6661,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ29">
         <v>3</v>
@@ -6765,7 +6780,7 @@
         <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -7152,6 +7167,830 @@
       </c>
       <c r="BP31">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7492180</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45549.41666666666</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P32" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q32">
+        <v>3.5</v>
+      </c>
+      <c r="R32">
+        <v>2.05</v>
+      </c>
+      <c r="S32">
+        <v>3.25</v>
+      </c>
+      <c r="T32">
+        <v>1.44</v>
+      </c>
+      <c r="U32">
+        <v>2.63</v>
+      </c>
+      <c r="V32">
+        <v>3.4</v>
+      </c>
+      <c r="W32">
+        <v>1.3</v>
+      </c>
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Y32">
+        <v>1.06</v>
+      </c>
+      <c r="Z32">
+        <v>2.8</v>
+      </c>
+      <c r="AA32">
+        <v>3.35</v>
+      </c>
+      <c r="AB32">
+        <v>2.55</v>
+      </c>
+      <c r="AC32">
+        <v>1.07</v>
+      </c>
+      <c r="AD32">
+        <v>9</v>
+      </c>
+      <c r="AE32">
+        <v>1.4</v>
+      </c>
+      <c r="AF32">
+        <v>3</v>
+      </c>
+      <c r="AG32">
+        <v>2.15</v>
+      </c>
+      <c r="AH32">
+        <v>1.67</v>
+      </c>
+      <c r="AI32">
+        <v>1.95</v>
+      </c>
+      <c r="AJ32">
+        <v>1.8</v>
+      </c>
+      <c r="AK32">
+        <v>1.53</v>
+      </c>
+      <c r="AL32">
+        <v>1.3</v>
+      </c>
+      <c r="AM32">
+        <v>1.47</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AQ32">
+        <v>0.5</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0.92</v>
+      </c>
+      <c r="AT32">
+        <v>0.92</v>
+      </c>
+      <c r="AU32">
+        <v>5</v>
+      </c>
+      <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32">
+        <v>6</v>
+      </c>
+      <c r="AX32">
+        <v>5</v>
+      </c>
+      <c r="AY32">
+        <v>11</v>
+      </c>
+      <c r="AZ32">
+        <v>10</v>
+      </c>
+      <c r="BA32">
+        <v>4</v>
+      </c>
+      <c r="BB32">
+        <v>3</v>
+      </c>
+      <c r="BC32">
+        <v>7</v>
+      </c>
+      <c r="BD32">
+        <v>2.05</v>
+      </c>
+      <c r="BE32">
+        <v>6.25</v>
+      </c>
+      <c r="BF32">
+        <v>1.97</v>
+      </c>
+      <c r="BG32">
+        <v>1.33</v>
+      </c>
+      <c r="BH32">
+        <v>2.95</v>
+      </c>
+      <c r="BI32">
+        <v>1.58</v>
+      </c>
+      <c r="BJ32">
+        <v>2.2</v>
+      </c>
+      <c r="BK32">
+        <v>1.94</v>
+      </c>
+      <c r="BL32">
+        <v>1.76</v>
+      </c>
+      <c r="BM32">
+        <v>2.45</v>
+      </c>
+      <c r="BN32">
+        <v>1.48</v>
+      </c>
+      <c r="BO32">
+        <v>3.2</v>
+      </c>
+      <c r="BP32">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7492181</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45549.54166666666</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q33">
+        <v>5.5</v>
+      </c>
+      <c r="R33">
+        <v>2.1</v>
+      </c>
+      <c r="S33">
+        <v>2.38</v>
+      </c>
+      <c r="T33">
+        <v>1.44</v>
+      </c>
+      <c r="U33">
+        <v>2.63</v>
+      </c>
+      <c r="V33">
+        <v>3.25</v>
+      </c>
+      <c r="W33">
+        <v>1.33</v>
+      </c>
+      <c r="X33">
+        <v>9</v>
+      </c>
+      <c r="Y33">
+        <v>1.07</v>
+      </c>
+      <c r="Z33">
+        <v>4.1</v>
+      </c>
+      <c r="AA33">
+        <v>3.4</v>
+      </c>
+      <c r="AB33">
+        <v>1.84</v>
+      </c>
+      <c r="AC33">
+        <v>1.07</v>
+      </c>
+      <c r="AD33">
+        <v>9.5</v>
+      </c>
+      <c r="AE33">
+        <v>1.4</v>
+      </c>
+      <c r="AF33">
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <v>1.95</v>
+      </c>
+      <c r="AH33">
+        <v>1.75</v>
+      </c>
+      <c r="AI33">
+        <v>2.05</v>
+      </c>
+      <c r="AJ33">
+        <v>1.7</v>
+      </c>
+      <c r="AK33">
+        <v>2.18</v>
+      </c>
+      <c r="AL33">
+        <v>1.32</v>
+      </c>
+      <c r="AM33">
+        <v>1.18</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>1</v>
+      </c>
+      <c r="AQ33">
+        <v>2</v>
+      </c>
+      <c r="AR33">
+        <v>0.96</v>
+      </c>
+      <c r="AS33">
+        <v>1.08</v>
+      </c>
+      <c r="AT33">
+        <v>2.04</v>
+      </c>
+      <c r="AU33">
+        <v>4</v>
+      </c>
+      <c r="AV33">
+        <v>4</v>
+      </c>
+      <c r="AW33">
+        <v>3</v>
+      </c>
+      <c r="AX33">
+        <v>7</v>
+      </c>
+      <c r="AY33">
+        <v>7</v>
+      </c>
+      <c r="AZ33">
+        <v>11</v>
+      </c>
+      <c r="BA33">
+        <v>4</v>
+      </c>
+      <c r="BB33">
+        <v>8</v>
+      </c>
+      <c r="BC33">
+        <v>12</v>
+      </c>
+      <c r="BD33">
+        <v>2.8</v>
+      </c>
+      <c r="BE33">
+        <v>6.75</v>
+      </c>
+      <c r="BF33">
+        <v>1.5</v>
+      </c>
+      <c r="BG33">
+        <v>1.28</v>
+      </c>
+      <c r="BH33">
+        <v>3.2</v>
+      </c>
+      <c r="BI33">
+        <v>1.49</v>
+      </c>
+      <c r="BJ33">
+        <v>2.4</v>
+      </c>
+      <c r="BK33">
+        <v>1.81</v>
+      </c>
+      <c r="BL33">
+        <v>1.88</v>
+      </c>
+      <c r="BM33">
+        <v>2.23</v>
+      </c>
+      <c r="BN33">
+        <v>1.56</v>
+      </c>
+      <c r="BO33">
+        <v>2.9</v>
+      </c>
+      <c r="BP33">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7492184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45549.65625</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34" t="s">
+        <v>113</v>
+      </c>
+      <c r="P34" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q34">
+        <v>1.67</v>
+      </c>
+      <c r="R34">
+        <v>2.75</v>
+      </c>
+      <c r="S34">
+        <v>8.5</v>
+      </c>
+      <c r="T34">
+        <v>1.25</v>
+      </c>
+      <c r="U34">
+        <v>3.75</v>
+      </c>
+      <c r="V34">
+        <v>2.25</v>
+      </c>
+      <c r="W34">
+        <v>1.57</v>
+      </c>
+      <c r="X34">
+        <v>5.5</v>
+      </c>
+      <c r="Y34">
+        <v>1.14</v>
+      </c>
+      <c r="Z34">
+        <v>1.3</v>
+      </c>
+      <c r="AA34">
+        <v>5.5</v>
+      </c>
+      <c r="AB34">
+        <v>9</v>
+      </c>
+      <c r="AC34">
+        <v>1.02</v>
+      </c>
+      <c r="AD34">
+        <v>21</v>
+      </c>
+      <c r="AE34">
+        <v>1.18</v>
+      </c>
+      <c r="AF34">
+        <v>5</v>
+      </c>
+      <c r="AG34">
+        <v>1.6</v>
+      </c>
+      <c r="AH34">
+        <v>2.25</v>
+      </c>
+      <c r="AI34">
+        <v>2</v>
+      </c>
+      <c r="AJ34">
+        <v>1.75</v>
+      </c>
+      <c r="AK34">
+        <v>1.02</v>
+      </c>
+      <c r="AL34">
+        <v>1.11</v>
+      </c>
+      <c r="AM34">
+        <v>3.6</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>0.5</v>
+      </c>
+      <c r="AP34">
+        <v>2</v>
+      </c>
+      <c r="AQ34">
+        <v>0.33</v>
+      </c>
+      <c r="AR34">
+        <v>2.22</v>
+      </c>
+      <c r="AS34">
+        <v>0.97</v>
+      </c>
+      <c r="AT34">
+        <v>3.19</v>
+      </c>
+      <c r="AU34">
+        <v>9</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>2</v>
+      </c>
+      <c r="AX34">
+        <v>4</v>
+      </c>
+      <c r="AY34">
+        <v>11</v>
+      </c>
+      <c r="AZ34">
+        <v>7</v>
+      </c>
+      <c r="BA34">
+        <v>6</v>
+      </c>
+      <c r="BB34">
+        <v>1</v>
+      </c>
+      <c r="BC34">
+        <v>7</v>
+      </c>
+      <c r="BD34">
+        <v>1.21</v>
+      </c>
+      <c r="BE34">
+        <v>8.5</v>
+      </c>
+      <c r="BF34">
+        <v>4.8</v>
+      </c>
+      <c r="BG34">
+        <v>1.23</v>
+      </c>
+      <c r="BH34">
+        <v>3.65</v>
+      </c>
+      <c r="BI34">
+        <v>1.41</v>
+      </c>
+      <c r="BJ34">
+        <v>2.65</v>
+      </c>
+      <c r="BK34">
+        <v>1.66</v>
+      </c>
+      <c r="BL34">
+        <v>2.06</v>
+      </c>
+      <c r="BM34">
+        <v>2.02</v>
+      </c>
+      <c r="BN34">
+        <v>1.68</v>
+      </c>
+      <c r="BO34">
+        <v>2.55</v>
+      </c>
+      <c r="BP34">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7492182</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45550.3125</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>114</v>
+      </c>
+      <c r="P35" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>2.05</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>1.44</v>
+      </c>
+      <c r="U35">
+        <v>2.63</v>
+      </c>
+      <c r="V35">
+        <v>3.25</v>
+      </c>
+      <c r="W35">
+        <v>1.33</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35">
+        <v>1.06</v>
+      </c>
+      <c r="Z35">
+        <v>2.87</v>
+      </c>
+      <c r="AA35">
+        <v>3.15</v>
+      </c>
+      <c r="AB35">
+        <v>2.41</v>
+      </c>
+      <c r="AC35">
+        <v>1.04</v>
+      </c>
+      <c r="AD35">
+        <v>7.8</v>
+      </c>
+      <c r="AE35">
+        <v>1.36</v>
+      </c>
+      <c r="AF35">
+        <v>2.88</v>
+      </c>
+      <c r="AG35">
+        <v>2.1</v>
+      </c>
+      <c r="AH35">
+        <v>1.7</v>
+      </c>
+      <c r="AI35">
+        <v>1.91</v>
+      </c>
+      <c r="AJ35">
+        <v>1.91</v>
+      </c>
+      <c r="AK35">
+        <v>1.67</v>
+      </c>
+      <c r="AL35">
+        <v>1.38</v>
+      </c>
+      <c r="AM35">
+        <v>1.34</v>
+      </c>
+      <c r="AN35">
+        <v>0.5</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>0.67</v>
+      </c>
+      <c r="AQ35">
+        <v>1</v>
+      </c>
+      <c r="AR35">
+        <v>1.23</v>
+      </c>
+      <c r="AS35">
+        <v>1.1</v>
+      </c>
+      <c r="AT35">
+        <v>2.33</v>
+      </c>
+      <c r="AU35">
+        <v>9</v>
+      </c>
+      <c r="AV35">
+        <v>7</v>
+      </c>
+      <c r="AW35">
+        <v>6</v>
+      </c>
+      <c r="AX35">
+        <v>8</v>
+      </c>
+      <c r="AY35">
+        <v>15</v>
+      </c>
+      <c r="AZ35">
+        <v>15</v>
+      </c>
+      <c r="BA35">
+        <v>4</v>
+      </c>
+      <c r="BB35">
+        <v>5</v>
+      </c>
+      <c r="BC35">
+        <v>9</v>
+      </c>
+      <c r="BD35">
+        <v>2.17</v>
+      </c>
+      <c r="BE35">
+        <v>6.25</v>
+      </c>
+      <c r="BF35">
+        <v>1.84</v>
+      </c>
+      <c r="BG35">
+        <v>1.32</v>
+      </c>
+      <c r="BH35">
+        <v>2.98</v>
+      </c>
+      <c r="BI35">
+        <v>1.61</v>
+      </c>
+      <c r="BJ35">
+        <v>2.2</v>
+      </c>
+      <c r="BK35">
+        <v>2.06</v>
+      </c>
+      <c r="BL35">
+        <v>1.73</v>
+      </c>
+      <c r="BM35">
+        <v>2.73</v>
+      </c>
+      <c r="BN35">
+        <v>1.41</v>
+      </c>
+      <c r="BO35">
+        <v>3.65</v>
+      </c>
+      <c r="BP35">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,18 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['21', '45', '45+1']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['2', '43']</t>
+  </si>
+  <si>
+    <t>['5', '20']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -416,6 +428,21 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['15', '32']</t>
+  </si>
+  <si>
+    <t>['18', '66', '70', '90+3']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['49', '68', '77']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,7 +1063,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1114,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1242,7 +1269,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1448,7 +1475,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1860,7 +1887,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -1941,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2147,7 +2174,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2272,7 +2299,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2350,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ8">
         <v>0.33</v>
@@ -2556,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2684,7 +2711,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3096,7 +3123,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3302,7 +3329,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3380,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>0.5</v>
@@ -3589,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3714,7 +3741,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -3792,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ15">
         <v>3</v>
@@ -4204,7 +4231,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4332,7 +4359,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4744,7 +4771,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4822,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -4950,7 +4977,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5156,7 +5183,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5568,7 +5595,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -5980,7 +6007,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6186,7 +6213,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6264,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6392,7 +6419,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6598,7 +6625,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6679,7 +6706,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ29">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -7216,7 +7243,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7834,7 +7861,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7991,6 +8018,1242 @@
       </c>
       <c r="BP35">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7492178</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45550.41666666666</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>5</v>
+      </c>
+      <c r="O36" t="s">
+        <v>115</v>
+      </c>
+      <c r="P36" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q36">
+        <v>2.38</v>
+      </c>
+      <c r="R36">
+        <v>2.3</v>
+      </c>
+      <c r="S36">
+        <v>4.33</v>
+      </c>
+      <c r="T36">
+        <v>1.33</v>
+      </c>
+      <c r="U36">
+        <v>3.25</v>
+      </c>
+      <c r="V36">
+        <v>2.5</v>
+      </c>
+      <c r="W36">
+        <v>1.5</v>
+      </c>
+      <c r="X36">
+        <v>6.5</v>
+      </c>
+      <c r="Y36">
+        <v>1.11</v>
+      </c>
+      <c r="Z36">
+        <v>1.83</v>
+      </c>
+      <c r="AA36">
+        <v>3.75</v>
+      </c>
+      <c r="AB36">
+        <v>3.75</v>
+      </c>
+      <c r="AC36">
+        <v>1.03</v>
+      </c>
+      <c r="AD36">
+        <v>13</v>
+      </c>
+      <c r="AE36">
+        <v>1.21</v>
+      </c>
+      <c r="AF36">
+        <v>3.88</v>
+      </c>
+      <c r="AG36">
+        <v>1.7</v>
+      </c>
+      <c r="AH36">
+        <v>2.1</v>
+      </c>
+      <c r="AI36">
+        <v>1.67</v>
+      </c>
+      <c r="AJ36">
+        <v>2.1</v>
+      </c>
+      <c r="AK36">
+        <v>1.18</v>
+      </c>
+      <c r="AL36">
+        <v>1.21</v>
+      </c>
+      <c r="AM36">
+        <v>2.03</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>3</v>
+      </c>
+      <c r="AQ36">
+        <v>0.5</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>1.6</v>
+      </c>
+      <c r="AT36">
+        <v>1.6</v>
+      </c>
+      <c r="AU36">
+        <v>8</v>
+      </c>
+      <c r="AV36">
+        <v>6</v>
+      </c>
+      <c r="AW36">
+        <v>5</v>
+      </c>
+      <c r="AX36">
+        <v>5</v>
+      </c>
+      <c r="AY36">
+        <v>13</v>
+      </c>
+      <c r="AZ36">
+        <v>11</v>
+      </c>
+      <c r="BA36">
+        <v>5</v>
+      </c>
+      <c r="BB36">
+        <v>2</v>
+      </c>
+      <c r="BC36">
+        <v>7</v>
+      </c>
+      <c r="BD36">
+        <v>1.67</v>
+      </c>
+      <c r="BE36">
+        <v>6.4</v>
+      </c>
+      <c r="BF36">
+        <v>2.48</v>
+      </c>
+      <c r="BG36">
+        <v>1.41</v>
+      </c>
+      <c r="BH36">
+        <v>2.73</v>
+      </c>
+      <c r="BI36">
+        <v>1.75</v>
+      </c>
+      <c r="BJ36">
+        <v>2.03</v>
+      </c>
+      <c r="BK36">
+        <v>2.22</v>
+      </c>
+      <c r="BL36">
+        <v>1.6</v>
+      </c>
+      <c r="BM36">
+        <v>2.98</v>
+      </c>
+      <c r="BN36">
+        <v>1.32</v>
+      </c>
+      <c r="BO36">
+        <v>4.25</v>
+      </c>
+      <c r="BP36">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7492187</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45550.41666666666</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>93</v>
+      </c>
+      <c r="P37" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q37">
+        <v>2.5</v>
+      </c>
+      <c r="R37">
+        <v>2.05</v>
+      </c>
+      <c r="S37">
+        <v>5.5</v>
+      </c>
+      <c r="T37">
+        <v>1.5</v>
+      </c>
+      <c r="U37">
+        <v>2.5</v>
+      </c>
+      <c r="V37">
+        <v>3.5</v>
+      </c>
+      <c r="W37">
+        <v>1.29</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>1.06</v>
+      </c>
+      <c r="Z37">
+        <v>1.73</v>
+      </c>
+      <c r="AA37">
+        <v>3.4</v>
+      </c>
+      <c r="AB37">
+        <v>4.8</v>
+      </c>
+      <c r="AC37">
+        <v>1.09</v>
+      </c>
+      <c r="AD37">
+        <v>8</v>
+      </c>
+      <c r="AE37">
+        <v>1.45</v>
+      </c>
+      <c r="AF37">
+        <v>2.8</v>
+      </c>
+      <c r="AG37">
+        <v>2.3</v>
+      </c>
+      <c r="AH37">
+        <v>1.6</v>
+      </c>
+      <c r="AI37">
+        <v>2.1</v>
+      </c>
+      <c r="AJ37">
+        <v>1.67</v>
+      </c>
+      <c r="AK37">
+        <v>1.14</v>
+      </c>
+      <c r="AL37">
+        <v>1.25</v>
+      </c>
+      <c r="AM37">
+        <v>2.04</v>
+      </c>
+      <c r="AN37">
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>2</v>
+      </c>
+      <c r="AQ37">
+        <v>0.5</v>
+      </c>
+      <c r="AR37">
+        <v>1.46</v>
+      </c>
+      <c r="AS37">
+        <v>1.19</v>
+      </c>
+      <c r="AT37">
+        <v>2.65</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>7</v>
+      </c>
+      <c r="AW37">
+        <v>5</v>
+      </c>
+      <c r="AX37">
+        <v>12</v>
+      </c>
+      <c r="AY37">
+        <v>5</v>
+      </c>
+      <c r="AZ37">
+        <v>19</v>
+      </c>
+      <c r="BA37">
+        <v>2</v>
+      </c>
+      <c r="BB37">
+        <v>7</v>
+      </c>
+      <c r="BC37">
+        <v>9</v>
+      </c>
+      <c r="BD37">
+        <v>1.47</v>
+      </c>
+      <c r="BE37">
+        <v>6.75</v>
+      </c>
+      <c r="BF37">
+        <v>3.05</v>
+      </c>
+      <c r="BG37">
+        <v>1.29</v>
+      </c>
+      <c r="BH37">
+        <v>3.2</v>
+      </c>
+      <c r="BI37">
+        <v>1.5</v>
+      </c>
+      <c r="BJ37">
+        <v>2.4</v>
+      </c>
+      <c r="BK37">
+        <v>1.81</v>
+      </c>
+      <c r="BL37">
+        <v>1.88</v>
+      </c>
+      <c r="BM37">
+        <v>2.25</v>
+      </c>
+      <c r="BN37">
+        <v>1.55</v>
+      </c>
+      <c r="BO37">
+        <v>2.88</v>
+      </c>
+      <c r="BP37">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7492179</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45550.54166666666</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38" t="s">
+        <v>93</v>
+      </c>
+      <c r="P38" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q38">
+        <v>4.5</v>
+      </c>
+      <c r="R38">
+        <v>2.25</v>
+      </c>
+      <c r="S38">
+        <v>2.38</v>
+      </c>
+      <c r="T38">
+        <v>1.36</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>2.63</v>
+      </c>
+      <c r="W38">
+        <v>1.44</v>
+      </c>
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Y38">
+        <v>1.1</v>
+      </c>
+      <c r="Z38">
+        <v>4.36</v>
+      </c>
+      <c r="AA38">
+        <v>3.7</v>
+      </c>
+      <c r="AB38">
+        <v>1.8</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>10</v>
+      </c>
+      <c r="AE38">
+        <v>1.23</v>
+      </c>
+      <c r="AF38">
+        <v>3.7</v>
+      </c>
+      <c r="AG38">
+        <v>1.82</v>
+      </c>
+      <c r="AH38">
+        <v>1.92</v>
+      </c>
+      <c r="AI38">
+        <v>1.75</v>
+      </c>
+      <c r="AJ38">
+        <v>2</v>
+      </c>
+      <c r="AK38">
+        <v>2.07</v>
+      </c>
+      <c r="AL38">
+        <v>1.29</v>
+      </c>
+      <c r="AM38">
+        <v>1.23</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0.67</v>
+      </c>
+      <c r="AQ38">
+        <v>1.5</v>
+      </c>
+      <c r="AR38">
+        <v>1.24</v>
+      </c>
+      <c r="AS38">
+        <v>1.55</v>
+      </c>
+      <c r="AT38">
+        <v>2.79</v>
+      </c>
+      <c r="AU38">
+        <v>6</v>
+      </c>
+      <c r="AV38">
+        <v>6</v>
+      </c>
+      <c r="AW38">
+        <v>10</v>
+      </c>
+      <c r="AX38">
+        <v>4</v>
+      </c>
+      <c r="AY38">
+        <v>16</v>
+      </c>
+      <c r="AZ38">
+        <v>10</v>
+      </c>
+      <c r="BA38">
+        <v>7</v>
+      </c>
+      <c r="BB38">
+        <v>4</v>
+      </c>
+      <c r="BC38">
+        <v>11</v>
+      </c>
+      <c r="BD38">
+        <v>2.9</v>
+      </c>
+      <c r="BE38">
+        <v>6.75</v>
+      </c>
+      <c r="BF38">
+        <v>1.49</v>
+      </c>
+      <c r="BG38">
+        <v>1.21</v>
+      </c>
+      <c r="BH38">
+        <v>3.74</v>
+      </c>
+      <c r="BI38">
+        <v>1.43</v>
+      </c>
+      <c r="BJ38">
+        <v>2.66</v>
+      </c>
+      <c r="BK38">
+        <v>1.76</v>
+      </c>
+      <c r="BL38">
+        <v>2.02</v>
+      </c>
+      <c r="BM38">
+        <v>2.22</v>
+      </c>
+      <c r="BN38">
+        <v>1.6</v>
+      </c>
+      <c r="BO38">
+        <v>2.91</v>
+      </c>
+      <c r="BP38">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7492185</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45550.65625</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>116</v>
+      </c>
+      <c r="P39" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q39">
+        <v>6.5</v>
+      </c>
+      <c r="R39">
+        <v>2.5</v>
+      </c>
+      <c r="S39">
+        <v>1.91</v>
+      </c>
+      <c r="T39">
+        <v>1.3</v>
+      </c>
+      <c r="U39">
+        <v>3.4</v>
+      </c>
+      <c r="V39">
+        <v>2.5</v>
+      </c>
+      <c r="W39">
+        <v>1.5</v>
+      </c>
+      <c r="X39">
+        <v>6</v>
+      </c>
+      <c r="Y39">
+        <v>1.13</v>
+      </c>
+      <c r="Z39">
+        <v>7.43</v>
+      </c>
+      <c r="AA39">
+        <v>4.85</v>
+      </c>
+      <c r="AB39">
+        <v>1.4</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>10.5</v>
+      </c>
+      <c r="AE39">
+        <v>1.19</v>
+      </c>
+      <c r="AF39">
+        <v>4.15</v>
+      </c>
+      <c r="AG39">
+        <v>1.65</v>
+      </c>
+      <c r="AH39">
+        <v>2.16</v>
+      </c>
+      <c r="AI39">
+        <v>1.91</v>
+      </c>
+      <c r="AJ39">
+        <v>1.91</v>
+      </c>
+      <c r="AK39">
+        <v>2.89</v>
+      </c>
+      <c r="AL39">
+        <v>1.22</v>
+      </c>
+      <c r="AM39">
+        <v>1.11</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>0.5</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>1.18</v>
+      </c>
+      <c r="AS39">
+        <v>1.83</v>
+      </c>
+      <c r="AT39">
+        <v>3.01</v>
+      </c>
+      <c r="AU39">
+        <v>3</v>
+      </c>
+      <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>2</v>
+      </c>
+      <c r="AX39">
+        <v>10</v>
+      </c>
+      <c r="AY39">
+        <v>5</v>
+      </c>
+      <c r="AZ39">
+        <v>13</v>
+      </c>
+      <c r="BA39">
+        <v>1</v>
+      </c>
+      <c r="BB39">
+        <v>8</v>
+      </c>
+      <c r="BC39">
+        <v>9</v>
+      </c>
+      <c r="BD39">
+        <v>3.3</v>
+      </c>
+      <c r="BE39">
+        <v>7</v>
+      </c>
+      <c r="BF39">
+        <v>1.4</v>
+      </c>
+      <c r="BG39">
+        <v>1.3</v>
+      </c>
+      <c r="BH39">
+        <v>3.08</v>
+      </c>
+      <c r="BI39">
+        <v>1.58</v>
+      </c>
+      <c r="BJ39">
+        <v>2.26</v>
+      </c>
+      <c r="BK39">
+        <v>2.01</v>
+      </c>
+      <c r="BL39">
+        <v>1.77</v>
+      </c>
+      <c r="BM39">
+        <v>2.62</v>
+      </c>
+      <c r="BN39">
+        <v>1.44</v>
+      </c>
+      <c r="BO39">
+        <v>3.56</v>
+      </c>
+      <c r="BP39">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7492186</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45551.5625</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40" t="s">
+        <v>117</v>
+      </c>
+      <c r="P40" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>2.1</v>
+      </c>
+      <c r="S40">
+        <v>3.75</v>
+      </c>
+      <c r="T40">
+        <v>1.4</v>
+      </c>
+      <c r="U40">
+        <v>2.75</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>1.36</v>
+      </c>
+      <c r="X40">
+        <v>8</v>
+      </c>
+      <c r="Y40">
+        <v>1.08</v>
+      </c>
+      <c r="Z40">
+        <v>2.3</v>
+      </c>
+      <c r="AA40">
+        <v>3.32</v>
+      </c>
+      <c r="AB40">
+        <v>2.74</v>
+      </c>
+      <c r="AC40">
+        <v>1.04</v>
+      </c>
+      <c r="AD40">
+        <v>8.5</v>
+      </c>
+      <c r="AE40">
+        <v>1.27</v>
+      </c>
+      <c r="AF40">
+        <v>3.5</v>
+      </c>
+      <c r="AG40">
+        <v>2.06</v>
+      </c>
+      <c r="AH40">
+        <v>1.7</v>
+      </c>
+      <c r="AI40">
+        <v>1.75</v>
+      </c>
+      <c r="AJ40">
+        <v>2</v>
+      </c>
+      <c r="AK40">
+        <v>1.29</v>
+      </c>
+      <c r="AL40">
+        <v>1.26</v>
+      </c>
+      <c r="AM40">
+        <v>1.65</v>
+      </c>
+      <c r="AN40">
+        <v>2</v>
+      </c>
+      <c r="AO40">
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>1.33</v>
+      </c>
+      <c r="AQ40">
+        <v>2</v>
+      </c>
+      <c r="AR40">
+        <v>1.32</v>
+      </c>
+      <c r="AS40">
+        <v>0.67</v>
+      </c>
+      <c r="AT40">
+        <v>1.99</v>
+      </c>
+      <c r="AU40">
+        <v>4</v>
+      </c>
+      <c r="AV40">
+        <v>7</v>
+      </c>
+      <c r="AW40">
+        <v>5</v>
+      </c>
+      <c r="AX40">
+        <v>9</v>
+      </c>
+      <c r="AY40">
+        <v>9</v>
+      </c>
+      <c r="AZ40">
+        <v>16</v>
+      </c>
+      <c r="BA40">
+        <v>5</v>
+      </c>
+      <c r="BB40">
+        <v>6</v>
+      </c>
+      <c r="BC40">
+        <v>11</v>
+      </c>
+      <c r="BD40">
+        <v>1.71</v>
+      </c>
+      <c r="BE40">
+        <v>8.9</v>
+      </c>
+      <c r="BF40">
+        <v>2.56</v>
+      </c>
+      <c r="BG40">
+        <v>1.17</v>
+      </c>
+      <c r="BH40">
+        <v>4.2</v>
+      </c>
+      <c r="BI40">
+        <v>1.35</v>
+      </c>
+      <c r="BJ40">
+        <v>2.84</v>
+      </c>
+      <c r="BK40">
+        <v>1.64</v>
+      </c>
+      <c r="BL40">
+        <v>2.15</v>
+      </c>
+      <c r="BM40">
+        <v>2.09</v>
+      </c>
+      <c r="BN40">
+        <v>1.71</v>
+      </c>
+      <c r="BO40">
+        <v>2.69</v>
+      </c>
+      <c r="BP40">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7492183</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45551.65625</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q41">
+        <v>2.2</v>
+      </c>
+      <c r="R41">
+        <v>2.2</v>
+      </c>
+      <c r="S41">
+        <v>5.5</v>
+      </c>
+      <c r="T41">
+        <v>1.4</v>
+      </c>
+      <c r="U41">
+        <v>2.75</v>
+      </c>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>1.36</v>
+      </c>
+      <c r="X41">
+        <v>8</v>
+      </c>
+      <c r="Y41">
+        <v>1.08</v>
+      </c>
+      <c r="Z41">
+        <v>1.64</v>
+      </c>
+      <c r="AA41">
+        <v>3.51</v>
+      </c>
+      <c r="AB41">
+        <v>4.86</v>
+      </c>
+      <c r="AC41">
+        <v>1.02</v>
+      </c>
+      <c r="AD41">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE41">
+        <v>1.3</v>
+      </c>
+      <c r="AF41">
+        <v>3.18</v>
+      </c>
+      <c r="AG41">
+        <v>2.15</v>
+      </c>
+      <c r="AH41">
+        <v>1.65</v>
+      </c>
+      <c r="AI41">
+        <v>1.95</v>
+      </c>
+      <c r="AJ41">
+        <v>1.8</v>
+      </c>
+      <c r="AK41">
+        <v>1.09</v>
+      </c>
+      <c r="AL41">
+        <v>1.2</v>
+      </c>
+      <c r="AM41">
+        <v>2.32</v>
+      </c>
+      <c r="AN41">
+        <v>2</v>
+      </c>
+      <c r="AO41">
+        <v>3</v>
+      </c>
+      <c r="AP41">
+        <v>2.33</v>
+      </c>
+      <c r="AQ41">
+        <v>1.5</v>
+      </c>
+      <c r="AR41">
+        <v>1.35</v>
+      </c>
+      <c r="AS41">
+        <v>1.04</v>
+      </c>
+      <c r="AT41">
+        <v>2.39</v>
+      </c>
+      <c r="AU41">
+        <v>8</v>
+      </c>
+      <c r="AV41">
+        <v>3</v>
+      </c>
+      <c r="AW41">
+        <v>4</v>
+      </c>
+      <c r="AX41">
+        <v>4</v>
+      </c>
+      <c r="AY41">
+        <v>12</v>
+      </c>
+      <c r="AZ41">
+        <v>7</v>
+      </c>
+      <c r="BA41">
+        <v>9</v>
+      </c>
+      <c r="BB41">
+        <v>6</v>
+      </c>
+      <c r="BC41">
+        <v>15</v>
+      </c>
+      <c r="BD41">
+        <v>1.43</v>
+      </c>
+      <c r="BE41">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF41">
+        <v>3.58</v>
+      </c>
+      <c r="BG41">
+        <v>1.38</v>
+      </c>
+      <c r="BH41">
+        <v>2.8</v>
+      </c>
+      <c r="BI41">
+        <v>1.63</v>
+      </c>
+      <c r="BJ41">
+        <v>2.2</v>
+      </c>
+      <c r="BK41">
+        <v>2.04</v>
+      </c>
+      <c r="BL41">
+        <v>1.73</v>
+      </c>
+      <c r="BM41">
+        <v>2.6</v>
+      </c>
+      <c r="BN41">
+        <v>1.44</v>
+      </c>
+      <c r="BO41">
+        <v>3.4</v>
+      </c>
+      <c r="BP41">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -439,7 +439,7 @@
     <t>['88']</t>
   </si>
   <si>
-    <t>['49', '68', '77']</t>
+    <t>['50', '68', '77']</t>
   </si>
   <si>
     <t>['7']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="146">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,9 @@
     <t>['5', '20']</t>
   </si>
   <si>
+    <t>['12', '90+3']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -443,6 +446,12 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['33', '49']</t>
+  </si>
+  <si>
+    <t>['10', '33', '79']</t>
   </si>
 </sst>
 </file>
@@ -804,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1072,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1269,7 +1278,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1475,7 +1484,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1556,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1887,7 +1896,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2171,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2299,7 +2308,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2583,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2711,7 +2720,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3123,7 +3132,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3329,7 +3338,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3741,7 +3750,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4359,7 +4368,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4440,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4771,7 +4780,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4849,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -4977,7 +4986,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5055,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5183,7 +5192,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5264,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5595,7 +5604,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -5676,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR24">
         <v>2.04</v>
@@ -6007,7 +6016,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6213,7 +6222,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6419,7 +6428,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6625,7 +6634,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7243,7 +7252,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7861,7 +7870,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8067,7 +8076,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -8479,7 +8488,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8557,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -8685,7 +8694,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -8891,7 +8900,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9097,7 +9106,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9253,6 +9262,418 @@
         <v>3.4</v>
       </c>
       <c r="BP41">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7492189</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45555.5625</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>93</v>
+      </c>
+      <c r="P42" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>2.05</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>1.44</v>
+      </c>
+      <c r="U42">
+        <v>2.63</v>
+      </c>
+      <c r="V42">
+        <v>3.25</v>
+      </c>
+      <c r="W42">
+        <v>1.33</v>
+      </c>
+      <c r="X42">
+        <v>10</v>
+      </c>
+      <c r="Y42">
+        <v>1.06</v>
+      </c>
+      <c r="Z42">
+        <v>2.28</v>
+      </c>
+      <c r="AA42">
+        <v>3.25</v>
+      </c>
+      <c r="AB42">
+        <v>3.25</v>
+      </c>
+      <c r="AC42">
+        <v>1.06</v>
+      </c>
+      <c r="AD42">
+        <v>8</v>
+      </c>
+      <c r="AE42">
+        <v>1.38</v>
+      </c>
+      <c r="AF42">
+        <v>3</v>
+      </c>
+      <c r="AG42">
+        <v>2.25</v>
+      </c>
+      <c r="AH42">
+        <v>1.64</v>
+      </c>
+      <c r="AI42">
+        <v>1.95</v>
+      </c>
+      <c r="AJ42">
+        <v>1.8</v>
+      </c>
+      <c r="AK42">
+        <v>1.35</v>
+      </c>
+      <c r="AL42">
+        <v>1.35</v>
+      </c>
+      <c r="AM42">
+        <v>1.62</v>
+      </c>
+      <c r="AN42">
+        <v>0.67</v>
+      </c>
+      <c r="AO42">
+        <v>2</v>
+      </c>
+      <c r="AP42">
+        <v>0.5</v>
+      </c>
+      <c r="AQ42">
+        <v>2.33</v>
+      </c>
+      <c r="AR42">
+        <v>1.4</v>
+      </c>
+      <c r="AS42">
+        <v>0.9</v>
+      </c>
+      <c r="AT42">
+        <v>2.3</v>
+      </c>
+      <c r="AU42">
+        <v>3</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>12</v>
+      </c>
+      <c r="AX42">
+        <v>3</v>
+      </c>
+      <c r="AY42">
+        <v>15</v>
+      </c>
+      <c r="AZ42">
+        <v>8</v>
+      </c>
+      <c r="BA42">
+        <v>10</v>
+      </c>
+      <c r="BB42">
+        <v>4</v>
+      </c>
+      <c r="BC42">
+        <v>14</v>
+      </c>
+      <c r="BD42">
+        <v>1.73</v>
+      </c>
+      <c r="BE42">
+        <v>6.75</v>
+      </c>
+      <c r="BF42">
+        <v>2.32</v>
+      </c>
+      <c r="BG42">
+        <v>1.21</v>
+      </c>
+      <c r="BH42">
+        <v>3.8</v>
+      </c>
+      <c r="BI42">
+        <v>1.38</v>
+      </c>
+      <c r="BJ42">
+        <v>2.7</v>
+      </c>
+      <c r="BK42">
+        <v>1.65</v>
+      </c>
+      <c r="BL42">
+        <v>2.08</v>
+      </c>
+      <c r="BM42">
+        <v>2</v>
+      </c>
+      <c r="BN42">
+        <v>1.71</v>
+      </c>
+      <c r="BO42">
+        <v>2.55</v>
+      </c>
+      <c r="BP42">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7492191</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45555.65625</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q43">
+        <v>3.4</v>
+      </c>
+      <c r="R43">
+        <v>2.05</v>
+      </c>
+      <c r="S43">
+        <v>3.4</v>
+      </c>
+      <c r="T43">
+        <v>1.44</v>
+      </c>
+      <c r="U43">
+        <v>2.63</v>
+      </c>
+      <c r="V43">
+        <v>3.25</v>
+      </c>
+      <c r="W43">
+        <v>1.33</v>
+      </c>
+      <c r="X43">
+        <v>9</v>
+      </c>
+      <c r="Y43">
+        <v>1.07</v>
+      </c>
+      <c r="Z43">
+        <v>2.63</v>
+      </c>
+      <c r="AA43">
+        <v>3.25</v>
+      </c>
+      <c r="AB43">
+        <v>2.75</v>
+      </c>
+      <c r="AC43">
+        <v>1.07</v>
+      </c>
+      <c r="AD43">
+        <v>7.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.38</v>
+      </c>
+      <c r="AF43">
+        <v>3</v>
+      </c>
+      <c r="AG43">
+        <v>2.32</v>
+      </c>
+      <c r="AH43">
+        <v>1.61</v>
+      </c>
+      <c r="AI43">
+        <v>1.91</v>
+      </c>
+      <c r="AJ43">
+        <v>1.91</v>
+      </c>
+      <c r="AK43">
+        <v>1.48</v>
+      </c>
+      <c r="AL43">
+        <v>1.36</v>
+      </c>
+      <c r="AM43">
+        <v>1.45</v>
+      </c>
+      <c r="AN43">
+        <v>1.5</v>
+      </c>
+      <c r="AO43">
+        <v>2</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>2.33</v>
+      </c>
+      <c r="AR43">
+        <v>0.93</v>
+      </c>
+      <c r="AS43">
+        <v>1.23</v>
+      </c>
+      <c r="AT43">
+        <v>2.16</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>4</v>
+      </c>
+      <c r="AW43">
+        <v>4</v>
+      </c>
+      <c r="AX43">
+        <v>6</v>
+      </c>
+      <c r="AY43">
+        <v>7</v>
+      </c>
+      <c r="AZ43">
+        <v>10</v>
+      </c>
+      <c r="BA43">
+        <v>5</v>
+      </c>
+      <c r="BB43">
+        <v>6</v>
+      </c>
+      <c r="BC43">
+        <v>11</v>
+      </c>
+      <c r="BD43">
+        <v>1.98</v>
+      </c>
+      <c r="BE43">
+        <v>6.25</v>
+      </c>
+      <c r="BF43">
+        <v>2</v>
+      </c>
+      <c r="BG43">
+        <v>1.34</v>
+      </c>
+      <c r="BH43">
+        <v>2.9</v>
+      </c>
+      <c r="BI43">
+        <v>1.58</v>
+      </c>
+      <c r="BJ43">
+        <v>2.18</v>
+      </c>
+      <c r="BK43">
+        <v>1.95</v>
+      </c>
+      <c r="BL43">
+        <v>1.75</v>
+      </c>
+      <c r="BM43">
+        <v>2.48</v>
+      </c>
+      <c r="BN43">
+        <v>1.46</v>
+      </c>
+      <c r="BO43">
+        <v>3.2</v>
+      </c>
+      <c r="BP43">
         <v>1.29</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,12 @@
     <t>['12', '90+3']</t>
   </si>
   <si>
+    <t>['63', '85']</t>
+  </si>
+  <si>
+    <t>['32', '59']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -452,6 +458,9 @@
   </si>
   <si>
     <t>['10', '33', '79']</t>
+  </si>
+  <si>
+    <t>['90+3', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1072,7 +1081,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1278,7 +1287,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1484,7 +1493,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1896,7 +1905,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2183,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2308,7 +2317,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2720,7 +2729,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -2798,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3004,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>0.33</v>
@@ -3132,7 +3141,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3338,7 +3347,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3750,7 +3759,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -3831,7 +3840,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ15">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4368,7 +4377,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4780,7 +4789,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4986,7 +4995,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5192,7 +5201,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5270,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>2.33</v>
@@ -5604,7 +5613,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -5888,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -6016,7 +6025,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6097,7 +6106,7 @@
         <v>3</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -6222,7 +6231,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6428,7 +6437,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6634,7 +6643,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7124,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7252,7 +7261,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7870,7 +7879,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8076,7 +8085,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -8488,7 +8497,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8569,7 +8578,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -8694,7 +8703,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -8900,7 +8909,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9106,7 +9115,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9312,7 +9321,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9518,7 +9527,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9675,6 +9684,624 @@
       </c>
       <c r="BP43">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7492197</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45556.41666666666</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" t="s">
+        <v>71</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>120</v>
+      </c>
+      <c r="P44" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q44">
+        <v>3.75</v>
+      </c>
+      <c r="R44">
+        <v>2.05</v>
+      </c>
+      <c r="S44">
+        <v>3.1</v>
+      </c>
+      <c r="T44">
+        <v>1.44</v>
+      </c>
+      <c r="U44">
+        <v>2.63</v>
+      </c>
+      <c r="V44">
+        <v>3.25</v>
+      </c>
+      <c r="W44">
+        <v>1.33</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
+        <v>1.06</v>
+      </c>
+      <c r="Z44">
+        <v>3.3</v>
+      </c>
+      <c r="AA44">
+        <v>3.1</v>
+      </c>
+      <c r="AB44">
+        <v>2.25</v>
+      </c>
+      <c r="AC44">
+        <v>1.07</v>
+      </c>
+      <c r="AD44">
+        <v>9.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.4</v>
+      </c>
+      <c r="AF44">
+        <v>3</v>
+      </c>
+      <c r="AG44">
+        <v>2.05</v>
+      </c>
+      <c r="AH44">
+        <v>1.7</v>
+      </c>
+      <c r="AI44">
+        <v>1.91</v>
+      </c>
+      <c r="AJ44">
+        <v>1.91</v>
+      </c>
+      <c r="AK44">
+        <v>1.63</v>
+      </c>
+      <c r="AL44">
+        <v>1.3</v>
+      </c>
+      <c r="AM44">
+        <v>1.38</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>3</v>
+      </c>
+      <c r="AP44">
+        <v>1.5</v>
+      </c>
+      <c r="AQ44">
+        <v>1.5</v>
+      </c>
+      <c r="AR44">
+        <v>1.37</v>
+      </c>
+      <c r="AS44">
+        <v>0.93</v>
+      </c>
+      <c r="AT44">
+        <v>2.3</v>
+      </c>
+      <c r="AU44">
+        <v>5</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>5</v>
+      </c>
+      <c r="AX44">
+        <v>4</v>
+      </c>
+      <c r="AY44">
+        <v>10</v>
+      </c>
+      <c r="AZ44">
+        <v>4</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>4</v>
+      </c>
+      <c r="BC44">
+        <v>7</v>
+      </c>
+      <c r="BD44">
+        <v>1.98</v>
+      </c>
+      <c r="BE44">
+        <v>6.4</v>
+      </c>
+      <c r="BF44">
+        <v>1.98</v>
+      </c>
+      <c r="BG44">
+        <v>1.32</v>
+      </c>
+      <c r="BH44">
+        <v>3.05</v>
+      </c>
+      <c r="BI44">
+        <v>1.54</v>
+      </c>
+      <c r="BJ44">
+        <v>2.3</v>
+      </c>
+      <c r="BK44">
+        <v>1.88</v>
+      </c>
+      <c r="BL44">
+        <v>1.81</v>
+      </c>
+      <c r="BM44">
+        <v>2.38</v>
+      </c>
+      <c r="BN44">
+        <v>1.5</v>
+      </c>
+      <c r="BO44">
+        <v>3.05</v>
+      </c>
+      <c r="BP44">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7492193</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45556.54166666666</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P45" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q45">
+        <v>2.88</v>
+      </c>
+      <c r="R45">
+        <v>2.05</v>
+      </c>
+      <c r="S45">
+        <v>4</v>
+      </c>
+      <c r="T45">
+        <v>1.44</v>
+      </c>
+      <c r="U45">
+        <v>2.63</v>
+      </c>
+      <c r="V45">
+        <v>3.25</v>
+      </c>
+      <c r="W45">
+        <v>1.33</v>
+      </c>
+      <c r="X45">
+        <v>10</v>
+      </c>
+      <c r="Y45">
+        <v>1.06</v>
+      </c>
+      <c r="Z45">
+        <v>2.2</v>
+      </c>
+      <c r="AA45">
+        <v>3.1</v>
+      </c>
+      <c r="AB45">
+        <v>3.4</v>
+      </c>
+      <c r="AC45">
+        <v>1.07</v>
+      </c>
+      <c r="AD45">
+        <v>9</v>
+      </c>
+      <c r="AE45">
+        <v>1.4</v>
+      </c>
+      <c r="AF45">
+        <v>3</v>
+      </c>
+      <c r="AG45">
+        <v>2.1</v>
+      </c>
+      <c r="AH45">
+        <v>1.65</v>
+      </c>
+      <c r="AI45">
+        <v>1.95</v>
+      </c>
+      <c r="AJ45">
+        <v>1.8</v>
+      </c>
+      <c r="AK45">
+        <v>1.33</v>
+      </c>
+      <c r="AL45">
+        <v>1.28</v>
+      </c>
+      <c r="AM45">
+        <v>1.7</v>
+      </c>
+      <c r="AN45">
+        <v>2</v>
+      </c>
+      <c r="AO45">
+        <v>1.5</v>
+      </c>
+      <c r="AP45">
+        <v>1.67</v>
+      </c>
+      <c r="AQ45">
+        <v>1.33</v>
+      </c>
+      <c r="AR45">
+        <v>1.23</v>
+      </c>
+      <c r="AS45">
+        <v>1.48</v>
+      </c>
+      <c r="AT45">
+        <v>2.71</v>
+      </c>
+      <c r="AU45">
+        <v>2</v>
+      </c>
+      <c r="AV45">
+        <v>2</v>
+      </c>
+      <c r="AW45">
+        <v>4</v>
+      </c>
+      <c r="AX45">
+        <v>2</v>
+      </c>
+      <c r="AY45">
+        <v>6</v>
+      </c>
+      <c r="AZ45">
+        <v>4</v>
+      </c>
+      <c r="BA45">
+        <v>4</v>
+      </c>
+      <c r="BB45">
+        <v>3</v>
+      </c>
+      <c r="BC45">
+        <v>7</v>
+      </c>
+      <c r="BD45">
+        <v>1.92</v>
+      </c>
+      <c r="BE45">
+        <v>6.4</v>
+      </c>
+      <c r="BF45">
+        <v>2.08</v>
+      </c>
+      <c r="BG45">
+        <v>1.4</v>
+      </c>
+      <c r="BH45">
+        <v>2.7</v>
+      </c>
+      <c r="BI45">
+        <v>1.67</v>
+      </c>
+      <c r="BJ45">
+        <v>2.05</v>
+      </c>
+      <c r="BK45">
+        <v>2.08</v>
+      </c>
+      <c r="BL45">
+        <v>1.65</v>
+      </c>
+      <c r="BM45">
+        <v>2.65</v>
+      </c>
+      <c r="BN45">
+        <v>1.41</v>
+      </c>
+      <c r="BO45">
+        <v>3.55</v>
+      </c>
+      <c r="BP45">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7492194</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45556.65625</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q46">
+        <v>2.88</v>
+      </c>
+      <c r="R46">
+        <v>2.1</v>
+      </c>
+      <c r="S46">
+        <v>3.75</v>
+      </c>
+      <c r="T46">
+        <v>1.4</v>
+      </c>
+      <c r="U46">
+        <v>2.75</v>
+      </c>
+      <c r="V46">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <v>1.36</v>
+      </c>
+      <c r="X46">
+        <v>8</v>
+      </c>
+      <c r="Y46">
+        <v>1.08</v>
+      </c>
+      <c r="Z46">
+        <v>2.2</v>
+      </c>
+      <c r="AA46">
+        <v>3.3</v>
+      </c>
+      <c r="AB46">
+        <v>3.3</v>
+      </c>
+      <c r="AC46">
+        <v>1.02</v>
+      </c>
+      <c r="AD46">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE46">
+        <v>1.28</v>
+      </c>
+      <c r="AF46">
+        <v>3.12</v>
+      </c>
+      <c r="AG46">
+        <v>1.91</v>
+      </c>
+      <c r="AH46">
+        <v>1.85</v>
+      </c>
+      <c r="AI46">
+        <v>1.75</v>
+      </c>
+      <c r="AJ46">
+        <v>2</v>
+      </c>
+      <c r="AK46">
+        <v>1.36</v>
+      </c>
+      <c r="AL46">
+        <v>1.32</v>
+      </c>
+      <c r="AM46">
+        <v>1.67</v>
+      </c>
+      <c r="AN46">
+        <v>1.5</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>1.33</v>
+      </c>
+      <c r="AQ46">
+        <v>0.5</v>
+      </c>
+      <c r="AR46">
+        <v>1.54</v>
+      </c>
+      <c r="AS46">
+        <v>1</v>
+      </c>
+      <c r="AT46">
+        <v>2.54</v>
+      </c>
+      <c r="AU46">
+        <v>4</v>
+      </c>
+      <c r="AV46">
+        <v>11</v>
+      </c>
+      <c r="AW46">
+        <v>6</v>
+      </c>
+      <c r="AX46">
+        <v>3</v>
+      </c>
+      <c r="AY46">
+        <v>10</v>
+      </c>
+      <c r="AZ46">
+        <v>14</v>
+      </c>
+      <c r="BA46">
+        <v>2</v>
+      </c>
+      <c r="BB46">
+        <v>12</v>
+      </c>
+      <c r="BC46">
+        <v>14</v>
+      </c>
+      <c r="BD46">
+        <v>1.77</v>
+      </c>
+      <c r="BE46">
+        <v>6.25</v>
+      </c>
+      <c r="BF46">
+        <v>2.3</v>
+      </c>
+      <c r="BG46">
+        <v>1.37</v>
+      </c>
+      <c r="BH46">
+        <v>2.8</v>
+      </c>
+      <c r="BI46">
+        <v>1.65</v>
+      </c>
+      <c r="BJ46">
+        <v>2.08</v>
+      </c>
+      <c r="BK46">
+        <v>2.05</v>
+      </c>
+      <c r="BL46">
+        <v>1.67</v>
+      </c>
+      <c r="BM46">
+        <v>2.65</v>
+      </c>
+      <c r="BN46">
+        <v>1.41</v>
+      </c>
+      <c r="BO46">
+        <v>3.45</v>
+      </c>
+      <c r="BP46">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,15 @@
     <t>['32', '59']</t>
   </si>
   <si>
+    <t>['49', '90']</t>
+  </si>
+  <si>
+    <t>['19', '49', '70']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -461,6 +470,15 @@
   </si>
   <si>
     <t>['90+3', '90+5']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['24', '80']</t>
+  </si>
+  <si>
+    <t>['10', '89']</t>
   </si>
 </sst>
 </file>
@@ -822,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,7 +1099,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1287,7 +1305,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1493,7 +1511,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1905,7 +1923,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -1986,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2317,7 +2335,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2729,7 +2747,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3141,7 +3159,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3347,7 +3365,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3428,7 +3446,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>1.45</v>
@@ -3631,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -3759,7 +3777,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -3837,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4043,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
         <v>0.33</v>
@@ -4377,7 +4395,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4455,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>2.33</v>
@@ -4664,7 +4682,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4789,7 +4807,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4995,7 +5013,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5201,7 +5219,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5485,7 +5503,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -5613,7 +5631,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6025,7 +6043,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6231,7 +6249,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6312,7 +6330,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6437,7 +6455,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6515,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6643,7 +6661,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7261,7 +7279,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7342,7 +7360,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -7879,7 +7897,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8085,7 +8103,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -8497,7 +8515,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8703,7 +8721,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -8781,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -8909,7 +8927,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8990,7 +9008,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9115,7 +9133,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9321,7 +9339,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9527,7 +9545,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10145,7 +10163,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10302,6 +10320,830 @@
       </c>
       <c r="BP46">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7492190</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45556.875</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>122</v>
+      </c>
+      <c r="P47" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q47">
+        <v>2.88</v>
+      </c>
+      <c r="R47">
+        <v>2.1</v>
+      </c>
+      <c r="S47">
+        <v>3.75</v>
+      </c>
+      <c r="T47">
+        <v>1.4</v>
+      </c>
+      <c r="U47">
+        <v>2.75</v>
+      </c>
+      <c r="V47">
+        <v>3</v>
+      </c>
+      <c r="W47">
+        <v>1.36</v>
+      </c>
+      <c r="X47">
+        <v>8</v>
+      </c>
+      <c r="Y47">
+        <v>1.08</v>
+      </c>
+      <c r="Z47">
+        <v>2.25</v>
+      </c>
+      <c r="AA47">
+        <v>3.3</v>
+      </c>
+      <c r="AB47">
+        <v>3.25</v>
+      </c>
+      <c r="AC47">
+        <v>1.07</v>
+      </c>
+      <c r="AD47">
+        <v>10</v>
+      </c>
+      <c r="AE47">
+        <v>1.33</v>
+      </c>
+      <c r="AF47">
+        <v>3.3</v>
+      </c>
+      <c r="AG47">
+        <v>2.1</v>
+      </c>
+      <c r="AH47">
+        <v>1.73</v>
+      </c>
+      <c r="AI47">
+        <v>1.75</v>
+      </c>
+      <c r="AJ47">
+        <v>2</v>
+      </c>
+      <c r="AK47">
+        <v>1.33</v>
+      </c>
+      <c r="AL47">
+        <v>1.33</v>
+      </c>
+      <c r="AM47">
+        <v>1.6</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>1.67</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>1.69</v>
+      </c>
+      <c r="AS47">
+        <v>1.91</v>
+      </c>
+      <c r="AT47">
+        <v>3.6</v>
+      </c>
+      <c r="AU47">
+        <v>3</v>
+      </c>
+      <c r="AV47">
+        <v>7</v>
+      </c>
+      <c r="AW47">
+        <v>9</v>
+      </c>
+      <c r="AX47">
+        <v>5</v>
+      </c>
+      <c r="AY47">
+        <v>12</v>
+      </c>
+      <c r="AZ47">
+        <v>12</v>
+      </c>
+      <c r="BA47">
+        <v>3</v>
+      </c>
+      <c r="BB47">
+        <v>10</v>
+      </c>
+      <c r="BC47">
+        <v>13</v>
+      </c>
+      <c r="BD47">
+        <v>1.55</v>
+      </c>
+      <c r="BE47">
+        <v>6.5</v>
+      </c>
+      <c r="BF47">
+        <v>2.7</v>
+      </c>
+      <c r="BG47">
+        <v>1.32</v>
+      </c>
+      <c r="BH47">
+        <v>3</v>
+      </c>
+      <c r="BI47">
+        <v>1.55</v>
+      </c>
+      <c r="BJ47">
+        <v>2.28</v>
+      </c>
+      <c r="BK47">
+        <v>1.9</v>
+      </c>
+      <c r="BL47">
+        <v>1.79</v>
+      </c>
+      <c r="BM47">
+        <v>2.4</v>
+      </c>
+      <c r="BN47">
+        <v>1.49</v>
+      </c>
+      <c r="BO47">
+        <v>3.05</v>
+      </c>
+      <c r="BP47">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7492195</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45557.41666666666</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>111</v>
+      </c>
+      <c r="P48" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q48">
+        <v>3.75</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>3.1</v>
+      </c>
+      <c r="T48">
+        <v>1.5</v>
+      </c>
+      <c r="U48">
+        <v>2.5</v>
+      </c>
+      <c r="V48">
+        <v>3.4</v>
+      </c>
+      <c r="W48">
+        <v>1.3</v>
+      </c>
+      <c r="X48">
+        <v>10</v>
+      </c>
+      <c r="Y48">
+        <v>1.06</v>
+      </c>
+      <c r="Z48">
+        <v>2.65</v>
+      </c>
+      <c r="AA48">
+        <v>3.2</v>
+      </c>
+      <c r="AB48">
+        <v>2.7</v>
+      </c>
+      <c r="AC48">
+        <v>1.06</v>
+      </c>
+      <c r="AD48">
+        <v>7.5</v>
+      </c>
+      <c r="AE48">
+        <v>1.36</v>
+      </c>
+      <c r="AF48">
+        <v>2.88</v>
+      </c>
+      <c r="AG48">
+        <v>2.21</v>
+      </c>
+      <c r="AH48">
+        <v>1.67</v>
+      </c>
+      <c r="AI48">
+        <v>1.95</v>
+      </c>
+      <c r="AJ48">
+        <v>1.8</v>
+      </c>
+      <c r="AK48">
+        <v>1.63</v>
+      </c>
+      <c r="AL48">
+        <v>1.38</v>
+      </c>
+      <c r="AM48">
+        <v>1.38</v>
+      </c>
+      <c r="AN48">
+        <v>0.5</v>
+      </c>
+      <c r="AO48">
+        <v>0.5</v>
+      </c>
+      <c r="AP48">
+        <v>0.33</v>
+      </c>
+      <c r="AQ48">
+        <v>1.33</v>
+      </c>
+      <c r="AR48">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS48">
+        <v>1.15</v>
+      </c>
+      <c r="AT48">
+        <v>2.09</v>
+      </c>
+      <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>9</v>
+      </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>7</v>
+      </c>
+      <c r="AZ48">
+        <v>12</v>
+      </c>
+      <c r="BA48">
+        <v>2</v>
+      </c>
+      <c r="BB48">
+        <v>2</v>
+      </c>
+      <c r="BC48">
+        <v>4</v>
+      </c>
+      <c r="BD48">
+        <v>2.1</v>
+      </c>
+      <c r="BE48">
+        <v>6.4</v>
+      </c>
+      <c r="BF48">
+        <v>1.89</v>
+      </c>
+      <c r="BG48">
+        <v>1.34</v>
+      </c>
+      <c r="BH48">
+        <v>2.9</v>
+      </c>
+      <c r="BI48">
+        <v>1.58</v>
+      </c>
+      <c r="BJ48">
+        <v>2.2</v>
+      </c>
+      <c r="BK48">
+        <v>1.95</v>
+      </c>
+      <c r="BL48">
+        <v>1.75</v>
+      </c>
+      <c r="BM48">
+        <v>2.45</v>
+      </c>
+      <c r="BN48">
+        <v>1.48</v>
+      </c>
+      <c r="BO48">
+        <v>3.2</v>
+      </c>
+      <c r="BP48">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7492196</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45557.54166666666</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>123</v>
+      </c>
+      <c r="P49" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q49">
+        <v>2.2</v>
+      </c>
+      <c r="R49">
+        <v>2.2</v>
+      </c>
+      <c r="S49">
+        <v>6</v>
+      </c>
+      <c r="T49">
+        <v>1.4</v>
+      </c>
+      <c r="U49">
+        <v>2.75</v>
+      </c>
+      <c r="V49">
+        <v>3</v>
+      </c>
+      <c r="W49">
+        <v>1.36</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>1.67</v>
+      </c>
+      <c r="AA49">
+        <v>3.9</v>
+      </c>
+      <c r="AB49">
+        <v>5.1</v>
+      </c>
+      <c r="AC49">
+        <v>1.05</v>
+      </c>
+      <c r="AD49">
+        <v>11</v>
+      </c>
+      <c r="AE49">
+        <v>1.33</v>
+      </c>
+      <c r="AF49">
+        <v>3.4</v>
+      </c>
+      <c r="AG49">
+        <v>2</v>
+      </c>
+      <c r="AH49">
+        <v>1.81</v>
+      </c>
+      <c r="AI49">
+        <v>2.05</v>
+      </c>
+      <c r="AJ49">
+        <v>1.7</v>
+      </c>
+      <c r="AK49">
+        <v>1.14</v>
+      </c>
+      <c r="AL49">
+        <v>1.22</v>
+      </c>
+      <c r="AM49">
+        <v>2.35</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>2</v>
+      </c>
+      <c r="AP49">
+        <v>1.5</v>
+      </c>
+      <c r="AQ49">
+        <v>1.33</v>
+      </c>
+      <c r="AR49">
+        <v>2.26</v>
+      </c>
+      <c r="AS49">
+        <v>1.24</v>
+      </c>
+      <c r="AT49">
+        <v>3.5</v>
+      </c>
+      <c r="AU49">
+        <v>9</v>
+      </c>
+      <c r="AV49">
+        <v>3</v>
+      </c>
+      <c r="AW49">
+        <v>5</v>
+      </c>
+      <c r="AX49">
+        <v>4</v>
+      </c>
+      <c r="AY49">
+        <v>14</v>
+      </c>
+      <c r="AZ49">
+        <v>7</v>
+      </c>
+      <c r="BA49">
+        <v>2</v>
+      </c>
+      <c r="BB49">
+        <v>1</v>
+      </c>
+      <c r="BC49">
+        <v>3</v>
+      </c>
+      <c r="BD49">
+        <v>1.29</v>
+      </c>
+      <c r="BE49">
+        <v>8</v>
+      </c>
+      <c r="BF49">
+        <v>3.9</v>
+      </c>
+      <c r="BG49">
+        <v>1.21</v>
+      </c>
+      <c r="BH49">
+        <v>3.7</v>
+      </c>
+      <c r="BI49">
+        <v>1.4</v>
+      </c>
+      <c r="BJ49">
+        <v>2.7</v>
+      </c>
+      <c r="BK49">
+        <v>1.65</v>
+      </c>
+      <c r="BL49">
+        <v>2.08</v>
+      </c>
+      <c r="BM49">
+        <v>2</v>
+      </c>
+      <c r="BN49">
+        <v>1.7</v>
+      </c>
+      <c r="BO49">
+        <v>2.55</v>
+      </c>
+      <c r="BP49">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7492192</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45557.65625</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>124</v>
+      </c>
+      <c r="P50" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q50">
+        <v>2.2</v>
+      </c>
+      <c r="R50">
+        <v>2.38</v>
+      </c>
+      <c r="S50">
+        <v>5</v>
+      </c>
+      <c r="T50">
+        <v>1.3</v>
+      </c>
+      <c r="U50">
+        <v>3.4</v>
+      </c>
+      <c r="V50">
+        <v>2.5</v>
+      </c>
+      <c r="W50">
+        <v>1.5</v>
+      </c>
+      <c r="X50">
+        <v>6</v>
+      </c>
+      <c r="Y50">
+        <v>1.13</v>
+      </c>
+      <c r="Z50">
+        <v>1.62</v>
+      </c>
+      <c r="AA50">
+        <v>4.3</v>
+      </c>
+      <c r="AB50">
+        <v>5</v>
+      </c>
+      <c r="AC50">
+        <v>1.01</v>
+      </c>
+      <c r="AD50">
+        <v>13</v>
+      </c>
+      <c r="AE50">
+        <v>1.22</v>
+      </c>
+      <c r="AF50">
+        <v>4</v>
+      </c>
+      <c r="AG50">
+        <v>1.71</v>
+      </c>
+      <c r="AH50">
+        <v>2.14</v>
+      </c>
+      <c r="AI50">
+        <v>1.7</v>
+      </c>
+      <c r="AJ50">
+        <v>2.05</v>
+      </c>
+      <c r="AK50">
+        <v>1.18</v>
+      </c>
+      <c r="AL50">
+        <v>1.25</v>
+      </c>
+      <c r="AM50">
+        <v>2.2</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>0.5</v>
+      </c>
+      <c r="AP50">
+        <v>2</v>
+      </c>
+      <c r="AQ50">
+        <v>1.33</v>
+      </c>
+      <c r="AR50">
+        <v>1.2</v>
+      </c>
+      <c r="AS50">
+        <v>1.44</v>
+      </c>
+      <c r="AT50">
+        <v>2.64</v>
+      </c>
+      <c r="AU50">
+        <v>5</v>
+      </c>
+      <c r="AV50">
+        <v>9</v>
+      </c>
+      <c r="AW50">
+        <v>4</v>
+      </c>
+      <c r="AX50">
+        <v>5</v>
+      </c>
+      <c r="AY50">
+        <v>9</v>
+      </c>
+      <c r="AZ50">
+        <v>14</v>
+      </c>
+      <c r="BA50">
+        <v>6</v>
+      </c>
+      <c r="BB50">
+        <v>2</v>
+      </c>
+      <c r="BC50">
+        <v>8</v>
+      </c>
+      <c r="BD50">
+        <v>1.49</v>
+      </c>
+      <c r="BE50">
+        <v>6.75</v>
+      </c>
+      <c r="BF50">
+        <v>2.9</v>
+      </c>
+      <c r="BG50">
+        <v>1.3</v>
+      </c>
+      <c r="BH50">
+        <v>3.15</v>
+      </c>
+      <c r="BI50">
+        <v>1.52</v>
+      </c>
+      <c r="BJ50">
+        <v>2.33</v>
+      </c>
+      <c r="BK50">
+        <v>1.86</v>
+      </c>
+      <c r="BL50">
+        <v>1.82</v>
+      </c>
+      <c r="BM50">
+        <v>2.33</v>
+      </c>
+      <c r="BN50">
+        <v>1.52</v>
+      </c>
+      <c r="BO50">
+        <v>3</v>
+      </c>
+      <c r="BP50">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,12 +376,12 @@
     <t>['12', '90+3']</t>
   </si>
   <si>
+    <t>['32', '59']</t>
+  </si>
+  <si>
     <t>['63', '85']</t>
   </si>
   <si>
-    <t>['32', '59']</t>
-  </si>
-  <si>
     <t>['49', '90']</t>
   </si>
   <si>
@@ -391,6 +391,9 @@
     <t>['27']</t>
   </si>
   <si>
+    <t>['18', '90+9']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -479,6 +482,9 @@
   </si>
   <si>
     <t>['10', '89']</t>
+  </si>
+  <si>
+    <t>['46', '54', '58']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,7 +1105,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1305,7 +1311,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1511,7 +1517,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1923,7 +1929,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2335,7 +2341,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2747,7 +2753,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3034,7 +3040,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3159,7 +3165,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3365,7 +3371,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3777,7 +3783,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4395,7 +4401,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4807,7 +4813,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4888,7 +4894,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5013,7 +5019,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5219,7 +5225,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5631,7 +5637,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6043,7 +6049,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6249,7 +6255,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6455,7 +6461,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6661,7 +6667,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6948,7 +6954,7 @@
         <v>3</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>0.95</v>
@@ -7279,7 +7285,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7897,7 +7903,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8061,7 +8067,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7492178</v>
+        <v>7492187</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8076,190 +8082,190 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="Q36">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R36">
+        <v>2.05</v>
+      </c>
+      <c r="S36">
+        <v>5.5</v>
+      </c>
+      <c r="T36">
+        <v>1.5</v>
+      </c>
+      <c r="U36">
+        <v>2.5</v>
+      </c>
+      <c r="V36">
+        <v>3.5</v>
+      </c>
+      <c r="W36">
+        <v>1.29</v>
+      </c>
+      <c r="X36">
+        <v>10</v>
+      </c>
+      <c r="Y36">
+        <v>1.06</v>
+      </c>
+      <c r="Z36">
+        <v>1.73</v>
+      </c>
+      <c r="AA36">
+        <v>3.4</v>
+      </c>
+      <c r="AB36">
+        <v>4.8</v>
+      </c>
+      <c r="AC36">
+        <v>1.09</v>
+      </c>
+      <c r="AD36">
+        <v>8</v>
+      </c>
+      <c r="AE36">
+        <v>1.45</v>
+      </c>
+      <c r="AF36">
+        <v>2.8</v>
+      </c>
+      <c r="AG36">
         <v>2.3</v>
       </c>
-      <c r="S36">
-        <v>4.33</v>
-      </c>
-      <c r="T36">
-        <v>1.33</v>
-      </c>
-      <c r="U36">
-        <v>3.25</v>
-      </c>
-      <c r="V36">
-        <v>2.5</v>
-      </c>
-      <c r="W36">
-        <v>1.5</v>
-      </c>
-      <c r="X36">
-        <v>6.5</v>
-      </c>
-      <c r="Y36">
-        <v>1.11</v>
-      </c>
-      <c r="Z36">
-        <v>1.83</v>
-      </c>
-      <c r="AA36">
-        <v>3.75</v>
-      </c>
-      <c r="AB36">
-        <v>3.75</v>
-      </c>
-      <c r="AC36">
-        <v>1.03</v>
-      </c>
-      <c r="AD36">
-        <v>13</v>
-      </c>
-      <c r="AE36">
-        <v>1.21</v>
-      </c>
-      <c r="AF36">
-        <v>3.88</v>
-      </c>
-      <c r="AG36">
-        <v>1.7</v>
-      </c>
       <c r="AH36">
+        <v>1.6</v>
+      </c>
+      <c r="AI36">
         <v>2.1</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>1.67</v>
       </c>
-      <c r="AJ36">
-        <v>2.1</v>
-      </c>
       <c r="AK36">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AL36">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AM36">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>0.5</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AS36">
-        <v>1.6</v>
+        <v>1.19</v>
       </c>
       <c r="AT36">
-        <v>1.6</v>
+        <v>2.65</v>
       </c>
       <c r="AU36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AV36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW36">
         <v>5</v>
       </c>
       <c r="AX36">
+        <v>12</v>
+      </c>
+      <c r="AY36">
         <v>5</v>
       </c>
-      <c r="AY36">
-        <v>13</v>
-      </c>
       <c r="AZ36">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB36">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD36">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="BE36">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF36">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="BG36">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="BH36">
-        <v>2.73</v>
+        <v>3.2</v>
       </c>
       <c r="BI36">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="BJ36">
-        <v>2.03</v>
+        <v>2.4</v>
       </c>
       <c r="BK36">
-        <v>2.22</v>
+        <v>1.81</v>
       </c>
       <c r="BL36">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="BM36">
-        <v>2.98</v>
+        <v>2.25</v>
       </c>
       <c r="BN36">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="BO36">
-        <v>4.25</v>
+        <v>2.88</v>
       </c>
       <c r="BP36">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8267,7 +8273,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7492187</v>
+        <v>7492178</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8282,190 +8288,190 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O37" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="Q37">
+        <v>2.38</v>
+      </c>
+      <c r="R37">
+        <v>2.3</v>
+      </c>
+      <c r="S37">
+        <v>4.33</v>
+      </c>
+      <c r="T37">
+        <v>1.33</v>
+      </c>
+      <c r="U37">
+        <v>3.25</v>
+      </c>
+      <c r="V37">
         <v>2.5</v>
       </c>
-      <c r="R37">
-        <v>2.05</v>
-      </c>
-      <c r="S37">
-        <v>5.5</v>
-      </c>
-      <c r="T37">
+      <c r="W37">
         <v>1.5</v>
       </c>
-      <c r="U37">
-        <v>2.5</v>
-      </c>
-      <c r="V37">
-        <v>3.5</v>
-      </c>
-      <c r="W37">
-        <v>1.29</v>
-      </c>
       <c r="X37">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y37">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="Z37">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AA37">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AB37">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="AC37">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="AD37">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE37">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="AF37">
-        <v>2.8</v>
+        <v>3.88</v>
       </c>
       <c r="AG37">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AH37">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AI37">
+        <v>1.67</v>
+      </c>
+      <c r="AJ37">
         <v>2.1</v>
       </c>
-      <c r="AJ37">
-        <v>1.67</v>
-      </c>
       <c r="AK37">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AL37">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AM37">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>0.5</v>
       </c>
       <c r="AR37">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.19</v>
+        <v>1.6</v>
       </c>
       <c r="AT37">
-        <v>2.65</v>
+        <v>1.6</v>
       </c>
       <c r="AU37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW37">
         <v>5</v>
       </c>
       <c r="AX37">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AY37">
+        <v>13</v>
+      </c>
+      <c r="AZ37">
+        <v>11</v>
+      </c>
+      <c r="BA37">
         <v>5</v>
       </c>
-      <c r="AZ37">
-        <v>19</v>
-      </c>
-      <c r="BA37">
-        <v>2</v>
-      </c>
       <c r="BB37">
+        <v>2</v>
+      </c>
+      <c r="BC37">
         <v>7</v>
       </c>
-      <c r="BC37">
-        <v>9</v>
-      </c>
       <c r="BD37">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="BE37">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF37">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="BG37">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="BH37">
-        <v>3.2</v>
+        <v>2.73</v>
       </c>
       <c r="BI37">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="BJ37">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="BK37">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="BL37">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="BM37">
-        <v>2.25</v>
+        <v>2.98</v>
       </c>
       <c r="BN37">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="BO37">
-        <v>2.88</v>
+        <v>4.25</v>
       </c>
       <c r="BP37">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8515,7 +8521,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8721,7 +8727,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -8927,7 +8933,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9133,7 +9139,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9339,7 +9345,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9545,7 +9551,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9709,7 +9715,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7492197</v>
+        <v>7492194</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9718,196 +9724,196 @@
         <v>69</v>
       </c>
       <c r="E44" s="2">
-        <v>45556.41666666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <v>2</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O44" t="s">
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="Q44">
+        <v>2.88</v>
+      </c>
+      <c r="R44">
+        <v>2.1</v>
+      </c>
+      <c r="S44">
         <v>3.75</v>
       </c>
-      <c r="R44">
+      <c r="T44">
+        <v>1.4</v>
+      </c>
+      <c r="U44">
+        <v>2.75</v>
+      </c>
+      <c r="V44">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>1.36</v>
+      </c>
+      <c r="X44">
+        <v>8</v>
+      </c>
+      <c r="Y44">
+        <v>1.08</v>
+      </c>
+      <c r="Z44">
+        <v>2.2</v>
+      </c>
+      <c r="AA44">
+        <v>3.3</v>
+      </c>
+      <c r="AB44">
+        <v>3.3</v>
+      </c>
+      <c r="AC44">
+        <v>1.02</v>
+      </c>
+      <c r="AD44">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE44">
+        <v>1.28</v>
+      </c>
+      <c r="AF44">
+        <v>3.12</v>
+      </c>
+      <c r="AG44">
+        <v>1.91</v>
+      </c>
+      <c r="AH44">
+        <v>1.85</v>
+      </c>
+      <c r="AI44">
+        <v>1.75</v>
+      </c>
+      <c r="AJ44">
+        <v>2</v>
+      </c>
+      <c r="AK44">
+        <v>1.36</v>
+      </c>
+      <c r="AL44">
+        <v>1.32</v>
+      </c>
+      <c r="AM44">
+        <v>1.67</v>
+      </c>
+      <c r="AN44">
+        <v>1.5</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>1.33</v>
+      </c>
+      <c r="AQ44">
+        <v>0.5</v>
+      </c>
+      <c r="AR44">
+        <v>1.54</v>
+      </c>
+      <c r="AS44">
+        <v>1</v>
+      </c>
+      <c r="AT44">
+        <v>2.54</v>
+      </c>
+      <c r="AU44">
+        <v>3</v>
+      </c>
+      <c r="AV44">
+        <v>9</v>
+      </c>
+      <c r="AW44">
+        <v>6</v>
+      </c>
+      <c r="AX44">
+        <v>3</v>
+      </c>
+      <c r="AY44">
+        <v>9</v>
+      </c>
+      <c r="AZ44">
+        <v>12</v>
+      </c>
+      <c r="BA44">
+        <v>2</v>
+      </c>
+      <c r="BB44">
+        <v>12</v>
+      </c>
+      <c r="BC44">
+        <v>14</v>
+      </c>
+      <c r="BD44">
+        <v>1.77</v>
+      </c>
+      <c r="BE44">
+        <v>6.25</v>
+      </c>
+      <c r="BF44">
+        <v>2.3</v>
+      </c>
+      <c r="BG44">
+        <v>1.37</v>
+      </c>
+      <c r="BH44">
+        <v>2.8</v>
+      </c>
+      <c r="BI44">
+        <v>1.65</v>
+      </c>
+      <c r="BJ44">
+        <v>2.08</v>
+      </c>
+      <c r="BK44">
         <v>2.05</v>
       </c>
-      <c r="S44">
-        <v>3.1</v>
-      </c>
-      <c r="T44">
-        <v>1.44</v>
-      </c>
-      <c r="U44">
-        <v>2.63</v>
-      </c>
-      <c r="V44">
-        <v>3.25</v>
-      </c>
-      <c r="W44">
-        <v>1.33</v>
-      </c>
-      <c r="X44">
-        <v>10</v>
-      </c>
-      <c r="Y44">
-        <v>1.06</v>
-      </c>
-      <c r="Z44">
-        <v>3.3</v>
-      </c>
-      <c r="AA44">
-        <v>3.1</v>
-      </c>
-      <c r="AB44">
-        <v>2.25</v>
-      </c>
-      <c r="AC44">
-        <v>1.07</v>
-      </c>
-      <c r="AD44">
-        <v>9.5</v>
-      </c>
-      <c r="AE44">
-        <v>1.4</v>
-      </c>
-      <c r="AF44">
-        <v>3</v>
-      </c>
-      <c r="AG44">
-        <v>2.05</v>
-      </c>
-      <c r="AH44">
-        <v>1.7</v>
-      </c>
-      <c r="AI44">
-        <v>1.91</v>
-      </c>
-      <c r="AJ44">
-        <v>1.91</v>
-      </c>
-      <c r="AK44">
-        <v>1.63</v>
-      </c>
-      <c r="AL44">
-        <v>1.3</v>
-      </c>
-      <c r="AM44">
-        <v>1.38</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <v>3</v>
-      </c>
-      <c r="AP44">
-        <v>1.5</v>
-      </c>
-      <c r="AQ44">
-        <v>1.5</v>
-      </c>
-      <c r="AR44">
-        <v>1.37</v>
-      </c>
-      <c r="AS44">
-        <v>0.93</v>
-      </c>
-      <c r="AT44">
-        <v>2.3</v>
-      </c>
-      <c r="AU44">
-        <v>5</v>
-      </c>
-      <c r="AV44">
-        <v>0</v>
-      </c>
-      <c r="AW44">
-        <v>5</v>
-      </c>
-      <c r="AX44">
-        <v>4</v>
-      </c>
-      <c r="AY44">
-        <v>10</v>
-      </c>
-      <c r="AZ44">
-        <v>4</v>
-      </c>
-      <c r="BA44">
-        <v>3</v>
-      </c>
-      <c r="BB44">
-        <v>4</v>
-      </c>
-      <c r="BC44">
-        <v>7</v>
-      </c>
-      <c r="BD44">
-        <v>1.98</v>
-      </c>
-      <c r="BE44">
-        <v>6.4</v>
-      </c>
-      <c r="BF44">
-        <v>1.98</v>
-      </c>
-      <c r="BG44">
-        <v>1.32</v>
-      </c>
-      <c r="BH44">
-        <v>3.05</v>
-      </c>
-      <c r="BI44">
-        <v>1.54</v>
-      </c>
-      <c r="BJ44">
-        <v>2.3</v>
-      </c>
-      <c r="BK44">
-        <v>1.88</v>
-      </c>
       <c r="BL44">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="BM44">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="BN44">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="BO44">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="BP44">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -9915,7 +9921,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7492193</v>
+        <v>7492197</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -9924,16 +9930,16 @@
         <v>69</v>
       </c>
       <c r="E45" s="2">
-        <v>45556.54166666666</v>
+        <v>45556.41666666666</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -9945,28 +9951,28 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="P45" t="s">
         <v>93</v>
       </c>
       <c r="Q45">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="R45">
         <v>2.05</v>
       </c>
       <c r="S45">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="T45">
         <v>1.44</v>
@@ -9987,19 +9993,19 @@
         <v>1.06</v>
       </c>
       <c r="Z45">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="AA45">
         <v>3.1</v>
       </c>
       <c r="AB45">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="AC45">
         <v>1.07</v>
       </c>
       <c r="AD45">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE45">
         <v>1.4</v>
@@ -10008,112 +10014,112 @@
         <v>3</v>
       </c>
       <c r="AG45">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AH45">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AI45">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AJ45">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AK45">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AL45">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM45">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO45">
+        <v>3</v>
+      </c>
+      <c r="AP45">
         <v>1.5</v>
       </c>
-      <c r="AP45">
-        <v>1.67</v>
-      </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="AS45">
-        <v>1.48</v>
+        <v>0.93</v>
       </c>
       <c r="AT45">
-        <v>2.71</v>
+        <v>2.3</v>
       </c>
       <c r="AU45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW45">
+        <v>5</v>
+      </c>
+      <c r="AX45">
         <v>4</v>
       </c>
-      <c r="AX45">
-        <v>2</v>
-      </c>
       <c r="AY45">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ45">
         <v>4</v>
       </c>
       <c r="BA45">
+        <v>3</v>
+      </c>
+      <c r="BB45">
         <v>4</v>
-      </c>
-      <c r="BB45">
-        <v>3</v>
       </c>
       <c r="BC45">
         <v>7</v>
       </c>
       <c r="BD45">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="BE45">
         <v>6.4</v>
       </c>
       <c r="BF45">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="BG45">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="BH45">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="BI45">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="BJ45">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="BK45">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="BL45">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="BM45">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="BN45">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="BO45">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="BP45">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -10121,7 +10127,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7492194</v>
+        <v>7492193</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10130,184 +10136,184 @@
         <v>69</v>
       </c>
       <c r="E46" s="2">
-        <v>45556.65625</v>
+        <v>45556.54166666666</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
       </c>
       <c r="R46">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T46">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U46">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V46">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W46">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y46">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z46">
         <v>2.2</v>
       </c>
       <c r="AA46">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB46">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AC46">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AD46">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AE46">
+        <v>1.4</v>
+      </c>
+      <c r="AF46">
+        <v>3</v>
+      </c>
+      <c r="AG46">
+        <v>2.1</v>
+      </c>
+      <c r="AH46">
+        <v>1.65</v>
+      </c>
+      <c r="AI46">
+        <v>1.95</v>
+      </c>
+      <c r="AJ46">
+        <v>1.8</v>
+      </c>
+      <c r="AK46">
+        <v>1.33</v>
+      </c>
+      <c r="AL46">
         <v>1.28</v>
       </c>
-      <c r="AF46">
-        <v>3.12</v>
-      </c>
-      <c r="AG46">
-        <v>1.91</v>
-      </c>
-      <c r="AH46">
-        <v>1.85</v>
-      </c>
-      <c r="AI46">
-        <v>1.75</v>
-      </c>
-      <c r="AJ46">
-        <v>2</v>
-      </c>
-      <c r="AK46">
-        <v>1.36</v>
-      </c>
-      <c r="AL46">
-        <v>1.32</v>
-      </c>
       <c r="AM46">
+        <v>1.7</v>
+      </c>
+      <c r="AN46">
+        <v>2</v>
+      </c>
+      <c r="AO46">
+        <v>1.5</v>
+      </c>
+      <c r="AP46">
         <v>1.67</v>
       </c>
-      <c r="AN46">
-        <v>1.5</v>
-      </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
+      <c r="AQ46">
         <v>1.33</v>
       </c>
-      <c r="AQ46">
-        <v>0.5</v>
-      </c>
       <c r="AR46">
-        <v>1.54</v>
+        <v>1.23</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AT46">
-        <v>2.54</v>
+        <v>2.71</v>
       </c>
       <c r="AU46">
+        <v>2</v>
+      </c>
+      <c r="AV46">
+        <v>2</v>
+      </c>
+      <c r="AW46">
         <v>4</v>
       </c>
-      <c r="AV46">
-        <v>11</v>
-      </c>
-      <c r="AW46">
+      <c r="AX46">
+        <v>2</v>
+      </c>
+      <c r="AY46">
         <v>6</v>
       </c>
-      <c r="AX46">
-        <v>3</v>
-      </c>
-      <c r="AY46">
-        <v>10</v>
-      </c>
       <c r="AZ46">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BA46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB46">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BC46">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BD46">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="BE46">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF46">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="BG46">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BH46">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BI46">
+        <v>1.67</v>
+      </c>
+      <c r="BJ46">
+        <v>2.05</v>
+      </c>
+      <c r="BK46">
+        <v>2.08</v>
+      </c>
+      <c r="BL46">
         <v>1.65</v>
-      </c>
-      <c r="BJ46">
-        <v>2.08</v>
-      </c>
-      <c r="BK46">
-        <v>2.05</v>
-      </c>
-      <c r="BL46">
-        <v>1.67</v>
       </c>
       <c r="BM46">
         <v>2.65</v>
@@ -10316,10 +10322,10 @@
         <v>1.41</v>
       </c>
       <c r="BO46">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="BP46">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10369,7 +10375,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10542,7 +10548,7 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45557.41666666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -10575,7 +10581,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10668,10 +10674,10 @@
         <v>2.09</v>
       </c>
       <c r="AU48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW48">
         <v>3</v>
@@ -10680,10 +10686,10 @@
         <v>3</v>
       </c>
       <c r="AY48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AZ48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA48">
         <v>2</v>
@@ -10748,7 +10754,7 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45557.54166666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -10874,22 +10880,22 @@
         <v>3.5</v>
       </c>
       <c r="AU49">
+        <v>7</v>
+      </c>
+      <c r="AV49">
+        <v>3</v>
+      </c>
+      <c r="AW49">
+        <v>4</v>
+      </c>
+      <c r="AX49">
+        <v>6</v>
+      </c>
+      <c r="AY49">
+        <v>11</v>
+      </c>
+      <c r="AZ49">
         <v>9</v>
-      </c>
-      <c r="AV49">
-        <v>3</v>
-      </c>
-      <c r="AW49">
-        <v>5</v>
-      </c>
-      <c r="AX49">
-        <v>4</v>
-      </c>
-      <c r="AY49">
-        <v>14</v>
-      </c>
-      <c r="AZ49">
-        <v>7</v>
       </c>
       <c r="BA49">
         <v>2</v>
@@ -10954,7 +10960,7 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45557.65625</v>
+        <v>45556.875</v>
       </c>
       <c r="F50">
         <v>5</v>
@@ -10987,7 +10993,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11080,22 +11086,22 @@
         <v>2.64</v>
       </c>
       <c r="AU50">
+        <v>4</v>
+      </c>
+      <c r="AV50">
+        <v>7</v>
+      </c>
+      <c r="AW50">
         <v>5</v>
       </c>
-      <c r="AV50">
-        <v>9</v>
-      </c>
-      <c r="AW50">
+      <c r="AX50">
         <v>4</v>
-      </c>
-      <c r="AX50">
-        <v>5</v>
       </c>
       <c r="AY50">
         <v>9</v>
       </c>
       <c r="AZ50">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA50">
         <v>6</v>
@@ -11144,6 +11150,212 @@
       </c>
       <c r="BP50">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7492188</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45558.875</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>5</v>
+      </c>
+      <c r="O51" t="s">
+        <v>125</v>
+      </c>
+      <c r="P51" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q51">
+        <v>1.95</v>
+      </c>
+      <c r="R51">
+        <v>2.5</v>
+      </c>
+      <c r="S51">
+        <v>6</v>
+      </c>
+      <c r="T51">
+        <v>1.3</v>
+      </c>
+      <c r="U51">
+        <v>3.4</v>
+      </c>
+      <c r="V51">
+        <v>2.38</v>
+      </c>
+      <c r="W51">
+        <v>1.53</v>
+      </c>
+      <c r="X51">
+        <v>6</v>
+      </c>
+      <c r="Y51">
+        <v>1.13</v>
+      </c>
+      <c r="Z51">
+        <v>1.48</v>
+      </c>
+      <c r="AA51">
+        <v>4.7</v>
+      </c>
+      <c r="AB51">
+        <v>6.1</v>
+      </c>
+      <c r="AC51">
+        <v>1.02</v>
+      </c>
+      <c r="AD51">
+        <v>16.75</v>
+      </c>
+      <c r="AE51">
+        <v>1.16</v>
+      </c>
+      <c r="AF51">
+        <v>4.2</v>
+      </c>
+      <c r="AG51">
+        <v>1.62</v>
+      </c>
+      <c r="AH51">
+        <v>2.3</v>
+      </c>
+      <c r="AI51">
+        <v>1.8</v>
+      </c>
+      <c r="AJ51">
+        <v>1.95</v>
+      </c>
+      <c r="AK51">
+        <v>1.13</v>
+      </c>
+      <c r="AL51">
+        <v>1.2</v>
+      </c>
+      <c r="AM51">
+        <v>2.7</v>
+      </c>
+      <c r="AN51">
+        <v>3</v>
+      </c>
+      <c r="AO51">
+        <v>0.33</v>
+      </c>
+      <c r="AP51">
+        <v>1.5</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>1.68</v>
+      </c>
+      <c r="AS51">
+        <v>1.13</v>
+      </c>
+      <c r="AT51">
+        <v>2.81</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>6</v>
+      </c>
+      <c r="AW51">
+        <v>4</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>8</v>
+      </c>
+      <c r="AZ51">
+        <v>9</v>
+      </c>
+      <c r="BA51">
+        <v>6</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>8</v>
+      </c>
+      <c r="BD51">
+        <v>1.33</v>
+      </c>
+      <c r="BE51">
+        <v>7</v>
+      </c>
+      <c r="BF51">
+        <v>3.65</v>
+      </c>
+      <c r="BG51">
+        <v>1.38</v>
+      </c>
+      <c r="BH51">
+        <v>2.7</v>
+      </c>
+      <c r="BI51">
+        <v>1.65</v>
+      </c>
+      <c r="BJ51">
+        <v>2.08</v>
+      </c>
+      <c r="BK51">
+        <v>2.05</v>
+      </c>
+      <c r="BL51">
+        <v>1.67</v>
+      </c>
+      <c r="BM51">
+        <v>2.65</v>
+      </c>
+      <c r="BN51">
+        <v>1.41</v>
+      </c>
+      <c r="BO51">
+        <v>3.45</v>
+      </c>
+      <c r="BP51">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>['18', '90+9']</t>
+  </si>
+  <si>
+    <t>['38', '41', '43']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -846,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,7 +1108,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1311,7 +1314,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1517,7 +1520,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1595,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>2.33</v>
@@ -1929,7 +1932,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2341,7 +2344,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2753,7 +2756,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3165,7 +3168,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3371,7 +3374,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3658,7 +3661,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3783,7 +3786,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4401,7 +4404,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4813,7 +4816,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5019,7 +5022,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5225,7 +5228,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5637,7 +5640,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6049,7 +6052,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6255,7 +6258,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6461,7 +6464,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6667,7 +6670,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7285,7 +7288,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7775,7 +7778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34">
         <v>0.33</v>
@@ -7903,7 +7906,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8190,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR36">
         <v>1.46</v>
@@ -8315,7 +8318,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8521,7 +8524,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8727,7 +8730,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -8933,7 +8936,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9139,7 +9142,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9345,7 +9348,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9551,7 +9554,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9757,7 +9760,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10375,7 +10378,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10581,7 +10584,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10993,7 +10996,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11199,7 +11202,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11356,6 +11359,212 @@
       </c>
       <c r="BP51">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7492202</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45562.65625</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s">
+        <v>78</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>126</v>
+      </c>
+      <c r="P52" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q52">
+        <v>1.83</v>
+      </c>
+      <c r="R52">
+        <v>2.6</v>
+      </c>
+      <c r="S52">
+        <v>7</v>
+      </c>
+      <c r="T52">
+        <v>1.29</v>
+      </c>
+      <c r="U52">
+        <v>3.5</v>
+      </c>
+      <c r="V52">
+        <v>2.25</v>
+      </c>
+      <c r="W52">
+        <v>1.57</v>
+      </c>
+      <c r="X52">
+        <v>5.5</v>
+      </c>
+      <c r="Y52">
+        <v>1.14</v>
+      </c>
+      <c r="Z52">
+        <v>1.4</v>
+      </c>
+      <c r="AA52">
+        <v>5.48</v>
+      </c>
+      <c r="AB52">
+        <v>8.4</v>
+      </c>
+      <c r="AC52">
+        <v>1.02</v>
+      </c>
+      <c r="AD52">
+        <v>19.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.14</v>
+      </c>
+      <c r="AF52">
+        <v>4.45</v>
+      </c>
+      <c r="AG52">
+        <v>1.56</v>
+      </c>
+      <c r="AH52">
+        <v>2.33</v>
+      </c>
+      <c r="AI52">
+        <v>1.91</v>
+      </c>
+      <c r="AJ52">
+        <v>1.91</v>
+      </c>
+      <c r="AK52">
+        <v>1.06</v>
+      </c>
+      <c r="AL52">
+        <v>1.13</v>
+      </c>
+      <c r="AM52">
+        <v>3.2</v>
+      </c>
+      <c r="AN52">
+        <v>2</v>
+      </c>
+      <c r="AO52">
+        <v>0.5</v>
+      </c>
+      <c r="AP52">
+        <v>2.33</v>
+      </c>
+      <c r="AQ52">
+        <v>0.33</v>
+      </c>
+      <c r="AR52">
+        <v>1.92</v>
+      </c>
+      <c r="AS52">
+        <v>1.59</v>
+      </c>
+      <c r="AT52">
+        <v>3.51</v>
+      </c>
+      <c r="AU52">
+        <v>7</v>
+      </c>
+      <c r="AV52">
+        <v>8</v>
+      </c>
+      <c r="AW52">
+        <v>7</v>
+      </c>
+      <c r="AX52">
+        <v>6</v>
+      </c>
+      <c r="AY52">
+        <v>14</v>
+      </c>
+      <c r="AZ52">
+        <v>14</v>
+      </c>
+      <c r="BA52">
+        <v>4</v>
+      </c>
+      <c r="BB52">
+        <v>7</v>
+      </c>
+      <c r="BC52">
+        <v>11</v>
+      </c>
+      <c r="BD52">
+        <v>1.26</v>
+      </c>
+      <c r="BE52">
+        <v>7.5</v>
+      </c>
+      <c r="BF52">
+        <v>4.1</v>
+      </c>
+      <c r="BG52">
+        <v>1.3</v>
+      </c>
+      <c r="BH52">
+        <v>3.05</v>
+      </c>
+      <c r="BI52">
+        <v>1.53</v>
+      </c>
+      <c r="BJ52">
+        <v>2.32</v>
+      </c>
+      <c r="BK52">
+        <v>1.88</v>
+      </c>
+      <c r="BL52">
+        <v>1.92</v>
+      </c>
+      <c r="BM52">
+        <v>2.35</v>
+      </c>
+      <c r="BN52">
+        <v>1.5</v>
+      </c>
+      <c r="BO52">
+        <v>3.05</v>
+      </c>
+      <c r="BP52">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="169">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,24 @@
     <t>['38', '41', '43']</t>
   </si>
   <si>
+    <t>['35', '83']</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['67', '90+2']</t>
+  </si>
+  <si>
+    <t>['43', '72', '89']</t>
+  </si>
+  <si>
+    <t>['74', '83']</t>
+  </si>
+  <si>
+    <t>['22', '33']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -488,6 +506,21 @@
   </si>
   <si>
     <t>['46', '54', '58']</t>
+  </si>
+  <si>
+    <t>['1', '45+3', '47']</t>
+  </si>
+  <si>
+    <t>['48', '55', '89']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['8', '60', '89']</t>
+  </si>
+  <si>
+    <t>['53', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1141,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1189,7 +1222,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1314,7 +1347,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1392,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1520,7 +1553,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1807,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1932,7 +1965,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2344,7 +2377,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2425,7 +2458,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2756,7 +2789,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3168,7 +3201,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3246,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3374,7 +3407,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3786,7 +3819,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4073,7 +4106,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4276,7 +4309,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4404,7 +4437,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4482,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>2.33</v>
@@ -4816,7 +4849,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5022,7 +5055,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5103,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -5228,7 +5261,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5640,7 +5673,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6052,7 +6085,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6258,7 +6291,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6464,7 +6497,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6545,7 +6578,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -6670,7 +6703,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6748,10 +6781,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -6954,7 +6987,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7288,7 +7321,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7366,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1.33</v>
@@ -7575,7 +7608,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR33">
         <v>0.96</v>
@@ -7781,7 +7814,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ34">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR34">
         <v>2.22</v>
@@ -7906,7 +7939,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7984,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8190,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>0.33</v>
@@ -8318,7 +8351,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8399,7 +8432,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8524,7 +8557,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8730,7 +8763,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -8811,7 +8844,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
         <v>1.18</v>
@@ -8936,7 +8969,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9142,7 +9175,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9223,7 +9256,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -9348,7 +9381,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9554,7 +9587,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9760,7 +9793,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10378,7 +10411,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10459,7 +10492,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.69</v>
@@ -10584,7 +10617,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10868,7 +10901,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
@@ -10996,7 +11029,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11202,7 +11235,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11565,6 +11598,1654 @@
       </c>
       <c r="BP52">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7492207</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45563.41666666666</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>5</v>
+      </c>
+      <c r="O53" t="s">
+        <v>127</v>
+      </c>
+      <c r="P53" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q53">
+        <v>6</v>
+      </c>
+      <c r="R53">
+        <v>2.38</v>
+      </c>
+      <c r="S53">
+        <v>2.05</v>
+      </c>
+      <c r="T53">
+        <v>1.33</v>
+      </c>
+      <c r="U53">
+        <v>3.25</v>
+      </c>
+      <c r="V53">
+        <v>2.63</v>
+      </c>
+      <c r="W53">
+        <v>1.44</v>
+      </c>
+      <c r="X53">
+        <v>6.5</v>
+      </c>
+      <c r="Y53">
+        <v>1.11</v>
+      </c>
+      <c r="Z53">
+        <v>7.35</v>
+      </c>
+      <c r="AA53">
+        <v>4.02</v>
+      </c>
+      <c r="AB53">
+        <v>1.44</v>
+      </c>
+      <c r="AC53">
+        <v>1.04</v>
+      </c>
+      <c r="AD53">
+        <v>10.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.21</v>
+      </c>
+      <c r="AF53">
+        <v>3.64</v>
+      </c>
+      <c r="AG53">
+        <v>1.85</v>
+      </c>
+      <c r="AH53">
+        <v>1.85</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.91</v>
+      </c>
+      <c r="AK53">
+        <v>2.5</v>
+      </c>
+      <c r="AL53">
+        <v>1.22</v>
+      </c>
+      <c r="AM53">
+        <v>1.14</v>
+      </c>
+      <c r="AN53">
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>2</v>
+      </c>
+      <c r="AQ53">
+        <v>1.67</v>
+      </c>
+      <c r="AR53">
+        <v>1.05</v>
+      </c>
+      <c r="AS53">
+        <v>1.65</v>
+      </c>
+      <c r="AT53">
+        <v>2.7</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>8</v>
+      </c>
+      <c r="AW53">
+        <v>1</v>
+      </c>
+      <c r="AX53">
+        <v>6</v>
+      </c>
+      <c r="AY53">
+        <v>5</v>
+      </c>
+      <c r="AZ53">
+        <v>14</v>
+      </c>
+      <c r="BA53">
+        <v>7</v>
+      </c>
+      <c r="BB53">
+        <v>3</v>
+      </c>
+      <c r="BC53">
+        <v>10</v>
+      </c>
+      <c r="BD53">
+        <v>3.8</v>
+      </c>
+      <c r="BE53">
+        <v>7.5</v>
+      </c>
+      <c r="BF53">
+        <v>1.3</v>
+      </c>
+      <c r="BG53">
+        <v>1.29</v>
+      </c>
+      <c r="BH53">
+        <v>3.15</v>
+      </c>
+      <c r="BI53">
+        <v>1.5</v>
+      </c>
+      <c r="BJ53">
+        <v>2.4</v>
+      </c>
+      <c r="BK53">
+        <v>1.82</v>
+      </c>
+      <c r="BL53">
+        <v>1.98</v>
+      </c>
+      <c r="BM53">
+        <v>2.28</v>
+      </c>
+      <c r="BN53">
+        <v>1.54</v>
+      </c>
+      <c r="BO53">
+        <v>2.9</v>
+      </c>
+      <c r="BP53">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7492201</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45563.54166666666</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>93</v>
+      </c>
+      <c r="P54" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q54">
+        <v>5.5</v>
+      </c>
+      <c r="R54">
+        <v>2.05</v>
+      </c>
+      <c r="S54">
+        <v>2.5</v>
+      </c>
+      <c r="T54">
+        <v>1.5</v>
+      </c>
+      <c r="U54">
+        <v>2.5</v>
+      </c>
+      <c r="V54">
+        <v>3.4</v>
+      </c>
+      <c r="W54">
+        <v>1.3</v>
+      </c>
+      <c r="X54">
+        <v>10</v>
+      </c>
+      <c r="Y54">
+        <v>1.06</v>
+      </c>
+      <c r="Z54">
+        <v>4.42</v>
+      </c>
+      <c r="AA54">
+        <v>3.25</v>
+      </c>
+      <c r="AB54">
+        <v>1.83</v>
+      </c>
+      <c r="AC54">
+        <v>1.08</v>
+      </c>
+      <c r="AD54">
+        <v>8.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.44</v>
+      </c>
+      <c r="AF54">
+        <v>2.8</v>
+      </c>
+      <c r="AG54">
+        <v>2.22</v>
+      </c>
+      <c r="AH54">
+        <v>1.59</v>
+      </c>
+      <c r="AI54">
+        <v>2.1</v>
+      </c>
+      <c r="AJ54">
+        <v>1.67</v>
+      </c>
+      <c r="AK54">
+        <v>2.09</v>
+      </c>
+      <c r="AL54">
+        <v>1.33</v>
+      </c>
+      <c r="AM54">
+        <v>1.19</v>
+      </c>
+      <c r="AN54">
+        <v>0.67</v>
+      </c>
+      <c r="AO54">
+        <v>2</v>
+      </c>
+      <c r="AP54">
+        <v>0.5</v>
+      </c>
+      <c r="AQ54">
+        <v>2.33</v>
+      </c>
+      <c r="AR54">
+        <v>1.48</v>
+      </c>
+      <c r="AS54">
+        <v>1.21</v>
+      </c>
+      <c r="AT54">
+        <v>2.69</v>
+      </c>
+      <c r="AU54">
+        <v>3</v>
+      </c>
+      <c r="AV54">
+        <v>4</v>
+      </c>
+      <c r="AW54">
+        <v>1</v>
+      </c>
+      <c r="AX54">
+        <v>7</v>
+      </c>
+      <c r="AY54">
+        <v>4</v>
+      </c>
+      <c r="AZ54">
+        <v>11</v>
+      </c>
+      <c r="BA54">
+        <v>5</v>
+      </c>
+      <c r="BB54">
+        <v>3</v>
+      </c>
+      <c r="BC54">
+        <v>8</v>
+      </c>
+      <c r="BD54">
+        <v>2.9</v>
+      </c>
+      <c r="BE54">
+        <v>6.75</v>
+      </c>
+      <c r="BF54">
+        <v>1.5</v>
+      </c>
+      <c r="BG54">
+        <v>1.34</v>
+      </c>
+      <c r="BH54">
+        <v>2.9</v>
+      </c>
+      <c r="BI54">
+        <v>1.58</v>
+      </c>
+      <c r="BJ54">
+        <v>2.18</v>
+      </c>
+      <c r="BK54">
+        <v>2</v>
+      </c>
+      <c r="BL54">
+        <v>1.8</v>
+      </c>
+      <c r="BM54">
+        <v>2.48</v>
+      </c>
+      <c r="BN54">
+        <v>1.46</v>
+      </c>
+      <c r="BO54">
+        <v>3.3</v>
+      </c>
+      <c r="BP54">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7492198</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45563.65625</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s">
+        <v>89</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>128</v>
+      </c>
+      <c r="P55" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q55">
+        <v>3.4</v>
+      </c>
+      <c r="R55">
+        <v>2.1</v>
+      </c>
+      <c r="S55">
+        <v>3.1</v>
+      </c>
+      <c r="T55">
+        <v>1.4</v>
+      </c>
+      <c r="U55">
+        <v>2.75</v>
+      </c>
+      <c r="V55">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <v>1.36</v>
+      </c>
+      <c r="X55">
+        <v>8</v>
+      </c>
+      <c r="Y55">
+        <v>1.08</v>
+      </c>
+      <c r="Z55">
+        <v>2.8</v>
+      </c>
+      <c r="AA55">
+        <v>3.4</v>
+      </c>
+      <c r="AB55">
+        <v>2.4</v>
+      </c>
+      <c r="AC55">
+        <v>1.04</v>
+      </c>
+      <c r="AD55">
+        <v>8.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.3</v>
+      </c>
+      <c r="AF55">
+        <v>3.3</v>
+      </c>
+      <c r="AG55">
+        <v>2</v>
+      </c>
+      <c r="AH55">
+        <v>1.82</v>
+      </c>
+      <c r="AI55">
+        <v>1.75</v>
+      </c>
+      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>1.6</v>
+      </c>
+      <c r="AL55">
+        <v>1.35</v>
+      </c>
+      <c r="AM55">
+        <v>1.32</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>1.78</v>
+      </c>
+      <c r="AS55">
+        <v>1.69</v>
+      </c>
+      <c r="AT55">
+        <v>3.47</v>
+      </c>
+      <c r="AU55">
+        <v>2</v>
+      </c>
+      <c r="AV55">
+        <v>6</v>
+      </c>
+      <c r="AW55">
+        <v>1</v>
+      </c>
+      <c r="AX55">
+        <v>11</v>
+      </c>
+      <c r="AY55">
+        <v>3</v>
+      </c>
+      <c r="AZ55">
+        <v>17</v>
+      </c>
+      <c r="BA55">
+        <v>2</v>
+      </c>
+      <c r="BB55">
+        <v>9</v>
+      </c>
+      <c r="BC55">
+        <v>11</v>
+      </c>
+      <c r="BD55">
+        <v>2.1</v>
+      </c>
+      <c r="BE55">
+        <v>6.25</v>
+      </c>
+      <c r="BF55">
+        <v>1.9</v>
+      </c>
+      <c r="BG55">
+        <v>1.36</v>
+      </c>
+      <c r="BH55">
+        <v>2.8</v>
+      </c>
+      <c r="BI55">
+        <v>1.63</v>
+      </c>
+      <c r="BJ55">
+        <v>2.1</v>
+      </c>
+      <c r="BK55">
+        <v>2.04</v>
+      </c>
+      <c r="BL55">
+        <v>1.68</v>
+      </c>
+      <c r="BM55">
+        <v>2.63</v>
+      </c>
+      <c r="BN55">
+        <v>1.41</v>
+      </c>
+      <c r="BO55">
+        <v>3.45</v>
+      </c>
+      <c r="BP55">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7492206</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45564.3125</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
+      <c r="H56" t="s">
+        <v>76</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+      <c r="O56" t="s">
+        <v>129</v>
+      </c>
+      <c r="P56" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q56">
+        <v>3.4</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>3.4</v>
+      </c>
+      <c r="T56">
+        <v>1.5</v>
+      </c>
+      <c r="U56">
+        <v>2.5</v>
+      </c>
+      <c r="V56">
+        <v>3.4</v>
+      </c>
+      <c r="W56">
+        <v>1.3</v>
+      </c>
+      <c r="X56">
+        <v>10</v>
+      </c>
+      <c r="Y56">
+        <v>1.06</v>
+      </c>
+      <c r="Z56">
+        <v>2.7</v>
+      </c>
+      <c r="AA56">
+        <v>3.1</v>
+      </c>
+      <c r="AB56">
+        <v>2.8</v>
+      </c>
+      <c r="AC56">
+        <v>1.09</v>
+      </c>
+      <c r="AD56">
+        <v>8.5</v>
+      </c>
+      <c r="AE56">
+        <v>1.44</v>
+      </c>
+      <c r="AF56">
+        <v>2.8</v>
+      </c>
+      <c r="AG56">
+        <v>2.3</v>
+      </c>
+      <c r="AH56">
+        <v>1.57</v>
+      </c>
+      <c r="AI56">
+        <v>1.95</v>
+      </c>
+      <c r="AJ56">
+        <v>1.8</v>
+      </c>
+      <c r="AK56">
+        <v>1.41</v>
+      </c>
+      <c r="AL56">
+        <v>1.32</v>
+      </c>
+      <c r="AM56">
+        <v>1.41</v>
+      </c>
+      <c r="AN56">
+        <v>2</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>1.33</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1.02</v>
+      </c>
+      <c r="AS56">
+        <v>1.79</v>
+      </c>
+      <c r="AT56">
+        <v>2.81</v>
+      </c>
+      <c r="AU56">
+        <v>8</v>
+      </c>
+      <c r="AV56">
+        <v>8</v>
+      </c>
+      <c r="AW56">
+        <v>4</v>
+      </c>
+      <c r="AX56">
+        <v>5</v>
+      </c>
+      <c r="AY56">
+        <v>12</v>
+      </c>
+      <c r="AZ56">
+        <v>13</v>
+      </c>
+      <c r="BA56">
+        <v>3</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
+      <c r="BC56">
+        <v>4</v>
+      </c>
+      <c r="BD56">
+        <v>1.97</v>
+      </c>
+      <c r="BE56">
+        <v>6.25</v>
+      </c>
+      <c r="BF56">
+        <v>2.02</v>
+      </c>
+      <c r="BG56">
+        <v>1.32</v>
+      </c>
+      <c r="BH56">
+        <v>3.05</v>
+      </c>
+      <c r="BI56">
+        <v>1.55</v>
+      </c>
+      <c r="BJ56">
+        <v>2.28</v>
+      </c>
+      <c r="BK56">
+        <v>1.92</v>
+      </c>
+      <c r="BL56">
+        <v>1.88</v>
+      </c>
+      <c r="BM56">
+        <v>2.4</v>
+      </c>
+      <c r="BN56">
+        <v>1.49</v>
+      </c>
+      <c r="BO56">
+        <v>3.15</v>
+      </c>
+      <c r="BP56">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7492199</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45564.41666666666</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>88</v>
+      </c>
+      <c r="H57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>5</v>
+      </c>
+      <c r="O57" t="s">
+        <v>130</v>
+      </c>
+      <c r="P57" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q57">
+        <v>2.88</v>
+      </c>
+      <c r="R57">
+        <v>2.1</v>
+      </c>
+      <c r="S57">
+        <v>4</v>
+      </c>
+      <c r="T57">
+        <v>1.44</v>
+      </c>
+      <c r="U57">
+        <v>2.63</v>
+      </c>
+      <c r="V57">
+        <v>3.25</v>
+      </c>
+      <c r="W57">
+        <v>1.33</v>
+      </c>
+      <c r="X57">
+        <v>9</v>
+      </c>
+      <c r="Y57">
+        <v>1.07</v>
+      </c>
+      <c r="Z57">
+        <v>2.75</v>
+      </c>
+      <c r="AA57">
+        <v>3.2</v>
+      </c>
+      <c r="AB57">
+        <v>2.62</v>
+      </c>
+      <c r="AC57">
+        <v>1.06</v>
+      </c>
+      <c r="AD57">
+        <v>8</v>
+      </c>
+      <c r="AE57">
+        <v>1.36</v>
+      </c>
+      <c r="AF57">
+        <v>3</v>
+      </c>
+      <c r="AG57">
+        <v>2.25</v>
+      </c>
+      <c r="AH57">
+        <v>1.6</v>
+      </c>
+      <c r="AI57">
+        <v>1.8</v>
+      </c>
+      <c r="AJ57">
+        <v>1.95</v>
+      </c>
+      <c r="AK57">
+        <v>1.35</v>
+      </c>
+      <c r="AL57">
+        <v>1.3</v>
+      </c>
+      <c r="AM57">
+        <v>1.7</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>1.5</v>
+      </c>
+      <c r="AP57">
+        <v>2</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1.29</v>
+      </c>
+      <c r="AS57">
+        <v>0.95</v>
+      </c>
+      <c r="AT57">
+        <v>2.24</v>
+      </c>
+      <c r="AU57">
+        <v>12</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
+        <v>7</v>
+      </c>
+      <c r="AX57">
+        <v>2</v>
+      </c>
+      <c r="AY57">
+        <v>19</v>
+      </c>
+      <c r="AZ57">
+        <v>6</v>
+      </c>
+      <c r="BA57">
+        <v>9</v>
+      </c>
+      <c r="BB57">
+        <v>1</v>
+      </c>
+      <c r="BC57">
+        <v>10</v>
+      </c>
+      <c r="BD57">
+        <v>1.82</v>
+      </c>
+      <c r="BE57">
+        <v>6.4</v>
+      </c>
+      <c r="BF57">
+        <v>2.18</v>
+      </c>
+      <c r="BG57">
+        <v>1.38</v>
+      </c>
+      <c r="BH57">
+        <v>2.7</v>
+      </c>
+      <c r="BI57">
+        <v>1.66</v>
+      </c>
+      <c r="BJ57">
+        <v>2.07</v>
+      </c>
+      <c r="BK57">
+        <v>2.05</v>
+      </c>
+      <c r="BL57">
+        <v>1.67</v>
+      </c>
+      <c r="BM57">
+        <v>2.65</v>
+      </c>
+      <c r="BN57">
+        <v>1.41</v>
+      </c>
+      <c r="BO57">
+        <v>3.45</v>
+      </c>
+      <c r="BP57">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7492205</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45564.41666666666</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" t="s">
+        <v>87</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>131</v>
+      </c>
+      <c r="P58" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q58">
+        <v>1.91</v>
+      </c>
+      <c r="R58">
+        <v>2.4</v>
+      </c>
+      <c r="S58">
+        <v>7</v>
+      </c>
+      <c r="T58">
+        <v>1.33</v>
+      </c>
+      <c r="U58">
+        <v>3.25</v>
+      </c>
+      <c r="V58">
+        <v>2.5</v>
+      </c>
+      <c r="W58">
+        <v>1.5</v>
+      </c>
+      <c r="X58">
+        <v>6.5</v>
+      </c>
+      <c r="Y58">
+        <v>1.11</v>
+      </c>
+      <c r="Z58">
+        <v>1.44</v>
+      </c>
+      <c r="AA58">
+        <v>4.5</v>
+      </c>
+      <c r="AB58">
+        <v>7</v>
+      </c>
+      <c r="AC58">
+        <v>1.04</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>1.22</v>
+      </c>
+      <c r="AF58">
+        <v>4.2</v>
+      </c>
+      <c r="AG58">
+        <v>1.73</v>
+      </c>
+      <c r="AH58">
+        <v>2.05</v>
+      </c>
+      <c r="AI58">
+        <v>1.95</v>
+      </c>
+      <c r="AJ58">
+        <v>1.8</v>
+      </c>
+      <c r="AK58">
+        <v>1.1</v>
+      </c>
+      <c r="AL58">
+        <v>1.15</v>
+      </c>
+      <c r="AM58">
+        <v>2.8</v>
+      </c>
+      <c r="AN58">
+        <v>1.5</v>
+      </c>
+      <c r="AO58">
+        <v>0.33</v>
+      </c>
+      <c r="AP58">
+        <v>2</v>
+      </c>
+      <c r="AQ58">
+        <v>0.25</v>
+      </c>
+      <c r="AR58">
+        <v>2.26</v>
+      </c>
+      <c r="AS58">
+        <v>0.92</v>
+      </c>
+      <c r="AT58">
+        <v>3.18</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>8</v>
+      </c>
+      <c r="AW58">
+        <v>10</v>
+      </c>
+      <c r="AX58">
+        <v>5</v>
+      </c>
+      <c r="AY58">
+        <v>16</v>
+      </c>
+      <c r="AZ58">
+        <v>13</v>
+      </c>
+      <c r="BA58">
+        <v>6</v>
+      </c>
+      <c r="BB58">
+        <v>3</v>
+      </c>
+      <c r="BC58">
+        <v>9</v>
+      </c>
+      <c r="BD58">
+        <v>1.34</v>
+      </c>
+      <c r="BE58">
+        <v>7</v>
+      </c>
+      <c r="BF58">
+        <v>3.55</v>
+      </c>
+      <c r="BG58">
+        <v>1.28</v>
+      </c>
+      <c r="BH58">
+        <v>3.15</v>
+      </c>
+      <c r="BI58">
+        <v>1.5</v>
+      </c>
+      <c r="BJ58">
+        <v>2.38</v>
+      </c>
+      <c r="BK58">
+        <v>1.88</v>
+      </c>
+      <c r="BL58">
+        <v>1.92</v>
+      </c>
+      <c r="BM58">
+        <v>2.3</v>
+      </c>
+      <c r="BN58">
+        <v>1.54</v>
+      </c>
+      <c r="BO58">
+        <v>2.95</v>
+      </c>
+      <c r="BP58">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7492200</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45564.54166666666</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>93</v>
+      </c>
+      <c r="P59" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q59">
+        <v>4</v>
+      </c>
+      <c r="R59">
+        <v>2.05</v>
+      </c>
+      <c r="S59">
+        <v>2.88</v>
+      </c>
+      <c r="T59">
+        <v>1.44</v>
+      </c>
+      <c r="U59">
+        <v>2.63</v>
+      </c>
+      <c r="V59">
+        <v>3.25</v>
+      </c>
+      <c r="W59">
+        <v>1.33</v>
+      </c>
+      <c r="X59">
+        <v>9</v>
+      </c>
+      <c r="Y59">
+        <v>1.07</v>
+      </c>
+      <c r="Z59">
+        <v>3.35</v>
+      </c>
+      <c r="AA59">
+        <v>3.25</v>
+      </c>
+      <c r="AB59">
+        <v>2.17</v>
+      </c>
+      <c r="AC59">
+        <v>1.07</v>
+      </c>
+      <c r="AD59">
+        <v>9.5</v>
+      </c>
+      <c r="AE59">
+        <v>1.38</v>
+      </c>
+      <c r="AF59">
+        <v>3.1</v>
+      </c>
+      <c r="AG59">
+        <v>2.15</v>
+      </c>
+      <c r="AH59">
+        <v>1.7</v>
+      </c>
+      <c r="AI59">
+        <v>1.91</v>
+      </c>
+      <c r="AJ59">
+        <v>1.91</v>
+      </c>
+      <c r="AK59">
+        <v>1.66</v>
+      </c>
+      <c r="AL59">
+        <v>1.27</v>
+      </c>
+      <c r="AM59">
+        <v>1.27</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>0.5</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>0.67</v>
+      </c>
+      <c r="AR59">
+        <v>0.91</v>
+      </c>
+      <c r="AS59">
+        <v>1.49</v>
+      </c>
+      <c r="AT59">
+        <v>2.4</v>
+      </c>
+      <c r="AU59">
+        <v>2</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>4</v>
+      </c>
+      <c r="AX59">
+        <v>7</v>
+      </c>
+      <c r="AY59">
+        <v>6</v>
+      </c>
+      <c r="AZ59">
+        <v>7</v>
+      </c>
+      <c r="BA59">
+        <v>2</v>
+      </c>
+      <c r="BB59">
+        <v>4</v>
+      </c>
+      <c r="BC59">
+        <v>6</v>
+      </c>
+      <c r="BD59">
+        <v>2.65</v>
+      </c>
+      <c r="BE59">
+        <v>6.75</v>
+      </c>
+      <c r="BF59">
+        <v>1.58</v>
+      </c>
+      <c r="BG59">
+        <v>1.33</v>
+      </c>
+      <c r="BH59">
+        <v>2.95</v>
+      </c>
+      <c r="BI59">
+        <v>1.57</v>
+      </c>
+      <c r="BJ59">
+        <v>2.23</v>
+      </c>
+      <c r="BK59">
+        <v>1.95</v>
+      </c>
+      <c r="BL59">
+        <v>1.85</v>
+      </c>
+      <c r="BM59">
+        <v>2.43</v>
+      </c>
+      <c r="BN59">
+        <v>1.48</v>
+      </c>
+      <c r="BO59">
+        <v>3.15</v>
+      </c>
+      <c r="BP59">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7492203</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45564.65625</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s">
+        <v>82</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>132</v>
+      </c>
+      <c r="P60" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q60">
+        <v>1.91</v>
+      </c>
+      <c r="R60">
+        <v>2.4</v>
+      </c>
+      <c r="S60">
+        <v>7</v>
+      </c>
+      <c r="T60">
+        <v>1.33</v>
+      </c>
+      <c r="U60">
+        <v>3.25</v>
+      </c>
+      <c r="V60">
+        <v>2.63</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>6.5</v>
+      </c>
+      <c r="Y60">
+        <v>1.11</v>
+      </c>
+      <c r="Z60">
+        <v>1.4</v>
+      </c>
+      <c r="AA60">
+        <v>4.9</v>
+      </c>
+      <c r="AB60">
+        <v>7</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>17</v>
+      </c>
+      <c r="AE60">
+        <v>1.19</v>
+      </c>
+      <c r="AF60">
+        <v>4.6</v>
+      </c>
+      <c r="AG60">
+        <v>1.73</v>
+      </c>
+      <c r="AH60">
+        <v>2.1</v>
+      </c>
+      <c r="AI60">
+        <v>2</v>
+      </c>
+      <c r="AJ60">
+        <v>1.75</v>
+      </c>
+      <c r="AK60">
+        <v>1.06</v>
+      </c>
+      <c r="AL60">
+        <v>1.15</v>
+      </c>
+      <c r="AM60">
+        <v>3.1</v>
+      </c>
+      <c r="AN60">
+        <v>3</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>3</v>
+      </c>
+      <c r="AQ60">
+        <v>0.67</v>
+      </c>
+      <c r="AR60">
+        <v>1.84</v>
+      </c>
+      <c r="AS60">
+        <v>0.62</v>
+      </c>
+      <c r="AT60">
+        <v>2.46</v>
+      </c>
+      <c r="AU60">
+        <v>3</v>
+      </c>
+      <c r="AV60">
+        <v>2</v>
+      </c>
+      <c r="AW60">
+        <v>6</v>
+      </c>
+      <c r="AX60">
+        <v>2</v>
+      </c>
+      <c r="AY60">
+        <v>9</v>
+      </c>
+      <c r="AZ60">
+        <v>4</v>
+      </c>
+      <c r="BA60">
+        <v>1</v>
+      </c>
+      <c r="BB60">
+        <v>3</v>
+      </c>
+      <c r="BC60">
+        <v>4</v>
+      </c>
+      <c r="BD60">
+        <v>1.2</v>
+      </c>
+      <c r="BE60">
+        <v>8.5</v>
+      </c>
+      <c r="BF60">
+        <v>4.9</v>
+      </c>
+      <c r="BG60">
+        <v>1.26</v>
+      </c>
+      <c r="BH60">
+        <v>3.4</v>
+      </c>
+      <c r="BI60">
+        <v>1.46</v>
+      </c>
+      <c r="BJ60">
+        <v>2.5</v>
+      </c>
+      <c r="BK60">
+        <v>1.72</v>
+      </c>
+      <c r="BL60">
+        <v>1.97</v>
+      </c>
+      <c r="BM60">
+        <v>2.15</v>
+      </c>
+      <c r="BN60">
+        <v>1.61</v>
+      </c>
+      <c r="BO60">
+        <v>2.7</v>
+      </c>
+      <c r="BP60">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,22 +397,25 @@
     <t>['38', '41', '43']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
     <t>['35', '83']</t>
   </si>
   <si>
-    <t>['46']</t>
+    <t>['43', '72', '89']</t>
+  </si>
+  <si>
+    <t>['22', '33']</t>
+  </si>
+  <si>
+    <t>['74', '83']</t>
   </si>
   <si>
     <t>['67', '90+2']</t>
   </si>
   <si>
-    <t>['43', '72', '89']</t>
-  </si>
-  <si>
-    <t>['74', '83']</t>
-  </si>
-  <si>
-    <t>['22', '33']</t>
+    <t>['62', '87']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -508,19 +511,22 @@
     <t>['46', '54', '58']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['48', '55', '89']</t>
+  </si>
+  <si>
     <t>['1', '45+3', '47']</t>
   </si>
   <si>
-    <t>['48', '55', '89']</t>
-  </si>
-  <si>
-    <t>['90']</t>
+    <t>['53', '90+4']</t>
   </si>
   <si>
     <t>['8', '60', '89']</t>
   </si>
   <si>
-    <t>['53', '90+4']</t>
+    <t>['34', '75', '87']</t>
   </si>
 </sst>
 </file>
@@ -882,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,7 +1147,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1219,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>0.67</v>
@@ -1347,7 +1353,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1553,7 +1559,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1965,7 +1971,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2377,7 +2383,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2789,7 +2795,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3201,7 +3207,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3407,7 +3413,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3485,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3819,7 +3825,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4437,7 +4443,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4849,7 +4855,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5055,7 +5061,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5261,7 +5267,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5673,7 +5679,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -5960,7 +5966,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -6085,7 +6091,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6291,7 +6297,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6497,7 +6503,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6703,7 +6709,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7321,7 +7327,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7939,7 +7945,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8351,7 +8357,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8557,7 +8563,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8763,7 +8769,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -8969,7 +8975,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9047,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9175,7 +9181,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9381,7 +9387,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9587,7 +9593,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9793,7 +9799,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10411,7 +10417,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10617,7 +10623,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11029,7 +11035,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11235,7 +11241,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11408,7 +11414,7 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45562.65625</v>
+        <v>45561.875</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -11534,22 +11540,22 @@
         <v>3.51</v>
       </c>
       <c r="AU52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV52">
         <v>8</v>
       </c>
       <c r="AW52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY52">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA52">
         <v>4</v>
@@ -11605,7 +11611,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7492207</v>
+        <v>7492198</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11614,196 +11620,196 @@
         <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45563.41666666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O53" t="s">
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q53">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="R53">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S53">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="T53">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U53">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V53">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W53">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="X53">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y53">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z53">
-        <v>7.35</v>
+        <v>2.8</v>
       </c>
       <c r="AA53">
-        <v>4.02</v>
+        <v>3.4</v>
       </c>
       <c r="AB53">
-        <v>1.44</v>
+        <v>2.4</v>
       </c>
       <c r="AC53">
         <v>1.04</v>
       </c>
       <c r="AD53">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE53">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AF53">
-        <v>3.64</v>
+        <v>3.3</v>
       </c>
       <c r="AG53">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AH53">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AI53">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AJ53">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK53">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AL53">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AM53">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="AN53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO53">
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR53">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="AS53">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="AT53">
-        <v>2.7</v>
+        <v>3.47</v>
       </c>
       <c r="AU53">
+        <v>2</v>
+      </c>
+      <c r="AV53">
         <v>4</v>
       </c>
-      <c r="AV53">
-        <v>8</v>
-      </c>
       <c r="AW53">
         <v>1</v>
       </c>
       <c r="AX53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ53">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB53">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD53">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="BE53">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF53">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="BG53">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BH53">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="BI53">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="BJ53">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BK53">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="BL53">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="BM53">
-        <v>2.28</v>
+        <v>2.63</v>
       </c>
       <c r="BN53">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="BO53">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="BP53">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -11820,7 +11826,7 @@
         <v>69</v>
       </c>
       <c r="E54" s="2">
-        <v>45563.54166666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -11853,7 +11859,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -11949,19 +11955,19 @@
         <v>3</v>
       </c>
       <c r="AV54">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ54">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BA54">
         <v>5</v>
@@ -12017,7 +12023,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7492198</v>
+        <v>7492207</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12026,196 +12032,196 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45563.65625</v>
+        <v>45563.41666666666</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O55" t="s">
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q55">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="R55">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="S55">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U55">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V55">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W55">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X55">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y55">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="Z55">
-        <v>2.8</v>
+        <v>7.35</v>
       </c>
       <c r="AA55">
-        <v>3.4</v>
+        <v>4.02</v>
       </c>
       <c r="AB55">
-        <v>2.4</v>
+        <v>1.44</v>
       </c>
       <c r="AC55">
         <v>1.04</v>
       </c>
       <c r="AD55">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE55">
+        <v>1.21</v>
+      </c>
+      <c r="AF55">
+        <v>3.64</v>
+      </c>
+      <c r="AG55">
+        <v>1.85</v>
+      </c>
+      <c r="AH55">
+        <v>1.85</v>
+      </c>
+      <c r="AI55">
+        <v>1.91</v>
+      </c>
+      <c r="AJ55">
+        <v>1.91</v>
+      </c>
+      <c r="AK55">
+        <v>2.5</v>
+      </c>
+      <c r="AL55">
+        <v>1.22</v>
+      </c>
+      <c r="AM55">
+        <v>1.14</v>
+      </c>
+      <c r="AN55">
+        <v>3</v>
+      </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>2</v>
+      </c>
+      <c r="AQ55">
+        <v>1.67</v>
+      </c>
+      <c r="AR55">
+        <v>1.05</v>
+      </c>
+      <c r="AS55">
+        <v>1.65</v>
+      </c>
+      <c r="AT55">
+        <v>2.7</v>
+      </c>
+      <c r="AU55">
+        <v>4</v>
+      </c>
+      <c r="AV55">
+        <v>8</v>
+      </c>
+      <c r="AW55">
+        <v>1</v>
+      </c>
+      <c r="AX55">
+        <v>6</v>
+      </c>
+      <c r="AY55">
+        <v>5</v>
+      </c>
+      <c r="AZ55">
+        <v>14</v>
+      </c>
+      <c r="BA55">
+        <v>7</v>
+      </c>
+      <c r="BB55">
+        <v>3</v>
+      </c>
+      <c r="BC55">
+        <v>10</v>
+      </c>
+      <c r="BD55">
+        <v>3.8</v>
+      </c>
+      <c r="BE55">
+        <v>7.5</v>
+      </c>
+      <c r="BF55">
         <v>1.3</v>
       </c>
-      <c r="AF55">
-        <v>3.3</v>
-      </c>
-      <c r="AG55">
-        <v>2</v>
-      </c>
-      <c r="AH55">
+      <c r="BG55">
+        <v>1.29</v>
+      </c>
+      <c r="BH55">
+        <v>3.15</v>
+      </c>
+      <c r="BI55">
+        <v>1.5</v>
+      </c>
+      <c r="BJ55">
+        <v>2.4</v>
+      </c>
+      <c r="BK55">
         <v>1.82</v>
       </c>
-      <c r="AI55">
-        <v>1.75</v>
-      </c>
-      <c r="AJ55">
-        <v>2</v>
-      </c>
-      <c r="AK55">
-        <v>1.6</v>
-      </c>
-      <c r="AL55">
-        <v>1.35</v>
-      </c>
-      <c r="AM55">
-        <v>1.32</v>
-      </c>
-      <c r="AN55">
-        <v>1</v>
-      </c>
-      <c r="AO55">
-        <v>1</v>
-      </c>
-      <c r="AP55">
-        <v>1</v>
-      </c>
-      <c r="AQ55">
-        <v>1</v>
-      </c>
-      <c r="AR55">
-        <v>1.78</v>
-      </c>
-      <c r="AS55">
-        <v>1.69</v>
-      </c>
-      <c r="AT55">
-        <v>3.47</v>
-      </c>
-      <c r="AU55">
-        <v>2</v>
-      </c>
-      <c r="AV55">
-        <v>6</v>
-      </c>
-      <c r="AW55">
-        <v>1</v>
-      </c>
-      <c r="AX55">
-        <v>11</v>
-      </c>
-      <c r="AY55">
-        <v>3</v>
-      </c>
-      <c r="AZ55">
-        <v>17</v>
-      </c>
-      <c r="BA55">
-        <v>2</v>
-      </c>
-      <c r="BB55">
-        <v>9</v>
-      </c>
-      <c r="BC55">
-        <v>11</v>
-      </c>
-      <c r="BD55">
-        <v>2.1</v>
-      </c>
-      <c r="BE55">
-        <v>6.25</v>
-      </c>
-      <c r="BF55">
-        <v>1.9</v>
-      </c>
-      <c r="BG55">
-        <v>1.36</v>
-      </c>
-      <c r="BH55">
-        <v>2.8</v>
-      </c>
-      <c r="BI55">
-        <v>1.63</v>
-      </c>
-      <c r="BJ55">
-        <v>2.1</v>
-      </c>
-      <c r="BK55">
-        <v>2.04</v>
-      </c>
       <c r="BL55">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="BM55">
-        <v>2.63</v>
+        <v>2.28</v>
       </c>
       <c r="BN55">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="BO55">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="BP55">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12223,7 +12229,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7492206</v>
+        <v>7492199</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12232,31 +12238,31 @@
         <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45564.3125</v>
+        <v>45563.875</v>
       </c>
       <c r="F56">
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N56">
         <v>5</v>
@@ -12265,163 +12271,163 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q56">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S56">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T56">
+        <v>1.44</v>
+      </c>
+      <c r="U56">
+        <v>2.63</v>
+      </c>
+      <c r="V56">
+        <v>3.25</v>
+      </c>
+      <c r="W56">
+        <v>1.33</v>
+      </c>
+      <c r="X56">
+        <v>9</v>
+      </c>
+      <c r="Y56">
+        <v>1.07</v>
+      </c>
+      <c r="Z56">
+        <v>2.75</v>
+      </c>
+      <c r="AA56">
+        <v>3.2</v>
+      </c>
+      <c r="AB56">
+        <v>2.62</v>
+      </c>
+      <c r="AC56">
+        <v>1.06</v>
+      </c>
+      <c r="AD56">
+        <v>8</v>
+      </c>
+      <c r="AE56">
+        <v>1.36</v>
+      </c>
+      <c r="AF56">
+        <v>3</v>
+      </c>
+      <c r="AG56">
+        <v>2.25</v>
+      </c>
+      <c r="AH56">
+        <v>1.6</v>
+      </c>
+      <c r="AI56">
+        <v>1.8</v>
+      </c>
+      <c r="AJ56">
+        <v>1.95</v>
+      </c>
+      <c r="AK56">
+        <v>1.35</v>
+      </c>
+      <c r="AL56">
+        <v>1.3</v>
+      </c>
+      <c r="AM56">
+        <v>1.7</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>1.5</v>
       </c>
-      <c r="U56">
-        <v>2.5</v>
-      </c>
-      <c r="V56">
-        <v>3.4</v>
-      </c>
-      <c r="W56">
-        <v>1.3</v>
-      </c>
-      <c r="X56">
+      <c r="AP56">
+        <v>2</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1.29</v>
+      </c>
+      <c r="AS56">
+        <v>0.95</v>
+      </c>
+      <c r="AT56">
+        <v>2.24</v>
+      </c>
+      <c r="AU56">
+        <v>9</v>
+      </c>
+      <c r="AV56">
+        <v>2</v>
+      </c>
+      <c r="AW56">
+        <v>5</v>
+      </c>
+      <c r="AX56">
+        <v>1</v>
+      </c>
+      <c r="AY56">
+        <v>14</v>
+      </c>
+      <c r="AZ56">
+        <v>3</v>
+      </c>
+      <c r="BA56">
+        <v>9</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
+      <c r="BC56">
         <v>10</v>
       </c>
-      <c r="Y56">
-        <v>1.06</v>
-      </c>
-      <c r="Z56">
+      <c r="BD56">
+        <v>1.82</v>
+      </c>
+      <c r="BE56">
+        <v>6.4</v>
+      </c>
+      <c r="BF56">
+        <v>2.18</v>
+      </c>
+      <c r="BG56">
+        <v>1.38</v>
+      </c>
+      <c r="BH56">
         <v>2.7</v>
       </c>
-      <c r="AA56">
-        <v>3.1</v>
-      </c>
-      <c r="AB56">
-        <v>2.8</v>
-      </c>
-      <c r="AC56">
-        <v>1.09</v>
-      </c>
-      <c r="AD56">
-        <v>8.5</v>
-      </c>
-      <c r="AE56">
-        <v>1.44</v>
-      </c>
-      <c r="AF56">
-        <v>2.8</v>
-      </c>
-      <c r="AG56">
-        <v>2.3</v>
-      </c>
-      <c r="AH56">
-        <v>1.57</v>
-      </c>
-      <c r="AI56">
-        <v>1.95</v>
-      </c>
-      <c r="AJ56">
-        <v>1.8</v>
-      </c>
-      <c r="AK56">
+      <c r="BI56">
+        <v>1.66</v>
+      </c>
+      <c r="BJ56">
+        <v>2.07</v>
+      </c>
+      <c r="BK56">
+        <v>2.05</v>
+      </c>
+      <c r="BL56">
+        <v>1.67</v>
+      </c>
+      <c r="BM56">
+        <v>2.65</v>
+      </c>
+      <c r="BN56">
         <v>1.41</v>
       </c>
-      <c r="AL56">
-        <v>1.32</v>
-      </c>
-      <c r="AM56">
-        <v>1.41</v>
-      </c>
-      <c r="AN56">
-        <v>2</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-      <c r="AP56">
-        <v>1.33</v>
-      </c>
-      <c r="AQ56">
-        <v>1</v>
-      </c>
-      <c r="AR56">
-        <v>1.02</v>
-      </c>
-      <c r="AS56">
-        <v>1.79</v>
-      </c>
-      <c r="AT56">
-        <v>2.81</v>
-      </c>
-      <c r="AU56">
-        <v>8</v>
-      </c>
-      <c r="AV56">
-        <v>8</v>
-      </c>
-      <c r="AW56">
-        <v>4</v>
-      </c>
-      <c r="AX56">
-        <v>5</v>
-      </c>
-      <c r="AY56">
-        <v>12</v>
-      </c>
-      <c r="AZ56">
-        <v>13</v>
-      </c>
-      <c r="BA56">
-        <v>3</v>
-      </c>
-      <c r="BB56">
-        <v>1</v>
-      </c>
-      <c r="BC56">
-        <v>4</v>
-      </c>
-      <c r="BD56">
-        <v>1.97</v>
-      </c>
-      <c r="BE56">
-        <v>6.25</v>
-      </c>
-      <c r="BF56">
-        <v>2.02</v>
-      </c>
-      <c r="BG56">
-        <v>1.32</v>
-      </c>
-      <c r="BH56">
-        <v>3.05</v>
-      </c>
-      <c r="BI56">
-        <v>1.55</v>
-      </c>
-      <c r="BJ56">
-        <v>2.28</v>
-      </c>
-      <c r="BK56">
-        <v>1.92</v>
-      </c>
-      <c r="BL56">
-        <v>1.88</v>
-      </c>
-      <c r="BM56">
-        <v>2.4</v>
-      </c>
-      <c r="BN56">
-        <v>1.49</v>
-      </c>
       <c r="BO56">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BP56">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12429,7 +12435,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7492199</v>
+        <v>7492200</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12438,49 +12444,49 @@
         <v>69</v>
       </c>
       <c r="E57" s="2">
-        <v>45564.41666666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="Q57">
+        <v>4</v>
+      </c>
+      <c r="R57">
+        <v>2.05</v>
+      </c>
+      <c r="S57">
         <v>2.88</v>
-      </c>
-      <c r="R57">
-        <v>2.1</v>
-      </c>
-      <c r="S57">
-        <v>4</v>
       </c>
       <c r="T57">
         <v>1.44</v>
@@ -12501,133 +12507,133 @@
         <v>1.07</v>
       </c>
       <c r="Z57">
-        <v>2.75</v>
+        <v>3.35</v>
       </c>
       <c r="AA57">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AB57">
-        <v>2.62</v>
+        <v>2.17</v>
       </c>
       <c r="AC57">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD57">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE57">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AF57">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG57">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AH57">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AI57">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ57">
+        <v>1.91</v>
+      </c>
+      <c r="AK57">
+        <v>1.66</v>
+      </c>
+      <c r="AL57">
+        <v>1.27</v>
+      </c>
+      <c r="AM57">
+        <v>1.27</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>0.5</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57">
+        <v>0.67</v>
+      </c>
+      <c r="AR57">
+        <v>0.91</v>
+      </c>
+      <c r="AS57">
+        <v>1.49</v>
+      </c>
+      <c r="AT57">
+        <v>2.4</v>
+      </c>
+      <c r="AU57">
+        <v>2</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
+        <v>5</v>
+      </c>
+      <c r="AX57">
+        <v>9</v>
+      </c>
+      <c r="AY57">
+        <v>7</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>2</v>
+      </c>
+      <c r="BB57">
+        <v>4</v>
+      </c>
+      <c r="BC57">
+        <v>6</v>
+      </c>
+      <c r="BD57">
+        <v>2.65</v>
+      </c>
+      <c r="BE57">
+        <v>6.75</v>
+      </c>
+      <c r="BF57">
+        <v>1.58</v>
+      </c>
+      <c r="BG57">
+        <v>1.33</v>
+      </c>
+      <c r="BH57">
+        <v>2.95</v>
+      </c>
+      <c r="BI57">
+        <v>1.57</v>
+      </c>
+      <c r="BJ57">
+        <v>2.23</v>
+      </c>
+      <c r="BK57">
         <v>1.95</v>
       </c>
-      <c r="AK57">
-        <v>1.35</v>
-      </c>
-      <c r="AL57">
-        <v>1.3</v>
-      </c>
-      <c r="AM57">
-        <v>1.7</v>
-      </c>
-      <c r="AN57">
-        <v>1</v>
-      </c>
-      <c r="AO57">
-        <v>1.5</v>
-      </c>
-      <c r="AP57">
-        <v>2</v>
-      </c>
-      <c r="AQ57">
-        <v>1</v>
-      </c>
-      <c r="AR57">
+      <c r="BL57">
+        <v>1.85</v>
+      </c>
+      <c r="BM57">
+        <v>2.43</v>
+      </c>
+      <c r="BN57">
+        <v>1.48</v>
+      </c>
+      <c r="BO57">
+        <v>3.15</v>
+      </c>
+      <c r="BP57">
         <v>1.29</v>
-      </c>
-      <c r="AS57">
-        <v>0.95</v>
-      </c>
-      <c r="AT57">
-        <v>2.24</v>
-      </c>
-      <c r="AU57">
-        <v>12</v>
-      </c>
-      <c r="AV57">
-        <v>4</v>
-      </c>
-      <c r="AW57">
-        <v>7</v>
-      </c>
-      <c r="AX57">
-        <v>2</v>
-      </c>
-      <c r="AY57">
-        <v>19</v>
-      </c>
-      <c r="AZ57">
-        <v>6</v>
-      </c>
-      <c r="BA57">
-        <v>9</v>
-      </c>
-      <c r="BB57">
-        <v>1</v>
-      </c>
-      <c r="BC57">
-        <v>10</v>
-      </c>
-      <c r="BD57">
-        <v>1.82</v>
-      </c>
-      <c r="BE57">
-        <v>6.4</v>
-      </c>
-      <c r="BF57">
-        <v>2.18</v>
-      </c>
-      <c r="BG57">
-        <v>1.38</v>
-      </c>
-      <c r="BH57">
-        <v>2.7</v>
-      </c>
-      <c r="BI57">
-        <v>1.66</v>
-      </c>
-      <c r="BJ57">
-        <v>2.07</v>
-      </c>
-      <c r="BK57">
-        <v>2.05</v>
-      </c>
-      <c r="BL57">
-        <v>1.67</v>
-      </c>
-      <c r="BM57">
-        <v>2.65</v>
-      </c>
-      <c r="BN57">
-        <v>1.41</v>
-      </c>
-      <c r="BO57">
-        <v>3.45</v>
-      </c>
-      <c r="BP57">
-        <v>1.25</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12635,7 +12641,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7492205</v>
+        <v>7492203</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12644,40 +12650,40 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45564.41666666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58">
         <v>2</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P58" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="Q58">
         <v>1.91</v>
@@ -12695,10 +12701,10 @@
         <v>3.25</v>
       </c>
       <c r="V58">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W58">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X58">
         <v>6.5</v>
@@ -12707,133 +12713,133 @@
         <v>1.11</v>
       </c>
       <c r="Z58">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA58">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AB58">
         <v>7</v>
       </c>
       <c r="AC58">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD58">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE58">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AF58">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AG58">
         <v>1.73</v>
       </c>
       <c r="AH58">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AI58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ58">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK58">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AL58">
         <v>1.15</v>
       </c>
       <c r="AM58">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AN58">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO58">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ58">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
-        <v>2.26</v>
+        <v>1.84</v>
       </c>
       <c r="AS58">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="AT58">
-        <v>3.18</v>
+        <v>2.46</v>
       </c>
       <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>2</v>
+      </c>
+      <c r="AW58">
         <v>6</v>
       </c>
-      <c r="AV58">
-        <v>8</v>
-      </c>
-      <c r="AW58">
-        <v>10</v>
-      </c>
       <c r="AX58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY58">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AZ58">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BA58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BB58">
         <v>3</v>
       </c>
       <c r="BC58">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BD58">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="BE58">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="BF58">
-        <v>3.55</v>
+        <v>4.9</v>
       </c>
       <c r="BG58">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="BH58">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BI58">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="BJ58">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="BK58">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="BL58">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="BM58">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="BN58">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="BO58">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BP58">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12841,7 +12847,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7492200</v>
+        <v>7492205</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12850,196 +12856,196 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45564.54166666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O59" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="Q59">
+        <v>1.91</v>
+      </c>
+      <c r="R59">
+        <v>2.4</v>
+      </c>
+      <c r="S59">
+        <v>7</v>
+      </c>
+      <c r="T59">
+        <v>1.33</v>
+      </c>
+      <c r="U59">
+        <v>3.25</v>
+      </c>
+      <c r="V59">
+        <v>2.5</v>
+      </c>
+      <c r="W59">
+        <v>1.5</v>
+      </c>
+      <c r="X59">
+        <v>6.5</v>
+      </c>
+      <c r="Y59">
+        <v>1.11</v>
+      </c>
+      <c r="Z59">
+        <v>1.44</v>
+      </c>
+      <c r="AA59">
+        <v>4.5</v>
+      </c>
+      <c r="AB59">
+        <v>7</v>
+      </c>
+      <c r="AC59">
+        <v>1.04</v>
+      </c>
+      <c r="AD59">
+        <v>10</v>
+      </c>
+      <c r="AE59">
+        <v>1.22</v>
+      </c>
+      <c r="AF59">
+        <v>4.2</v>
+      </c>
+      <c r="AG59">
+        <v>1.73</v>
+      </c>
+      <c r="AH59">
+        <v>2.05</v>
+      </c>
+      <c r="AI59">
+        <v>1.95</v>
+      </c>
+      <c r="AJ59">
+        <v>1.8</v>
+      </c>
+      <c r="AK59">
+        <v>1.1</v>
+      </c>
+      <c r="AL59">
+        <v>1.15</v>
+      </c>
+      <c r="AM59">
+        <v>2.8</v>
+      </c>
+      <c r="AN59">
+        <v>1.5</v>
+      </c>
+      <c r="AO59">
+        <v>0.33</v>
+      </c>
+      <c r="AP59">
+        <v>2</v>
+      </c>
+      <c r="AQ59">
+        <v>0.25</v>
+      </c>
+      <c r="AR59">
+        <v>2.26</v>
+      </c>
+      <c r="AS59">
+        <v>0.92</v>
+      </c>
+      <c r="AT59">
+        <v>3.18</v>
+      </c>
+      <c r="AU59">
+        <v>5</v>
+      </c>
+      <c r="AV59">
+        <v>7</v>
+      </c>
+      <c r="AW59">
+        <v>9</v>
+      </c>
+      <c r="AX59">
         <v>4</v>
       </c>
-      <c r="R59">
-        <v>2.05</v>
-      </c>
-      <c r="S59">
-        <v>2.88</v>
-      </c>
-      <c r="T59">
-        <v>1.44</v>
-      </c>
-      <c r="U59">
-        <v>2.63</v>
-      </c>
-      <c r="V59">
-        <v>3.25</v>
-      </c>
-      <c r="W59">
+      <c r="AY59">
+        <v>14</v>
+      </c>
+      <c r="AZ59">
+        <v>11</v>
+      </c>
+      <c r="BA59">
+        <v>6</v>
+      </c>
+      <c r="BB59">
+        <v>3</v>
+      </c>
+      <c r="BC59">
+        <v>9</v>
+      </c>
+      <c r="BD59">
+        <v>1.34</v>
+      </c>
+      <c r="BE59">
+        <v>7</v>
+      </c>
+      <c r="BF59">
+        <v>3.55</v>
+      </c>
+      <c r="BG59">
+        <v>1.28</v>
+      </c>
+      <c r="BH59">
+        <v>3.15</v>
+      </c>
+      <c r="BI59">
+        <v>1.5</v>
+      </c>
+      <c r="BJ59">
+        <v>2.38</v>
+      </c>
+      <c r="BK59">
+        <v>1.88</v>
+      </c>
+      <c r="BL59">
+        <v>1.92</v>
+      </c>
+      <c r="BM59">
+        <v>2.3</v>
+      </c>
+      <c r="BN59">
+        <v>1.54</v>
+      </c>
+      <c r="BO59">
+        <v>2.95</v>
+      </c>
+      <c r="BP59">
         <v>1.33</v>
-      </c>
-      <c r="X59">
-        <v>9</v>
-      </c>
-      <c r="Y59">
-        <v>1.07</v>
-      </c>
-      <c r="Z59">
-        <v>3.35</v>
-      </c>
-      <c r="AA59">
-        <v>3.25</v>
-      </c>
-      <c r="AB59">
-        <v>2.17</v>
-      </c>
-      <c r="AC59">
-        <v>1.07</v>
-      </c>
-      <c r="AD59">
-        <v>9.5</v>
-      </c>
-      <c r="AE59">
-        <v>1.38</v>
-      </c>
-      <c r="AF59">
-        <v>3.1</v>
-      </c>
-      <c r="AG59">
-        <v>2.15</v>
-      </c>
-      <c r="AH59">
-        <v>1.7</v>
-      </c>
-      <c r="AI59">
-        <v>1.91</v>
-      </c>
-      <c r="AJ59">
-        <v>1.91</v>
-      </c>
-      <c r="AK59">
-        <v>1.66</v>
-      </c>
-      <c r="AL59">
-        <v>1.27</v>
-      </c>
-      <c r="AM59">
-        <v>1.27</v>
-      </c>
-      <c r="AN59">
-        <v>1</v>
-      </c>
-      <c r="AO59">
-        <v>0.5</v>
-      </c>
-      <c r="AP59">
-        <v>1</v>
-      </c>
-      <c r="AQ59">
-        <v>0.67</v>
-      </c>
-      <c r="AR59">
-        <v>0.91</v>
-      </c>
-      <c r="AS59">
-        <v>1.49</v>
-      </c>
-      <c r="AT59">
-        <v>2.4</v>
-      </c>
-      <c r="AU59">
-        <v>2</v>
-      </c>
-      <c r="AV59">
-        <v>0</v>
-      </c>
-      <c r="AW59">
-        <v>4</v>
-      </c>
-      <c r="AX59">
-        <v>7</v>
-      </c>
-      <c r="AY59">
-        <v>6</v>
-      </c>
-      <c r="AZ59">
-        <v>7</v>
-      </c>
-      <c r="BA59">
-        <v>2</v>
-      </c>
-      <c r="BB59">
-        <v>4</v>
-      </c>
-      <c r="BC59">
-        <v>6</v>
-      </c>
-      <c r="BD59">
-        <v>2.65</v>
-      </c>
-      <c r="BE59">
-        <v>6.75</v>
-      </c>
-      <c r="BF59">
-        <v>1.58</v>
-      </c>
-      <c r="BG59">
-        <v>1.33</v>
-      </c>
-      <c r="BH59">
-        <v>2.95</v>
-      </c>
-      <c r="BI59">
-        <v>1.57</v>
-      </c>
-      <c r="BJ59">
-        <v>2.23</v>
-      </c>
-      <c r="BK59">
-        <v>1.95</v>
-      </c>
-      <c r="BL59">
-        <v>1.85</v>
-      </c>
-      <c r="BM59">
-        <v>2.43</v>
-      </c>
-      <c r="BN59">
-        <v>1.48</v>
-      </c>
-      <c r="BO59">
-        <v>3.15</v>
-      </c>
-      <c r="BP59">
-        <v>1.29</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13047,7 +13053,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7492203</v>
+        <v>7492206</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13056,196 +13062,402 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45564.65625</v>
+        <v>45563.875</v>
       </c>
       <c r="F60">
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L60">
         <v>2</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O60" t="s">
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="Q60">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="R60">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="S60">
+        <v>3.4</v>
+      </c>
+      <c r="T60">
+        <v>1.5</v>
+      </c>
+      <c r="U60">
+        <v>2.5</v>
+      </c>
+      <c r="V60">
+        <v>3.4</v>
+      </c>
+      <c r="W60">
+        <v>1.3</v>
+      </c>
+      <c r="X60">
+        <v>10</v>
+      </c>
+      <c r="Y60">
+        <v>1.06</v>
+      </c>
+      <c r="Z60">
+        <v>2.7</v>
+      </c>
+      <c r="AA60">
+        <v>3.1</v>
+      </c>
+      <c r="AB60">
+        <v>2.8</v>
+      </c>
+      <c r="AC60">
+        <v>1.09</v>
+      </c>
+      <c r="AD60">
+        <v>8.5</v>
+      </c>
+      <c r="AE60">
+        <v>1.44</v>
+      </c>
+      <c r="AF60">
+        <v>2.8</v>
+      </c>
+      <c r="AG60">
+        <v>2.3</v>
+      </c>
+      <c r="AH60">
+        <v>1.57</v>
+      </c>
+      <c r="AI60">
+        <v>1.95</v>
+      </c>
+      <c r="AJ60">
+        <v>1.8</v>
+      </c>
+      <c r="AK60">
+        <v>1.41</v>
+      </c>
+      <c r="AL60">
+        <v>1.32</v>
+      </c>
+      <c r="AM60">
+        <v>1.41</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>1.33</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1.02</v>
+      </c>
+      <c r="AS60">
+        <v>1.79</v>
+      </c>
+      <c r="AT60">
+        <v>2.81</v>
+      </c>
+      <c r="AU60">
+        <v>6</v>
+      </c>
+      <c r="AV60">
+        <v>5</v>
+      </c>
+      <c r="AW60">
+        <v>1</v>
+      </c>
+      <c r="AX60">
+        <v>6</v>
+      </c>
+      <c r="AY60">
         <v>7</v>
       </c>
-      <c r="T60">
-        <v>1.33</v>
-      </c>
-      <c r="U60">
-        <v>3.25</v>
-      </c>
-      <c r="V60">
-        <v>2.63</v>
-      </c>
-      <c r="W60">
-        <v>1.44</v>
-      </c>
-      <c r="X60">
-        <v>6.5</v>
-      </c>
-      <c r="Y60">
-        <v>1.11</v>
-      </c>
-      <c r="Z60">
-        <v>1.4</v>
-      </c>
-      <c r="AA60">
-        <v>4.9</v>
-      </c>
-      <c r="AB60">
-        <v>7</v>
-      </c>
-      <c r="AC60">
-        <v>1.01</v>
-      </c>
-      <c r="AD60">
-        <v>17</v>
-      </c>
-      <c r="AE60">
-        <v>1.19</v>
-      </c>
-      <c r="AF60">
-        <v>4.6</v>
-      </c>
-      <c r="AG60">
-        <v>1.73</v>
-      </c>
-      <c r="AH60">
-        <v>2.1</v>
-      </c>
-      <c r="AI60">
-        <v>2</v>
-      </c>
-      <c r="AJ60">
-        <v>1.75</v>
-      </c>
-      <c r="AK60">
-        <v>1.06</v>
-      </c>
-      <c r="AL60">
-        <v>1.15</v>
-      </c>
-      <c r="AM60">
-        <v>3.1</v>
-      </c>
-      <c r="AN60">
-        <v>3</v>
-      </c>
-      <c r="AO60">
-        <v>1</v>
-      </c>
-      <c r="AP60">
-        <v>3</v>
-      </c>
-      <c r="AQ60">
-        <v>0.67</v>
-      </c>
-      <c r="AR60">
-        <v>1.84</v>
-      </c>
-      <c r="AS60">
-        <v>0.62</v>
-      </c>
-      <c r="AT60">
-        <v>2.46</v>
-      </c>
-      <c r="AU60">
-        <v>3</v>
-      </c>
-      <c r="AV60">
-        <v>2</v>
-      </c>
-      <c r="AW60">
-        <v>6</v>
-      </c>
-      <c r="AX60">
-        <v>2</v>
-      </c>
-      <c r="AY60">
-        <v>9</v>
-      </c>
       <c r="AZ60">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BA60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC60">
         <v>4</v>
       </c>
       <c r="BD60">
+        <v>1.97</v>
+      </c>
+      <c r="BE60">
+        <v>6.25</v>
+      </c>
+      <c r="BF60">
+        <v>2.02</v>
+      </c>
+      <c r="BG60">
+        <v>1.32</v>
+      </c>
+      <c r="BH60">
+        <v>3.05</v>
+      </c>
+      <c r="BI60">
+        <v>1.55</v>
+      </c>
+      <c r="BJ60">
+        <v>2.28</v>
+      </c>
+      <c r="BK60">
+        <v>1.92</v>
+      </c>
+      <c r="BL60">
+        <v>1.88</v>
+      </c>
+      <c r="BM60">
+        <v>2.4</v>
+      </c>
+      <c r="BN60">
+        <v>1.49</v>
+      </c>
+      <c r="BO60">
+        <v>3.15</v>
+      </c>
+      <c r="BP60">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7492204</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45565.65625</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" t="s">
+        <v>77</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61" t="s">
+        <v>133</v>
+      </c>
+      <c r="P61" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q61">
+        <v>2.75</v>
+      </c>
+      <c r="R61">
+        <v>2.25</v>
+      </c>
+      <c r="S61">
+        <v>3.75</v>
+      </c>
+      <c r="T61">
+        <v>1.33</v>
+      </c>
+      <c r="U61">
+        <v>3.25</v>
+      </c>
+      <c r="V61">
+        <v>2.63</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>6.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.11</v>
+      </c>
+      <c r="Z61">
+        <v>2.1</v>
+      </c>
+      <c r="AA61">
+        <v>3.4</v>
+      </c>
+      <c r="AB61">
+        <v>3.4</v>
+      </c>
+      <c r="AC61">
+        <v>1.04</v>
+      </c>
+      <c r="AD61">
+        <v>13</v>
+      </c>
+      <c r="AE61">
+        <v>1.26</v>
+      </c>
+      <c r="AF61">
+        <v>4</v>
+      </c>
+      <c r="AG61">
+        <v>1.83</v>
+      </c>
+      <c r="AH61">
+        <v>1.97</v>
+      </c>
+      <c r="AI61">
+        <v>1.62</v>
+      </c>
+      <c r="AJ61">
+        <v>2.2</v>
+      </c>
+      <c r="AK61">
+        <v>1.33</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.78</v>
+      </c>
+      <c r="AN61">
+        <v>1.33</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>1</v>
+      </c>
+      <c r="AQ61">
+        <v>1.5</v>
+      </c>
+      <c r="AR61">
+        <v>1.23</v>
+      </c>
+      <c r="AS61">
+        <v>1.35</v>
+      </c>
+      <c r="AT61">
+        <v>2.58</v>
+      </c>
+      <c r="AU61">
+        <v>5</v>
+      </c>
+      <c r="AV61">
+        <v>5</v>
+      </c>
+      <c r="AW61">
+        <v>10</v>
+      </c>
+      <c r="AX61">
+        <v>7</v>
+      </c>
+      <c r="AY61">
+        <v>15</v>
+      </c>
+      <c r="AZ61">
+        <v>12</v>
+      </c>
+      <c r="BA61">
+        <v>5</v>
+      </c>
+      <c r="BB61">
+        <v>3</v>
+      </c>
+      <c r="BC61">
+        <v>8</v>
+      </c>
+      <c r="BD61">
+        <v>1.8</v>
+      </c>
+      <c r="BE61">
+        <v>8</v>
+      </c>
+      <c r="BF61">
+        <v>2.38</v>
+      </c>
+      <c r="BG61">
         <v>1.2</v>
       </c>
-      <c r="BE60">
-        <v>8.5</v>
-      </c>
-      <c r="BF60">
-        <v>4.9</v>
-      </c>
-      <c r="BG60">
-        <v>1.26</v>
-      </c>
-      <c r="BH60">
-        <v>3.4</v>
-      </c>
-      <c r="BI60">
-        <v>1.46</v>
-      </c>
-      <c r="BJ60">
+      <c r="BH61">
+        <v>4.3</v>
+      </c>
+      <c r="BI61">
+        <v>1.43</v>
+      </c>
+      <c r="BJ61">
+        <v>2.55</v>
+      </c>
+      <c r="BK61">
+        <v>1.65</v>
+      </c>
+      <c r="BL61">
+        <v>2.1</v>
+      </c>
+      <c r="BM61">
+        <v>2</v>
+      </c>
+      <c r="BN61">
+        <v>1.73</v>
+      </c>
+      <c r="BO61">
         <v>2.5</v>
       </c>
-      <c r="BK60">
-        <v>1.72</v>
-      </c>
-      <c r="BL60">
-        <v>1.97</v>
-      </c>
-      <c r="BM60">
-        <v>2.15</v>
-      </c>
-      <c r="BN60">
-        <v>1.61</v>
-      </c>
-      <c r="BO60">
-        <v>2.7</v>
-      </c>
-      <c r="BP60">
-        <v>1.38</v>
+      <c r="BP61">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -12032,7 +12032,7 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45563.41666666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -12158,22 +12158,22 @@
         <v>2.7</v>
       </c>
       <c r="AU55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV55">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX55">
         <v>6</v>
       </c>
       <c r="AY55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ55">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA55">
         <v>7</v>
@@ -13268,7 +13268,7 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45565.65625</v>
+        <v>45564.875</v>
       </c>
       <c r="F61">
         <v>6</v>
@@ -13394,22 +13394,22 @@
         <v>2.58</v>
       </c>
       <c r="AU61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY61">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ61">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA61">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -397,24 +397,24 @@
     <t>['38', '41', '43']</t>
   </si>
   <si>
+    <t>['35', '83']</t>
+  </si>
+  <si>
     <t>['46']</t>
   </si>
   <si>
-    <t>['35', '83']</t>
+    <t>['67', '90+2']</t>
   </si>
   <si>
     <t>['43', '72', '89']</t>
   </si>
   <si>
+    <t>['74', '83']</t>
+  </si>
+  <si>
     <t>['22', '33']</t>
   </si>
   <si>
-    <t>['74', '83']</t>
-  </si>
-  <si>
-    <t>['67', '90+2']</t>
-  </si>
-  <si>
     <t>['62', '87']</t>
   </si>
   <si>
@@ -511,19 +511,19 @@
     <t>['46', '54', '58']</t>
   </si>
   <si>
+    <t>['1', '45+3', '47']</t>
+  </si>
+  <si>
+    <t>['48', '55', '89']</t>
+  </si>
+  <si>
     <t>['90']</t>
   </si>
   <si>
-    <t>['48', '55', '89']</t>
-  </si>
-  <si>
-    <t>['1', '45+3', '47']</t>
+    <t>['8', '60', '89']</t>
   </si>
   <si>
     <t>['53', '90+4']</t>
-  </si>
-  <si>
-    <t>['8', '60', '89']</t>
   </si>
   <si>
     <t>['34', '75', '87']</t>
@@ -1252,10 +1252,10 @@
         <v>3</v>
       </c>
       <c r="AY2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA2">
         <v>4</v>
@@ -1458,10 +1458,10 @@
         <v>6</v>
       </c>
       <c r="AY3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA3">
         <v>1</v>
@@ -1664,10 +1664,10 @@
         <v>3</v>
       </c>
       <c r="AY4">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AZ4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA4">
         <v>9</v>
@@ -1870,10 +1870,10 @@
         <v>2</v>
       </c>
       <c r="AY5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA5">
         <v>7</v>
@@ -2076,10 +2076,10 @@
         <v>1</v>
       </c>
       <c r="AY6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA6">
         <v>9</v>
@@ -2285,7 +2285,7 @@
         <v>10</v>
       </c>
       <c r="AZ7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA7">
         <v>1</v>
@@ -2488,10 +2488,10 @@
         <v>6</v>
       </c>
       <c r="AY8">
+        <v>14</v>
+      </c>
+      <c r="AZ8">
         <v>12</v>
-      </c>
-      <c r="AZ8">
-        <v>9</v>
       </c>
       <c r="BA8">
         <v>6</v>
@@ -2694,10 +2694,10 @@
         <v>7</v>
       </c>
       <c r="AY9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA9">
         <v>5</v>
@@ -2900,10 +2900,10 @@
         <v>4</v>
       </c>
       <c r="AY10">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA10">
         <v>5</v>
@@ -3109,7 +3109,7 @@
         <v>14</v>
       </c>
       <c r="AZ11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA11">
         <v>3</v>
@@ -3312,10 +3312,10 @@
         <v>11</v>
       </c>
       <c r="AY12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA12">
         <v>4</v>
@@ -3518,10 +3518,10 @@
         <v>9</v>
       </c>
       <c r="AY13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA13">
         <v>3</v>
@@ -3724,10 +3724,10 @@
         <v>4</v>
       </c>
       <c r="AY14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA14">
         <v>10</v>
@@ -3930,10 +3930,10 @@
         <v>7</v>
       </c>
       <c r="AY15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA15">
         <v>8</v>
@@ -4136,10 +4136,10 @@
         <v>2</v>
       </c>
       <c r="AY16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA16">
         <v>7</v>
@@ -4342,10 +4342,10 @@
         <v>12</v>
       </c>
       <c r="AY17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ17">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BA17">
         <v>4</v>
@@ -4548,10 +4548,10 @@
         <v>6</v>
       </c>
       <c r="AY18">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AZ18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA18">
         <v>8</v>
@@ -4754,10 +4754,10 @@
         <v>4</v>
       </c>
       <c r="AY19">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA19">
         <v>7</v>
@@ -4960,10 +4960,10 @@
         <v>4</v>
       </c>
       <c r="AY20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ20">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA20">
         <v>5</v>
@@ -5166,10 +5166,10 @@
         <v>2</v>
       </c>
       <c r="AY21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AZ21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA21">
         <v>4</v>
@@ -5372,10 +5372,10 @@
         <v>4</v>
       </c>
       <c r="AY22">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ22">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA22">
         <v>3</v>
@@ -5578,10 +5578,10 @@
         <v>6</v>
       </c>
       <c r="AY23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA23">
         <v>3</v>
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="AY24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ24">
         <v>4</v>
@@ -5990,10 +5990,10 @@
         <v>7</v>
       </c>
       <c r="AY25">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ25">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="BA25">
         <v>7</v>
@@ -6196,10 +6196,10 @@
         <v>6</v>
       </c>
       <c r="AY26">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AZ26">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA26">
         <v>6</v>
@@ -6402,10 +6402,10 @@
         <v>4</v>
       </c>
       <c r="AY27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ27">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA27">
         <v>5</v>
@@ -6608,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="AY28">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA28">
         <v>7</v>
@@ -6814,10 +6814,10 @@
         <v>5</v>
       </c>
       <c r="AY29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA29">
         <v>3</v>
@@ -7020,10 +7020,10 @@
         <v>10</v>
       </c>
       <c r="AY30">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA30">
         <v>4</v>
@@ -7226,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="AY31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA31">
         <v>6</v>
@@ -7432,10 +7432,10 @@
         <v>5</v>
       </c>
       <c r="AY32">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA32">
         <v>4</v>
@@ -7638,10 +7638,10 @@
         <v>7</v>
       </c>
       <c r="AY33">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ33">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA33">
         <v>4</v>
@@ -7844,10 +7844,10 @@
         <v>4</v>
       </c>
       <c r="AY34">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA34">
         <v>6</v>
@@ -8050,10 +8050,10 @@
         <v>8</v>
       </c>
       <c r="AY35">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ35">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA35">
         <v>4</v>
@@ -8256,10 +8256,10 @@
         <v>12</v>
       </c>
       <c r="AY36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ36">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA36">
         <v>2</v>
@@ -8462,10 +8462,10 @@
         <v>5</v>
       </c>
       <c r="AY37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ37">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA37">
         <v>5</v>
@@ -8668,10 +8668,10 @@
         <v>4</v>
       </c>
       <c r="AY38">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ38">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA38">
         <v>7</v>
@@ -8874,10 +8874,10 @@
         <v>10</v>
       </c>
       <c r="AY39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ39">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA39">
         <v>1</v>
@@ -9080,10 +9080,10 @@
         <v>9</v>
       </c>
       <c r="AY40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ40">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -9286,10 +9286,10 @@
         <v>4</v>
       </c>
       <c r="AY41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA41">
         <v>9</v>
@@ -9492,10 +9492,10 @@
         <v>3</v>
       </c>
       <c r="AY42">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA42">
         <v>10</v>
@@ -9698,10 +9698,10 @@
         <v>6</v>
       </c>
       <c r="AY43">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ43">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA43">
         <v>5</v>
@@ -10110,10 +10110,10 @@
         <v>4</v>
       </c>
       <c r="AY45">
+        <v>13</v>
+      </c>
+      <c r="AZ45">
         <v>10</v>
-      </c>
-      <c r="AZ45">
-        <v>4</v>
       </c>
       <c r="BA45">
         <v>3</v>
@@ -10316,10 +10316,10 @@
         <v>2</v>
       </c>
       <c r="AY46">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ46">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA46">
         <v>4</v>
@@ -11611,7 +11611,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7492198</v>
+        <v>7492207</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -11620,34 +11620,34 @@
         <v>69</v>
       </c>
       <c r="E53" s="2">
-        <v>45562.875</v>
+        <v>45563.41666666666</v>
       </c>
       <c r="F53">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O53" t="s">
         <v>127</v>
@@ -11656,160 +11656,160 @@
         <v>165</v>
       </c>
       <c r="Q53">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="R53">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="S53">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="T53">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U53">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V53">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W53">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X53">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y53">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="Z53">
-        <v>2.8</v>
+        <v>7.35</v>
       </c>
       <c r="AA53">
-        <v>3.4</v>
+        <v>4.02</v>
       </c>
       <c r="AB53">
-        <v>2.4</v>
+        <v>1.44</v>
       </c>
       <c r="AC53">
         <v>1.04</v>
       </c>
       <c r="AD53">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE53">
+        <v>1.21</v>
+      </c>
+      <c r="AF53">
+        <v>3.64</v>
+      </c>
+      <c r="AG53">
+        <v>1.85</v>
+      </c>
+      <c r="AH53">
+        <v>1.85</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.91</v>
+      </c>
+      <c r="AK53">
+        <v>2.5</v>
+      </c>
+      <c r="AL53">
+        <v>1.22</v>
+      </c>
+      <c r="AM53">
+        <v>1.14</v>
+      </c>
+      <c r="AN53">
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>2</v>
+      </c>
+      <c r="AQ53">
+        <v>1.67</v>
+      </c>
+      <c r="AR53">
+        <v>1.05</v>
+      </c>
+      <c r="AS53">
+        <v>1.65</v>
+      </c>
+      <c r="AT53">
+        <v>2.7</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>8</v>
+      </c>
+      <c r="AW53">
+        <v>1</v>
+      </c>
+      <c r="AX53">
+        <v>6</v>
+      </c>
+      <c r="AY53">
+        <v>11</v>
+      </c>
+      <c r="AZ53">
+        <v>17</v>
+      </c>
+      <c r="BA53">
+        <v>7</v>
+      </c>
+      <c r="BB53">
+        <v>3</v>
+      </c>
+      <c r="BC53">
+        <v>10</v>
+      </c>
+      <c r="BD53">
+        <v>3.8</v>
+      </c>
+      <c r="BE53">
+        <v>7.5</v>
+      </c>
+      <c r="BF53">
         <v>1.3</v>
       </c>
-      <c r="AF53">
-        <v>3.3</v>
-      </c>
-      <c r="AG53">
-        <v>2</v>
-      </c>
-      <c r="AH53">
+      <c r="BG53">
+        <v>1.29</v>
+      </c>
+      <c r="BH53">
+        <v>3.15</v>
+      </c>
+      <c r="BI53">
+        <v>1.5</v>
+      </c>
+      <c r="BJ53">
+        <v>2.4</v>
+      </c>
+      <c r="BK53">
         <v>1.82</v>
       </c>
-      <c r="AI53">
-        <v>1.75</v>
-      </c>
-      <c r="AJ53">
-        <v>2</v>
-      </c>
-      <c r="AK53">
-        <v>1.6</v>
-      </c>
-      <c r="AL53">
-        <v>1.35</v>
-      </c>
-      <c r="AM53">
-        <v>1.32</v>
-      </c>
-      <c r="AN53">
-        <v>1</v>
-      </c>
-      <c r="AO53">
-        <v>1</v>
-      </c>
-      <c r="AP53">
-        <v>1</v>
-      </c>
-      <c r="AQ53">
-        <v>1</v>
-      </c>
-      <c r="AR53">
-        <v>1.78</v>
-      </c>
-      <c r="AS53">
-        <v>1.69</v>
-      </c>
-      <c r="AT53">
-        <v>3.47</v>
-      </c>
-      <c r="AU53">
-        <v>2</v>
-      </c>
-      <c r="AV53">
-        <v>4</v>
-      </c>
-      <c r="AW53">
-        <v>1</v>
-      </c>
-      <c r="AX53">
-        <v>7</v>
-      </c>
-      <c r="AY53">
-        <v>3</v>
-      </c>
-      <c r="AZ53">
-        <v>11</v>
-      </c>
-      <c r="BA53">
-        <v>2</v>
-      </c>
-      <c r="BB53">
-        <v>9</v>
-      </c>
-      <c r="BC53">
-        <v>11</v>
-      </c>
-      <c r="BD53">
-        <v>2.1</v>
-      </c>
-      <c r="BE53">
-        <v>6.25</v>
-      </c>
-      <c r="BF53">
-        <v>1.9</v>
-      </c>
-      <c r="BG53">
-        <v>1.36</v>
-      </c>
-      <c r="BH53">
-        <v>2.8</v>
-      </c>
-      <c r="BI53">
-        <v>1.63</v>
-      </c>
-      <c r="BJ53">
-        <v>2.1</v>
-      </c>
-      <c r="BK53">
-        <v>2.04</v>
-      </c>
       <c r="BL53">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="BM53">
-        <v>2.63</v>
+        <v>2.28</v>
       </c>
       <c r="BN53">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="BO53">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="BP53">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -11826,7 +11826,7 @@
         <v>69</v>
       </c>
       <c r="E54" s="2">
-        <v>45562.875</v>
+        <v>45563.54166666666</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -11955,19 +11955,19 @@
         <v>3</v>
       </c>
       <c r="AV54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY54">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ54">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BA54">
         <v>5</v>
@@ -12023,7 +12023,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7492207</v>
+        <v>7492198</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12032,34 +12032,34 @@
         <v>69</v>
       </c>
       <c r="E55" s="2">
-        <v>45562.875</v>
+        <v>45563.65625</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O55" t="s">
         <v>128</v>
@@ -12068,160 +12068,160 @@
         <v>167</v>
       </c>
       <c r="Q55">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="R55">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S55">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="T55">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U55">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V55">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W55">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="X55">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y55">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z55">
-        <v>7.35</v>
+        <v>2.8</v>
       </c>
       <c r="AA55">
-        <v>4.02</v>
+        <v>3.4</v>
       </c>
       <c r="AB55">
-        <v>1.44</v>
+        <v>2.4</v>
       </c>
       <c r="AC55">
         <v>1.04</v>
       </c>
       <c r="AD55">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE55">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AF55">
-        <v>3.64</v>
+        <v>3.3</v>
       </c>
       <c r="AG55">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AH55">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AI55">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AJ55">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK55">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AL55">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AM55">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="AN55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO55">
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AR55">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="AS55">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="AT55">
-        <v>2.7</v>
+        <v>3.47</v>
       </c>
       <c r="AU55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX55">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY55">
         <v>6</v>
       </c>
       <c r="AZ55">
+        <v>25</v>
+      </c>
+      <c r="BA55">
+        <v>2</v>
+      </c>
+      <c r="BB55">
+        <v>9</v>
+      </c>
+      <c r="BC55">
         <v>11</v>
       </c>
-      <c r="BA55">
-        <v>7</v>
-      </c>
-      <c r="BB55">
-        <v>3</v>
-      </c>
-      <c r="BC55">
-        <v>10</v>
-      </c>
       <c r="BD55">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="BE55">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF55">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="BG55">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BH55">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="BI55">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="BJ55">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BK55">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="BL55">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="BM55">
-        <v>2.28</v>
+        <v>2.63</v>
       </c>
       <c r="BN55">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="BO55">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="BP55">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -12229,7 +12229,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7492199</v>
+        <v>7492206</v>
       </c>
       <c r="C56" t="s">
         <v>68</v>
@@ -12238,31 +12238,31 @@
         <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45563.875</v>
+        <v>45564.3125</v>
       </c>
       <c r="F56">
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N56">
         <v>5</v>
@@ -12274,160 +12274,160 @@
         <v>168</v>
       </c>
       <c r="Q56">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R56">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S56">
+        <v>3.4</v>
+      </c>
+      <c r="T56">
+        <v>1.5</v>
+      </c>
+      <c r="U56">
+        <v>2.5</v>
+      </c>
+      <c r="V56">
+        <v>3.4</v>
+      </c>
+      <c r="W56">
+        <v>1.3</v>
+      </c>
+      <c r="X56">
+        <v>10</v>
+      </c>
+      <c r="Y56">
+        <v>1.06</v>
+      </c>
+      <c r="Z56">
+        <v>2.7</v>
+      </c>
+      <c r="AA56">
+        <v>3.1</v>
+      </c>
+      <c r="AB56">
+        <v>2.8</v>
+      </c>
+      <c r="AC56">
+        <v>1.09</v>
+      </c>
+      <c r="AD56">
+        <v>8.5</v>
+      </c>
+      <c r="AE56">
+        <v>1.44</v>
+      </c>
+      <c r="AF56">
+        <v>2.8</v>
+      </c>
+      <c r="AG56">
+        <v>2.3</v>
+      </c>
+      <c r="AH56">
+        <v>1.57</v>
+      </c>
+      <c r="AI56">
+        <v>1.95</v>
+      </c>
+      <c r="AJ56">
+        <v>1.8</v>
+      </c>
+      <c r="AK56">
+        <v>1.41</v>
+      </c>
+      <c r="AL56">
+        <v>1.32</v>
+      </c>
+      <c r="AM56">
+        <v>1.41</v>
+      </c>
+      <c r="AN56">
+        <v>2</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>1.33</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1.02</v>
+      </c>
+      <c r="AS56">
+        <v>1.79</v>
+      </c>
+      <c r="AT56">
+        <v>2.81</v>
+      </c>
+      <c r="AU56">
+        <v>8</v>
+      </c>
+      <c r="AV56">
+        <v>8</v>
+      </c>
+      <c r="AW56">
         <v>4</v>
       </c>
-      <c r="T56">
-        <v>1.44</v>
-      </c>
-      <c r="U56">
-        <v>2.63</v>
-      </c>
-      <c r="V56">
-        <v>3.25</v>
-      </c>
-      <c r="W56">
-        <v>1.33</v>
-      </c>
-      <c r="X56">
-        <v>9</v>
-      </c>
-      <c r="Y56">
-        <v>1.07</v>
-      </c>
-      <c r="Z56">
-        <v>2.75</v>
-      </c>
-      <c r="AA56">
-        <v>3.2</v>
-      </c>
-      <c r="AB56">
-        <v>2.62</v>
-      </c>
-      <c r="AC56">
-        <v>1.06</v>
-      </c>
-      <c r="AD56">
-        <v>8</v>
-      </c>
-      <c r="AE56">
-        <v>1.36</v>
-      </c>
-      <c r="AF56">
-        <v>3</v>
-      </c>
-      <c r="AG56">
-        <v>2.25</v>
-      </c>
-      <c r="AH56">
-        <v>1.6</v>
-      </c>
-      <c r="AI56">
-        <v>1.8</v>
-      </c>
-      <c r="AJ56">
-        <v>1.95</v>
-      </c>
-      <c r="AK56">
-        <v>1.35</v>
-      </c>
-      <c r="AL56">
+      <c r="AX56">
+        <v>5</v>
+      </c>
+      <c r="AY56">
+        <v>13</v>
+      </c>
+      <c r="AZ56">
+        <v>14</v>
+      </c>
+      <c r="BA56">
+        <v>3</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
+      <c r="BC56">
+        <v>4</v>
+      </c>
+      <c r="BD56">
+        <v>1.97</v>
+      </c>
+      <c r="BE56">
+        <v>6.25</v>
+      </c>
+      <c r="BF56">
+        <v>2.02</v>
+      </c>
+      <c r="BG56">
+        <v>1.32</v>
+      </c>
+      <c r="BH56">
+        <v>3.05</v>
+      </c>
+      <c r="BI56">
+        <v>1.55</v>
+      </c>
+      <c r="BJ56">
+        <v>2.28</v>
+      </c>
+      <c r="BK56">
+        <v>1.92</v>
+      </c>
+      <c r="BL56">
+        <v>1.88</v>
+      </c>
+      <c r="BM56">
+        <v>2.4</v>
+      </c>
+      <c r="BN56">
+        <v>1.49</v>
+      </c>
+      <c r="BO56">
+        <v>3.15</v>
+      </c>
+      <c r="BP56">
         <v>1.3</v>
-      </c>
-      <c r="AM56">
-        <v>1.7</v>
-      </c>
-      <c r="AN56">
-        <v>1</v>
-      </c>
-      <c r="AO56">
-        <v>1.5</v>
-      </c>
-      <c r="AP56">
-        <v>2</v>
-      </c>
-      <c r="AQ56">
-        <v>1</v>
-      </c>
-      <c r="AR56">
-        <v>1.29</v>
-      </c>
-      <c r="AS56">
-        <v>0.95</v>
-      </c>
-      <c r="AT56">
-        <v>2.24</v>
-      </c>
-      <c r="AU56">
-        <v>9</v>
-      </c>
-      <c r="AV56">
-        <v>2</v>
-      </c>
-      <c r="AW56">
-        <v>5</v>
-      </c>
-      <c r="AX56">
-        <v>1</v>
-      </c>
-      <c r="AY56">
-        <v>14</v>
-      </c>
-      <c r="AZ56">
-        <v>3</v>
-      </c>
-      <c r="BA56">
-        <v>9</v>
-      </c>
-      <c r="BB56">
-        <v>1</v>
-      </c>
-      <c r="BC56">
-        <v>10</v>
-      </c>
-      <c r="BD56">
-        <v>1.82</v>
-      </c>
-      <c r="BE56">
-        <v>6.4</v>
-      </c>
-      <c r="BF56">
-        <v>2.18</v>
-      </c>
-      <c r="BG56">
-        <v>1.38</v>
-      </c>
-      <c r="BH56">
-        <v>2.7</v>
-      </c>
-      <c r="BI56">
-        <v>1.66</v>
-      </c>
-      <c r="BJ56">
-        <v>2.07</v>
-      </c>
-      <c r="BK56">
-        <v>2.05</v>
-      </c>
-      <c r="BL56">
-        <v>1.67</v>
-      </c>
-      <c r="BM56">
-        <v>2.65</v>
-      </c>
-      <c r="BN56">
-        <v>1.41</v>
-      </c>
-      <c r="BO56">
-        <v>3.45</v>
-      </c>
-      <c r="BP56">
-        <v>1.25</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12435,7 +12435,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7492200</v>
+        <v>7492199</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12444,49 +12444,49 @@
         <v>69</v>
       </c>
       <c r="E57" s="2">
-        <v>45563.875</v>
+        <v>45564.41666666666</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O57" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="Q57">
+        <v>2.88</v>
+      </c>
+      <c r="R57">
+        <v>2.1</v>
+      </c>
+      <c r="S57">
         <v>4</v>
-      </c>
-      <c r="R57">
-        <v>2.05</v>
-      </c>
-      <c r="S57">
-        <v>2.88</v>
       </c>
       <c r="T57">
         <v>1.44</v>
@@ -12507,133 +12507,133 @@
         <v>1.07</v>
       </c>
       <c r="Z57">
-        <v>3.35</v>
+        <v>2.75</v>
       </c>
       <c r="AA57">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB57">
-        <v>2.17</v>
+        <v>2.62</v>
       </c>
       <c r="AC57">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD57">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE57">
+        <v>1.36</v>
+      </c>
+      <c r="AF57">
+        <v>3</v>
+      </c>
+      <c r="AG57">
+        <v>2.25</v>
+      </c>
+      <c r="AH57">
+        <v>1.6</v>
+      </c>
+      <c r="AI57">
+        <v>1.8</v>
+      </c>
+      <c r="AJ57">
+        <v>1.95</v>
+      </c>
+      <c r="AK57">
+        <v>1.35</v>
+      </c>
+      <c r="AL57">
+        <v>1.3</v>
+      </c>
+      <c r="AM57">
+        <v>1.7</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>1.5</v>
+      </c>
+      <c r="AP57">
+        <v>2</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1.29</v>
+      </c>
+      <c r="AS57">
+        <v>0.95</v>
+      </c>
+      <c r="AT57">
+        <v>2.24</v>
+      </c>
+      <c r="AU57">
+        <v>12</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
+        <v>7</v>
+      </c>
+      <c r="AX57">
+        <v>2</v>
+      </c>
+      <c r="AY57">
+        <v>25</v>
+      </c>
+      <c r="AZ57">
+        <v>7</v>
+      </c>
+      <c r="BA57">
+        <v>9</v>
+      </c>
+      <c r="BB57">
+        <v>1</v>
+      </c>
+      <c r="BC57">
+        <v>10</v>
+      </c>
+      <c r="BD57">
+        <v>1.82</v>
+      </c>
+      <c r="BE57">
+        <v>6.4</v>
+      </c>
+      <c r="BF57">
+        <v>2.18</v>
+      </c>
+      <c r="BG57">
         <v>1.38</v>
       </c>
-      <c r="AF57">
-        <v>3.1</v>
-      </c>
-      <c r="AG57">
-        <v>2.15</v>
-      </c>
-      <c r="AH57">
-        <v>1.7</v>
-      </c>
-      <c r="AI57">
-        <v>1.91</v>
-      </c>
-      <c r="AJ57">
-        <v>1.91</v>
-      </c>
-      <c r="AK57">
+      <c r="BH57">
+        <v>2.7</v>
+      </c>
+      <c r="BI57">
         <v>1.66</v>
       </c>
-      <c r="AL57">
-        <v>1.27</v>
-      </c>
-      <c r="AM57">
-        <v>1.27</v>
-      </c>
-      <c r="AN57">
-        <v>1</v>
-      </c>
-      <c r="AO57">
-        <v>0.5</v>
-      </c>
-      <c r="AP57">
-        <v>1</v>
-      </c>
-      <c r="AQ57">
-        <v>0.67</v>
-      </c>
-      <c r="AR57">
-        <v>0.91</v>
-      </c>
-      <c r="AS57">
-        <v>1.49</v>
-      </c>
-      <c r="AT57">
-        <v>2.4</v>
-      </c>
-      <c r="AU57">
-        <v>2</v>
-      </c>
-      <c r="AV57">
-        <v>0</v>
-      </c>
-      <c r="AW57">
-        <v>5</v>
-      </c>
-      <c r="AX57">
-        <v>9</v>
-      </c>
-      <c r="AY57">
-        <v>7</v>
-      </c>
-      <c r="AZ57">
-        <v>9</v>
-      </c>
-      <c r="BA57">
-        <v>2</v>
-      </c>
-      <c r="BB57">
-        <v>4</v>
-      </c>
-      <c r="BC57">
-        <v>6</v>
-      </c>
-      <c r="BD57">
+      <c r="BJ57">
+        <v>2.07</v>
+      </c>
+      <c r="BK57">
+        <v>2.05</v>
+      </c>
+      <c r="BL57">
+        <v>1.67</v>
+      </c>
+      <c r="BM57">
         <v>2.65</v>
       </c>
-      <c r="BE57">
-        <v>6.75</v>
-      </c>
-      <c r="BF57">
-        <v>1.58</v>
-      </c>
-      <c r="BG57">
-        <v>1.33</v>
-      </c>
-      <c r="BH57">
-        <v>2.95</v>
-      </c>
-      <c r="BI57">
-        <v>1.57</v>
-      </c>
-      <c r="BJ57">
-        <v>2.23</v>
-      </c>
-      <c r="BK57">
-        <v>1.95</v>
-      </c>
-      <c r="BL57">
-        <v>1.85</v>
-      </c>
-      <c r="BM57">
-        <v>2.43</v>
-      </c>
       <c r="BN57">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="BO57">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BP57">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12641,7 +12641,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7492203</v>
+        <v>7492205</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12650,40 +12650,40 @@
         <v>69</v>
       </c>
       <c r="E58" s="2">
-        <v>45563.875</v>
+        <v>45564.41666666666</v>
       </c>
       <c r="F58">
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>2</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="Q58">
         <v>1.91</v>
@@ -12701,10 +12701,10 @@
         <v>3.25</v>
       </c>
       <c r="V58">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W58">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X58">
         <v>6.5</v>
@@ -12713,133 +12713,133 @@
         <v>1.11</v>
       </c>
       <c r="Z58">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA58">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AB58">
         <v>7</v>
       </c>
       <c r="AC58">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD58">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE58">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AF58">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="AG58">
         <v>1.73</v>
       </c>
       <c r="AH58">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AI58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ58">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AK58">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AL58">
         <v>1.15</v>
       </c>
       <c r="AM58">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AN58">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO58">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="AR58">
-        <v>1.84</v>
+        <v>2.26</v>
       </c>
       <c r="AS58">
-        <v>0.62</v>
+        <v>0.92</v>
       </c>
       <c r="AT58">
-        <v>2.46</v>
+        <v>3.18</v>
       </c>
       <c r="AU58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV58">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW58">
+        <v>10</v>
+      </c>
+      <c r="AX58">
+        <v>5</v>
+      </c>
+      <c r="AY58">
+        <v>23</v>
+      </c>
+      <c r="AZ58">
+        <v>19</v>
+      </c>
+      <c r="BA58">
         <v>6</v>
       </c>
-      <c r="AX58">
-        <v>2</v>
-      </c>
-      <c r="AY58">
-        <v>6</v>
-      </c>
-      <c r="AZ58">
-        <v>4</v>
-      </c>
-      <c r="BA58">
-        <v>1</v>
-      </c>
       <c r="BB58">
         <v>3</v>
       </c>
       <c r="BC58">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD58">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="BE58">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="BF58">
-        <v>4.9</v>
+        <v>3.55</v>
       </c>
       <c r="BG58">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BH58">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BI58">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="BJ58">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="BK58">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="BL58">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="BM58">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="BN58">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="BO58">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="BP58">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12847,7 +12847,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7492205</v>
+        <v>7492200</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -12856,196 +12856,196 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45563.875</v>
+        <v>45564.54166666666</v>
       </c>
       <c r="F59">
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="Q59">
+        <v>4</v>
+      </c>
+      <c r="R59">
+        <v>2.05</v>
+      </c>
+      <c r="S59">
+        <v>2.88</v>
+      </c>
+      <c r="T59">
+        <v>1.44</v>
+      </c>
+      <c r="U59">
+        <v>2.63</v>
+      </c>
+      <c r="V59">
+        <v>3.25</v>
+      </c>
+      <c r="W59">
+        <v>1.33</v>
+      </c>
+      <c r="X59">
+        <v>9</v>
+      </c>
+      <c r="Y59">
+        <v>1.07</v>
+      </c>
+      <c r="Z59">
+        <v>3.35</v>
+      </c>
+      <c r="AA59">
+        <v>3.25</v>
+      </c>
+      <c r="AB59">
+        <v>2.17</v>
+      </c>
+      <c r="AC59">
+        <v>1.07</v>
+      </c>
+      <c r="AD59">
+        <v>9.5</v>
+      </c>
+      <c r="AE59">
+        <v>1.38</v>
+      </c>
+      <c r="AF59">
+        <v>3.1</v>
+      </c>
+      <c r="AG59">
+        <v>2.15</v>
+      </c>
+      <c r="AH59">
+        <v>1.7</v>
+      </c>
+      <c r="AI59">
         <v>1.91</v>
       </c>
-      <c r="R59">
+      <c r="AJ59">
+        <v>1.91</v>
+      </c>
+      <c r="AK59">
+        <v>1.66</v>
+      </c>
+      <c r="AL59">
+        <v>1.27</v>
+      </c>
+      <c r="AM59">
+        <v>1.27</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
+        <v>0.5</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>0.67</v>
+      </c>
+      <c r="AR59">
+        <v>0.91</v>
+      </c>
+      <c r="AS59">
+        <v>1.49</v>
+      </c>
+      <c r="AT59">
         <v>2.4</v>
       </c>
-      <c r="S59">
+      <c r="AU59">
+        <v>2</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>4</v>
+      </c>
+      <c r="AX59">
         <v>7</v>
       </c>
-      <c r="T59">
+      <c r="AY59">
+        <v>9</v>
+      </c>
+      <c r="AZ59">
+        <v>14</v>
+      </c>
+      <c r="BA59">
+        <v>2</v>
+      </c>
+      <c r="BB59">
+        <v>4</v>
+      </c>
+      <c r="BC59">
+        <v>6</v>
+      </c>
+      <c r="BD59">
+        <v>2.65</v>
+      </c>
+      <c r="BE59">
+        <v>6.75</v>
+      </c>
+      <c r="BF59">
+        <v>1.58</v>
+      </c>
+      <c r="BG59">
         <v>1.33</v>
       </c>
-      <c r="U59">
-        <v>3.25</v>
-      </c>
-      <c r="V59">
-        <v>2.5</v>
-      </c>
-      <c r="W59">
-        <v>1.5</v>
-      </c>
-      <c r="X59">
-        <v>6.5</v>
-      </c>
-      <c r="Y59">
-        <v>1.11</v>
-      </c>
-      <c r="Z59">
-        <v>1.44</v>
-      </c>
-      <c r="AA59">
-        <v>4.5</v>
-      </c>
-      <c r="AB59">
-        <v>7</v>
-      </c>
-      <c r="AC59">
-        <v>1.04</v>
-      </c>
-      <c r="AD59">
-        <v>10</v>
-      </c>
-      <c r="AE59">
-        <v>1.22</v>
-      </c>
-      <c r="AF59">
-        <v>4.2</v>
-      </c>
-      <c r="AG59">
-        <v>1.73</v>
-      </c>
-      <c r="AH59">
-        <v>2.05</v>
-      </c>
-      <c r="AI59">
+      <c r="BH59">
+        <v>2.95</v>
+      </c>
+      <c r="BI59">
+        <v>1.57</v>
+      </c>
+      <c r="BJ59">
+        <v>2.23</v>
+      </c>
+      <c r="BK59">
         <v>1.95</v>
       </c>
-      <c r="AJ59">
-        <v>1.8</v>
-      </c>
-      <c r="AK59">
-        <v>1.1</v>
-      </c>
-      <c r="AL59">
-        <v>1.15</v>
-      </c>
-      <c r="AM59">
-        <v>2.8</v>
-      </c>
-      <c r="AN59">
-        <v>1.5</v>
-      </c>
-      <c r="AO59">
-        <v>0.33</v>
-      </c>
-      <c r="AP59">
-        <v>2</v>
-      </c>
-      <c r="AQ59">
-        <v>0.25</v>
-      </c>
-      <c r="AR59">
-        <v>2.26</v>
-      </c>
-      <c r="AS59">
-        <v>0.92</v>
-      </c>
-      <c r="AT59">
-        <v>3.18</v>
-      </c>
-      <c r="AU59">
-        <v>5</v>
-      </c>
-      <c r="AV59">
-        <v>7</v>
-      </c>
-      <c r="AW59">
-        <v>9</v>
-      </c>
-      <c r="AX59">
-        <v>4</v>
-      </c>
-      <c r="AY59">
-        <v>14</v>
-      </c>
-      <c r="AZ59">
-        <v>11</v>
-      </c>
-      <c r="BA59">
-        <v>6</v>
-      </c>
-      <c r="BB59">
-        <v>3</v>
-      </c>
-      <c r="BC59">
-        <v>9</v>
-      </c>
-      <c r="BD59">
-        <v>1.34</v>
-      </c>
-      <c r="BE59">
-        <v>7</v>
-      </c>
-      <c r="BF59">
-        <v>3.55</v>
-      </c>
-      <c r="BG59">
-        <v>1.28</v>
-      </c>
-      <c r="BH59">
+      <c r="BL59">
+        <v>1.85</v>
+      </c>
+      <c r="BM59">
+        <v>2.43</v>
+      </c>
+      <c r="BN59">
+        <v>1.48</v>
+      </c>
+      <c r="BO59">
         <v>3.15</v>
       </c>
-      <c r="BI59">
-        <v>1.5</v>
-      </c>
-      <c r="BJ59">
-        <v>2.38</v>
-      </c>
-      <c r="BK59">
-        <v>1.88</v>
-      </c>
-      <c r="BL59">
-        <v>1.92</v>
-      </c>
-      <c r="BM59">
-        <v>2.3</v>
-      </c>
-      <c r="BN59">
-        <v>1.54</v>
-      </c>
-      <c r="BO59">
-        <v>2.95</v>
-      </c>
       <c r="BP59">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13053,7 +13053,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7492206</v>
+        <v>7492203</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13062,196 +13062,196 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45563.875</v>
+        <v>45564.65625</v>
       </c>
       <c r="F60">
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60">
         <v>2</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O60" t="s">
         <v>132</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="Q60">
-        <v>3.4</v>
+        <v>1.91</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="S60">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="T60">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="U60">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V60">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="W60">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="X60">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y60">
+        <v>1.11</v>
+      </c>
+      <c r="Z60">
+        <v>1.4</v>
+      </c>
+      <c r="AA60">
+        <v>4.9</v>
+      </c>
+      <c r="AB60">
+        <v>7</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>17</v>
+      </c>
+      <c r="AE60">
+        <v>1.19</v>
+      </c>
+      <c r="AF60">
+        <v>4.6</v>
+      </c>
+      <c r="AG60">
+        <v>1.73</v>
+      </c>
+      <c r="AH60">
+        <v>2.1</v>
+      </c>
+      <c r="AI60">
+        <v>2</v>
+      </c>
+      <c r="AJ60">
+        <v>1.75</v>
+      </c>
+      <c r="AK60">
         <v>1.06</v>
       </c>
-      <c r="Z60">
-        <v>2.7</v>
-      </c>
-      <c r="AA60">
+      <c r="AL60">
+        <v>1.15</v>
+      </c>
+      <c r="AM60">
         <v>3.1</v>
       </c>
-      <c r="AB60">
-        <v>2.8</v>
-      </c>
-      <c r="AC60">
-        <v>1.09</v>
-      </c>
-      <c r="AD60">
-        <v>8.5</v>
-      </c>
-      <c r="AE60">
-        <v>1.44</v>
-      </c>
-      <c r="AF60">
-        <v>2.8</v>
-      </c>
-      <c r="AG60">
-        <v>2.3</v>
-      </c>
-      <c r="AH60">
-        <v>1.57</v>
-      </c>
-      <c r="AI60">
-        <v>1.95</v>
-      </c>
-      <c r="AJ60">
-        <v>1.8</v>
-      </c>
-      <c r="AK60">
-        <v>1.41</v>
-      </c>
-      <c r="AL60">
-        <v>1.32</v>
-      </c>
-      <c r="AM60">
-        <v>1.41</v>
-      </c>
       <c r="AN60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR60">
-        <v>1.02</v>
+        <v>1.84</v>
       </c>
       <c r="AS60">
-        <v>1.79</v>
+        <v>0.62</v>
       </c>
       <c r="AT60">
-        <v>2.81</v>
+        <v>2.46</v>
       </c>
       <c r="AU60">
+        <v>3</v>
+      </c>
+      <c r="AV60">
+        <v>2</v>
+      </c>
+      <c r="AW60">
         <v>6</v>
       </c>
-      <c r="AV60">
-        <v>5</v>
-      </c>
-      <c r="AW60">
-        <v>1</v>
-      </c>
       <c r="AX60">
+        <v>2</v>
+      </c>
+      <c r="AY60">
+        <v>12</v>
+      </c>
+      <c r="AZ60">
         <v>6</v>
       </c>
-      <c r="AY60">
-        <v>7</v>
-      </c>
-      <c r="AZ60">
-        <v>11</v>
-      </c>
       <c r="BA60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC60">
         <v>4</v>
       </c>
       <c r="BD60">
+        <v>1.2</v>
+      </c>
+      <c r="BE60">
+        <v>8.5</v>
+      </c>
+      <c r="BF60">
+        <v>4.9</v>
+      </c>
+      <c r="BG60">
+        <v>1.26</v>
+      </c>
+      <c r="BH60">
+        <v>3.4</v>
+      </c>
+      <c r="BI60">
+        <v>1.46</v>
+      </c>
+      <c r="BJ60">
+        <v>2.5</v>
+      </c>
+      <c r="BK60">
+        <v>1.72</v>
+      </c>
+      <c r="BL60">
         <v>1.97</v>
       </c>
-      <c r="BE60">
-        <v>6.25</v>
-      </c>
-      <c r="BF60">
-        <v>2.02</v>
-      </c>
-      <c r="BG60">
-        <v>1.32</v>
-      </c>
-      <c r="BH60">
-        <v>3.05</v>
-      </c>
-      <c r="BI60">
-        <v>1.55</v>
-      </c>
-      <c r="BJ60">
-        <v>2.28</v>
-      </c>
-      <c r="BK60">
-        <v>1.92</v>
-      </c>
-      <c r="BL60">
-        <v>1.88</v>
-      </c>
       <c r="BM60">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BN60">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="BO60">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="BP60">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13268,7 +13268,7 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45564.875</v>
+        <v>45565.65625</v>
       </c>
       <c r="F61">
         <v>6</v>
@@ -13394,22 +13394,22 @@
         <v>2.58</v>
       </c>
       <c r="AU61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV61">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY61">
+        <v>19</v>
+      </c>
+      <c r="AZ61">
         <v>13</v>
-      </c>
-      <c r="AZ61">
-        <v>8</v>
       </c>
       <c r="BA61">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="172">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>['62', '87']</t>
+  </si>
+  <si>
+    <t>['1', '53', '86']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -888,7 +891,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1147,7 +1150,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1353,7 +1356,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1559,7 +1562,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1971,7 +1974,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2383,7 +2386,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2795,7 +2798,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3082,7 +3085,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3207,7 +3210,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3413,7 +3416,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3825,7 +3828,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4443,7 +4446,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4855,7 +4858,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4936,7 +4939,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5061,7 +5064,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5267,7 +5270,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5679,7 +5682,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6091,7 +6094,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6297,7 +6300,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6503,7 +6506,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6709,7 +6712,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6996,7 +6999,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR30">
         <v>0.95</v>
@@ -7327,7 +7330,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7945,7 +7948,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8357,7 +8360,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8563,7 +8566,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8769,7 +8772,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -8975,7 +8978,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9181,7 +9184,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9387,7 +9390,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9593,7 +9596,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9799,7 +9802,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10417,7 +10420,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10623,7 +10626,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11035,7 +11038,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11241,7 +11244,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11322,7 +11325,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR51">
         <v>1.68</v>
@@ -11653,7 +11656,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11859,7 +11862,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12065,7 +12068,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12271,7 +12274,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12477,7 +12480,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13301,7 +13304,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13458,6 +13461,212 @@
       </c>
       <c r="BP61">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7492216</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45569.5625</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s">
+        <v>88</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>134</v>
+      </c>
+      <c r="P62" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q62">
+        <v>1.95</v>
+      </c>
+      <c r="R62">
+        <v>2.4</v>
+      </c>
+      <c r="S62">
+        <v>6.5</v>
+      </c>
+      <c r="T62">
+        <v>1.33</v>
+      </c>
+      <c r="U62">
+        <v>3.25</v>
+      </c>
+      <c r="V62">
+        <v>2.5</v>
+      </c>
+      <c r="W62">
+        <v>1.5</v>
+      </c>
+      <c r="X62">
+        <v>6</v>
+      </c>
+      <c r="Y62">
+        <v>1.13</v>
+      </c>
+      <c r="Z62">
+        <v>1.42</v>
+      </c>
+      <c r="AA62">
+        <v>4.2</v>
+      </c>
+      <c r="AB62">
+        <v>6.3</v>
+      </c>
+      <c r="AC62">
+        <v>1.03</v>
+      </c>
+      <c r="AD62">
+        <v>15</v>
+      </c>
+      <c r="AE62">
+        <v>1.19</v>
+      </c>
+      <c r="AF62">
+        <v>3.86</v>
+      </c>
+      <c r="AG62">
+        <v>1.6</v>
+      </c>
+      <c r="AH62">
+        <v>2.2</v>
+      </c>
+      <c r="AI62">
+        <v>1.91</v>
+      </c>
+      <c r="AJ62">
+        <v>1.91</v>
+      </c>
+      <c r="AK62">
+        <v>1.09</v>
+      </c>
+      <c r="AL62">
+        <v>1.16</v>
+      </c>
+      <c r="AM62">
+        <v>2.8</v>
+      </c>
+      <c r="AN62">
+        <v>3</v>
+      </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>3</v>
+      </c>
+      <c r="AQ62">
+        <v>0.8</v>
+      </c>
+      <c r="AR62">
+        <v>1.6</v>
+      </c>
+      <c r="AS62">
+        <v>1.13</v>
+      </c>
+      <c r="AT62">
+        <v>2.73</v>
+      </c>
+      <c r="AU62">
+        <v>7</v>
+      </c>
+      <c r="AV62">
+        <v>3</v>
+      </c>
+      <c r="AW62">
+        <v>0</v>
+      </c>
+      <c r="AX62">
+        <v>8</v>
+      </c>
+      <c r="AY62">
+        <v>10</v>
+      </c>
+      <c r="AZ62">
+        <v>12</v>
+      </c>
+      <c r="BA62">
+        <v>4</v>
+      </c>
+      <c r="BB62">
+        <v>1</v>
+      </c>
+      <c r="BC62">
+        <v>5</v>
+      </c>
+      <c r="BD62">
+        <v>1.33</v>
+      </c>
+      <c r="BE62">
+        <v>10</v>
+      </c>
+      <c r="BF62">
+        <v>4.25</v>
+      </c>
+      <c r="BG62">
+        <v>1.22</v>
+      </c>
+      <c r="BH62">
+        <v>3.35</v>
+      </c>
+      <c r="BI62">
+        <v>1.5</v>
+      </c>
+      <c r="BJ62">
+        <v>2.49</v>
+      </c>
+      <c r="BK62">
+        <v>1.85</v>
+      </c>
+      <c r="BL62">
+        <v>1.94</v>
+      </c>
+      <c r="BM62">
+        <v>2.34</v>
+      </c>
+      <c r="BN62">
+        <v>1.56</v>
+      </c>
+      <c r="BO62">
+        <v>3.02</v>
+      </c>
+      <c r="BP62">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="178">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,12 +376,12 @@
     <t>['12', '90+3']</t>
   </si>
   <si>
+    <t>['63', '85']</t>
+  </si>
+  <si>
     <t>['32', '59']</t>
   </si>
   <si>
-    <t>['63', '85']</t>
-  </si>
-  <si>
     <t>['49', '90']</t>
   </si>
   <si>
@@ -406,12 +406,12 @@
     <t>['67', '90+2']</t>
   </si>
   <si>
+    <t>['74', '83']</t>
+  </si>
+  <si>
     <t>['43', '72', '89']</t>
   </si>
   <si>
-    <t>['74', '83']</t>
-  </si>
-  <si>
     <t>['22', '33']</t>
   </si>
   <si>
@@ -421,9 +421,21 @@
     <t>['1', '53', '86']</t>
   </si>
   <si>
+    <t>['9', '81']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
+    <t>['24', '50', '60', '74', '80']</t>
+  </si>
+  <si>
+    <t>['25', '35', '60']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -530,6 +542,12 @@
   </si>
   <si>
     <t>['34', '75', '87']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['36', '86']</t>
   </si>
 </sst>
 </file>
@@ -891,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1150,7 +1168,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1356,7 +1374,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1562,7 +1580,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1643,7 +1661,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1974,7 +1992,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2258,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.33</v>
@@ -2386,7 +2404,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2467,7 +2485,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ8">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2798,7 +2816,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3082,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>0.8</v>
@@ -3210,7 +3228,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3288,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3416,7 +3434,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3700,10 +3718,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ14">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3828,7 +3846,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -3909,7 +3927,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4115,7 +4133,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4446,7 +4464,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4858,7 +4876,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5064,7 +5082,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5142,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>2.33</v>
@@ -5270,7 +5288,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5351,7 +5369,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5554,7 +5572,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -5682,7 +5700,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -5969,7 +5987,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -6094,7 +6112,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6300,7 +6318,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6506,7 +6524,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6712,7 +6730,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6996,7 +7014,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30">
         <v>0.8</v>
@@ -7202,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7330,7 +7348,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7823,7 +7841,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ34">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR34">
         <v>2.22</v>
@@ -7948,7 +7966,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8112,7 +8130,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7492187</v>
+        <v>7492178</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8127,190 +8145,190 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O36" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="Q36">
+        <v>2.38</v>
+      </c>
+      <c r="R36">
+        <v>2.3</v>
+      </c>
+      <c r="S36">
+        <v>4.33</v>
+      </c>
+      <c r="T36">
+        <v>1.33</v>
+      </c>
+      <c r="U36">
+        <v>3.25</v>
+      </c>
+      <c r="V36">
         <v>2.5</v>
       </c>
-      <c r="R36">
-        <v>2.05</v>
-      </c>
-      <c r="S36">
-        <v>5.5</v>
-      </c>
-      <c r="T36">
+      <c r="W36">
         <v>1.5</v>
       </c>
-      <c r="U36">
-        <v>2.5</v>
-      </c>
-      <c r="V36">
-        <v>3.5</v>
-      </c>
-      <c r="W36">
-        <v>1.29</v>
-      </c>
       <c r="X36">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Y36">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="Z36">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AA36">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AB36">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="AC36">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="AD36">
+        <v>13</v>
+      </c>
+      <c r="AE36">
+        <v>1.21</v>
+      </c>
+      <c r="AF36">
+        <v>3.88</v>
+      </c>
+      <c r="AG36">
+        <v>1.7</v>
+      </c>
+      <c r="AH36">
+        <v>2.1</v>
+      </c>
+      <c r="AI36">
+        <v>1.67</v>
+      </c>
+      <c r="AJ36">
+        <v>2.1</v>
+      </c>
+      <c r="AK36">
+        <v>1.18</v>
+      </c>
+      <c r="AL36">
+        <v>1.21</v>
+      </c>
+      <c r="AM36">
+        <v>2.03</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>2</v>
+      </c>
+      <c r="AQ36">
+        <v>0.67</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>1.6</v>
+      </c>
+      <c r="AT36">
+        <v>1.6</v>
+      </c>
+      <c r="AU36">
         <v>8</v>
       </c>
-      <c r="AE36">
-        <v>1.45</v>
-      </c>
-      <c r="AF36">
-        <v>2.8</v>
-      </c>
-      <c r="AG36">
-        <v>2.3</v>
-      </c>
-      <c r="AH36">
-        <v>1.6</v>
-      </c>
-      <c r="AI36">
-        <v>2.1</v>
-      </c>
-      <c r="AJ36">
-        <v>1.67</v>
-      </c>
-      <c r="AK36">
-        <v>1.14</v>
-      </c>
-      <c r="AL36">
-        <v>1.25</v>
-      </c>
-      <c r="AM36">
-        <v>2.04</v>
-      </c>
-      <c r="AN36">
-        <v>3</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>1.33</v>
-      </c>
-      <c r="AQ36">
-        <v>0.33</v>
-      </c>
-      <c r="AR36">
-        <v>1.46</v>
-      </c>
-      <c r="AS36">
-        <v>1.19</v>
-      </c>
-      <c r="AT36">
-        <v>2.65</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
       <c r="AV36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW36">
         <v>5</v>
       </c>
       <c r="AX36">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AY36">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ36">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BA36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB36">
+        <v>2</v>
+      </c>
+      <c r="BC36">
         <v>7</v>
       </c>
-      <c r="BC36">
-        <v>9</v>
-      </c>
       <c r="BD36">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="BE36">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF36">
-        <v>3.05</v>
+        <v>2.48</v>
       </c>
       <c r="BG36">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="BH36">
-        <v>3.2</v>
+        <v>2.73</v>
       </c>
       <c r="BI36">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="BJ36">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="BK36">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="BL36">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="BM36">
-        <v>2.25</v>
+        <v>2.98</v>
       </c>
       <c r="BN36">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="BO36">
-        <v>2.88</v>
+        <v>4.25</v>
       </c>
       <c r="BP36">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8318,7 +8336,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7492178</v>
+        <v>7492187</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8333,190 +8351,190 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="Q37">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R37">
+        <v>2.05</v>
+      </c>
+      <c r="S37">
+        <v>5.5</v>
+      </c>
+      <c r="T37">
+        <v>1.5</v>
+      </c>
+      <c r="U37">
+        <v>2.5</v>
+      </c>
+      <c r="V37">
+        <v>3.5</v>
+      </c>
+      <c r="W37">
+        <v>1.29</v>
+      </c>
+      <c r="X37">
+        <v>10</v>
+      </c>
+      <c r="Y37">
+        <v>1.06</v>
+      </c>
+      <c r="Z37">
+        <v>1.73</v>
+      </c>
+      <c r="AA37">
+        <v>3.4</v>
+      </c>
+      <c r="AB37">
+        <v>4.8</v>
+      </c>
+      <c r="AC37">
+        <v>1.09</v>
+      </c>
+      <c r="AD37">
+        <v>8</v>
+      </c>
+      <c r="AE37">
+        <v>1.45</v>
+      </c>
+      <c r="AF37">
+        <v>2.8</v>
+      </c>
+      <c r="AG37">
         <v>2.3</v>
       </c>
-      <c r="S37">
-        <v>4.33</v>
-      </c>
-      <c r="T37">
+      <c r="AH37">
+        <v>1.6</v>
+      </c>
+      <c r="AI37">
+        <v>2.1</v>
+      </c>
+      <c r="AJ37">
+        <v>1.67</v>
+      </c>
+      <c r="AK37">
+        <v>1.14</v>
+      </c>
+      <c r="AL37">
+        <v>1.25</v>
+      </c>
+      <c r="AM37">
+        <v>2.04</v>
+      </c>
+      <c r="AN37">
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
         <v>1.33</v>
       </c>
-      <c r="U37">
-        <v>3.25</v>
-      </c>
-      <c r="V37">
-        <v>2.5</v>
-      </c>
-      <c r="W37">
-        <v>1.5</v>
-      </c>
-      <c r="X37">
-        <v>6.5</v>
-      </c>
-      <c r="Y37">
-        <v>1.11</v>
-      </c>
-      <c r="Z37">
-        <v>1.83</v>
-      </c>
-      <c r="AA37">
-        <v>3.75</v>
-      </c>
-      <c r="AB37">
-        <v>3.75</v>
-      </c>
-      <c r="AC37">
-        <v>1.03</v>
-      </c>
-      <c r="AD37">
-        <v>13</v>
-      </c>
-      <c r="AE37">
-        <v>1.21</v>
-      </c>
-      <c r="AF37">
-        <v>3.88</v>
-      </c>
-      <c r="AG37">
-        <v>1.7</v>
-      </c>
-      <c r="AH37">
-        <v>2.1</v>
-      </c>
-      <c r="AI37">
-        <v>1.67</v>
-      </c>
-      <c r="AJ37">
-        <v>2.1</v>
-      </c>
-      <c r="AK37">
-        <v>1.18</v>
-      </c>
-      <c r="AL37">
-        <v>1.21</v>
-      </c>
-      <c r="AM37">
-        <v>2.03</v>
-      </c>
-      <c r="AN37">
-        <v>0</v>
-      </c>
-      <c r="AO37">
-        <v>1</v>
-      </c>
-      <c r="AP37">
-        <v>1.5</v>
-      </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="AR37">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AS37">
-        <v>1.6</v>
+        <v>1.19</v>
       </c>
       <c r="AT37">
-        <v>1.6</v>
+        <v>2.65</v>
       </c>
       <c r="AU37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AV37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW37">
         <v>5</v>
       </c>
       <c r="AX37">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AY37">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AZ37">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BA37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC37">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD37">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="BE37">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF37">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="BG37">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="BH37">
-        <v>2.73</v>
+        <v>3.2</v>
       </c>
       <c r="BI37">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="BJ37">
-        <v>2.03</v>
+        <v>2.4</v>
       </c>
       <c r="BK37">
-        <v>2.22</v>
+        <v>1.81</v>
       </c>
       <c r="BL37">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="BM37">
-        <v>2.98</v>
+        <v>2.25</v>
       </c>
       <c r="BN37">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="BO37">
-        <v>4.25</v>
+        <v>2.88</v>
       </c>
       <c r="BP37">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8566,7 +8584,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8772,7 +8790,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -8978,7 +8996,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9184,7 +9202,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9390,7 +9408,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9596,7 +9614,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9674,10 +9692,10 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR43">
         <v>0.93</v>
@@ -9760,7 +9778,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7492194</v>
+        <v>7492197</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9769,196 +9787,196 @@
         <v>69</v>
       </c>
       <c r="E44" s="2">
-        <v>45555.875</v>
+        <v>45556.41666666666</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>2</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O44" t="s">
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="Q44">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="R44">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S44">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="T44">
+        <v>1.44</v>
+      </c>
+      <c r="U44">
+        <v>2.63</v>
+      </c>
+      <c r="V44">
+        <v>3.25</v>
+      </c>
+      <c r="W44">
+        <v>1.33</v>
+      </c>
+      <c r="X44">
+        <v>10</v>
+      </c>
+      <c r="Y44">
+        <v>1.06</v>
+      </c>
+      <c r="Z44">
+        <v>3.3</v>
+      </c>
+      <c r="AA44">
+        <v>3.1</v>
+      </c>
+      <c r="AB44">
+        <v>2.25</v>
+      </c>
+      <c r="AC44">
+        <v>1.07</v>
+      </c>
+      <c r="AD44">
+        <v>9.5</v>
+      </c>
+      <c r="AE44">
         <v>1.4</v>
       </c>
-      <c r="U44">
-        <v>2.75</v>
-      </c>
-      <c r="V44">
-        <v>3</v>
-      </c>
-      <c r="W44">
-        <v>1.36</v>
-      </c>
-      <c r="X44">
-        <v>8</v>
-      </c>
-      <c r="Y44">
-        <v>1.08</v>
-      </c>
-      <c r="Z44">
-        <v>2.2</v>
-      </c>
-      <c r="AA44">
-        <v>3.3</v>
-      </c>
-      <c r="AB44">
-        <v>3.3</v>
-      </c>
-      <c r="AC44">
-        <v>1.02</v>
-      </c>
-      <c r="AD44">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE44">
-        <v>1.28</v>
-      </c>
       <c r="AF44">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="AG44">
+        <v>2.05</v>
+      </c>
+      <c r="AH44">
+        <v>1.7</v>
+      </c>
+      <c r="AI44">
         <v>1.91</v>
       </c>
-      <c r="AH44">
-        <v>1.85</v>
-      </c>
-      <c r="AI44">
-        <v>1.75</v>
-      </c>
       <c r="AJ44">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK44">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
       <c r="AL44">
+        <v>1.3</v>
+      </c>
+      <c r="AM44">
+        <v>1.38</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>3</v>
+      </c>
+      <c r="AP44">
+        <v>1.5</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>1.37</v>
+      </c>
+      <c r="AS44">
+        <v>0.93</v>
+      </c>
+      <c r="AT44">
+        <v>2.3</v>
+      </c>
+      <c r="AU44">
+        <v>5</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>5</v>
+      </c>
+      <c r="AX44">
+        <v>4</v>
+      </c>
+      <c r="AY44">
+        <v>13</v>
+      </c>
+      <c r="AZ44">
+        <v>10</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>4</v>
+      </c>
+      <c r="BC44">
+        <v>7</v>
+      </c>
+      <c r="BD44">
+        <v>1.98</v>
+      </c>
+      <c r="BE44">
+        <v>6.4</v>
+      </c>
+      <c r="BF44">
+        <v>1.98</v>
+      </c>
+      <c r="BG44">
         <v>1.32</v>
       </c>
-      <c r="AM44">
-        <v>1.67</v>
-      </c>
-      <c r="AN44">
+      <c r="BH44">
+        <v>3.05</v>
+      </c>
+      <c r="BI44">
+        <v>1.54</v>
+      </c>
+      <c r="BJ44">
+        <v>2.3</v>
+      </c>
+      <c r="BK44">
+        <v>1.88</v>
+      </c>
+      <c r="BL44">
+        <v>1.81</v>
+      </c>
+      <c r="BM44">
+        <v>2.38</v>
+      </c>
+      <c r="BN44">
         <v>1.5</v>
       </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>1.33</v>
-      </c>
-      <c r="AQ44">
-        <v>0.5</v>
-      </c>
-      <c r="AR44">
-        <v>1.54</v>
-      </c>
-      <c r="AS44">
-        <v>1</v>
-      </c>
-      <c r="AT44">
-        <v>2.54</v>
-      </c>
-      <c r="AU44">
-        <v>3</v>
-      </c>
-      <c r="AV44">
-        <v>9</v>
-      </c>
-      <c r="AW44">
-        <v>6</v>
-      </c>
-      <c r="AX44">
-        <v>3</v>
-      </c>
-      <c r="AY44">
-        <v>9</v>
-      </c>
-      <c r="AZ44">
-        <v>12</v>
-      </c>
-      <c r="BA44">
-        <v>2</v>
-      </c>
-      <c r="BB44">
-        <v>12</v>
-      </c>
-      <c r="BC44">
-        <v>14</v>
-      </c>
-      <c r="BD44">
-        <v>1.77</v>
-      </c>
-      <c r="BE44">
-        <v>6.25</v>
-      </c>
-      <c r="BF44">
-        <v>2.3</v>
-      </c>
-      <c r="BG44">
-        <v>1.37</v>
-      </c>
-      <c r="BH44">
-        <v>2.8</v>
-      </c>
-      <c r="BI44">
-        <v>1.65</v>
-      </c>
-      <c r="BJ44">
-        <v>2.08</v>
-      </c>
-      <c r="BK44">
-        <v>2.05</v>
-      </c>
-      <c r="BL44">
-        <v>1.67</v>
-      </c>
-      <c r="BM44">
-        <v>2.65</v>
-      </c>
-      <c r="BN44">
-        <v>1.41</v>
-      </c>
       <c r="BO44">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="BP44">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -9966,7 +9984,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7492197</v>
+        <v>7492193</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -9975,16 +9993,16 @@
         <v>69</v>
       </c>
       <c r="E45" s="2">
-        <v>45556.41666666666</v>
+        <v>45556.54166666666</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -9996,28 +10014,28 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="P45" t="s">
         <v>93</v>
       </c>
       <c r="Q45">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="R45">
         <v>2.05</v>
       </c>
       <c r="S45">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="T45">
         <v>1.44</v>
@@ -10038,19 +10056,19 @@
         <v>1.06</v>
       </c>
       <c r="Z45">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="AA45">
         <v>3.1</v>
       </c>
       <c r="AB45">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="AC45">
         <v>1.07</v>
       </c>
       <c r="AD45">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE45">
         <v>1.4</v>
@@ -10059,112 +10077,112 @@
         <v>3</v>
       </c>
       <c r="AG45">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AH45">
+        <v>1.65</v>
+      </c>
+      <c r="AI45">
+        <v>1.95</v>
+      </c>
+      <c r="AJ45">
+        <v>1.8</v>
+      </c>
+      <c r="AK45">
+        <v>1.33</v>
+      </c>
+      <c r="AL45">
+        <v>1.28</v>
+      </c>
+      <c r="AM45">
         <v>1.7</v>
       </c>
-      <c r="AI45">
-        <v>1.91</v>
-      </c>
-      <c r="AJ45">
-        <v>1.91</v>
-      </c>
-      <c r="AK45">
-        <v>1.63</v>
-      </c>
-      <c r="AL45">
-        <v>1.3</v>
-      </c>
-      <c r="AM45">
-        <v>1.38</v>
-      </c>
       <c r="AN45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AP45">
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AS45">
-        <v>0.93</v>
+        <v>1.48</v>
       </c>
       <c r="AT45">
-        <v>2.3</v>
+        <v>2.71</v>
       </c>
       <c r="AU45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX45">
+        <v>2</v>
+      </c>
+      <c r="AY45">
+        <v>10</v>
+      </c>
+      <c r="AZ45">
+        <v>9</v>
+      </c>
+      <c r="BA45">
         <v>4</v>
       </c>
-      <c r="AY45">
-        <v>13</v>
-      </c>
-      <c r="AZ45">
-        <v>10</v>
-      </c>
-      <c r="BA45">
-        <v>3</v>
-      </c>
       <c r="BB45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC45">
         <v>7</v>
       </c>
       <c r="BD45">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="BE45">
         <v>6.4</v>
       </c>
       <c r="BF45">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="BG45">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="BH45">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="BI45">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="BJ45">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="BK45">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="BL45">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="BM45">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="BN45">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="BO45">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="BP45">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -10172,7 +10190,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7492193</v>
+        <v>7492194</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10181,184 +10199,184 @@
         <v>69</v>
       </c>
       <c r="E46" s="2">
-        <v>45556.54166666666</v>
+        <v>45556.65625</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O46" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S46">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T46">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U46">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V46">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W46">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X46">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y46">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z46">
         <v>2.2</v>
       </c>
       <c r="AA46">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AB46">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AC46">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AD46">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE46">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="AF46">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="AG46">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AH46">
+        <v>1.85</v>
+      </c>
+      <c r="AI46">
+        <v>1.75</v>
+      </c>
+      <c r="AJ46">
+        <v>2</v>
+      </c>
+      <c r="AK46">
+        <v>1.36</v>
+      </c>
+      <c r="AL46">
+        <v>1.32</v>
+      </c>
+      <c r="AM46">
+        <v>1.67</v>
+      </c>
+      <c r="AN46">
+        <v>1.5</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>1.33</v>
+      </c>
+      <c r="AQ46">
+        <v>0.5</v>
+      </c>
+      <c r="AR46">
+        <v>1.54</v>
+      </c>
+      <c r="AS46">
+        <v>1</v>
+      </c>
+      <c r="AT46">
+        <v>2.54</v>
+      </c>
+      <c r="AU46">
+        <v>4</v>
+      </c>
+      <c r="AV46">
+        <v>11</v>
+      </c>
+      <c r="AW46">
+        <v>6</v>
+      </c>
+      <c r="AX46">
+        <v>3</v>
+      </c>
+      <c r="AY46">
+        <v>15</v>
+      </c>
+      <c r="AZ46">
+        <v>26</v>
+      </c>
+      <c r="BA46">
+        <v>2</v>
+      </c>
+      <c r="BB46">
+        <v>12</v>
+      </c>
+      <c r="BC46">
+        <v>14</v>
+      </c>
+      <c r="BD46">
+        <v>1.77</v>
+      </c>
+      <c r="BE46">
+        <v>6.25</v>
+      </c>
+      <c r="BF46">
+        <v>2.3</v>
+      </c>
+      <c r="BG46">
+        <v>1.37</v>
+      </c>
+      <c r="BH46">
+        <v>2.8</v>
+      </c>
+      <c r="BI46">
         <v>1.65</v>
       </c>
-      <c r="AI46">
-        <v>1.95</v>
-      </c>
-      <c r="AJ46">
-        <v>1.8</v>
-      </c>
-      <c r="AK46">
-        <v>1.33</v>
-      </c>
-      <c r="AL46">
-        <v>1.28</v>
-      </c>
-      <c r="AM46">
-        <v>1.7</v>
-      </c>
-      <c r="AN46">
-        <v>2</v>
-      </c>
-      <c r="AO46">
-        <v>1.5</v>
-      </c>
-      <c r="AP46">
+      <c r="BJ46">
+        <v>2.08</v>
+      </c>
+      <c r="BK46">
+        <v>2.05</v>
+      </c>
+      <c r="BL46">
         <v>1.67</v>
-      </c>
-      <c r="AQ46">
-        <v>1.33</v>
-      </c>
-      <c r="AR46">
-        <v>1.23</v>
-      </c>
-      <c r="AS46">
-        <v>1.48</v>
-      </c>
-      <c r="AT46">
-        <v>2.71</v>
-      </c>
-      <c r="AU46">
-        <v>2</v>
-      </c>
-      <c r="AV46">
-        <v>2</v>
-      </c>
-      <c r="AW46">
-        <v>4</v>
-      </c>
-      <c r="AX46">
-        <v>2</v>
-      </c>
-      <c r="AY46">
-        <v>10</v>
-      </c>
-      <c r="AZ46">
-        <v>9</v>
-      </c>
-      <c r="BA46">
-        <v>4</v>
-      </c>
-      <c r="BB46">
-        <v>3</v>
-      </c>
-      <c r="BC46">
-        <v>7</v>
-      </c>
-      <c r="BD46">
-        <v>1.92</v>
-      </c>
-      <c r="BE46">
-        <v>6.4</v>
-      </c>
-      <c r="BF46">
-        <v>2.08</v>
-      </c>
-      <c r="BG46">
-        <v>1.4</v>
-      </c>
-      <c r="BH46">
-        <v>2.7</v>
-      </c>
-      <c r="BI46">
-        <v>1.67</v>
-      </c>
-      <c r="BJ46">
-        <v>2.05</v>
-      </c>
-      <c r="BK46">
-        <v>2.08</v>
-      </c>
-      <c r="BL46">
-        <v>1.65</v>
       </c>
       <c r="BM46">
         <v>2.65</v>
@@ -10367,10 +10385,10 @@
         <v>1.41</v>
       </c>
       <c r="BO46">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="BP46">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10387,10 +10405,10 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45556.875</v>
+        <v>45557.3125</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
         <v>83</v>
@@ -10420,7 +10438,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10513,7 +10531,7 @@
         <v>3.6</v>
       </c>
       <c r="AU47">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV47">
         <v>7</v>
@@ -10522,13 +10540,13 @@
         <v>9</v>
       </c>
       <c r="AX47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY47">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ47">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="BA47">
         <v>3</v>
@@ -10593,7 +10611,7 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45556.875</v>
+        <v>45557.41666666666</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -10626,7 +10644,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10719,22 +10737,22 @@
         <v>2.09</v>
       </c>
       <c r="AU48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV48">
+        <v>9</v>
+      </c>
+      <c r="AW48">
+        <v>3</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
         <v>7</v>
       </c>
-      <c r="AW48">
-        <v>3</v>
-      </c>
-      <c r="AX48">
-        <v>3</v>
-      </c>
-      <c r="AY48">
-        <v>5</v>
-      </c>
       <c r="AZ48">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA48">
         <v>2</v>
@@ -10799,7 +10817,7 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45556.875</v>
+        <v>45557.54166666666</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -10925,22 +10943,22 @@
         <v>3.5</v>
       </c>
       <c r="AU49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV49">
         <v>3</v>
       </c>
       <c r="AW49">
+        <v>5</v>
+      </c>
+      <c r="AX49">
         <v>4</v>
       </c>
-      <c r="AX49">
-        <v>6</v>
-      </c>
       <c r="AY49">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA49">
         <v>2</v>
@@ -11005,10 +11023,10 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45556.875</v>
+        <v>45557.65625</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
         <v>81</v>
@@ -11038,7 +11056,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11116,7 +11134,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ50">
         <v>1.33</v>
@@ -11131,22 +11149,22 @@
         <v>2.64</v>
       </c>
       <c r="AU50">
+        <v>5</v>
+      </c>
+      <c r="AV50">
+        <v>9</v>
+      </c>
+      <c r="AW50">
         <v>4</v>
       </c>
-      <c r="AV50">
-        <v>7</v>
-      </c>
-      <c r="AW50">
+      <c r="AX50">
         <v>5</v>
       </c>
-      <c r="AX50">
-        <v>4</v>
-      </c>
       <c r="AY50">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ50">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA50">
         <v>6</v>
@@ -11211,7 +11229,7 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45558.875</v>
+        <v>45559.65625</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -11244,7 +11262,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11322,7 +11340,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>0.8</v>
@@ -11337,22 +11355,22 @@
         <v>2.81</v>
       </c>
       <c r="AU51">
+        <v>6</v>
+      </c>
+      <c r="AV51">
+        <v>8</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
         <v>4</v>
       </c>
-      <c r="AV51">
-        <v>6</v>
-      </c>
-      <c r="AW51">
-        <v>4</v>
-      </c>
-      <c r="AX51">
-        <v>3</v>
-      </c>
       <c r="AY51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ51">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA51">
         <v>6</v>
@@ -11417,7 +11435,7 @@
         <v>69</v>
       </c>
       <c r="E52" s="2">
-        <v>45561.875</v>
+        <v>45562.65625</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -11531,7 +11549,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ52">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR52">
         <v>1.92</v>
@@ -11543,22 +11561,22 @@
         <v>3.51</v>
       </c>
       <c r="AU52">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV52">
         <v>8</v>
       </c>
       <c r="AW52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY52">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ52">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA52">
         <v>4</v>
@@ -11656,7 +11674,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11734,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ53">
         <v>1.67</v>
@@ -11862,7 +11880,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12068,7 +12086,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12274,7 +12292,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12361,10 +12379,10 @@
         <v>1.02</v>
       </c>
       <c r="AS56">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AT56">
-        <v>2.81</v>
+        <v>2.87</v>
       </c>
       <c r="AU56">
         <v>8</v>
@@ -12438,7 +12456,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7492199</v>
+        <v>7492205</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12453,190 +12471,190 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O57" t="s">
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="Q57">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="R57">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="S57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T57">
+        <v>1.33</v>
+      </c>
+      <c r="U57">
+        <v>3.25</v>
+      </c>
+      <c r="V57">
+        <v>2.5</v>
+      </c>
+      <c r="W57">
+        <v>1.5</v>
+      </c>
+      <c r="X57">
+        <v>6.5</v>
+      </c>
+      <c r="Y57">
+        <v>1.11</v>
+      </c>
+      <c r="Z57">
         <v>1.44</v>
       </c>
-      <c r="U57">
-        <v>2.63</v>
-      </c>
-      <c r="V57">
-        <v>3.25</v>
-      </c>
-      <c r="W57">
+      <c r="AA57">
+        <v>4.5</v>
+      </c>
+      <c r="AB57">
+        <v>7</v>
+      </c>
+      <c r="AC57">
+        <v>1.04</v>
+      </c>
+      <c r="AD57">
+        <v>10</v>
+      </c>
+      <c r="AE57">
+        <v>1.22</v>
+      </c>
+      <c r="AF57">
+        <v>4.2</v>
+      </c>
+      <c r="AG57">
+        <v>1.73</v>
+      </c>
+      <c r="AH57">
+        <v>2.05</v>
+      </c>
+      <c r="AI57">
+        <v>1.95</v>
+      </c>
+      <c r="AJ57">
+        <v>1.8</v>
+      </c>
+      <c r="AK57">
+        <v>1.1</v>
+      </c>
+      <c r="AL57">
+        <v>1.15</v>
+      </c>
+      <c r="AM57">
+        <v>2.8</v>
+      </c>
+      <c r="AN57">
+        <v>1.5</v>
+      </c>
+      <c r="AO57">
+        <v>0.33</v>
+      </c>
+      <c r="AP57">
+        <v>2</v>
+      </c>
+      <c r="AQ57">
+        <v>0.2</v>
+      </c>
+      <c r="AR57">
+        <v>2.07</v>
+      </c>
+      <c r="AS57">
+        <v>0.92</v>
+      </c>
+      <c r="AT57">
+        <v>2.99</v>
+      </c>
+      <c r="AU57">
+        <v>6</v>
+      </c>
+      <c r="AV57">
+        <v>8</v>
+      </c>
+      <c r="AW57">
+        <v>10</v>
+      </c>
+      <c r="AX57">
+        <v>5</v>
+      </c>
+      <c r="AY57">
+        <v>23</v>
+      </c>
+      <c r="AZ57">
+        <v>19</v>
+      </c>
+      <c r="BA57">
+        <v>6</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
+        <v>9</v>
+      </c>
+      <c r="BD57">
+        <v>1.34</v>
+      </c>
+      <c r="BE57">
+        <v>7</v>
+      </c>
+      <c r="BF57">
+        <v>3.55</v>
+      </c>
+      <c r="BG57">
+        <v>1.28</v>
+      </c>
+      <c r="BH57">
+        <v>3.15</v>
+      </c>
+      <c r="BI57">
+        <v>1.5</v>
+      </c>
+      <c r="BJ57">
+        <v>2.38</v>
+      </c>
+      <c r="BK57">
+        <v>1.88</v>
+      </c>
+      <c r="BL57">
+        <v>1.92</v>
+      </c>
+      <c r="BM57">
+        <v>2.3</v>
+      </c>
+      <c r="BN57">
+        <v>1.54</v>
+      </c>
+      <c r="BO57">
+        <v>2.95</v>
+      </c>
+      <c r="BP57">
         <v>1.33</v>
-      </c>
-      <c r="X57">
-        <v>9</v>
-      </c>
-      <c r="Y57">
-        <v>1.07</v>
-      </c>
-      <c r="Z57">
-        <v>2.75</v>
-      </c>
-      <c r="AA57">
-        <v>3.2</v>
-      </c>
-      <c r="AB57">
-        <v>2.62</v>
-      </c>
-      <c r="AC57">
-        <v>1.06</v>
-      </c>
-      <c r="AD57">
-        <v>8</v>
-      </c>
-      <c r="AE57">
-        <v>1.36</v>
-      </c>
-      <c r="AF57">
-        <v>3</v>
-      </c>
-      <c r="AG57">
-        <v>2.25</v>
-      </c>
-      <c r="AH57">
-        <v>1.6</v>
-      </c>
-      <c r="AI57">
-        <v>1.8</v>
-      </c>
-      <c r="AJ57">
-        <v>1.95</v>
-      </c>
-      <c r="AK57">
-        <v>1.35</v>
-      </c>
-      <c r="AL57">
-        <v>1.3</v>
-      </c>
-      <c r="AM57">
-        <v>1.7</v>
-      </c>
-      <c r="AN57">
-        <v>1</v>
-      </c>
-      <c r="AO57">
-        <v>1.5</v>
-      </c>
-      <c r="AP57">
-        <v>2</v>
-      </c>
-      <c r="AQ57">
-        <v>1</v>
-      </c>
-      <c r="AR57">
-        <v>1.29</v>
-      </c>
-      <c r="AS57">
-        <v>0.95</v>
-      </c>
-      <c r="AT57">
-        <v>2.24</v>
-      </c>
-      <c r="AU57">
-        <v>12</v>
-      </c>
-      <c r="AV57">
-        <v>4</v>
-      </c>
-      <c r="AW57">
-        <v>7</v>
-      </c>
-      <c r="AX57">
-        <v>2</v>
-      </c>
-      <c r="AY57">
-        <v>25</v>
-      </c>
-      <c r="AZ57">
-        <v>7</v>
-      </c>
-      <c r="BA57">
-        <v>9</v>
-      </c>
-      <c r="BB57">
-        <v>1</v>
-      </c>
-      <c r="BC57">
-        <v>10</v>
-      </c>
-      <c r="BD57">
-        <v>1.82</v>
-      </c>
-      <c r="BE57">
-        <v>6.4</v>
-      </c>
-      <c r="BF57">
-        <v>2.18</v>
-      </c>
-      <c r="BG57">
-        <v>1.38</v>
-      </c>
-      <c r="BH57">
-        <v>2.7</v>
-      </c>
-      <c r="BI57">
-        <v>1.66</v>
-      </c>
-      <c r="BJ57">
-        <v>2.07</v>
-      </c>
-      <c r="BK57">
-        <v>2.05</v>
-      </c>
-      <c r="BL57">
-        <v>1.67</v>
-      </c>
-      <c r="BM57">
-        <v>2.65</v>
-      </c>
-      <c r="BN57">
-        <v>1.41</v>
-      </c>
-      <c r="BO57">
-        <v>3.45</v>
-      </c>
-      <c r="BP57">
-        <v>1.25</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12644,7 +12662,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7492205</v>
+        <v>7492199</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12659,190 +12677,190 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O58" t="s">
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="Q58">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="R58">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1.44</v>
+      </c>
+      <c r="U58">
+        <v>2.63</v>
+      </c>
+      <c r="V58">
+        <v>3.25</v>
+      </c>
+      <c r="W58">
+        <v>1.33</v>
+      </c>
+      <c r="X58">
+        <v>9</v>
+      </c>
+      <c r="Y58">
+        <v>1.07</v>
+      </c>
+      <c r="Z58">
+        <v>2.75</v>
+      </c>
+      <c r="AA58">
+        <v>3.2</v>
+      </c>
+      <c r="AB58">
+        <v>2.62</v>
+      </c>
+      <c r="AC58">
+        <v>1.06</v>
+      </c>
+      <c r="AD58">
+        <v>8</v>
+      </c>
+      <c r="AE58">
+        <v>1.36</v>
+      </c>
+      <c r="AF58">
+        <v>3</v>
+      </c>
+      <c r="AG58">
+        <v>2.25</v>
+      </c>
+      <c r="AH58">
+        <v>1.6</v>
+      </c>
+      <c r="AI58">
+        <v>1.8</v>
+      </c>
+      <c r="AJ58">
+        <v>1.95</v>
+      </c>
+      <c r="AK58">
+        <v>1.35</v>
+      </c>
+      <c r="AL58">
+        <v>1.3</v>
+      </c>
+      <c r="AM58">
+        <v>1.7</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>1.5</v>
+      </c>
+      <c r="AP58">
+        <v>2</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1.29</v>
+      </c>
+      <c r="AS58">
+        <v>0.95</v>
+      </c>
+      <c r="AT58">
+        <v>2.24</v>
+      </c>
+      <c r="AU58">
+        <v>12</v>
+      </c>
+      <c r="AV58">
+        <v>4</v>
+      </c>
+      <c r="AW58">
         <v>7</v>
       </c>
-      <c r="T58">
-        <v>1.33</v>
-      </c>
-      <c r="U58">
-        <v>3.25</v>
-      </c>
-      <c r="V58">
-        <v>2.5</v>
-      </c>
-      <c r="W58">
-        <v>1.5</v>
-      </c>
-      <c r="X58">
-        <v>6.5</v>
-      </c>
-      <c r="Y58">
-        <v>1.11</v>
-      </c>
-      <c r="Z58">
-        <v>1.44</v>
-      </c>
-      <c r="AA58">
-        <v>4.5</v>
-      </c>
-      <c r="AB58">
+      <c r="AX58">
+        <v>2</v>
+      </c>
+      <c r="AY58">
+        <v>25</v>
+      </c>
+      <c r="AZ58">
         <v>7</v>
       </c>
-      <c r="AC58">
-        <v>1.04</v>
-      </c>
-      <c r="AD58">
+      <c r="BA58">
+        <v>9</v>
+      </c>
+      <c r="BB58">
+        <v>1</v>
+      </c>
+      <c r="BC58">
         <v>10</v>
       </c>
-      <c r="AE58">
-        <v>1.22</v>
-      </c>
-      <c r="AF58">
-        <v>4.2</v>
-      </c>
-      <c r="AG58">
-        <v>1.73</v>
-      </c>
-      <c r="AH58">
+      <c r="BD58">
+        <v>1.82</v>
+      </c>
+      <c r="BE58">
+        <v>6.4</v>
+      </c>
+      <c r="BF58">
+        <v>2.18</v>
+      </c>
+      <c r="BG58">
+        <v>1.38</v>
+      </c>
+      <c r="BH58">
+        <v>2.7</v>
+      </c>
+      <c r="BI58">
+        <v>1.66</v>
+      </c>
+      <c r="BJ58">
+        <v>2.07</v>
+      </c>
+      <c r="BK58">
         <v>2.05</v>
       </c>
-      <c r="AI58">
-        <v>1.95</v>
-      </c>
-      <c r="AJ58">
-        <v>1.8</v>
-      </c>
-      <c r="AK58">
-        <v>1.1</v>
-      </c>
-      <c r="AL58">
-        <v>1.15</v>
-      </c>
-      <c r="AM58">
-        <v>2.8</v>
-      </c>
-      <c r="AN58">
-        <v>1.5</v>
-      </c>
-      <c r="AO58">
-        <v>0.33</v>
-      </c>
-      <c r="AP58">
-        <v>2</v>
-      </c>
-      <c r="AQ58">
-        <v>0.25</v>
-      </c>
-      <c r="AR58">
-        <v>2.26</v>
-      </c>
-      <c r="AS58">
-        <v>0.92</v>
-      </c>
-      <c r="AT58">
-        <v>3.18</v>
-      </c>
-      <c r="AU58">
-        <v>6</v>
-      </c>
-      <c r="AV58">
-        <v>8</v>
-      </c>
-      <c r="AW58">
-        <v>10</v>
-      </c>
-      <c r="AX58">
-        <v>5</v>
-      </c>
-      <c r="AY58">
-        <v>23</v>
-      </c>
-      <c r="AZ58">
-        <v>19</v>
-      </c>
-      <c r="BA58">
-        <v>6</v>
-      </c>
-      <c r="BB58">
-        <v>3</v>
-      </c>
-      <c r="BC58">
-        <v>9</v>
-      </c>
-      <c r="BD58">
-        <v>1.34</v>
-      </c>
-      <c r="BE58">
-        <v>7</v>
-      </c>
-      <c r="BF58">
-        <v>3.55</v>
-      </c>
-      <c r="BG58">
-        <v>1.28</v>
-      </c>
-      <c r="BH58">
-        <v>3.15</v>
-      </c>
-      <c r="BI58">
-        <v>1.5</v>
-      </c>
-      <c r="BJ58">
-        <v>2.38</v>
-      </c>
-      <c r="BK58">
-        <v>1.88</v>
-      </c>
       <c r="BL58">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="BM58">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="BN58">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="BO58">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="BP58">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -13304,7 +13322,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13385,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13597,10 +13615,10 @@
         <v>1.6</v>
       </c>
       <c r="AS62">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AT62">
-        <v>2.73</v>
+        <v>2.82</v>
       </c>
       <c r="AU62">
         <v>7</v>
@@ -13667,6 +13685,1036 @@
       </c>
       <c r="BP62">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7492211</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45569.65625</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s">
+        <v>87</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>135</v>
+      </c>
+      <c r="P63" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q63">
+        <v>2.75</v>
+      </c>
+      <c r="R63">
+        <v>2.1</v>
+      </c>
+      <c r="S63">
+        <v>4.33</v>
+      </c>
+      <c r="T63">
+        <v>1.44</v>
+      </c>
+      <c r="U63">
+        <v>2.63</v>
+      </c>
+      <c r="V63">
+        <v>3.25</v>
+      </c>
+      <c r="W63">
+        <v>1.33</v>
+      </c>
+      <c r="X63">
+        <v>9</v>
+      </c>
+      <c r="Y63">
+        <v>1.07</v>
+      </c>
+      <c r="Z63">
+        <v>2.09</v>
+      </c>
+      <c r="AA63">
+        <v>3.2</v>
+      </c>
+      <c r="AB63">
+        <v>3.3</v>
+      </c>
+      <c r="AC63">
+        <v>1.02</v>
+      </c>
+      <c r="AD63">
+        <v>7.4</v>
+      </c>
+      <c r="AE63">
+        <v>1.31</v>
+      </c>
+      <c r="AF63">
+        <v>2.95</v>
+      </c>
+      <c r="AG63">
+        <v>1.94</v>
+      </c>
+      <c r="AH63">
+        <v>1.77</v>
+      </c>
+      <c r="AI63">
+        <v>1.91</v>
+      </c>
+      <c r="AJ63">
+        <v>1.91</v>
+      </c>
+      <c r="AK63">
+        <v>1.28</v>
+      </c>
+      <c r="AL63">
+        <v>1.28</v>
+      </c>
+      <c r="AM63">
+        <v>1.78</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
+        <v>0.25</v>
+      </c>
+      <c r="AP63">
+        <v>1.5</v>
+      </c>
+      <c r="AQ63">
+        <v>0.2</v>
+      </c>
+      <c r="AR63">
+        <v>0.9</v>
+      </c>
+      <c r="AS63">
+        <v>1.08</v>
+      </c>
+      <c r="AT63">
+        <v>1.98</v>
+      </c>
+      <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>10</v>
+      </c>
+      <c r="AX63">
+        <v>8</v>
+      </c>
+      <c r="AY63">
+        <v>21</v>
+      </c>
+      <c r="AZ63">
+        <v>15</v>
+      </c>
+      <c r="BA63">
+        <v>13</v>
+      </c>
+      <c r="BB63">
+        <v>6</v>
+      </c>
+      <c r="BC63">
+        <v>19</v>
+      </c>
+      <c r="BD63">
+        <v>1.66</v>
+      </c>
+      <c r="BE63">
+        <v>8.6</v>
+      </c>
+      <c r="BF63">
+        <v>2.71</v>
+      </c>
+      <c r="BG63">
+        <v>1.26</v>
+      </c>
+      <c r="BH63">
+        <v>3.08</v>
+      </c>
+      <c r="BI63">
+        <v>1.58</v>
+      </c>
+      <c r="BJ63">
+        <v>2.31</v>
+      </c>
+      <c r="BK63">
+        <v>1.96</v>
+      </c>
+      <c r="BL63">
+        <v>1.83</v>
+      </c>
+      <c r="BM63">
+        <v>2.5</v>
+      </c>
+      <c r="BN63">
+        <v>1.49</v>
+      </c>
+      <c r="BO63">
+        <v>3.35</v>
+      </c>
+      <c r="BP63">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7492217</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45570.41666666666</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s">
+        <v>78</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>136</v>
+      </c>
+      <c r="P64" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q64">
+        <v>2.75</v>
+      </c>
+      <c r="R64">
+        <v>2.1</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>1.44</v>
+      </c>
+      <c r="U64">
+        <v>2.63</v>
+      </c>
+      <c r="V64">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>1.36</v>
+      </c>
+      <c r="X64">
+        <v>9</v>
+      </c>
+      <c r="Y64">
+        <v>1.07</v>
+      </c>
+      <c r="Z64">
+        <v>2.1</v>
+      </c>
+      <c r="AA64">
+        <v>3.25</v>
+      </c>
+      <c r="AB64">
+        <v>3.7</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>8</v>
+      </c>
+      <c r="AE64">
+        <v>1.29</v>
+      </c>
+      <c r="AF64">
+        <v>3.3</v>
+      </c>
+      <c r="AG64">
+        <v>2.28</v>
+      </c>
+      <c r="AH64">
+        <v>1.63</v>
+      </c>
+      <c r="AI64">
+        <v>1.8</v>
+      </c>
+      <c r="AJ64">
+        <v>1.95</v>
+      </c>
+      <c r="AK64">
+        <v>1.3</v>
+      </c>
+      <c r="AL64">
+        <v>1.28</v>
+      </c>
+      <c r="AM64">
+        <v>1.75</v>
+      </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
+      <c r="AO64">
+        <v>0.33</v>
+      </c>
+      <c r="AP64">
+        <v>2.25</v>
+      </c>
+      <c r="AQ64">
+        <v>0.25</v>
+      </c>
+      <c r="AR64">
+        <v>1.02</v>
+      </c>
+      <c r="AS64">
+        <v>1.64</v>
+      </c>
+      <c r="AT64">
+        <v>2.66</v>
+      </c>
+      <c r="AU64">
+        <v>5</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>5</v>
+      </c>
+      <c r="AX64">
+        <v>5</v>
+      </c>
+      <c r="AY64">
+        <v>14</v>
+      </c>
+      <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
+        <v>5</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>5</v>
+      </c>
+      <c r="BD64">
+        <v>1.79</v>
+      </c>
+      <c r="BE64">
+        <v>6.4</v>
+      </c>
+      <c r="BF64">
+        <v>2.23</v>
+      </c>
+      <c r="BG64">
+        <v>1.3</v>
+      </c>
+      <c r="BH64">
+        <v>3.15</v>
+      </c>
+      <c r="BI64">
+        <v>1.52</v>
+      </c>
+      <c r="BJ64">
+        <v>2.33</v>
+      </c>
+      <c r="BK64">
+        <v>1.85</v>
+      </c>
+      <c r="BL64">
+        <v>1.83</v>
+      </c>
+      <c r="BM64">
+        <v>2.33</v>
+      </c>
+      <c r="BN64">
+        <v>1.52</v>
+      </c>
+      <c r="BO64">
+        <v>3.05</v>
+      </c>
+      <c r="BP64">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7492208</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45570.54166666666</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>6</v>
+      </c>
+      <c r="O65" t="s">
+        <v>137</v>
+      </c>
+      <c r="P65" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q65">
+        <v>2.05</v>
+      </c>
+      <c r="R65">
+        <v>2.3</v>
+      </c>
+      <c r="S65">
+        <v>6</v>
+      </c>
+      <c r="T65">
+        <v>1.33</v>
+      </c>
+      <c r="U65">
+        <v>3.25</v>
+      </c>
+      <c r="V65">
+        <v>2.63</v>
+      </c>
+      <c r="W65">
+        <v>1.44</v>
+      </c>
+      <c r="X65">
+        <v>7</v>
+      </c>
+      <c r="Y65">
+        <v>1.1</v>
+      </c>
+      <c r="Z65">
+        <v>1.53</v>
+      </c>
+      <c r="AA65">
+        <v>4.2</v>
+      </c>
+      <c r="AB65">
+        <v>6.5</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>11</v>
+      </c>
+      <c r="AE65">
+        <v>1.22</v>
+      </c>
+      <c r="AF65">
+        <v>3.8</v>
+      </c>
+      <c r="AG65">
+        <v>1.81</v>
+      </c>
+      <c r="AH65">
+        <v>2.01</v>
+      </c>
+      <c r="AI65">
+        <v>1.91</v>
+      </c>
+      <c r="AJ65">
+        <v>1.91</v>
+      </c>
+      <c r="AK65">
+        <v>1.13</v>
+      </c>
+      <c r="AL65">
+        <v>1.22</v>
+      </c>
+      <c r="AM65">
+        <v>2.55</v>
+      </c>
+      <c r="AN65">
+        <v>1.5</v>
+      </c>
+      <c r="AO65">
+        <v>1.5</v>
+      </c>
+      <c r="AP65">
+        <v>2</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1.65</v>
+      </c>
+      <c r="AS65">
+        <v>0.7</v>
+      </c>
+      <c r="AT65">
+        <v>2.35</v>
+      </c>
+      <c r="AU65">
+        <v>10</v>
+      </c>
+      <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>9</v>
+      </c>
+      <c r="AX65">
+        <v>2</v>
+      </c>
+      <c r="AY65">
+        <v>25</v>
+      </c>
+      <c r="AZ65">
+        <v>8</v>
+      </c>
+      <c r="BA65">
+        <v>4</v>
+      </c>
+      <c r="BB65">
+        <v>2</v>
+      </c>
+      <c r="BC65">
+        <v>6</v>
+      </c>
+      <c r="BD65">
+        <v>1.3</v>
+      </c>
+      <c r="BE65">
+        <v>7.5</v>
+      </c>
+      <c r="BF65">
+        <v>3.9</v>
+      </c>
+      <c r="BG65">
+        <v>1.33</v>
+      </c>
+      <c r="BH65">
+        <v>2.95</v>
+      </c>
+      <c r="BI65">
+        <v>1.57</v>
+      </c>
+      <c r="BJ65">
+        <v>2.23</v>
+      </c>
+      <c r="BK65">
+        <v>1.91</v>
+      </c>
+      <c r="BL65">
+        <v>1.78</v>
+      </c>
+      <c r="BM65">
+        <v>2.4</v>
+      </c>
+      <c r="BN65">
+        <v>1.49</v>
+      </c>
+      <c r="BO65">
+        <v>3.15</v>
+      </c>
+      <c r="BP65">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7492212</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45570.65625</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>5</v>
+      </c>
+      <c r="O66" t="s">
+        <v>138</v>
+      </c>
+      <c r="P66" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q66">
+        <v>1.8</v>
+      </c>
+      <c r="R66">
+        <v>2.5</v>
+      </c>
+      <c r="S66">
+        <v>8</v>
+      </c>
+      <c r="T66">
+        <v>1.3</v>
+      </c>
+      <c r="U66">
+        <v>3.4</v>
+      </c>
+      <c r="V66">
+        <v>2.5</v>
+      </c>
+      <c r="W66">
+        <v>1.5</v>
+      </c>
+      <c r="X66">
+        <v>6</v>
+      </c>
+      <c r="Y66">
+        <v>1.13</v>
+      </c>
+      <c r="Z66">
+        <v>1.34</v>
+      </c>
+      <c r="AA66">
+        <v>4.95</v>
+      </c>
+      <c r="AB66">
+        <v>7.75</v>
+      </c>
+      <c r="AC66">
+        <v>1.01</v>
+      </c>
+      <c r="AD66">
+        <v>13</v>
+      </c>
+      <c r="AE66">
+        <v>1.17</v>
+      </c>
+      <c r="AF66">
+        <v>4.5</v>
+      </c>
+      <c r="AG66">
+        <v>1.68</v>
+      </c>
+      <c r="AH66">
+        <v>2.07</v>
+      </c>
+      <c r="AI66">
+        <v>2</v>
+      </c>
+      <c r="AJ66">
+        <v>1.75</v>
+      </c>
+      <c r="AK66">
+        <v>1.07</v>
+      </c>
+      <c r="AL66">
+        <v>1.12</v>
+      </c>
+      <c r="AM66">
+        <v>3.1</v>
+      </c>
+      <c r="AN66">
+        <v>2</v>
+      </c>
+      <c r="AO66">
+        <v>2.33</v>
+      </c>
+      <c r="AP66">
+        <v>2.25</v>
+      </c>
+      <c r="AQ66">
+        <v>1.75</v>
+      </c>
+      <c r="AR66">
+        <v>1.21</v>
+      </c>
+      <c r="AS66">
+        <v>1.27</v>
+      </c>
+      <c r="AT66">
+        <v>2.48</v>
+      </c>
+      <c r="AU66">
+        <v>9</v>
+      </c>
+      <c r="AV66">
+        <v>6</v>
+      </c>
+      <c r="AW66">
+        <v>13</v>
+      </c>
+      <c r="AX66">
+        <v>1</v>
+      </c>
+      <c r="AY66">
+        <v>30</v>
+      </c>
+      <c r="AZ66">
+        <v>8</v>
+      </c>
+      <c r="BA66">
+        <v>14</v>
+      </c>
+      <c r="BB66">
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <v>14</v>
+      </c>
+      <c r="BD66">
+        <v>1.25</v>
+      </c>
+      <c r="BE66">
+        <v>7.5</v>
+      </c>
+      <c r="BF66">
+        <v>4.3</v>
+      </c>
+      <c r="BG66">
+        <v>1.28</v>
+      </c>
+      <c r="BH66">
+        <v>3.25</v>
+      </c>
+      <c r="BI66">
+        <v>1.49</v>
+      </c>
+      <c r="BJ66">
+        <v>2.4</v>
+      </c>
+      <c r="BK66">
+        <v>1.79</v>
+      </c>
+      <c r="BL66">
+        <v>1.9</v>
+      </c>
+      <c r="BM66">
+        <v>2.23</v>
+      </c>
+      <c r="BN66">
+        <v>1.56</v>
+      </c>
+      <c r="BO66">
+        <v>2.9</v>
+      </c>
+      <c r="BP66">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7492213</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45571.3125</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>79</v>
+      </c>
+      <c r="H67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>139</v>
+      </c>
+      <c r="P67" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q67">
+        <v>1.91</v>
+      </c>
+      <c r="R67">
+        <v>2.38</v>
+      </c>
+      <c r="S67">
+        <v>8</v>
+      </c>
+      <c r="T67">
+        <v>1.36</v>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="V67">
+        <v>2.75</v>
+      </c>
+      <c r="W67">
+        <v>1.4</v>
+      </c>
+      <c r="X67">
+        <v>7</v>
+      </c>
+      <c r="Y67">
+        <v>1.1</v>
+      </c>
+      <c r="Z67">
+        <v>1.33</v>
+      </c>
+      <c r="AA67">
+        <v>4.5</v>
+      </c>
+      <c r="AB67">
+        <v>8.5</v>
+      </c>
+      <c r="AC67">
+        <v>1.02</v>
+      </c>
+      <c r="AD67">
+        <v>10</v>
+      </c>
+      <c r="AE67">
+        <v>1.26</v>
+      </c>
+      <c r="AF67">
+        <v>3.24</v>
+      </c>
+      <c r="AG67">
+        <v>1.85</v>
+      </c>
+      <c r="AH67">
+        <v>1.85</v>
+      </c>
+      <c r="AI67">
+        <v>2.2</v>
+      </c>
+      <c r="AJ67">
+        <v>1.62</v>
+      </c>
+      <c r="AK67">
+        <v>1.07</v>
+      </c>
+      <c r="AL67">
+        <v>1.15</v>
+      </c>
+      <c r="AM67">
+        <v>2.88</v>
+      </c>
+      <c r="AN67">
+        <v>1.67</v>
+      </c>
+      <c r="AO67">
+        <v>1.5</v>
+      </c>
+      <c r="AP67">
+        <v>1.5</v>
+      </c>
+      <c r="AQ67">
+        <v>1.33</v>
+      </c>
+      <c r="AR67">
+        <v>1.09</v>
+      </c>
+      <c r="AS67">
+        <v>1.3</v>
+      </c>
+      <c r="AT67">
+        <v>2.39</v>
+      </c>
+      <c r="AU67">
+        <v>10</v>
+      </c>
+      <c r="AV67">
+        <v>3</v>
+      </c>
+      <c r="AW67">
+        <v>7</v>
+      </c>
+      <c r="AX67">
+        <v>4</v>
+      </c>
+      <c r="AY67">
+        <v>22</v>
+      </c>
+      <c r="AZ67">
+        <v>10</v>
+      </c>
+      <c r="BA67">
+        <v>8</v>
+      </c>
+      <c r="BB67">
+        <v>3</v>
+      </c>
+      <c r="BC67">
+        <v>11</v>
+      </c>
+      <c r="BD67">
+        <v>1.28</v>
+      </c>
+      <c r="BE67">
+        <v>10.5</v>
+      </c>
+      <c r="BF67">
+        <v>4.75</v>
+      </c>
+      <c r="BG67">
+        <v>1.18</v>
+      </c>
+      <c r="BH67">
+        <v>3.72</v>
+      </c>
+      <c r="BI67">
+        <v>1.4</v>
+      </c>
+      <c r="BJ67">
+        <v>2.68</v>
+      </c>
+      <c r="BK67">
+        <v>1.74</v>
+      </c>
+      <c r="BL67">
+        <v>2.05</v>
+      </c>
+      <c r="BM67">
+        <v>2.19</v>
+      </c>
+      <c r="BN67">
+        <v>1.64</v>
+      </c>
+      <c r="BO67">
+        <v>2.73</v>
+      </c>
+      <c r="BP67">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,18 +424,27 @@
     <t>['9', '81']</t>
   </si>
   <si>
+    <t>['24', '50', '60', '74', '80']</t>
+  </si>
+  <si>
+    <t>['25', '35', '60']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
-    <t>['24', '50', '60', '74', '80']</t>
-  </si>
-  <si>
-    <t>['25', '35', '60']</t>
-  </si>
-  <si>
     <t>['15']</t>
   </si>
   <si>
+    <t>['45+4', '84']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['35', '73']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -547,7 +556,16 @@
     <t>['83']</t>
   </si>
   <si>
-    <t>['36', '86']</t>
+    <t>['36', '87']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['60']</t>
   </si>
 </sst>
 </file>
@@ -909,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1186,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1374,7 +1392,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1580,7 +1598,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1992,7 +2010,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2404,7 +2422,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2482,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8">
         <v>0.2</v>
@@ -2816,7 +2834,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3228,7 +3246,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3434,7 +3452,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3515,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.45</v>
@@ -3846,7 +3864,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -3924,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4130,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.2</v>
@@ -4464,7 +4482,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4545,7 +4563,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4876,7 +4894,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5082,7 +5100,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5288,7 +5306,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5700,7 +5718,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -5781,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>2.04</v>
@@ -6112,7 +6130,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6193,7 +6211,7 @@
         <v>3</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -6318,7 +6336,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6396,10 +6414,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6524,7 +6542,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6602,7 +6620,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0.67</v>
@@ -6730,7 +6748,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7348,7 +7366,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7966,7 +7984,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8172,7 +8190,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -8584,7 +8602,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8790,7 +8808,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -8868,7 +8886,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ39">
         <v>1.67</v>
@@ -8996,7 +9014,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9202,7 +9220,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9280,7 +9298,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9408,7 +9426,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9489,7 +9507,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ42">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -9614,7 +9632,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10232,7 +10250,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10313,7 +10331,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
         <v>1.54</v>
@@ -10438,7 +10456,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10516,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10644,7 +10662,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10722,7 +10740,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ48">
         <v>1.33</v>
@@ -11056,7 +11074,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11137,7 +11155,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -11262,7 +11280,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11674,7 +11692,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11880,7 +11898,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12086,7 +12104,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12292,7 +12310,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12704,7 +12722,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13322,7 +13340,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13898,7 +13916,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7492217</v>
+        <v>7492208</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13907,196 +13925,196 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45570.41666666666</v>
+        <v>45569.875</v>
       </c>
       <c r="F64">
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O64" t="s">
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="Q64">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="R64">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S64">
+        <v>6</v>
+      </c>
+      <c r="T64">
+        <v>1.33</v>
+      </c>
+      <c r="U64">
+        <v>3.25</v>
+      </c>
+      <c r="V64">
+        <v>2.63</v>
+      </c>
+      <c r="W64">
+        <v>1.44</v>
+      </c>
+      <c r="X64">
+        <v>7</v>
+      </c>
+      <c r="Y64">
+        <v>1.1</v>
+      </c>
+      <c r="Z64">
+        <v>1.53</v>
+      </c>
+      <c r="AA64">
+        <v>4.2</v>
+      </c>
+      <c r="AB64">
+        <v>6.5</v>
+      </c>
+      <c r="AC64">
+        <v>1.01</v>
+      </c>
+      <c r="AD64">
+        <v>11</v>
+      </c>
+      <c r="AE64">
+        <v>1.22</v>
+      </c>
+      <c r="AF64">
+        <v>3.8</v>
+      </c>
+      <c r="AG64">
+        <v>1.81</v>
+      </c>
+      <c r="AH64">
+        <v>2.01</v>
+      </c>
+      <c r="AI64">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64">
+        <v>1.91</v>
+      </c>
+      <c r="AK64">
+        <v>1.13</v>
+      </c>
+      <c r="AL64">
+        <v>1.22</v>
+      </c>
+      <c r="AM64">
+        <v>2.55</v>
+      </c>
+      <c r="AN64">
+        <v>1.5</v>
+      </c>
+      <c r="AO64">
+        <v>1.5</v>
+      </c>
+      <c r="AP64">
+        <v>2</v>
+      </c>
+      <c r="AQ64">
+        <v>1</v>
+      </c>
+      <c r="AR64">
+        <v>1.65</v>
+      </c>
+      <c r="AS64">
+        <v>0.7</v>
+      </c>
+      <c r="AT64">
+        <v>2.35</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>3</v>
+      </c>
+      <c r="AW64">
+        <v>9</v>
+      </c>
+      <c r="AX64">
+        <v>1</v>
+      </c>
+      <c r="AY64">
+        <v>15</v>
+      </c>
+      <c r="AZ64">
         <v>4</v>
       </c>
-      <c r="T64">
-        <v>1.44</v>
-      </c>
-      <c r="U64">
-        <v>2.63</v>
-      </c>
-      <c r="V64">
-        <v>3</v>
-      </c>
-      <c r="W64">
-        <v>1.36</v>
-      </c>
-      <c r="X64">
-        <v>9</v>
-      </c>
-      <c r="Y64">
-        <v>1.07</v>
-      </c>
-      <c r="Z64">
-        <v>2.1</v>
-      </c>
-      <c r="AA64">
-        <v>3.25</v>
-      </c>
-      <c r="AB64">
-        <v>3.7</v>
-      </c>
-      <c r="AC64">
-        <v>1.05</v>
-      </c>
-      <c r="AD64">
-        <v>8</v>
-      </c>
-      <c r="AE64">
-        <v>1.29</v>
-      </c>
-      <c r="AF64">
-        <v>3.3</v>
-      </c>
-      <c r="AG64">
-        <v>2.28</v>
-      </c>
-      <c r="AH64">
-        <v>1.63</v>
-      </c>
-      <c r="AI64">
-        <v>1.8</v>
-      </c>
-      <c r="AJ64">
-        <v>1.95</v>
-      </c>
-      <c r="AK64">
+      <c r="BA64">
+        <v>4</v>
+      </c>
+      <c r="BB64">
+        <v>2</v>
+      </c>
+      <c r="BC64">
+        <v>6</v>
+      </c>
+      <c r="BD64">
         <v>1.3</v>
       </c>
-      <c r="AL64">
-        <v>1.28</v>
-      </c>
-      <c r="AM64">
-        <v>1.75</v>
-      </c>
-      <c r="AN64">
-        <v>2</v>
-      </c>
-      <c r="AO64">
-        <v>0.33</v>
-      </c>
-      <c r="AP64">
-        <v>2.25</v>
-      </c>
-      <c r="AQ64">
-        <v>0.25</v>
-      </c>
-      <c r="AR64">
-        <v>1.02</v>
-      </c>
-      <c r="AS64">
-        <v>1.64</v>
-      </c>
-      <c r="AT64">
-        <v>2.66</v>
-      </c>
-      <c r="AU64">
-        <v>5</v>
-      </c>
-      <c r="AV64">
-        <v>4</v>
-      </c>
-      <c r="AW64">
-        <v>5</v>
-      </c>
-      <c r="AX64">
-        <v>5</v>
-      </c>
-      <c r="AY64">
-        <v>14</v>
-      </c>
-      <c r="AZ64">
-        <v>10</v>
-      </c>
-      <c r="BA64">
-        <v>5</v>
-      </c>
-      <c r="BB64">
-        <v>0</v>
-      </c>
-      <c r="BC64">
-        <v>5</v>
-      </c>
-      <c r="BD64">
-        <v>1.79</v>
-      </c>
       <c r="BE64">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="BF64">
+        <v>3.9</v>
+      </c>
+      <c r="BG64">
+        <v>1.33</v>
+      </c>
+      <c r="BH64">
+        <v>2.95</v>
+      </c>
+      <c r="BI64">
+        <v>1.57</v>
+      </c>
+      <c r="BJ64">
         <v>2.23</v>
       </c>
-      <c r="BG64">
+      <c r="BK64">
+        <v>1.91</v>
+      </c>
+      <c r="BL64">
+        <v>1.78</v>
+      </c>
+      <c r="BM64">
+        <v>2.4</v>
+      </c>
+      <c r="BN64">
+        <v>1.49</v>
+      </c>
+      <c r="BO64">
+        <v>3.15</v>
+      </c>
+      <c r="BP64">
         <v>1.3</v>
-      </c>
-      <c r="BH64">
-        <v>3.15</v>
-      </c>
-      <c r="BI64">
-        <v>1.52</v>
-      </c>
-      <c r="BJ64">
-        <v>2.33</v>
-      </c>
-      <c r="BK64">
-        <v>1.85</v>
-      </c>
-      <c r="BL64">
-        <v>1.83</v>
-      </c>
-      <c r="BM64">
-        <v>2.33</v>
-      </c>
-      <c r="BN64">
-        <v>1.52</v>
-      </c>
-      <c r="BO64">
-        <v>3.05</v>
-      </c>
-      <c r="BP64">
-        <v>1.32</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14104,7 +14122,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7492208</v>
+        <v>7492212</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14113,196 +14131,196 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45570.54166666666</v>
+        <v>45569.875</v>
       </c>
       <c r="F65">
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
         <v>5</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>6</v>
       </c>
       <c r="O65" t="s">
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q65">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R65">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S65">
+        <v>8</v>
+      </c>
+      <c r="T65">
+        <v>1.3</v>
+      </c>
+      <c r="U65">
+        <v>3.4</v>
+      </c>
+      <c r="V65">
+        <v>2.5</v>
+      </c>
+      <c r="W65">
+        <v>1.5</v>
+      </c>
+      <c r="X65">
         <v>6</v>
       </c>
-      <c r="T65">
-        <v>1.33</v>
-      </c>
-      <c r="U65">
-        <v>3.25</v>
-      </c>
-      <c r="V65">
-        <v>2.63</v>
-      </c>
-      <c r="W65">
-        <v>1.44</v>
-      </c>
-      <c r="X65">
-        <v>7</v>
-      </c>
       <c r="Y65">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z65">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="AA65">
-        <v>4.2</v>
+        <v>4.95</v>
       </c>
       <c r="AB65">
-        <v>6.5</v>
+        <v>7.75</v>
       </c>
       <c r="AC65">
         <v>1.01</v>
       </c>
       <c r="AD65">
+        <v>13</v>
+      </c>
+      <c r="AE65">
+        <v>1.17</v>
+      </c>
+      <c r="AF65">
+        <v>4.5</v>
+      </c>
+      <c r="AG65">
+        <v>1.68</v>
+      </c>
+      <c r="AH65">
+        <v>2.07</v>
+      </c>
+      <c r="AI65">
+        <v>2</v>
+      </c>
+      <c r="AJ65">
+        <v>1.75</v>
+      </c>
+      <c r="AK65">
+        <v>1.07</v>
+      </c>
+      <c r="AL65">
+        <v>1.12</v>
+      </c>
+      <c r="AM65">
+        <v>3.1</v>
+      </c>
+      <c r="AN65">
+        <v>2</v>
+      </c>
+      <c r="AO65">
+        <v>2.33</v>
+      </c>
+      <c r="AP65">
+        <v>2.25</v>
+      </c>
+      <c r="AQ65">
+        <v>1.75</v>
+      </c>
+      <c r="AR65">
+        <v>1.21</v>
+      </c>
+      <c r="AS65">
+        <v>1.27</v>
+      </c>
+      <c r="AT65">
+        <v>2.48</v>
+      </c>
+      <c r="AU65">
+        <v>5</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
         <v>11</v>
       </c>
-      <c r="AE65">
-        <v>1.22</v>
-      </c>
-      <c r="AF65">
-        <v>3.8</v>
-      </c>
-      <c r="AG65">
-        <v>1.81</v>
-      </c>
-      <c r="AH65">
-        <v>2.01</v>
-      </c>
-      <c r="AI65">
-        <v>1.91</v>
-      </c>
-      <c r="AJ65">
-        <v>1.91</v>
-      </c>
-      <c r="AK65">
-        <v>1.13</v>
-      </c>
-      <c r="AL65">
-        <v>1.22</v>
-      </c>
-      <c r="AM65">
-        <v>2.55</v>
-      </c>
-      <c r="AN65">
-        <v>1.5</v>
-      </c>
-      <c r="AO65">
-        <v>1.5</v>
-      </c>
-      <c r="AP65">
-        <v>2</v>
-      </c>
-      <c r="AQ65">
-        <v>1</v>
-      </c>
-      <c r="AR65">
-        <v>1.65</v>
-      </c>
-      <c r="AS65">
-        <v>0.7</v>
-      </c>
-      <c r="AT65">
-        <v>2.35</v>
-      </c>
-      <c r="AU65">
-        <v>10</v>
-      </c>
-      <c r="AV65">
-        <v>3</v>
-      </c>
-      <c r="AW65">
-        <v>9</v>
-      </c>
       <c r="AX65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY65">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AZ65">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA65">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BB65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC65">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD65">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BE65">
         <v>7.5</v>
       </c>
       <c r="BF65">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="BG65">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BH65">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="BI65">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="BJ65">
+        <v>2.4</v>
+      </c>
+      <c r="BK65">
+        <v>1.79</v>
+      </c>
+      <c r="BL65">
+        <v>1.9</v>
+      </c>
+      <c r="BM65">
         <v>2.23</v>
       </c>
-      <c r="BK65">
-        <v>1.91</v>
-      </c>
-      <c r="BL65">
-        <v>1.78</v>
-      </c>
-      <c r="BM65">
-        <v>2.4</v>
-      </c>
       <c r="BN65">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="BO65">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="BP65">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14310,7 +14328,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7492212</v>
+        <v>7492217</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14319,196 +14337,196 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45570.65625</v>
+        <v>45570.41666666666</v>
       </c>
       <c r="F66">
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O66" t="s">
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="Q66">
+        <v>2.75</v>
+      </c>
+      <c r="R66">
+        <v>2.1</v>
+      </c>
+      <c r="S66">
+        <v>4</v>
+      </c>
+      <c r="T66">
+        <v>1.44</v>
+      </c>
+      <c r="U66">
+        <v>2.63</v>
+      </c>
+      <c r="V66">
+        <v>3</v>
+      </c>
+      <c r="W66">
+        <v>1.36</v>
+      </c>
+      <c r="X66">
+        <v>9</v>
+      </c>
+      <c r="Y66">
+        <v>1.07</v>
+      </c>
+      <c r="Z66">
+        <v>2.1</v>
+      </c>
+      <c r="AA66">
+        <v>3.25</v>
+      </c>
+      <c r="AB66">
+        <v>3.7</v>
+      </c>
+      <c r="AC66">
+        <v>1.05</v>
+      </c>
+      <c r="AD66">
+        <v>8</v>
+      </c>
+      <c r="AE66">
+        <v>1.29</v>
+      </c>
+      <c r="AF66">
+        <v>3.3</v>
+      </c>
+      <c r="AG66">
+        <v>2.28</v>
+      </c>
+      <c r="AH66">
+        <v>1.63</v>
+      </c>
+      <c r="AI66">
         <v>1.8</v>
       </c>
-      <c r="R66">
-        <v>2.5</v>
-      </c>
-      <c r="S66">
-        <v>8</v>
-      </c>
-      <c r="T66">
+      <c r="AJ66">
+        <v>1.95</v>
+      </c>
+      <c r="AK66">
         <v>1.3</v>
       </c>
-      <c r="U66">
-        <v>3.4</v>
-      </c>
-      <c r="V66">
-        <v>2.5</v>
-      </c>
-      <c r="W66">
-        <v>1.5</v>
-      </c>
-      <c r="X66">
-        <v>6</v>
-      </c>
-      <c r="Y66">
-        <v>1.13</v>
-      </c>
-      <c r="Z66">
-        <v>1.34</v>
-      </c>
-      <c r="AA66">
-        <v>4.95</v>
-      </c>
-      <c r="AB66">
-        <v>7.75</v>
-      </c>
-      <c r="AC66">
-        <v>1.01</v>
-      </c>
-      <c r="AD66">
-        <v>13</v>
-      </c>
-      <c r="AE66">
-        <v>1.17</v>
-      </c>
-      <c r="AF66">
-        <v>4.5</v>
-      </c>
-      <c r="AG66">
-        <v>1.68</v>
-      </c>
-      <c r="AH66">
-        <v>2.07</v>
-      </c>
-      <c r="AI66">
-        <v>2</v>
-      </c>
-      <c r="AJ66">
+      <c r="AL66">
+        <v>1.28</v>
+      </c>
+      <c r="AM66">
         <v>1.75</v>
       </c>
-      <c r="AK66">
-        <v>1.07</v>
-      </c>
-      <c r="AL66">
-        <v>1.12</v>
-      </c>
-      <c r="AM66">
-        <v>3.1</v>
-      </c>
       <c r="AN66">
         <v>2</v>
       </c>
       <c r="AO66">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="AP66">
         <v>2.25</v>
       </c>
       <c r="AQ66">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="AR66">
-        <v>1.21</v>
+        <v>1.02</v>
       </c>
       <c r="AS66">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AT66">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="AU66">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW66">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AX66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY66">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AZ66">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA66">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BB66">
         <v>0</v>
       </c>
       <c r="BC66">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BD66">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="BE66">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF66">
-        <v>4.3</v>
+        <v>2.23</v>
       </c>
       <c r="BG66">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BH66">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="BI66">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="BJ66">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="BK66">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="BL66">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="BM66">
-        <v>2.23</v>
+        <v>2.33</v>
       </c>
       <c r="BN66">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="BO66">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="BP66">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14525,7 +14543,7 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45571.3125</v>
+        <v>45570.875</v>
       </c>
       <c r="F67">
         <v>7</v>
@@ -14558,7 +14576,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14651,22 +14669,22 @@
         <v>2.39</v>
       </c>
       <c r="AU67">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV67">
         <v>3</v>
       </c>
       <c r="AW67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY67">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AZ67">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA67">
         <v>8</v>
@@ -14715,6 +14733,830 @@
       </c>
       <c r="BP67">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7492214</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45571.41666666666</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>140</v>
+      </c>
+      <c r="P68" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q68">
+        <v>2.2</v>
+      </c>
+      <c r="R68">
+        <v>2.2</v>
+      </c>
+      <c r="S68">
+        <v>6</v>
+      </c>
+      <c r="T68">
+        <v>1.4</v>
+      </c>
+      <c r="U68">
+        <v>2.75</v>
+      </c>
+      <c r="V68">
+        <v>3</v>
+      </c>
+      <c r="W68">
+        <v>1.36</v>
+      </c>
+      <c r="X68">
+        <v>8</v>
+      </c>
+      <c r="Y68">
+        <v>1.08</v>
+      </c>
+      <c r="Z68">
+        <v>1.5</v>
+      </c>
+      <c r="AA68">
+        <v>4</v>
+      </c>
+      <c r="AB68">
+        <v>6.5</v>
+      </c>
+      <c r="AC68">
+        <v>1.01</v>
+      </c>
+      <c r="AD68">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE68">
+        <v>1.33</v>
+      </c>
+      <c r="AF68">
+        <v>3.48</v>
+      </c>
+      <c r="AG68">
+        <v>1.95</v>
+      </c>
+      <c r="AH68">
+        <v>1.75</v>
+      </c>
+      <c r="AI68">
+        <v>2</v>
+      </c>
+      <c r="AJ68">
+        <v>1.75</v>
+      </c>
+      <c r="AK68">
+        <v>1.12</v>
+      </c>
+      <c r="AL68">
+        <v>1.2</v>
+      </c>
+      <c r="AM68">
+        <v>2.4</v>
+      </c>
+      <c r="AN68">
+        <v>2.33</v>
+      </c>
+      <c r="AO68">
+        <v>2.33</v>
+      </c>
+      <c r="AP68">
+        <v>2.5</v>
+      </c>
+      <c r="AQ68">
+        <v>1.75</v>
+      </c>
+      <c r="AR68">
+        <v>1.44</v>
+      </c>
+      <c r="AS68">
+        <v>0.98</v>
+      </c>
+      <c r="AT68">
+        <v>2.42</v>
+      </c>
+      <c r="AU68">
+        <v>7</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
+        <v>8</v>
+      </c>
+      <c r="AX68">
+        <v>3</v>
+      </c>
+      <c r="AY68">
+        <v>18</v>
+      </c>
+      <c r="AZ68">
+        <v>8</v>
+      </c>
+      <c r="BA68">
+        <v>5</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>8</v>
+      </c>
+      <c r="BD68">
+        <v>1.33</v>
+      </c>
+      <c r="BE68">
+        <v>10.25</v>
+      </c>
+      <c r="BF68">
+        <v>4.2</v>
+      </c>
+      <c r="BG68">
+        <v>1.15</v>
+      </c>
+      <c r="BH68">
+        <v>4</v>
+      </c>
+      <c r="BI68">
+        <v>1.33</v>
+      </c>
+      <c r="BJ68">
+        <v>2.73</v>
+      </c>
+      <c r="BK68">
+        <v>1.63</v>
+      </c>
+      <c r="BL68">
+        <v>2.11</v>
+      </c>
+      <c r="BM68">
+        <v>2.09</v>
+      </c>
+      <c r="BN68">
+        <v>1.71</v>
+      </c>
+      <c r="BO68">
+        <v>2.68</v>
+      </c>
+      <c r="BP68">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7492209</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45571.41666666666</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s">
+        <v>70</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>93</v>
+      </c>
+      <c r="P69" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q69">
+        <v>2.4</v>
+      </c>
+      <c r="R69">
+        <v>2.25</v>
+      </c>
+      <c r="S69">
+        <v>4.5</v>
+      </c>
+      <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.75</v>
+      </c>
+      <c r="W69">
+        <v>1.4</v>
+      </c>
+      <c r="X69">
+        <v>7</v>
+      </c>
+      <c r="Y69">
+        <v>1.1</v>
+      </c>
+      <c r="Z69">
+        <v>1.75</v>
+      </c>
+      <c r="AA69">
+        <v>3.7</v>
+      </c>
+      <c r="AB69">
+        <v>4.33</v>
+      </c>
+      <c r="AC69">
+        <v>1.04</v>
+      </c>
+      <c r="AD69">
+        <v>13.3</v>
+      </c>
+      <c r="AE69">
+        <v>1.28</v>
+      </c>
+      <c r="AF69">
+        <v>3.92</v>
+      </c>
+      <c r="AG69">
+        <v>1.75</v>
+      </c>
+      <c r="AH69">
+        <v>1.95</v>
+      </c>
+      <c r="AI69">
+        <v>1.75</v>
+      </c>
+      <c r="AJ69">
+        <v>2</v>
+      </c>
+      <c r="AK69">
+        <v>1.22</v>
+      </c>
+      <c r="AL69">
+        <v>1.22</v>
+      </c>
+      <c r="AM69">
+        <v>2.05</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
+        <v>0.5</v>
+      </c>
+      <c r="AP69">
+        <v>1</v>
+      </c>
+      <c r="AQ69">
+        <v>0.67</v>
+      </c>
+      <c r="AR69">
+        <v>1.35</v>
+      </c>
+      <c r="AS69">
+        <v>1.63</v>
+      </c>
+      <c r="AT69">
+        <v>2.98</v>
+      </c>
+      <c r="AU69">
+        <v>4</v>
+      </c>
+      <c r="AV69">
+        <v>3</v>
+      </c>
+      <c r="AW69">
+        <v>9</v>
+      </c>
+      <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
+        <v>20</v>
+      </c>
+      <c r="AZ69">
+        <v>14</v>
+      </c>
+      <c r="BA69">
+        <v>13</v>
+      </c>
+      <c r="BB69">
+        <v>6</v>
+      </c>
+      <c r="BC69">
+        <v>19</v>
+      </c>
+      <c r="BD69">
+        <v>1.56</v>
+      </c>
+      <c r="BE69">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF69">
+        <v>3</v>
+      </c>
+      <c r="BG69">
+        <v>1.25</v>
+      </c>
+      <c r="BH69">
+        <v>3.14</v>
+      </c>
+      <c r="BI69">
+        <v>1.52</v>
+      </c>
+      <c r="BJ69">
+        <v>2.33</v>
+      </c>
+      <c r="BK69">
+        <v>1.93</v>
+      </c>
+      <c r="BL69">
+        <v>1.83</v>
+      </c>
+      <c r="BM69">
+        <v>2.49</v>
+      </c>
+      <c r="BN69">
+        <v>1.46</v>
+      </c>
+      <c r="BO69">
+        <v>3.22</v>
+      </c>
+      <c r="BP69">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7492215</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45571.54166666666</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>141</v>
+      </c>
+      <c r="P70" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q70">
+        <v>4.75</v>
+      </c>
+      <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>2.6</v>
+      </c>
+      <c r="T70">
+        <v>1.44</v>
+      </c>
+      <c r="U70">
+        <v>2.63</v>
+      </c>
+      <c r="V70">
+        <v>3.25</v>
+      </c>
+      <c r="W70">
+        <v>1.33</v>
+      </c>
+      <c r="X70">
+        <v>9</v>
+      </c>
+      <c r="Y70">
+        <v>1.07</v>
+      </c>
+      <c r="Z70">
+        <v>3.75</v>
+      </c>
+      <c r="AA70">
+        <v>3.7</v>
+      </c>
+      <c r="AB70">
+        <v>1.9</v>
+      </c>
+      <c r="AC70">
+        <v>1.02</v>
+      </c>
+      <c r="AD70">
+        <v>7.1</v>
+      </c>
+      <c r="AE70">
+        <v>1.33</v>
+      </c>
+      <c r="AF70">
+        <v>2.86</v>
+      </c>
+      <c r="AG70">
+        <v>2.12</v>
+      </c>
+      <c r="AH70">
+        <v>1.72</v>
+      </c>
+      <c r="AI70">
+        <v>1.95</v>
+      </c>
+      <c r="AJ70">
+        <v>1.8</v>
+      </c>
+      <c r="AK70">
+        <v>1.84</v>
+      </c>
+      <c r="AL70">
+        <v>1.29</v>
+      </c>
+      <c r="AM70">
+        <v>1.27</v>
+      </c>
+      <c r="AN70">
+        <v>0.33</v>
+      </c>
+      <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
+        <v>0.5</v>
+      </c>
+      <c r="AQ70">
+        <v>1</v>
+      </c>
+      <c r="AR70">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS70">
+        <v>1.31</v>
+      </c>
+      <c r="AT70">
+        <v>2.25</v>
+      </c>
+      <c r="AU70">
+        <v>4</v>
+      </c>
+      <c r="AV70">
+        <v>5</v>
+      </c>
+      <c r="AW70">
+        <v>0</v>
+      </c>
+      <c r="AX70">
+        <v>7</v>
+      </c>
+      <c r="AY70">
+        <v>4</v>
+      </c>
+      <c r="AZ70">
+        <v>16</v>
+      </c>
+      <c r="BA70">
+        <v>1</v>
+      </c>
+      <c r="BB70">
+        <v>3</v>
+      </c>
+      <c r="BC70">
+        <v>4</v>
+      </c>
+      <c r="BD70">
+        <v>2.52</v>
+      </c>
+      <c r="BE70">
+        <v>8.4</v>
+      </c>
+      <c r="BF70">
+        <v>1.75</v>
+      </c>
+      <c r="BG70">
+        <v>1.44</v>
+      </c>
+      <c r="BH70">
+        <v>2.55</v>
+      </c>
+      <c r="BI70">
+        <v>1.73</v>
+      </c>
+      <c r="BJ70">
+        <v>1.96</v>
+      </c>
+      <c r="BK70">
+        <v>2.18</v>
+      </c>
+      <c r="BL70">
+        <v>1.58</v>
+      </c>
+      <c r="BM70">
+        <v>2.85</v>
+      </c>
+      <c r="BN70">
+        <v>1.36</v>
+      </c>
+      <c r="BO70">
+        <v>3.8</v>
+      </c>
+      <c r="BP70">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7492210</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45571.65625</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>142</v>
+      </c>
+      <c r="P71" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q71">
+        <v>3.5</v>
+      </c>
+      <c r="R71">
+        <v>2.3</v>
+      </c>
+      <c r="S71">
+        <v>2.75</v>
+      </c>
+      <c r="T71">
+        <v>1.33</v>
+      </c>
+      <c r="U71">
+        <v>3.25</v>
+      </c>
+      <c r="V71">
+        <v>2.63</v>
+      </c>
+      <c r="W71">
+        <v>1.44</v>
+      </c>
+      <c r="X71">
+        <v>6.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.11</v>
+      </c>
+      <c r="Z71">
+        <v>3</v>
+      </c>
+      <c r="AA71">
+        <v>3.7</v>
+      </c>
+      <c r="AB71">
+        <v>2.18</v>
+      </c>
+      <c r="AC71">
+        <v>1.04</v>
+      </c>
+      <c r="AD71">
+        <v>13</v>
+      </c>
+      <c r="AE71">
+        <v>1.24</v>
+      </c>
+      <c r="AF71">
+        <v>4.2</v>
+      </c>
+      <c r="AG71">
+        <v>1.71</v>
+      </c>
+      <c r="AH71">
+        <v>2.14</v>
+      </c>
+      <c r="AI71">
+        <v>1.62</v>
+      </c>
+      <c r="AJ71">
+        <v>2.2</v>
+      </c>
+      <c r="AK71">
+        <v>1.63</v>
+      </c>
+      <c r="AL71">
+        <v>1.26</v>
+      </c>
+      <c r="AM71">
+        <v>1.38</v>
+      </c>
+      <c r="AN71">
+        <v>1.67</v>
+      </c>
+      <c r="AO71">
+        <v>1.33</v>
+      </c>
+      <c r="AP71">
+        <v>2</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>1.68</v>
+      </c>
+      <c r="AS71">
+        <v>1.53</v>
+      </c>
+      <c r="AT71">
+        <v>3.21</v>
+      </c>
+      <c r="AU71">
+        <v>4</v>
+      </c>
+      <c r="AV71">
+        <v>9</v>
+      </c>
+      <c r="AW71">
+        <v>8</v>
+      </c>
+      <c r="AX71">
+        <v>5</v>
+      </c>
+      <c r="AY71">
+        <v>13</v>
+      </c>
+      <c r="AZ71">
+        <v>17</v>
+      </c>
+      <c r="BA71">
+        <v>0</v>
+      </c>
+      <c r="BB71">
+        <v>7</v>
+      </c>
+      <c r="BC71">
+        <v>7</v>
+      </c>
+      <c r="BD71">
+        <v>2.15</v>
+      </c>
+      <c r="BE71">
+        <v>6.45</v>
+      </c>
+      <c r="BF71">
+        <v>2.14</v>
+      </c>
+      <c r="BG71">
+        <v>1.26</v>
+      </c>
+      <c r="BH71">
+        <v>3.08</v>
+      </c>
+      <c r="BI71">
+        <v>1.53</v>
+      </c>
+      <c r="BJ71">
+        <v>2.31</v>
+      </c>
+      <c r="BK71">
+        <v>1.95</v>
+      </c>
+      <c r="BL71">
+        <v>1.81</v>
+      </c>
+      <c r="BM71">
+        <v>2.51</v>
+      </c>
+      <c r="BN71">
+        <v>1.45</v>
+      </c>
+      <c r="BO71">
+        <v>3.28</v>
+      </c>
+      <c r="BP71">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -406,12 +406,12 @@
     <t>['67', '90+2']</t>
   </si>
   <si>
+    <t>['43', '72', '89']</t>
+  </si>
+  <si>
     <t>['74', '83']</t>
   </si>
   <si>
-    <t>['43', '72', '89']</t>
-  </si>
-  <si>
     <t>['22', '33']</t>
   </si>
   <si>
@@ -424,27 +424,27 @@
     <t>['9', '81']</t>
   </si>
   <si>
+    <t>['25', '35', '60']</t>
+  </si>
+  <si>
     <t>['24', '50', '60', '74', '80']</t>
   </si>
   <si>
-    <t>['25', '35', '60']</t>
-  </si>
-  <si>
     <t>['75']</t>
   </si>
   <si>
+    <t>['45+4', '84']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['35', '73']</t>
+  </si>
+  <si>
     <t>['15']</t>
   </si>
   <si>
-    <t>['45+4', '84']</t>
-  </si>
-  <si>
-    <t>['70']</t>
-  </si>
-  <si>
-    <t>['35', '73']</t>
-  </si>
-  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -553,10 +553,10 @@
     <t>['34', '75', '87']</t>
   </si>
   <si>
+    <t>['36', '87']</t>
+  </si>
+  <si>
     <t>['83']</t>
-  </si>
-  <si>
-    <t>['36', '87']</t>
   </si>
   <si>
     <t>['9']</t>
@@ -12474,7 +12474,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7492205</v>
+        <v>7492199</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12489,190 +12489,190 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O57" t="s">
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="Q57">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="R57">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S57">
+        <v>4</v>
+      </c>
+      <c r="T57">
+        <v>1.44</v>
+      </c>
+      <c r="U57">
+        <v>2.63</v>
+      </c>
+      <c r="V57">
+        <v>3.25</v>
+      </c>
+      <c r="W57">
+        <v>1.33</v>
+      </c>
+      <c r="X57">
+        <v>9</v>
+      </c>
+      <c r="Y57">
+        <v>1.07</v>
+      </c>
+      <c r="Z57">
+        <v>2.75</v>
+      </c>
+      <c r="AA57">
+        <v>3.2</v>
+      </c>
+      <c r="AB57">
+        <v>2.62</v>
+      </c>
+      <c r="AC57">
+        <v>1.06</v>
+      </c>
+      <c r="AD57">
+        <v>8</v>
+      </c>
+      <c r="AE57">
+        <v>1.36</v>
+      </c>
+      <c r="AF57">
+        <v>3</v>
+      </c>
+      <c r="AG57">
+        <v>2.25</v>
+      </c>
+      <c r="AH57">
+        <v>1.6</v>
+      </c>
+      <c r="AI57">
+        <v>1.8</v>
+      </c>
+      <c r="AJ57">
+        <v>1.95</v>
+      </c>
+      <c r="AK57">
+        <v>1.35</v>
+      </c>
+      <c r="AL57">
+        <v>1.3</v>
+      </c>
+      <c r="AM57">
+        <v>1.7</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
+        <v>1.5</v>
+      </c>
+      <c r="AP57">
+        <v>2</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1.29</v>
+      </c>
+      <c r="AS57">
+        <v>0.95</v>
+      </c>
+      <c r="AT57">
+        <v>2.24</v>
+      </c>
+      <c r="AU57">
+        <v>12</v>
+      </c>
+      <c r="AV57">
+        <v>4</v>
+      </c>
+      <c r="AW57">
         <v>7</v>
       </c>
-      <c r="T57">
-        <v>1.33</v>
-      </c>
-      <c r="U57">
-        <v>3.25</v>
-      </c>
-      <c r="V57">
-        <v>2.5</v>
-      </c>
-      <c r="W57">
-        <v>1.5</v>
-      </c>
-      <c r="X57">
-        <v>6.5</v>
-      </c>
-      <c r="Y57">
-        <v>1.11</v>
-      </c>
-      <c r="Z57">
-        <v>1.44</v>
-      </c>
-      <c r="AA57">
-        <v>4.5</v>
-      </c>
-      <c r="AB57">
+      <c r="AX57">
+        <v>2</v>
+      </c>
+      <c r="AY57">
+        <v>25</v>
+      </c>
+      <c r="AZ57">
         <v>7</v>
       </c>
-      <c r="AC57">
-        <v>1.04</v>
-      </c>
-      <c r="AD57">
+      <c r="BA57">
+        <v>9</v>
+      </c>
+      <c r="BB57">
+        <v>1</v>
+      </c>
+      <c r="BC57">
         <v>10</v>
       </c>
-      <c r="AE57">
-        <v>1.22</v>
-      </c>
-      <c r="AF57">
-        <v>4.2</v>
-      </c>
-      <c r="AG57">
-        <v>1.73</v>
-      </c>
-      <c r="AH57">
+      <c r="BD57">
+        <v>1.82</v>
+      </c>
+      <c r="BE57">
+        <v>6.4</v>
+      </c>
+      <c r="BF57">
+        <v>2.18</v>
+      </c>
+      <c r="BG57">
+        <v>1.38</v>
+      </c>
+      <c r="BH57">
+        <v>2.7</v>
+      </c>
+      <c r="BI57">
+        <v>1.66</v>
+      </c>
+      <c r="BJ57">
+        <v>2.07</v>
+      </c>
+      <c r="BK57">
         <v>2.05</v>
       </c>
-      <c r="AI57">
-        <v>1.95</v>
-      </c>
-      <c r="AJ57">
-        <v>1.8</v>
-      </c>
-      <c r="AK57">
-        <v>1.1</v>
-      </c>
-      <c r="AL57">
-        <v>1.15</v>
-      </c>
-      <c r="AM57">
-        <v>2.8</v>
-      </c>
-      <c r="AN57">
-        <v>1.5</v>
-      </c>
-      <c r="AO57">
-        <v>0.33</v>
-      </c>
-      <c r="AP57">
-        <v>2</v>
-      </c>
-      <c r="AQ57">
-        <v>0.2</v>
-      </c>
-      <c r="AR57">
-        <v>2.07</v>
-      </c>
-      <c r="AS57">
-        <v>0.92</v>
-      </c>
-      <c r="AT57">
-        <v>2.99</v>
-      </c>
-      <c r="AU57">
-        <v>6</v>
-      </c>
-      <c r="AV57">
-        <v>8</v>
-      </c>
-      <c r="AW57">
-        <v>10</v>
-      </c>
-      <c r="AX57">
-        <v>5</v>
-      </c>
-      <c r="AY57">
-        <v>23</v>
-      </c>
-      <c r="AZ57">
-        <v>19</v>
-      </c>
-      <c r="BA57">
-        <v>6</v>
-      </c>
-      <c r="BB57">
-        <v>3</v>
-      </c>
-      <c r="BC57">
-        <v>9</v>
-      </c>
-      <c r="BD57">
-        <v>1.34</v>
-      </c>
-      <c r="BE57">
-        <v>7</v>
-      </c>
-      <c r="BF57">
-        <v>3.55</v>
-      </c>
-      <c r="BG57">
-        <v>1.28</v>
-      </c>
-      <c r="BH57">
-        <v>3.15</v>
-      </c>
-      <c r="BI57">
-        <v>1.5</v>
-      </c>
-      <c r="BJ57">
-        <v>2.38</v>
-      </c>
-      <c r="BK57">
-        <v>1.88</v>
-      </c>
       <c r="BL57">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="BM57">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="BN57">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="BO57">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="BP57">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12680,7 +12680,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7492199</v>
+        <v>7492205</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12695,190 +12695,190 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O58" t="s">
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="Q58">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="R58">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="S58">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T58">
+        <v>1.33</v>
+      </c>
+      <c r="U58">
+        <v>3.25</v>
+      </c>
+      <c r="V58">
+        <v>2.5</v>
+      </c>
+      <c r="W58">
+        <v>1.5</v>
+      </c>
+      <c r="X58">
+        <v>6.5</v>
+      </c>
+      <c r="Y58">
+        <v>1.11</v>
+      </c>
+      <c r="Z58">
         <v>1.44</v>
       </c>
-      <c r="U58">
-        <v>2.63</v>
-      </c>
-      <c r="V58">
-        <v>3.25</v>
-      </c>
-      <c r="W58">
+      <c r="AA58">
+        <v>4.5</v>
+      </c>
+      <c r="AB58">
+        <v>7</v>
+      </c>
+      <c r="AC58">
+        <v>1.04</v>
+      </c>
+      <c r="AD58">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>1.22</v>
+      </c>
+      <c r="AF58">
+        <v>4.2</v>
+      </c>
+      <c r="AG58">
+        <v>1.73</v>
+      </c>
+      <c r="AH58">
+        <v>2.05</v>
+      </c>
+      <c r="AI58">
+        <v>1.95</v>
+      </c>
+      <c r="AJ58">
+        <v>1.8</v>
+      </c>
+      <c r="AK58">
+        <v>1.1</v>
+      </c>
+      <c r="AL58">
+        <v>1.15</v>
+      </c>
+      <c r="AM58">
+        <v>2.8</v>
+      </c>
+      <c r="AN58">
+        <v>1.5</v>
+      </c>
+      <c r="AO58">
+        <v>0.33</v>
+      </c>
+      <c r="AP58">
+        <v>2</v>
+      </c>
+      <c r="AQ58">
+        <v>0.2</v>
+      </c>
+      <c r="AR58">
+        <v>2.07</v>
+      </c>
+      <c r="AS58">
+        <v>0.92</v>
+      </c>
+      <c r="AT58">
+        <v>2.99</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>8</v>
+      </c>
+      <c r="AW58">
+        <v>10</v>
+      </c>
+      <c r="AX58">
+        <v>5</v>
+      </c>
+      <c r="AY58">
+        <v>23</v>
+      </c>
+      <c r="AZ58">
+        <v>19</v>
+      </c>
+      <c r="BA58">
+        <v>6</v>
+      </c>
+      <c r="BB58">
+        <v>3</v>
+      </c>
+      <c r="BC58">
+        <v>9</v>
+      </c>
+      <c r="BD58">
+        <v>1.34</v>
+      </c>
+      <c r="BE58">
+        <v>7</v>
+      </c>
+      <c r="BF58">
+        <v>3.55</v>
+      </c>
+      <c r="BG58">
+        <v>1.28</v>
+      </c>
+      <c r="BH58">
+        <v>3.15</v>
+      </c>
+      <c r="BI58">
+        <v>1.5</v>
+      </c>
+      <c r="BJ58">
+        <v>2.38</v>
+      </c>
+      <c r="BK58">
+        <v>1.88</v>
+      </c>
+      <c r="BL58">
+        <v>1.92</v>
+      </c>
+      <c r="BM58">
+        <v>2.3</v>
+      </c>
+      <c r="BN58">
+        <v>1.54</v>
+      </c>
+      <c r="BO58">
+        <v>2.95</v>
+      </c>
+      <c r="BP58">
         <v>1.33</v>
-      </c>
-      <c r="X58">
-        <v>9</v>
-      </c>
-      <c r="Y58">
-        <v>1.07</v>
-      </c>
-      <c r="Z58">
-        <v>2.75</v>
-      </c>
-      <c r="AA58">
-        <v>3.2</v>
-      </c>
-      <c r="AB58">
-        <v>2.62</v>
-      </c>
-      <c r="AC58">
-        <v>1.06</v>
-      </c>
-      <c r="AD58">
-        <v>8</v>
-      </c>
-      <c r="AE58">
-        <v>1.36</v>
-      </c>
-      <c r="AF58">
-        <v>3</v>
-      </c>
-      <c r="AG58">
-        <v>2.25</v>
-      </c>
-      <c r="AH58">
-        <v>1.6</v>
-      </c>
-      <c r="AI58">
-        <v>1.8</v>
-      </c>
-      <c r="AJ58">
-        <v>1.95</v>
-      </c>
-      <c r="AK58">
-        <v>1.35</v>
-      </c>
-      <c r="AL58">
-        <v>1.3</v>
-      </c>
-      <c r="AM58">
-        <v>1.7</v>
-      </c>
-      <c r="AN58">
-        <v>1</v>
-      </c>
-      <c r="AO58">
-        <v>1.5</v>
-      </c>
-      <c r="AP58">
-        <v>2</v>
-      </c>
-      <c r="AQ58">
-        <v>1</v>
-      </c>
-      <c r="AR58">
-        <v>1.29</v>
-      </c>
-      <c r="AS58">
-        <v>0.95</v>
-      </c>
-      <c r="AT58">
-        <v>2.24</v>
-      </c>
-      <c r="AU58">
-        <v>12</v>
-      </c>
-      <c r="AV58">
-        <v>4</v>
-      </c>
-      <c r="AW58">
-        <v>7</v>
-      </c>
-      <c r="AX58">
-        <v>2</v>
-      </c>
-      <c r="AY58">
-        <v>25</v>
-      </c>
-      <c r="AZ58">
-        <v>7</v>
-      </c>
-      <c r="BA58">
-        <v>9</v>
-      </c>
-      <c r="BB58">
-        <v>1</v>
-      </c>
-      <c r="BC58">
-        <v>10</v>
-      </c>
-      <c r="BD58">
-        <v>1.82</v>
-      </c>
-      <c r="BE58">
-        <v>6.4</v>
-      </c>
-      <c r="BF58">
-        <v>2.18</v>
-      </c>
-      <c r="BG58">
-        <v>1.38</v>
-      </c>
-      <c r="BH58">
-        <v>2.7</v>
-      </c>
-      <c r="BI58">
-        <v>1.66</v>
-      </c>
-      <c r="BJ58">
-        <v>2.07</v>
-      </c>
-      <c r="BK58">
-        <v>2.05</v>
-      </c>
-      <c r="BL58">
-        <v>1.67</v>
-      </c>
-      <c r="BM58">
-        <v>2.65</v>
-      </c>
-      <c r="BN58">
-        <v>1.41</v>
-      </c>
-      <c r="BO58">
-        <v>3.45</v>
-      </c>
-      <c r="BP58">
-        <v>1.25</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -13916,7 +13916,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7492208</v>
+        <v>7492212</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13931,28 +13931,28 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
         <v>5</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>6</v>
       </c>
       <c r="O64" t="s">
         <v>136</v>
@@ -13961,160 +13961,160 @@
         <v>179</v>
       </c>
       <c r="Q64">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R64">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S64">
+        <v>8</v>
+      </c>
+      <c r="T64">
+        <v>1.3</v>
+      </c>
+      <c r="U64">
+        <v>3.4</v>
+      </c>
+      <c r="V64">
+        <v>2.5</v>
+      </c>
+      <c r="W64">
+        <v>1.5</v>
+      </c>
+      <c r="X64">
         <v>6</v>
       </c>
-      <c r="T64">
-        <v>1.33</v>
-      </c>
-      <c r="U64">
-        <v>3.25</v>
-      </c>
-      <c r="V64">
-        <v>2.63</v>
-      </c>
-      <c r="W64">
-        <v>1.44</v>
-      </c>
-      <c r="X64">
-        <v>7</v>
-      </c>
       <c r="Y64">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z64">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="AA64">
-        <v>4.2</v>
+        <v>4.95</v>
       </c>
       <c r="AB64">
-        <v>6.5</v>
+        <v>7.75</v>
       </c>
       <c r="AC64">
         <v>1.01</v>
       </c>
       <c r="AD64">
+        <v>13</v>
+      </c>
+      <c r="AE64">
+        <v>1.17</v>
+      </c>
+      <c r="AF64">
+        <v>4.5</v>
+      </c>
+      <c r="AG64">
+        <v>1.68</v>
+      </c>
+      <c r="AH64">
+        <v>2.07</v>
+      </c>
+      <c r="AI64">
+        <v>2</v>
+      </c>
+      <c r="AJ64">
+        <v>1.75</v>
+      </c>
+      <c r="AK64">
+        <v>1.07</v>
+      </c>
+      <c r="AL64">
+        <v>1.12</v>
+      </c>
+      <c r="AM64">
+        <v>3.1</v>
+      </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
+      <c r="AO64">
+        <v>2.33</v>
+      </c>
+      <c r="AP64">
+        <v>2.25</v>
+      </c>
+      <c r="AQ64">
+        <v>1.75</v>
+      </c>
+      <c r="AR64">
+        <v>1.21</v>
+      </c>
+      <c r="AS64">
+        <v>1.27</v>
+      </c>
+      <c r="AT64">
+        <v>2.48</v>
+      </c>
+      <c r="AU64">
+        <v>5</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
         <v>11</v>
       </c>
-      <c r="AE64">
-        <v>1.22</v>
-      </c>
-      <c r="AF64">
-        <v>3.8</v>
-      </c>
-      <c r="AG64">
-        <v>1.81</v>
-      </c>
-      <c r="AH64">
-        <v>2.01</v>
-      </c>
-      <c r="AI64">
-        <v>1.91</v>
-      </c>
-      <c r="AJ64">
-        <v>1.91</v>
-      </c>
-      <c r="AK64">
-        <v>1.13</v>
-      </c>
-      <c r="AL64">
-        <v>1.22</v>
-      </c>
-      <c r="AM64">
-        <v>2.55</v>
-      </c>
-      <c r="AN64">
-        <v>1.5</v>
-      </c>
-      <c r="AO64">
-        <v>1.5</v>
-      </c>
-      <c r="AP64">
-        <v>2</v>
-      </c>
-      <c r="AQ64">
-        <v>1</v>
-      </c>
-      <c r="AR64">
-        <v>1.65</v>
-      </c>
-      <c r="AS64">
-        <v>0.7</v>
-      </c>
-      <c r="AT64">
-        <v>2.35</v>
-      </c>
-      <c r="AU64">
-        <v>6</v>
-      </c>
-      <c r="AV64">
-        <v>3</v>
-      </c>
-      <c r="AW64">
-        <v>9</v>
-      </c>
       <c r="AX64">
         <v>1</v>
       </c>
       <c r="AY64">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA64">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BB64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC64">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD64">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BE64">
         <v>7.5</v>
       </c>
       <c r="BF64">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="BG64">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BH64">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="BI64">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="BJ64">
+        <v>2.4</v>
+      </c>
+      <c r="BK64">
+        <v>1.79</v>
+      </c>
+      <c r="BL64">
+        <v>1.9</v>
+      </c>
+      <c r="BM64">
         <v>2.23</v>
       </c>
-      <c r="BK64">
-        <v>1.91</v>
-      </c>
-      <c r="BL64">
-        <v>1.78</v>
-      </c>
-      <c r="BM64">
-        <v>2.4</v>
-      </c>
       <c r="BN64">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="BO64">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="BP64">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14122,7 +14122,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7492212</v>
+        <v>7492208</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14137,28 +14137,28 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O65" t="s">
         <v>137</v>
@@ -14167,160 +14167,160 @@
         <v>180</v>
       </c>
       <c r="Q65">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R65">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T65">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U65">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V65">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W65">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y65">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z65">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="AA65">
-        <v>4.95</v>
+        <v>4.2</v>
       </c>
       <c r="AB65">
-        <v>7.75</v>
+        <v>6.5</v>
       </c>
       <c r="AC65">
         <v>1.01</v>
       </c>
       <c r="AD65">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE65">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AF65">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="AG65">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="AH65">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="AI65">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AJ65">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AK65">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AL65">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AM65">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="AN65">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AR65">
-        <v>1.21</v>
+        <v>1.65</v>
       </c>
       <c r="AS65">
-        <v>1.27</v>
+        <v>0.7</v>
       </c>
       <c r="AT65">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="AU65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV65">
+        <v>3</v>
+      </c>
+      <c r="AW65">
+        <v>9</v>
+      </c>
+      <c r="AX65">
+        <v>1</v>
+      </c>
+      <c r="AY65">
+        <v>15</v>
+      </c>
+      <c r="AZ65">
         <v>4</v>
       </c>
-      <c r="AW65">
-        <v>11</v>
-      </c>
-      <c r="AX65">
-        <v>1</v>
-      </c>
-      <c r="AY65">
-        <v>16</v>
-      </c>
-      <c r="AZ65">
-        <v>5</v>
-      </c>
       <c r="BA65">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BB65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC65">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BD65">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BE65">
         <v>7.5</v>
       </c>
       <c r="BF65">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="BG65">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BH65">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="BI65">
+        <v>1.57</v>
+      </c>
+      <c r="BJ65">
+        <v>2.23</v>
+      </c>
+      <c r="BK65">
+        <v>1.91</v>
+      </c>
+      <c r="BL65">
+        <v>1.78</v>
+      </c>
+      <c r="BM65">
+        <v>2.4</v>
+      </c>
+      <c r="BN65">
         <v>1.49</v>
       </c>
-      <c r="BJ65">
-        <v>2.4</v>
-      </c>
-      <c r="BK65">
-        <v>1.79</v>
-      </c>
-      <c r="BL65">
-        <v>1.9</v>
-      </c>
-      <c r="BM65">
-        <v>2.23</v>
-      </c>
-      <c r="BN65">
-        <v>1.56</v>
-      </c>
       <c r="BO65">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="BP65">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14534,7 +14534,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7492213</v>
+        <v>7492214</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14549,133 +14549,133 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O67" t="s">
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="Q67">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="R67">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S67">
+        <v>6</v>
+      </c>
+      <c r="T67">
+        <v>1.4</v>
+      </c>
+      <c r="U67">
+        <v>2.75</v>
+      </c>
+      <c r="V67">
+        <v>3</v>
+      </c>
+      <c r="W67">
+        <v>1.36</v>
+      </c>
+      <c r="X67">
         <v>8</v>
       </c>
-      <c r="T67">
-        <v>1.36</v>
-      </c>
-      <c r="U67">
-        <v>3</v>
-      </c>
-      <c r="V67">
-        <v>2.75</v>
-      </c>
-      <c r="W67">
-        <v>1.4</v>
-      </c>
-      <c r="X67">
+      <c r="Y67">
+        <v>1.08</v>
+      </c>
+      <c r="Z67">
+        <v>1.5</v>
+      </c>
+      <c r="AA67">
+        <v>4</v>
+      </c>
+      <c r="AB67">
+        <v>6.5</v>
+      </c>
+      <c r="AC67">
+        <v>1.01</v>
+      </c>
+      <c r="AD67">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE67">
+        <v>1.33</v>
+      </c>
+      <c r="AF67">
+        <v>3.48</v>
+      </c>
+      <c r="AG67">
+        <v>1.95</v>
+      </c>
+      <c r="AH67">
+        <v>1.75</v>
+      </c>
+      <c r="AI67">
+        <v>2</v>
+      </c>
+      <c r="AJ67">
+        <v>1.75</v>
+      </c>
+      <c r="AK67">
+        <v>1.12</v>
+      </c>
+      <c r="AL67">
+        <v>1.2</v>
+      </c>
+      <c r="AM67">
+        <v>2.4</v>
+      </c>
+      <c r="AN67">
+        <v>2.33</v>
+      </c>
+      <c r="AO67">
+        <v>2.33</v>
+      </c>
+      <c r="AP67">
+        <v>2.5</v>
+      </c>
+      <c r="AQ67">
+        <v>1.75</v>
+      </c>
+      <c r="AR67">
+        <v>1.44</v>
+      </c>
+      <c r="AS67">
+        <v>0.98</v>
+      </c>
+      <c r="AT67">
+        <v>2.42</v>
+      </c>
+      <c r="AU67">
+        <v>6</v>
+      </c>
+      <c r="AV67">
+        <v>2</v>
+      </c>
+      <c r="AW67">
         <v>7</v>
-      </c>
-      <c r="Y67">
-        <v>1.1</v>
-      </c>
-      <c r="Z67">
-        <v>1.33</v>
-      </c>
-      <c r="AA67">
-        <v>4.5</v>
-      </c>
-      <c r="AB67">
-        <v>8.5</v>
-      </c>
-      <c r="AC67">
-        <v>1.02</v>
-      </c>
-      <c r="AD67">
-        <v>10</v>
-      </c>
-      <c r="AE67">
-        <v>1.26</v>
-      </c>
-      <c r="AF67">
-        <v>3.24</v>
-      </c>
-      <c r="AG67">
-        <v>1.85</v>
-      </c>
-      <c r="AH67">
-        <v>1.85</v>
-      </c>
-      <c r="AI67">
-        <v>2.2</v>
-      </c>
-      <c r="AJ67">
-        <v>1.62</v>
-      </c>
-      <c r="AK67">
-        <v>1.07</v>
-      </c>
-      <c r="AL67">
-        <v>1.15</v>
-      </c>
-      <c r="AM67">
-        <v>2.88</v>
-      </c>
-      <c r="AN67">
-        <v>1.67</v>
-      </c>
-      <c r="AO67">
-        <v>1.5</v>
-      </c>
-      <c r="AP67">
-        <v>1.5</v>
-      </c>
-      <c r="AQ67">
-        <v>1.33</v>
-      </c>
-      <c r="AR67">
-        <v>1.09</v>
-      </c>
-      <c r="AS67">
-        <v>1.3</v>
-      </c>
-      <c r="AT67">
-        <v>2.39</v>
-      </c>
-      <c r="AU67">
-        <v>7</v>
-      </c>
-      <c r="AV67">
-        <v>3</v>
-      </c>
-      <c r="AW67">
-        <v>6</v>
       </c>
       <c r="AX67">
         <v>3</v>
@@ -14684,55 +14684,55 @@
         <v>13</v>
       </c>
       <c r="AZ67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>3</v>
+      </c>
+      <c r="BC67">
         <v>8</v>
       </c>
-      <c r="BB67">
-        <v>3</v>
-      </c>
-      <c r="BC67">
-        <v>11</v>
-      </c>
       <c r="BD67">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BE67">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="BF67">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="BG67">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="BH67">
-        <v>3.72</v>
+        <v>4</v>
       </c>
       <c r="BI67">
+        <v>1.33</v>
+      </c>
+      <c r="BJ67">
+        <v>2.73</v>
+      </c>
+      <c r="BK67">
+        <v>1.63</v>
+      </c>
+      <c r="BL67">
+        <v>2.11</v>
+      </c>
+      <c r="BM67">
+        <v>2.09</v>
+      </c>
+      <c r="BN67">
+        <v>1.71</v>
+      </c>
+      <c r="BO67">
+        <v>2.68</v>
+      </c>
+      <c r="BP67">
         <v>1.4</v>
-      </c>
-      <c r="BJ67">
-        <v>2.68</v>
-      </c>
-      <c r="BK67">
-        <v>1.74</v>
-      </c>
-      <c r="BL67">
-        <v>2.05</v>
-      </c>
-      <c r="BM67">
-        <v>2.19</v>
-      </c>
-      <c r="BN67">
-        <v>1.64</v>
-      </c>
-      <c r="BO67">
-        <v>2.73</v>
-      </c>
-      <c r="BP67">
-        <v>1.33</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14740,7 +14740,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7492214</v>
+        <v>7492215</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14749,196 +14749,196 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45571.41666666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F68">
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O68" t="s">
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q68">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="R68">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S68">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="T68">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U68">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V68">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W68">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y68">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z68">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="AA68">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AB68">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="AC68">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD68">
-        <v>8.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="AE68">
         <v>1.33</v>
       </c>
       <c r="AF68">
-        <v>3.48</v>
+        <v>2.86</v>
       </c>
       <c r="AG68">
+        <v>2.12</v>
+      </c>
+      <c r="AH68">
+        <v>1.72</v>
+      </c>
+      <c r="AI68">
         <v>1.95</v>
       </c>
-      <c r="AH68">
+      <c r="AJ68">
+        <v>1.8</v>
+      </c>
+      <c r="AK68">
+        <v>1.84</v>
+      </c>
+      <c r="AL68">
+        <v>1.29</v>
+      </c>
+      <c r="AM68">
+        <v>1.27</v>
+      </c>
+      <c r="AN68">
+        <v>0.33</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>0.5</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS68">
+        <v>1.31</v>
+      </c>
+      <c r="AT68">
+        <v>2.25</v>
+      </c>
+      <c r="AU68">
+        <v>3</v>
+      </c>
+      <c r="AV68">
+        <v>5</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>7</v>
+      </c>
+      <c r="AY68">
+        <v>3</v>
+      </c>
+      <c r="AZ68">
+        <v>12</v>
+      </c>
+      <c r="BA68">
+        <v>1</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>4</v>
+      </c>
+      <c r="BD68">
+        <v>2.52</v>
+      </c>
+      <c r="BE68">
+        <v>8.4</v>
+      </c>
+      <c r="BF68">
         <v>1.75</v>
       </c>
-      <c r="AI68">
-        <v>2</v>
-      </c>
-      <c r="AJ68">
-        <v>1.75</v>
-      </c>
-      <c r="AK68">
-        <v>1.12</v>
-      </c>
-      <c r="AL68">
-        <v>1.2</v>
-      </c>
-      <c r="AM68">
-        <v>2.4</v>
-      </c>
-      <c r="AN68">
-        <v>2.33</v>
-      </c>
-      <c r="AO68">
-        <v>2.33</v>
-      </c>
-      <c r="AP68">
-        <v>2.5</v>
-      </c>
-      <c r="AQ68">
-        <v>1.75</v>
-      </c>
-      <c r="AR68">
+      <c r="BG68">
         <v>1.44</v>
       </c>
-      <c r="AS68">
-        <v>0.98</v>
-      </c>
-      <c r="AT68">
-        <v>2.42</v>
-      </c>
-      <c r="AU68">
-        <v>7</v>
-      </c>
-      <c r="AV68">
-        <v>3</v>
-      </c>
-      <c r="AW68">
-        <v>8</v>
-      </c>
-      <c r="AX68">
-        <v>3</v>
-      </c>
-      <c r="AY68">
-        <v>18</v>
-      </c>
-      <c r="AZ68">
-        <v>8</v>
-      </c>
-      <c r="BA68">
-        <v>5</v>
-      </c>
-      <c r="BB68">
-        <v>3</v>
-      </c>
-      <c r="BC68">
-        <v>8</v>
-      </c>
-      <c r="BD68">
-        <v>1.33</v>
-      </c>
-      <c r="BE68">
-        <v>10.25</v>
-      </c>
-      <c r="BF68">
-        <v>4.2</v>
-      </c>
-      <c r="BG68">
-        <v>1.15</v>
-      </c>
       <c r="BH68">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="BI68">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="BJ68">
-        <v>2.73</v>
+        <v>1.96</v>
       </c>
       <c r="BK68">
-        <v>1.63</v>
+        <v>2.18</v>
       </c>
       <c r="BL68">
-        <v>2.11</v>
+        <v>1.58</v>
       </c>
       <c r="BM68">
-        <v>2.09</v>
+        <v>2.85</v>
       </c>
       <c r="BN68">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="BO68">
-        <v>2.68</v>
+        <v>3.8</v>
       </c>
       <c r="BP68">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -14946,7 +14946,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7492209</v>
+        <v>7492210</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14955,196 +14955,196 @@
         <v>69</v>
       </c>
       <c r="E69" s="2">
-        <v>45571.41666666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O69" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="P69" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="Q69">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="R69">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S69">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="T69">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U69">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V69">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W69">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X69">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y69">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z69">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AA69">
         <v>3.7</v>
       </c>
       <c r="AB69">
-        <v>4.33</v>
+        <v>2.18</v>
       </c>
       <c r="AC69">
         <v>1.04</v>
       </c>
       <c r="AD69">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="AE69">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AF69">
-        <v>3.92</v>
+        <v>4.2</v>
       </c>
       <c r="AG69">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AH69">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="AI69">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AJ69">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK69">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="AL69">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AM69">
-        <v>2.05</v>
+        <v>1.38</v>
       </c>
       <c r="AN69">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO69">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR69">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="AS69">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AT69">
-        <v>2.98</v>
+        <v>3.21</v>
       </c>
       <c r="AU69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV69">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW69">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY69">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AZ69">
         <v>14</v>
       </c>
       <c r="BA69">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BB69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC69">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="BD69">
-        <v>1.56</v>
+        <v>2.15</v>
       </c>
       <c r="BE69">
-        <v>8.800000000000001</v>
+        <v>6.45</v>
       </c>
       <c r="BF69">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="BG69">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH69">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="BI69">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="BJ69">
-        <v>2.33</v>
+        <v>2.31</v>
       </c>
       <c r="BK69">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="BL69">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="BM69">
-        <v>2.49</v>
+        <v>2.51</v>
       </c>
       <c r="BN69">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="BO69">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="BP69">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15152,7 +15152,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7492215</v>
+        <v>7492209</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15161,16 +15161,16 @@
         <v>69</v>
       </c>
       <c r="E70" s="2">
-        <v>45571.54166666666</v>
+        <v>45570.875</v>
       </c>
       <c r="F70">
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -15182,175 +15182,175 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="Q70">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="R70">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S70">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="T70">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U70">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="V70">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W70">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X70">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y70">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="Z70">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="AA70">
         <v>3.7</v>
       </c>
       <c r="AB70">
-        <v>1.9</v>
+        <v>4.33</v>
       </c>
       <c r="AC70">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD70">
-        <v>7.1</v>
+        <v>13.3</v>
       </c>
       <c r="AE70">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AF70">
-        <v>2.86</v>
+        <v>3.92</v>
       </c>
       <c r="AG70">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="AH70">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="AI70">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ70">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK70">
-        <v>1.84</v>
+        <v>1.22</v>
       </c>
       <c r="AL70">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AM70">
-        <v>1.27</v>
+        <v>2.05</v>
       </c>
       <c r="AN70">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO70">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AR70">
-        <v>0.9399999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="AS70">
-        <v>1.31</v>
+        <v>1.63</v>
       </c>
       <c r="AT70">
-        <v>2.25</v>
+        <v>2.98</v>
       </c>
       <c r="AU70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV70">
         <v>5</v>
       </c>
       <c r="AW70">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AX70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY70">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AZ70">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA70">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="BB70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC70">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="BD70">
-        <v>2.52</v>
+        <v>1.56</v>
       </c>
       <c r="BE70">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF70">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="BG70">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="BH70">
-        <v>2.55</v>
+        <v>3.14</v>
       </c>
       <c r="BI70">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="BJ70">
-        <v>1.96</v>
+        <v>2.33</v>
       </c>
       <c r="BK70">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="BL70">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="BM70">
-        <v>2.85</v>
+        <v>2.49</v>
       </c>
       <c r="BN70">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="BO70">
-        <v>3.8</v>
+        <v>3.22</v>
       </c>
       <c r="BP70">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15358,7 +15358,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7492210</v>
+        <v>7492213</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15367,16 +15367,16 @@
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>45571.65625</v>
+        <v>45570.875</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -15388,175 +15388,175 @@
         <v>1</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O71" t="s">
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="Q71">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="R71">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S71">
+        <v>8</v>
+      </c>
+      <c r="T71">
+        <v>1.36</v>
+      </c>
+      <c r="U71">
+        <v>3</v>
+      </c>
+      <c r="V71">
         <v>2.75</v>
       </c>
-      <c r="T71">
+      <c r="W71">
+        <v>1.4</v>
+      </c>
+      <c r="X71">
+        <v>7</v>
+      </c>
+      <c r="Y71">
+        <v>1.1</v>
+      </c>
+      <c r="Z71">
         <v>1.33</v>
       </c>
-      <c r="U71">
-        <v>3.25</v>
-      </c>
-      <c r="V71">
-        <v>2.63</v>
-      </c>
-      <c r="W71">
-        <v>1.44</v>
-      </c>
-      <c r="X71">
-        <v>6.5</v>
-      </c>
-      <c r="Y71">
-        <v>1.11</v>
-      </c>
-      <c r="Z71">
-        <v>3</v>
-      </c>
       <c r="AA71">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="AB71">
-        <v>2.18</v>
+        <v>8.5</v>
       </c>
       <c r="AC71">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD71">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE71">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AF71">
-        <v>4.2</v>
+        <v>3.24</v>
       </c>
       <c r="AG71">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="AH71">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="AI71">
+        <v>2.2</v>
+      </c>
+      <c r="AJ71">
         <v>1.62</v>
       </c>
-      <c r="AJ71">
-        <v>2.2</v>
-      </c>
       <c r="AK71">
-        <v>1.63</v>
+        <v>1.07</v>
       </c>
       <c r="AL71">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AM71">
-        <v>1.38</v>
+        <v>2.88</v>
       </c>
       <c r="AN71">
         <v>1.67</v>
       </c>
       <c r="AO71">
+        <v>1.5</v>
+      </c>
+      <c r="AP71">
+        <v>1.5</v>
+      </c>
+      <c r="AQ71">
         <v>1.33</v>
       </c>
-      <c r="AP71">
-        <v>2</v>
-      </c>
-      <c r="AQ71">
-        <v>1</v>
-      </c>
       <c r="AR71">
-        <v>1.68</v>
+        <v>1.09</v>
       </c>
       <c r="AS71">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="AT71">
-        <v>3.21</v>
+        <v>2.39</v>
       </c>
       <c r="AU71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV71">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY71">
         <v>13</v>
       </c>
       <c r="AZ71">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="BA71">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BB71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC71">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD71">
-        <v>2.15</v>
+        <v>1.28</v>
       </c>
       <c r="BE71">
-        <v>6.45</v>
+        <v>10.5</v>
       </c>
       <c r="BF71">
-        <v>2.14</v>
+        <v>4.75</v>
       </c>
       <c r="BG71">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="BH71">
-        <v>3.08</v>
+        <v>3.72</v>
       </c>
       <c r="BI71">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="BJ71">
-        <v>2.31</v>
+        <v>2.68</v>
       </c>
       <c r="BK71">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="BL71">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="BM71">
-        <v>2.51</v>
+        <v>2.19</v>
       </c>
       <c r="BN71">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="BO71">
-        <v>3.28</v>
+        <v>2.73</v>
       </c>
       <c r="BP71">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -406,12 +406,12 @@
     <t>['67', '90+2']</t>
   </si>
   <si>
+    <t>['74', '83']</t>
+  </si>
+  <si>
     <t>['43', '72', '89']</t>
   </si>
   <si>
-    <t>['74', '83']</t>
-  </si>
-  <si>
     <t>['22', '33']</t>
   </si>
   <si>
@@ -424,13 +424,16 @@
     <t>['9', '81']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['24', '50', '60', '74', '80']</t>
+  </si>
+  <si>
     <t>['25', '35', '60']</t>
   </si>
   <si>
-    <t>['24', '50', '60', '74', '80']</t>
-  </si>
-  <si>
-    <t>['75']</t>
+    <t>['15']</t>
   </si>
   <si>
     <t>['45+4', '84']</t>
@@ -442,9 +445,6 @@
     <t>['35', '73']</t>
   </si>
   <si>
-    <t>['15']</t>
-  </si>
-  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -553,10 +553,10 @@
     <t>['34', '75', '87']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
     <t>['36', '87']</t>
-  </si>
-  <si>
-    <t>['83']</t>
   </si>
   <si>
     <t>['9']</t>
@@ -1186,7 +1186,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -12474,7 +12474,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>7492199</v>
+        <v>7492205</v>
       </c>
       <c r="C57" t="s">
         <v>68</v>
@@ -12489,190 +12489,190 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O57" t="s">
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="Q57">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="R57">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="S57">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T57">
+        <v>1.33</v>
+      </c>
+      <c r="U57">
+        <v>3.25</v>
+      </c>
+      <c r="V57">
+        <v>2.5</v>
+      </c>
+      <c r="W57">
+        <v>1.5</v>
+      </c>
+      <c r="X57">
+        <v>6.5</v>
+      </c>
+      <c r="Y57">
+        <v>1.11</v>
+      </c>
+      <c r="Z57">
         <v>1.44</v>
       </c>
-      <c r="U57">
-        <v>2.63</v>
-      </c>
-      <c r="V57">
-        <v>3.25</v>
-      </c>
-      <c r="W57">
+      <c r="AA57">
+        <v>4.5</v>
+      </c>
+      <c r="AB57">
+        <v>7</v>
+      </c>
+      <c r="AC57">
+        <v>1.04</v>
+      </c>
+      <c r="AD57">
+        <v>10</v>
+      </c>
+      <c r="AE57">
+        <v>1.22</v>
+      </c>
+      <c r="AF57">
+        <v>4.2</v>
+      </c>
+      <c r="AG57">
+        <v>1.73</v>
+      </c>
+      <c r="AH57">
+        <v>2.05</v>
+      </c>
+      <c r="AI57">
+        <v>1.95</v>
+      </c>
+      <c r="AJ57">
+        <v>1.8</v>
+      </c>
+      <c r="AK57">
+        <v>1.1</v>
+      </c>
+      <c r="AL57">
+        <v>1.15</v>
+      </c>
+      <c r="AM57">
+        <v>2.8</v>
+      </c>
+      <c r="AN57">
+        <v>1.5</v>
+      </c>
+      <c r="AO57">
+        <v>0.33</v>
+      </c>
+      <c r="AP57">
+        <v>2</v>
+      </c>
+      <c r="AQ57">
+        <v>0.2</v>
+      </c>
+      <c r="AR57">
+        <v>2.07</v>
+      </c>
+      <c r="AS57">
+        <v>0.92</v>
+      </c>
+      <c r="AT57">
+        <v>2.99</v>
+      </c>
+      <c r="AU57">
+        <v>6</v>
+      </c>
+      <c r="AV57">
+        <v>8</v>
+      </c>
+      <c r="AW57">
+        <v>10</v>
+      </c>
+      <c r="AX57">
+        <v>5</v>
+      </c>
+      <c r="AY57">
+        <v>23</v>
+      </c>
+      <c r="AZ57">
+        <v>19</v>
+      </c>
+      <c r="BA57">
+        <v>6</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
+        <v>9</v>
+      </c>
+      <c r="BD57">
+        <v>1.34</v>
+      </c>
+      <c r="BE57">
+        <v>7</v>
+      </c>
+      <c r="BF57">
+        <v>3.55</v>
+      </c>
+      <c r="BG57">
+        <v>1.28</v>
+      </c>
+      <c r="BH57">
+        <v>3.15</v>
+      </c>
+      <c r="BI57">
+        <v>1.5</v>
+      </c>
+      <c r="BJ57">
+        <v>2.38</v>
+      </c>
+      <c r="BK57">
+        <v>1.88</v>
+      </c>
+      <c r="BL57">
+        <v>1.92</v>
+      </c>
+      <c r="BM57">
+        <v>2.3</v>
+      </c>
+      <c r="BN57">
+        <v>1.54</v>
+      </c>
+      <c r="BO57">
+        <v>2.95</v>
+      </c>
+      <c r="BP57">
         <v>1.33</v>
-      </c>
-      <c r="X57">
-        <v>9</v>
-      </c>
-      <c r="Y57">
-        <v>1.07</v>
-      </c>
-      <c r="Z57">
-        <v>2.75</v>
-      </c>
-      <c r="AA57">
-        <v>3.2</v>
-      </c>
-      <c r="AB57">
-        <v>2.62</v>
-      </c>
-      <c r="AC57">
-        <v>1.06</v>
-      </c>
-      <c r="AD57">
-        <v>8</v>
-      </c>
-      <c r="AE57">
-        <v>1.36</v>
-      </c>
-      <c r="AF57">
-        <v>3</v>
-      </c>
-      <c r="AG57">
-        <v>2.25</v>
-      </c>
-      <c r="AH57">
-        <v>1.6</v>
-      </c>
-      <c r="AI57">
-        <v>1.8</v>
-      </c>
-      <c r="AJ57">
-        <v>1.95</v>
-      </c>
-      <c r="AK57">
-        <v>1.35</v>
-      </c>
-      <c r="AL57">
-        <v>1.3</v>
-      </c>
-      <c r="AM57">
-        <v>1.7</v>
-      </c>
-      <c r="AN57">
-        <v>1</v>
-      </c>
-      <c r="AO57">
-        <v>1.5</v>
-      </c>
-      <c r="AP57">
-        <v>2</v>
-      </c>
-      <c r="AQ57">
-        <v>1</v>
-      </c>
-      <c r="AR57">
-        <v>1.29</v>
-      </c>
-      <c r="AS57">
-        <v>0.95</v>
-      </c>
-      <c r="AT57">
-        <v>2.24</v>
-      </c>
-      <c r="AU57">
-        <v>12</v>
-      </c>
-      <c r="AV57">
-        <v>4</v>
-      </c>
-      <c r="AW57">
-        <v>7</v>
-      </c>
-      <c r="AX57">
-        <v>2</v>
-      </c>
-      <c r="AY57">
-        <v>25</v>
-      </c>
-      <c r="AZ57">
-        <v>7</v>
-      </c>
-      <c r="BA57">
-        <v>9</v>
-      </c>
-      <c r="BB57">
-        <v>1</v>
-      </c>
-      <c r="BC57">
-        <v>10</v>
-      </c>
-      <c r="BD57">
-        <v>1.82</v>
-      </c>
-      <c r="BE57">
-        <v>6.4</v>
-      </c>
-      <c r="BF57">
-        <v>2.18</v>
-      </c>
-      <c r="BG57">
-        <v>1.38</v>
-      </c>
-      <c r="BH57">
-        <v>2.7</v>
-      </c>
-      <c r="BI57">
-        <v>1.66</v>
-      </c>
-      <c r="BJ57">
-        <v>2.07</v>
-      </c>
-      <c r="BK57">
-        <v>2.05</v>
-      </c>
-      <c r="BL57">
-        <v>1.67</v>
-      </c>
-      <c r="BM57">
-        <v>2.65</v>
-      </c>
-      <c r="BN57">
-        <v>1.41</v>
-      </c>
-      <c r="BO57">
-        <v>3.45</v>
-      </c>
-      <c r="BP57">
-        <v>1.25</v>
       </c>
     </row>
     <row r="58" spans="1:68">
@@ -12680,7 +12680,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7492205</v>
+        <v>7492199</v>
       </c>
       <c r="C58" t="s">
         <v>68</v>
@@ -12695,190 +12695,190 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O58" t="s">
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="Q58">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="R58">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1.44</v>
+      </c>
+      <c r="U58">
+        <v>2.63</v>
+      </c>
+      <c r="V58">
+        <v>3.25</v>
+      </c>
+      <c r="W58">
+        <v>1.33</v>
+      </c>
+      <c r="X58">
+        <v>9</v>
+      </c>
+      <c r="Y58">
+        <v>1.07</v>
+      </c>
+      <c r="Z58">
+        <v>2.75</v>
+      </c>
+      <c r="AA58">
+        <v>3.2</v>
+      </c>
+      <c r="AB58">
+        <v>2.62</v>
+      </c>
+      <c r="AC58">
+        <v>1.06</v>
+      </c>
+      <c r="AD58">
+        <v>8</v>
+      </c>
+      <c r="AE58">
+        <v>1.36</v>
+      </c>
+      <c r="AF58">
+        <v>3</v>
+      </c>
+      <c r="AG58">
+        <v>2.25</v>
+      </c>
+      <c r="AH58">
+        <v>1.6</v>
+      </c>
+      <c r="AI58">
+        <v>1.8</v>
+      </c>
+      <c r="AJ58">
+        <v>1.95</v>
+      </c>
+      <c r="AK58">
+        <v>1.35</v>
+      </c>
+      <c r="AL58">
+        <v>1.3</v>
+      </c>
+      <c r="AM58">
+        <v>1.7</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>1.5</v>
+      </c>
+      <c r="AP58">
+        <v>2</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1.29</v>
+      </c>
+      <c r="AS58">
+        <v>0.95</v>
+      </c>
+      <c r="AT58">
+        <v>2.24</v>
+      </c>
+      <c r="AU58">
+        <v>12</v>
+      </c>
+      <c r="AV58">
+        <v>4</v>
+      </c>
+      <c r="AW58">
         <v>7</v>
       </c>
-      <c r="T58">
-        <v>1.33</v>
-      </c>
-      <c r="U58">
-        <v>3.25</v>
-      </c>
-      <c r="V58">
-        <v>2.5</v>
-      </c>
-      <c r="W58">
-        <v>1.5</v>
-      </c>
-      <c r="X58">
-        <v>6.5</v>
-      </c>
-      <c r="Y58">
-        <v>1.11</v>
-      </c>
-      <c r="Z58">
-        <v>1.44</v>
-      </c>
-      <c r="AA58">
-        <v>4.5</v>
-      </c>
-      <c r="AB58">
+      <c r="AX58">
+        <v>2</v>
+      </c>
+      <c r="AY58">
+        <v>25</v>
+      </c>
+      <c r="AZ58">
         <v>7</v>
       </c>
-      <c r="AC58">
-        <v>1.04</v>
-      </c>
-      <c r="AD58">
+      <c r="BA58">
+        <v>9</v>
+      </c>
+      <c r="BB58">
+        <v>1</v>
+      </c>
+      <c r="BC58">
         <v>10</v>
       </c>
-      <c r="AE58">
-        <v>1.22</v>
-      </c>
-      <c r="AF58">
-        <v>4.2</v>
-      </c>
-      <c r="AG58">
-        <v>1.73</v>
-      </c>
-      <c r="AH58">
+      <c r="BD58">
+        <v>1.82</v>
+      </c>
+      <c r="BE58">
+        <v>6.4</v>
+      </c>
+      <c r="BF58">
+        <v>2.18</v>
+      </c>
+      <c r="BG58">
+        <v>1.38</v>
+      </c>
+      <c r="BH58">
+        <v>2.7</v>
+      </c>
+      <c r="BI58">
+        <v>1.66</v>
+      </c>
+      <c r="BJ58">
+        <v>2.07</v>
+      </c>
+      <c r="BK58">
         <v>2.05</v>
       </c>
-      <c r="AI58">
-        <v>1.95</v>
-      </c>
-      <c r="AJ58">
-        <v>1.8</v>
-      </c>
-      <c r="AK58">
-        <v>1.1</v>
-      </c>
-      <c r="AL58">
-        <v>1.15</v>
-      </c>
-      <c r="AM58">
-        <v>2.8</v>
-      </c>
-      <c r="AN58">
-        <v>1.5</v>
-      </c>
-      <c r="AO58">
-        <v>0.33</v>
-      </c>
-      <c r="AP58">
-        <v>2</v>
-      </c>
-      <c r="AQ58">
-        <v>0.2</v>
-      </c>
-      <c r="AR58">
-        <v>2.07</v>
-      </c>
-      <c r="AS58">
-        <v>0.92</v>
-      </c>
-      <c r="AT58">
-        <v>2.99</v>
-      </c>
-      <c r="AU58">
-        <v>6</v>
-      </c>
-      <c r="AV58">
-        <v>8</v>
-      </c>
-      <c r="AW58">
-        <v>10</v>
-      </c>
-      <c r="AX58">
-        <v>5</v>
-      </c>
-      <c r="AY58">
-        <v>23</v>
-      </c>
-      <c r="AZ58">
-        <v>19</v>
-      </c>
-      <c r="BA58">
-        <v>6</v>
-      </c>
-      <c r="BB58">
-        <v>3</v>
-      </c>
-      <c r="BC58">
-        <v>9</v>
-      </c>
-      <c r="BD58">
-        <v>1.34</v>
-      </c>
-      <c r="BE58">
-        <v>7</v>
-      </c>
-      <c r="BF58">
-        <v>3.55</v>
-      </c>
-      <c r="BG58">
-        <v>1.28</v>
-      </c>
-      <c r="BH58">
-        <v>3.15</v>
-      </c>
-      <c r="BI58">
-        <v>1.5</v>
-      </c>
-      <c r="BJ58">
-        <v>2.38</v>
-      </c>
-      <c r="BK58">
-        <v>1.88</v>
-      </c>
       <c r="BL58">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="BM58">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="BN58">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="BO58">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="BP58">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -13916,7 +13916,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7492212</v>
+        <v>7492217</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -13925,130 +13925,130 @@
         <v>69</v>
       </c>
       <c r="E64" s="2">
-        <v>45569.875</v>
+        <v>45570.41666666666</v>
       </c>
       <c r="F64">
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O64" t="s">
         <v>136</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="Q64">
+        <v>2.75</v>
+      </c>
+      <c r="R64">
+        <v>2.1</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
+        <v>1.44</v>
+      </c>
+      <c r="U64">
+        <v>2.63</v>
+      </c>
+      <c r="V64">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>1.36</v>
+      </c>
+      <c r="X64">
+        <v>9</v>
+      </c>
+      <c r="Y64">
+        <v>1.07</v>
+      </c>
+      <c r="Z64">
+        <v>2.1</v>
+      </c>
+      <c r="AA64">
+        <v>3.25</v>
+      </c>
+      <c r="AB64">
+        <v>3.7</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>8</v>
+      </c>
+      <c r="AE64">
+        <v>1.29</v>
+      </c>
+      <c r="AF64">
+        <v>3.3</v>
+      </c>
+      <c r="AG64">
+        <v>2.28</v>
+      </c>
+      <c r="AH64">
+        <v>1.63</v>
+      </c>
+      <c r="AI64">
         <v>1.8</v>
       </c>
-      <c r="R64">
-        <v>2.5</v>
-      </c>
-      <c r="S64">
-        <v>8</v>
-      </c>
-      <c r="T64">
+      <c r="AJ64">
+        <v>1.95</v>
+      </c>
+      <c r="AK64">
         <v>1.3</v>
       </c>
-      <c r="U64">
-        <v>3.4</v>
-      </c>
-      <c r="V64">
-        <v>2.5</v>
-      </c>
-      <c r="W64">
-        <v>1.5</v>
-      </c>
-      <c r="X64">
-        <v>6</v>
-      </c>
-      <c r="Y64">
-        <v>1.13</v>
-      </c>
-      <c r="Z64">
-        <v>1.34</v>
-      </c>
-      <c r="AA64">
-        <v>4.95</v>
-      </c>
-      <c r="AB64">
-        <v>7.75</v>
-      </c>
-      <c r="AC64">
-        <v>1.01</v>
-      </c>
-      <c r="AD64">
-        <v>13</v>
-      </c>
-      <c r="AE64">
-        <v>1.17</v>
-      </c>
-      <c r="AF64">
-        <v>4.5</v>
-      </c>
-      <c r="AG64">
-        <v>1.68</v>
-      </c>
-      <c r="AH64">
-        <v>2.07</v>
-      </c>
-      <c r="AI64">
-        <v>2</v>
-      </c>
-      <c r="AJ64">
+      <c r="AL64">
+        <v>1.28</v>
+      </c>
+      <c r="AM64">
         <v>1.75</v>
       </c>
-      <c r="AK64">
-        <v>1.07</v>
-      </c>
-      <c r="AL64">
-        <v>1.12</v>
-      </c>
-      <c r="AM64">
-        <v>3.1</v>
-      </c>
       <c r="AN64">
         <v>2</v>
       </c>
       <c r="AO64">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="AP64">
         <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="AR64">
-        <v>1.21</v>
+        <v>1.02</v>
       </c>
       <c r="AS64">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AT64">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14057,64 +14057,64 @@
         <v>4</v>
       </c>
       <c r="AW64">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY64">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
         <v>5</v>
       </c>
-      <c r="BA64">
-        <v>14</v>
-      </c>
       <c r="BB64">
         <v>0</v>
       </c>
       <c r="BC64">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BD64">
-        <v>1.25</v>
+        <v>1.79</v>
       </c>
       <c r="BE64">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF64">
-        <v>4.3</v>
+        <v>2.23</v>
       </c>
       <c r="BG64">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BH64">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="BI64">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="BJ64">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="BK64">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="BL64">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="BM64">
-        <v>2.23</v>
+        <v>2.33</v>
       </c>
       <c r="BN64">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="BO64">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="BP64">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -14131,7 +14131,7 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45569.875</v>
+        <v>45570.54166666666</v>
       </c>
       <c r="F65">
         <v>7</v>
@@ -14164,7 +14164,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14328,7 +14328,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7492217</v>
+        <v>7492212</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14337,130 +14337,130 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45570.41666666666</v>
+        <v>45570.65625</v>
       </c>
       <c r="F66">
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O66" t="s">
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="Q66">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="R66">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="S66">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T66">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="U66">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="V66">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W66">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X66">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y66">
+        <v>1.13</v>
+      </c>
+      <c r="Z66">
+        <v>1.34</v>
+      </c>
+      <c r="AA66">
+        <v>4.95</v>
+      </c>
+      <c r="AB66">
+        <v>7.75</v>
+      </c>
+      <c r="AC66">
+        <v>1.01</v>
+      </c>
+      <c r="AD66">
+        <v>13</v>
+      </c>
+      <c r="AE66">
+        <v>1.17</v>
+      </c>
+      <c r="AF66">
+        <v>4.5</v>
+      </c>
+      <c r="AG66">
+        <v>1.68</v>
+      </c>
+      <c r="AH66">
+        <v>2.07</v>
+      </c>
+      <c r="AI66">
+        <v>2</v>
+      </c>
+      <c r="AJ66">
+        <v>1.75</v>
+      </c>
+      <c r="AK66">
         <v>1.07</v>
       </c>
-      <c r="Z66">
-        <v>2.1</v>
-      </c>
-      <c r="AA66">
-        <v>3.25</v>
-      </c>
-      <c r="AB66">
-        <v>3.7</v>
-      </c>
-      <c r="AC66">
-        <v>1.05</v>
-      </c>
-      <c r="AD66">
-        <v>8</v>
-      </c>
-      <c r="AE66">
-        <v>1.29</v>
-      </c>
-      <c r="AF66">
-        <v>3.3</v>
-      </c>
-      <c r="AG66">
-        <v>2.28</v>
-      </c>
-      <c r="AH66">
-        <v>1.63</v>
-      </c>
-      <c r="AI66">
-        <v>1.8</v>
-      </c>
-      <c r="AJ66">
-        <v>1.95</v>
-      </c>
-      <c r="AK66">
-        <v>1.3</v>
-      </c>
       <c r="AL66">
-        <v>1.28</v>
+        <v>1.12</v>
       </c>
       <c r="AM66">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="AN66">
         <v>2</v>
       </c>
       <c r="AO66">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="AP66">
         <v>2.25</v>
       </c>
       <c r="AQ66">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR66">
-        <v>1.02</v>
+        <v>1.21</v>
       </c>
       <c r="AS66">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AT66">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14469,64 +14469,64 @@
         <v>4</v>
       </c>
       <c r="AW66">
+        <v>11</v>
+      </c>
+      <c r="AX66">
+        <v>1</v>
+      </c>
+      <c r="AY66">
+        <v>16</v>
+      </c>
+      <c r="AZ66">
         <v>5</v>
       </c>
-      <c r="AX66">
-        <v>5</v>
-      </c>
-      <c r="AY66">
+      <c r="BA66">
         <v>14</v>
       </c>
-      <c r="AZ66">
-        <v>10</v>
-      </c>
-      <c r="BA66">
-        <v>5</v>
-      </c>
       <c r="BB66">
         <v>0</v>
       </c>
       <c r="BC66">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BD66">
+        <v>1.25</v>
+      </c>
+      <c r="BE66">
+        <v>7.5</v>
+      </c>
+      <c r="BF66">
+        <v>4.3</v>
+      </c>
+      <c r="BG66">
+        <v>1.28</v>
+      </c>
+      <c r="BH66">
+        <v>3.25</v>
+      </c>
+      <c r="BI66">
+        <v>1.49</v>
+      </c>
+      <c r="BJ66">
+        <v>2.4</v>
+      </c>
+      <c r="BK66">
         <v>1.79</v>
       </c>
-      <c r="BE66">
-        <v>6.4</v>
-      </c>
-      <c r="BF66">
+      <c r="BL66">
+        <v>1.9</v>
+      </c>
+      <c r="BM66">
         <v>2.23</v>
       </c>
-      <c r="BG66">
-        <v>1.3</v>
-      </c>
-      <c r="BH66">
-        <v>3.15</v>
-      </c>
-      <c r="BI66">
-        <v>1.52</v>
-      </c>
-      <c r="BJ66">
-        <v>2.33</v>
-      </c>
-      <c r="BK66">
-        <v>1.85</v>
-      </c>
-      <c r="BL66">
-        <v>1.83</v>
-      </c>
-      <c r="BM66">
-        <v>2.33</v>
-      </c>
       <c r="BN66">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="BO66">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="BP66">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14534,7 +14534,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7492214</v>
+        <v>7492213</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14543,139 +14543,139 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45570.875</v>
+        <v>45571.3125</v>
       </c>
       <c r="F67">
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67">
         <v>1</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O67" t="s">
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="Q67">
+        <v>1.91</v>
+      </c>
+      <c r="R67">
+        <v>2.38</v>
+      </c>
+      <c r="S67">
+        <v>8</v>
+      </c>
+      <c r="T67">
+        <v>1.36</v>
+      </c>
+      <c r="U67">
+        <v>3</v>
+      </c>
+      <c r="V67">
+        <v>2.75</v>
+      </c>
+      <c r="W67">
+        <v>1.4</v>
+      </c>
+      <c r="X67">
+        <v>7</v>
+      </c>
+      <c r="Y67">
+        <v>1.1</v>
+      </c>
+      <c r="Z67">
+        <v>1.33</v>
+      </c>
+      <c r="AA67">
+        <v>4.5</v>
+      </c>
+      <c r="AB67">
+        <v>8.5</v>
+      </c>
+      <c r="AC67">
+        <v>1.02</v>
+      </c>
+      <c r="AD67">
+        <v>10</v>
+      </c>
+      <c r="AE67">
+        <v>1.26</v>
+      </c>
+      <c r="AF67">
+        <v>3.24</v>
+      </c>
+      <c r="AG67">
+        <v>1.85</v>
+      </c>
+      <c r="AH67">
+        <v>1.85</v>
+      </c>
+      <c r="AI67">
         <v>2.2</v>
       </c>
-      <c r="R67">
-        <v>2.2</v>
-      </c>
-      <c r="S67">
+      <c r="AJ67">
+        <v>1.62</v>
+      </c>
+      <c r="AK67">
+        <v>1.07</v>
+      </c>
+      <c r="AL67">
+        <v>1.15</v>
+      </c>
+      <c r="AM67">
+        <v>2.88</v>
+      </c>
+      <c r="AN67">
+        <v>1.67</v>
+      </c>
+      <c r="AO67">
+        <v>1.5</v>
+      </c>
+      <c r="AP67">
+        <v>1.5</v>
+      </c>
+      <c r="AQ67">
+        <v>1.33</v>
+      </c>
+      <c r="AR67">
+        <v>1.09</v>
+      </c>
+      <c r="AS67">
+        <v>1.3</v>
+      </c>
+      <c r="AT67">
+        <v>2.39</v>
+      </c>
+      <c r="AU67">
+        <v>7</v>
+      </c>
+      <c r="AV67">
+        <v>3</v>
+      </c>
+      <c r="AW67">
         <v>6</v>
-      </c>
-      <c r="T67">
-        <v>1.4</v>
-      </c>
-      <c r="U67">
-        <v>2.75</v>
-      </c>
-      <c r="V67">
-        <v>3</v>
-      </c>
-      <c r="W67">
-        <v>1.36</v>
-      </c>
-      <c r="X67">
-        <v>8</v>
-      </c>
-      <c r="Y67">
-        <v>1.08</v>
-      </c>
-      <c r="Z67">
-        <v>1.5</v>
-      </c>
-      <c r="AA67">
-        <v>4</v>
-      </c>
-      <c r="AB67">
-        <v>6.5</v>
-      </c>
-      <c r="AC67">
-        <v>1.01</v>
-      </c>
-      <c r="AD67">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE67">
-        <v>1.33</v>
-      </c>
-      <c r="AF67">
-        <v>3.48</v>
-      </c>
-      <c r="AG67">
-        <v>1.95</v>
-      </c>
-      <c r="AH67">
-        <v>1.75</v>
-      </c>
-      <c r="AI67">
-        <v>2</v>
-      </c>
-      <c r="AJ67">
-        <v>1.75</v>
-      </c>
-      <c r="AK67">
-        <v>1.12</v>
-      </c>
-      <c r="AL67">
-        <v>1.2</v>
-      </c>
-      <c r="AM67">
-        <v>2.4</v>
-      </c>
-      <c r="AN67">
-        <v>2.33</v>
-      </c>
-      <c r="AO67">
-        <v>2.33</v>
-      </c>
-      <c r="AP67">
-        <v>2.5</v>
-      </c>
-      <c r="AQ67">
-        <v>1.75</v>
-      </c>
-      <c r="AR67">
-        <v>1.44</v>
-      </c>
-      <c r="AS67">
-        <v>0.98</v>
-      </c>
-      <c r="AT67">
-        <v>2.42</v>
-      </c>
-      <c r="AU67">
-        <v>6</v>
-      </c>
-      <c r="AV67">
-        <v>2</v>
-      </c>
-      <c r="AW67">
-        <v>7</v>
       </c>
       <c r="AX67">
         <v>3</v>
@@ -14684,55 +14684,55 @@
         <v>13</v>
       </c>
       <c r="AZ67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA67">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB67">
         <v>3</v>
       </c>
       <c r="BC67">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD67">
+        <v>1.28</v>
+      </c>
+      <c r="BE67">
+        <v>10.5</v>
+      </c>
+      <c r="BF67">
+        <v>4.75</v>
+      </c>
+      <c r="BG67">
+        <v>1.18</v>
+      </c>
+      <c r="BH67">
+        <v>3.72</v>
+      </c>
+      <c r="BI67">
+        <v>1.4</v>
+      </c>
+      <c r="BJ67">
+        <v>2.68</v>
+      </c>
+      <c r="BK67">
+        <v>1.74</v>
+      </c>
+      <c r="BL67">
+        <v>2.05</v>
+      </c>
+      <c r="BM67">
+        <v>2.19</v>
+      </c>
+      <c r="BN67">
+        <v>1.64</v>
+      </c>
+      <c r="BO67">
+        <v>2.73</v>
+      </c>
+      <c r="BP67">
         <v>1.33</v>
-      </c>
-      <c r="BE67">
-        <v>10.25</v>
-      </c>
-      <c r="BF67">
-        <v>4.2</v>
-      </c>
-      <c r="BG67">
-        <v>1.15</v>
-      </c>
-      <c r="BH67">
-        <v>4</v>
-      </c>
-      <c r="BI67">
-        <v>1.33</v>
-      </c>
-      <c r="BJ67">
-        <v>2.73</v>
-      </c>
-      <c r="BK67">
-        <v>1.63</v>
-      </c>
-      <c r="BL67">
-        <v>2.11</v>
-      </c>
-      <c r="BM67">
-        <v>2.09</v>
-      </c>
-      <c r="BN67">
-        <v>1.71</v>
-      </c>
-      <c r="BO67">
-        <v>2.68</v>
-      </c>
-      <c r="BP67">
-        <v>1.4</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14740,7 +14740,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7492215</v>
+        <v>7492214</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14749,196 +14749,196 @@
         <v>69</v>
       </c>
       <c r="E68" s="2">
-        <v>45570.875</v>
+        <v>45571.41666666666</v>
       </c>
       <c r="F68">
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68">
         <v>1</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O68" t="s">
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q68">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="R68">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S68">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="T68">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U68">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V68">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W68">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y68">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z68">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="AA68">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AB68">
-        <v>1.9</v>
+        <v>6.5</v>
       </c>
       <c r="AC68">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD68">
-        <v>7.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE68">
         <v>1.33</v>
       </c>
       <c r="AF68">
-        <v>2.86</v>
+        <v>3.48</v>
       </c>
       <c r="AG68">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="AH68">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AI68">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ68">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK68">
-        <v>1.84</v>
+        <v>1.12</v>
       </c>
       <c r="AL68">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AM68">
-        <v>1.27</v>
+        <v>2.4</v>
       </c>
       <c r="AN68">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AR68">
-        <v>0.9399999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="AS68">
-        <v>1.31</v>
+        <v>0.98</v>
       </c>
       <c r="AT68">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="AU68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV68">
+        <v>2</v>
+      </c>
+      <c r="AW68">
+        <v>7</v>
+      </c>
+      <c r="AX68">
+        <v>3</v>
+      </c>
+      <c r="AY68">
+        <v>13</v>
+      </c>
+      <c r="AZ68">
         <v>5</v>
       </c>
-      <c r="AW68">
-        <v>0</v>
-      </c>
-      <c r="AX68">
-        <v>7</v>
-      </c>
-      <c r="AY68">
-        <v>3</v>
-      </c>
-      <c r="AZ68">
-        <v>12</v>
-      </c>
       <c r="BA68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB68">
         <v>3</v>
       </c>
       <c r="BC68">
+        <v>8</v>
+      </c>
+      <c r="BD68">
+        <v>1.33</v>
+      </c>
+      <c r="BE68">
+        <v>10.25</v>
+      </c>
+      <c r="BF68">
+        <v>4.2</v>
+      </c>
+      <c r="BG68">
+        <v>1.15</v>
+      </c>
+      <c r="BH68">
         <v>4</v>
       </c>
-      <c r="BD68">
-        <v>2.52</v>
-      </c>
-      <c r="BE68">
-        <v>8.4</v>
-      </c>
-      <c r="BF68">
-        <v>1.75</v>
-      </c>
-      <c r="BG68">
-        <v>1.44</v>
-      </c>
-      <c r="BH68">
-        <v>2.55</v>
-      </c>
       <c r="BI68">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="BJ68">
-        <v>1.96</v>
+        <v>2.73</v>
       </c>
       <c r="BK68">
-        <v>2.18</v>
+        <v>1.63</v>
       </c>
       <c r="BL68">
-        <v>1.58</v>
+        <v>2.11</v>
       </c>
       <c r="BM68">
-        <v>2.85</v>
+        <v>2.09</v>
       </c>
       <c r="BN68">
-        <v>1.36</v>
+        <v>1.71</v>
       </c>
       <c r="BO68">
-        <v>3.8</v>
+        <v>2.68</v>
       </c>
       <c r="BP68">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -14946,7 +14946,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7492210</v>
+        <v>7492209</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14955,196 +14955,196 @@
         <v>69</v>
       </c>
       <c r="E69" s="2">
-        <v>45570.875</v>
+        <v>45571.41666666666</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="Q69">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="R69">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S69">
+        <v>4.5</v>
+      </c>
+      <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
         <v>2.75</v>
       </c>
-      <c r="T69">
-        <v>1.33</v>
-      </c>
-      <c r="U69">
-        <v>3.25</v>
-      </c>
-      <c r="V69">
-        <v>2.63</v>
-      </c>
       <c r="W69">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X69">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y69">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z69">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AA69">
         <v>3.7</v>
       </c>
       <c r="AB69">
-        <v>2.18</v>
+        <v>4.33</v>
       </c>
       <c r="AC69">
         <v>1.04</v>
       </c>
       <c r="AD69">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="AE69">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AF69">
-        <v>4.2</v>
+        <v>3.92</v>
       </c>
       <c r="AG69">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AH69">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="AI69">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="AJ69">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK69">
+        <v>1.22</v>
+      </c>
+      <c r="AL69">
+        <v>1.22</v>
+      </c>
+      <c r="AM69">
+        <v>2.05</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
+        <v>0.5</v>
+      </c>
+      <c r="AP69">
+        <v>1</v>
+      </c>
+      <c r="AQ69">
+        <v>0.67</v>
+      </c>
+      <c r="AR69">
+        <v>1.35</v>
+      </c>
+      <c r="AS69">
         <v>1.63</v>
       </c>
-      <c r="AL69">
-        <v>1.26</v>
-      </c>
-      <c r="AM69">
-        <v>1.38</v>
-      </c>
-      <c r="AN69">
-        <v>1.67</v>
-      </c>
-      <c r="AO69">
-        <v>1.33</v>
-      </c>
-      <c r="AP69">
-        <v>2</v>
-      </c>
-      <c r="AQ69">
-        <v>1</v>
-      </c>
-      <c r="AR69">
-        <v>1.68</v>
-      </c>
-      <c r="AS69">
-        <v>1.53</v>
-      </c>
       <c r="AT69">
-        <v>3.21</v>
+        <v>2.98</v>
       </c>
       <c r="AU69">
         <v>5</v>
       </c>
       <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69">
         <v>8</v>
       </c>
-      <c r="AW69">
+      <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
+        <v>13</v>
+      </c>
+      <c r="AZ69">
+        <v>10</v>
+      </c>
+      <c r="BA69">
+        <v>13</v>
+      </c>
+      <c r="BB69">
         <v>6</v>
       </c>
-      <c r="AX69">
-        <v>6</v>
-      </c>
-      <c r="AY69">
-        <v>11</v>
-      </c>
-      <c r="AZ69">
-        <v>14</v>
-      </c>
-      <c r="BA69">
-        <v>0</v>
-      </c>
-      <c r="BB69">
-        <v>7</v>
-      </c>
       <c r="BC69">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="BD69">
-        <v>2.15</v>
+        <v>1.56</v>
       </c>
       <c r="BE69">
-        <v>6.45</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF69">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="BG69">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BH69">
-        <v>3.08</v>
+        <v>3.14</v>
       </c>
       <c r="BI69">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="BJ69">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="BK69">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="BL69">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="BM69">
-        <v>2.51</v>
+        <v>2.49</v>
       </c>
       <c r="BN69">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="BO69">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="BP69">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15152,7 +15152,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7492209</v>
+        <v>7492215</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15161,16 +15161,16 @@
         <v>69</v>
       </c>
       <c r="E70" s="2">
-        <v>45570.875</v>
+        <v>45571.54166666666</v>
       </c>
       <c r="F70">
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -15182,175 +15182,175 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O70" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="Q70">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="R70">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S70">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="T70">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U70">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V70">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W70">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X70">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y70">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z70">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="AA70">
         <v>3.7</v>
       </c>
       <c r="AB70">
-        <v>4.33</v>
+        <v>1.9</v>
       </c>
       <c r="AC70">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD70">
-        <v>13.3</v>
+        <v>7.1</v>
       </c>
       <c r="AE70">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AF70">
-        <v>3.92</v>
+        <v>2.86</v>
       </c>
       <c r="AG70">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="AH70">
+        <v>1.72</v>
+      </c>
+      <c r="AI70">
         <v>1.95</v>
       </c>
-      <c r="AI70">
-        <v>1.75</v>
-      </c>
       <c r="AJ70">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK70">
-        <v>1.22</v>
+        <v>1.84</v>
       </c>
       <c r="AL70">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AM70">
-        <v>2.05</v>
+        <v>1.27</v>
       </c>
       <c r="AN70">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO70">
+        <v>1</v>
+      </c>
+      <c r="AP70">
         <v>0.5</v>
       </c>
-      <c r="AP70">
-        <v>1</v>
-      </c>
       <c r="AQ70">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR70">
-        <v>1.35</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS70">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="AT70">
-        <v>2.98</v>
+        <v>2.25</v>
       </c>
       <c r="AU70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV70">
         <v>5</v>
       </c>
       <c r="AW70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AX70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY70">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AZ70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA70">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="BB70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC70">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="BD70">
-        <v>1.56</v>
+        <v>2.52</v>
       </c>
       <c r="BE70">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="BF70">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="BG70">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="BH70">
-        <v>3.14</v>
+        <v>2.55</v>
       </c>
       <c r="BI70">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="BJ70">
-        <v>2.33</v>
+        <v>1.96</v>
       </c>
       <c r="BK70">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="BL70">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="BM70">
-        <v>2.49</v>
+        <v>2.85</v>
       </c>
       <c r="BN70">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="BO70">
-        <v>3.22</v>
+        <v>3.8</v>
       </c>
       <c r="BP70">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15358,7 +15358,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7492213</v>
+        <v>7492210</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15367,16 +15367,16 @@
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>45570.875</v>
+        <v>45571.65625</v>
       </c>
       <c r="F71">
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H71" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -15388,175 +15388,175 @@
         <v>1</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71">
         <v>1</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O71" t="s">
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="Q71">
-        <v>1.91</v>
+        <v>3.5</v>
       </c>
       <c r="R71">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S71">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="T71">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U71">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V71">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W71">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X71">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y71">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z71">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AA71">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB71">
-        <v>8.5</v>
+        <v>2.18</v>
       </c>
       <c r="AC71">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD71">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE71">
+        <v>1.24</v>
+      </c>
+      <c r="AF71">
+        <v>4.2</v>
+      </c>
+      <c r="AG71">
+        <v>1.71</v>
+      </c>
+      <c r="AH71">
+        <v>2.14</v>
+      </c>
+      <c r="AI71">
+        <v>1.62</v>
+      </c>
+      <c r="AJ71">
+        <v>2.2</v>
+      </c>
+      <c r="AK71">
+        <v>1.63</v>
+      </c>
+      <c r="AL71">
         <v>1.26</v>
       </c>
-      <c r="AF71">
-        <v>3.24</v>
-      </c>
-      <c r="AG71">
-        <v>1.85</v>
-      </c>
-      <c r="AH71">
-        <v>1.85</v>
-      </c>
-      <c r="AI71">
-        <v>2.2</v>
-      </c>
-      <c r="AJ71">
-        <v>1.62</v>
-      </c>
-      <c r="AK71">
-        <v>1.07</v>
-      </c>
-      <c r="AL71">
-        <v>1.15</v>
-      </c>
       <c r="AM71">
-        <v>2.88</v>
+        <v>1.38</v>
       </c>
       <c r="AN71">
         <v>1.67</v>
       </c>
       <c r="AO71">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR71">
-        <v>1.09</v>
+        <v>1.68</v>
       </c>
       <c r="AS71">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="AT71">
-        <v>2.39</v>
+        <v>3.21</v>
       </c>
       <c r="AU71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV71">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW71">
         <v>6</v>
       </c>
       <c r="AX71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY71">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ71">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA71">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BB71">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC71">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD71">
-        <v>1.28</v>
+        <v>2.15</v>
       </c>
       <c r="BE71">
-        <v>10.5</v>
+        <v>6.45</v>
       </c>
       <c r="BF71">
-        <v>4.75</v>
+        <v>2.14</v>
       </c>
       <c r="BG71">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="BH71">
-        <v>3.72</v>
+        <v>3.08</v>
       </c>
       <c r="BI71">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="BJ71">
-        <v>2.68</v>
+        <v>2.31</v>
       </c>
       <c r="BK71">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="BL71">
-        <v>2.05</v>
+        <v>1.81</v>
       </c>
       <c r="BM71">
-        <v>2.19</v>
+        <v>2.51</v>
       </c>
       <c r="BN71">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="BO71">
-        <v>2.73</v>
+        <v>3.28</v>
       </c>
       <c r="BP71">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,21 @@
     <t>['35', '73']</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['73', '85']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['38', '74', '78']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -566,6 +581,24 @@
   </si>
   <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['37', '56']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['7', '47']</t>
+  </si>
+  <si>
+    <t>['20', '34', '45', '54', '61', '72']</t>
+  </si>
+  <si>
+    <t>['41', '55']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1392,7 +1425,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1470,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ3">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1598,7 +1631,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1676,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1882,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ5">
         <v>0.67</v>
@@ -2010,7 +2043,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2091,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2297,7 +2330,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2422,7 +2455,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2706,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2834,7 +2867,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -2912,10 +2945,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3118,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11">
         <v>0.8</v>
@@ -3246,7 +3279,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3327,7 +3360,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3452,7 +3485,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3864,7 +3897,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4357,7 +4390,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4482,7 +4515,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4560,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>1.75</v>
@@ -4769,7 +4802,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4894,7 +4927,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -4972,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5100,7 +5133,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5306,7 +5339,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5384,10 +5417,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5593,7 +5626,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>1.3</v>
@@ -5718,7 +5751,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6002,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>1.33</v>
@@ -6130,7 +6163,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6211,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -6336,7 +6369,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6542,7 +6575,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6748,7 +6781,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6826,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7238,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7366,7 +7399,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7444,10 +7477,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -7650,7 +7683,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ33">
         <v>2.33</v>
@@ -7856,7 +7889,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34">
         <v>0.2</v>
@@ -7984,7 +8017,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8062,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8190,7 +8223,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -8271,7 +8304,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8602,7 +8635,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8680,10 +8713,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -8808,7 +8841,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -8889,7 +8922,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.18</v>
@@ -9014,7 +9047,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9095,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9220,7 +9253,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9426,7 +9459,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9504,7 +9537,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>1.75</v>
@@ -9632,7 +9665,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9713,7 +9746,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR43">
         <v>0.93</v>
@@ -9916,7 +9949,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10122,10 +10155,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR45">
         <v>1.23</v>
@@ -10250,7 +10283,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10328,10 +10361,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ46">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR46">
         <v>1.54</v>
@@ -10456,7 +10489,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10537,7 +10570,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR47">
         <v>1.69</v>
@@ -10662,7 +10695,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10743,7 +10776,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ48">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR48">
         <v>0.9399999999999999</v>
@@ -10946,10 +10979,10 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>2.26</v>
@@ -11074,7 +11107,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11280,7 +11313,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11564,7 +11597,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ52">
         <v>0.25</v>
@@ -11692,7 +11725,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11773,7 +11806,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR53">
         <v>1.05</v>
@@ -11898,7 +11931,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -11976,7 +12009,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ54">
         <v>2.33</v>
@@ -12104,7 +12137,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12185,7 +12218,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12310,7 +12343,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12391,7 +12424,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR56">
         <v>1.02</v>
@@ -12594,7 +12627,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>0.2</v>
@@ -12722,7 +12755,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12800,7 +12833,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13006,10 +13039,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ59">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>0.91</v>
@@ -13340,7 +13373,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14164,7 +14197,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14370,7 +14403,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14451,7 +14484,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ66">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR66">
         <v>1.21</v>
@@ -14576,7 +14609,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14654,7 +14687,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ67">
         <v>1.33</v>
@@ -14782,7 +14815,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -15069,7 +15102,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15194,7 +15227,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15400,7 +15433,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15557,6 +15590,1860 @@
       </c>
       <c r="BP71">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7492219</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45584.41666666666</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>143</v>
+      </c>
+      <c r="P72" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q72">
+        <v>2.5</v>
+      </c>
+      <c r="R72">
+        <v>2.38</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>1.3</v>
+      </c>
+      <c r="U72">
+        <v>3.4</v>
+      </c>
+      <c r="V72">
+        <v>2.5</v>
+      </c>
+      <c r="W72">
+        <v>1.5</v>
+      </c>
+      <c r="X72">
+        <v>6</v>
+      </c>
+      <c r="Y72">
+        <v>1.13</v>
+      </c>
+      <c r="Z72">
+        <v>2.05</v>
+      </c>
+      <c r="AA72">
+        <v>3.31</v>
+      </c>
+      <c r="AB72">
+        <v>3.21</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>1.85</v>
+      </c>
+      <c r="AH72">
+        <v>1.85</v>
+      </c>
+      <c r="AI72">
+        <v>1.57</v>
+      </c>
+      <c r="AJ72">
+        <v>2.25</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <v>0.67</v>
+      </c>
+      <c r="AP72">
+        <v>1.67</v>
+      </c>
+      <c r="AQ72">
+        <v>0.75</v>
+      </c>
+      <c r="AR72">
+        <v>1.87</v>
+      </c>
+      <c r="AS72">
+        <v>1.49</v>
+      </c>
+      <c r="AT72">
+        <v>3.36</v>
+      </c>
+      <c r="AU72">
+        <v>4</v>
+      </c>
+      <c r="AV72">
+        <v>4</v>
+      </c>
+      <c r="AW72">
+        <v>4</v>
+      </c>
+      <c r="AX72">
+        <v>6</v>
+      </c>
+      <c r="AY72">
+        <v>12</v>
+      </c>
+      <c r="AZ72">
+        <v>10</v>
+      </c>
+      <c r="BA72">
+        <v>7</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>11</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>0</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7492221</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45584.41666666666</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>4</v>
+      </c>
+      <c r="O73" t="s">
+        <v>144</v>
+      </c>
+      <c r="P73" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q73">
+        <v>3.75</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>3.1</v>
+      </c>
+      <c r="T73">
+        <v>1.5</v>
+      </c>
+      <c r="U73">
+        <v>2.5</v>
+      </c>
+      <c r="V73">
+        <v>3.4</v>
+      </c>
+      <c r="W73">
+        <v>1.3</v>
+      </c>
+      <c r="X73">
+        <v>10</v>
+      </c>
+      <c r="Y73">
+        <v>1.06</v>
+      </c>
+      <c r="Z73">
+        <v>2.76</v>
+      </c>
+      <c r="AA73">
+        <v>3.03</v>
+      </c>
+      <c r="AB73">
+        <v>2.44</v>
+      </c>
+      <c r="AC73">
+        <v>1.09</v>
+      </c>
+      <c r="AD73">
+        <v>8</v>
+      </c>
+      <c r="AE73">
+        <v>1.44</v>
+      </c>
+      <c r="AF73">
+        <v>2.8</v>
+      </c>
+      <c r="AG73">
+        <v>1.85</v>
+      </c>
+      <c r="AH73">
+        <v>1.85</v>
+      </c>
+      <c r="AI73">
+        <v>1.95</v>
+      </c>
+      <c r="AJ73">
+        <v>1.8</v>
+      </c>
+      <c r="AK73">
+        <v>1.55</v>
+      </c>
+      <c r="AL73">
+        <v>1.32</v>
+      </c>
+      <c r="AM73">
+        <v>1.4</v>
+      </c>
+      <c r="AN73">
+        <v>0.5</v>
+      </c>
+      <c r="AO73">
+        <v>1.33</v>
+      </c>
+      <c r="AP73">
+        <v>0.6</v>
+      </c>
+      <c r="AQ73">
+        <v>1.25</v>
+      </c>
+      <c r="AR73">
+        <v>1.29</v>
+      </c>
+      <c r="AS73">
+        <v>1.31</v>
+      </c>
+      <c r="AT73">
+        <v>2.6</v>
+      </c>
+      <c r="AU73">
+        <v>5</v>
+      </c>
+      <c r="AV73">
+        <v>9</v>
+      </c>
+      <c r="AW73">
+        <v>2</v>
+      </c>
+      <c r="AX73">
+        <v>1</v>
+      </c>
+      <c r="AY73">
+        <v>12</v>
+      </c>
+      <c r="AZ73">
+        <v>14</v>
+      </c>
+      <c r="BA73">
+        <v>1</v>
+      </c>
+      <c r="BB73">
+        <v>7</v>
+      </c>
+      <c r="BC73">
+        <v>8</v>
+      </c>
+      <c r="BD73">
+        <v>2.07</v>
+      </c>
+      <c r="BE73">
+        <v>6.4</v>
+      </c>
+      <c r="BF73">
+        <v>1.92</v>
+      </c>
+      <c r="BG73">
+        <v>1.34</v>
+      </c>
+      <c r="BH73">
+        <v>2.9</v>
+      </c>
+      <c r="BI73">
+        <v>1.57</v>
+      </c>
+      <c r="BJ73">
+        <v>2.2</v>
+      </c>
+      <c r="BK73">
+        <v>1.95</v>
+      </c>
+      <c r="BL73">
+        <v>1.75</v>
+      </c>
+      <c r="BM73">
+        <v>2.48</v>
+      </c>
+      <c r="BN73">
+        <v>1.47</v>
+      </c>
+      <c r="BO73">
+        <v>3.2</v>
+      </c>
+      <c r="BP73">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7492225</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45584.54166666666</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s">
+        <v>80</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>145</v>
+      </c>
+      <c r="P74" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q74">
+        <v>1.83</v>
+      </c>
+      <c r="R74">
+        <v>2.6</v>
+      </c>
+      <c r="S74">
+        <v>6.5</v>
+      </c>
+      <c r="T74">
+        <v>1.29</v>
+      </c>
+      <c r="U74">
+        <v>3.5</v>
+      </c>
+      <c r="V74">
+        <v>2.25</v>
+      </c>
+      <c r="W74">
+        <v>1.57</v>
+      </c>
+      <c r="X74">
+        <v>5.5</v>
+      </c>
+      <c r="Y74">
+        <v>1.14</v>
+      </c>
+      <c r="Z74">
+        <v>1.36</v>
+      </c>
+      <c r="AA74">
+        <v>4.47</v>
+      </c>
+      <c r="AB74">
+        <v>6.8</v>
+      </c>
+      <c r="AC74">
+        <v>1.02</v>
+      </c>
+      <c r="AD74">
+        <v>17.5</v>
+      </c>
+      <c r="AE74">
+        <v>1.15</v>
+      </c>
+      <c r="AF74">
+        <v>4.35</v>
+      </c>
+      <c r="AG74">
+        <v>1.7</v>
+      </c>
+      <c r="AH74">
+        <v>2.05</v>
+      </c>
+      <c r="AI74">
+        <v>1.8</v>
+      </c>
+      <c r="AJ74">
+        <v>1.95</v>
+      </c>
+      <c r="AK74">
+        <v>1.07</v>
+      </c>
+      <c r="AL74">
+        <v>1.13</v>
+      </c>
+      <c r="AM74">
+        <v>3.1</v>
+      </c>
+      <c r="AN74">
+        <v>2.33</v>
+      </c>
+      <c r="AO74">
+        <v>1.33</v>
+      </c>
+      <c r="AP74">
+        <v>2.5</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>1.89</v>
+      </c>
+      <c r="AS74">
+        <v>1.1</v>
+      </c>
+      <c r="AT74">
+        <v>2.99</v>
+      </c>
+      <c r="AU74">
+        <v>6</v>
+      </c>
+      <c r="AV74">
+        <v>4</v>
+      </c>
+      <c r="AW74">
+        <v>2</v>
+      </c>
+      <c r="AX74">
+        <v>11</v>
+      </c>
+      <c r="AY74">
+        <v>12</v>
+      </c>
+      <c r="AZ74">
+        <v>17</v>
+      </c>
+      <c r="BA74">
+        <v>8</v>
+      </c>
+      <c r="BB74">
+        <v>4</v>
+      </c>
+      <c r="BC74">
+        <v>12</v>
+      </c>
+      <c r="BD74">
+        <v>1.24</v>
+      </c>
+      <c r="BE74">
+        <v>8</v>
+      </c>
+      <c r="BF74">
+        <v>4.4</v>
+      </c>
+      <c r="BG74">
+        <v>1.25</v>
+      </c>
+      <c r="BH74">
+        <v>3.45</v>
+      </c>
+      <c r="BI74">
+        <v>1.44</v>
+      </c>
+      <c r="BJ74">
+        <v>2.55</v>
+      </c>
+      <c r="BK74">
+        <v>1.72</v>
+      </c>
+      <c r="BL74">
+        <v>1.98</v>
+      </c>
+      <c r="BM74">
+        <v>2.14</v>
+      </c>
+      <c r="BN74">
+        <v>1.62</v>
+      </c>
+      <c r="BO74">
+        <v>2.7</v>
+      </c>
+      <c r="BP74">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7492223</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45584.65625</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s">
+        <v>76</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>146</v>
+      </c>
+      <c r="P75" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q75">
+        <v>2.75</v>
+      </c>
+      <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>4.5</v>
+      </c>
+      <c r="T75">
+        <v>1.44</v>
+      </c>
+      <c r="U75">
+        <v>2.63</v>
+      </c>
+      <c r="V75">
+        <v>3.4</v>
+      </c>
+      <c r="W75">
+        <v>1.3</v>
+      </c>
+      <c r="X75">
+        <v>10</v>
+      </c>
+      <c r="Y75">
+        <v>1.06</v>
+      </c>
+      <c r="Z75">
+        <v>1.73</v>
+      </c>
+      <c r="AA75">
+        <v>3.75</v>
+      </c>
+      <c r="AB75">
+        <v>4.6</v>
+      </c>
+      <c r="AC75">
+        <v>1.02</v>
+      </c>
+      <c r="AD75">
+        <v>7.1</v>
+      </c>
+      <c r="AE75">
+        <v>1.36</v>
+      </c>
+      <c r="AF75">
+        <v>2.73</v>
+      </c>
+      <c r="AG75">
+        <v>1.85</v>
+      </c>
+      <c r="AH75">
+        <v>1.85</v>
+      </c>
+      <c r="AI75">
+        <v>1.95</v>
+      </c>
+      <c r="AJ75">
+        <v>1.8</v>
+      </c>
+      <c r="AK75">
+        <v>1.26</v>
+      </c>
+      <c r="AL75">
+        <v>1.3</v>
+      </c>
+      <c r="AM75">
+        <v>1.83</v>
+      </c>
+      <c r="AN75">
+        <v>1.5</v>
+      </c>
+      <c r="AO75">
+        <v>1</v>
+      </c>
+      <c r="AP75">
+        <v>1.8</v>
+      </c>
+      <c r="AQ75">
+        <v>0.75</v>
+      </c>
+      <c r="AR75">
+        <v>1.09</v>
+      </c>
+      <c r="AS75">
+        <v>1.78</v>
+      </c>
+      <c r="AT75">
+        <v>2.87</v>
+      </c>
+      <c r="AU75">
+        <v>4</v>
+      </c>
+      <c r="AV75">
+        <v>2</v>
+      </c>
+      <c r="AW75">
+        <v>10</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>17</v>
+      </c>
+      <c r="AZ75">
+        <v>3</v>
+      </c>
+      <c r="BA75">
+        <v>7</v>
+      </c>
+      <c r="BB75">
+        <v>1</v>
+      </c>
+      <c r="BC75">
+        <v>8</v>
+      </c>
+      <c r="BD75">
+        <v>1.63</v>
+      </c>
+      <c r="BE75">
+        <v>6.5</v>
+      </c>
+      <c r="BF75">
+        <v>2.55</v>
+      </c>
+      <c r="BG75">
+        <v>1.35</v>
+      </c>
+      <c r="BH75">
+        <v>2.88</v>
+      </c>
+      <c r="BI75">
+        <v>1.62</v>
+      </c>
+      <c r="BJ75">
+        <v>2.14</v>
+      </c>
+      <c r="BK75">
+        <v>2</v>
+      </c>
+      <c r="BL75">
+        <v>1.71</v>
+      </c>
+      <c r="BM75">
+        <v>2.55</v>
+      </c>
+      <c r="BN75">
+        <v>1.44</v>
+      </c>
+      <c r="BO75">
+        <v>3.4</v>
+      </c>
+      <c r="BP75">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7492220</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45585.3125</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s">
+        <v>86</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>93</v>
+      </c>
+      <c r="P76" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q76">
+        <v>5.5</v>
+      </c>
+      <c r="R76">
+        <v>2.2</v>
+      </c>
+      <c r="S76">
+        <v>2.3</v>
+      </c>
+      <c r="T76">
+        <v>1.44</v>
+      </c>
+      <c r="U76">
+        <v>2.63</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>1.36</v>
+      </c>
+      <c r="X76">
+        <v>9</v>
+      </c>
+      <c r="Y76">
+        <v>1.07</v>
+      </c>
+      <c r="Z76">
+        <v>5.05</v>
+      </c>
+      <c r="AA76">
+        <v>3.54</v>
+      </c>
+      <c r="AB76">
+        <v>1.74</v>
+      </c>
+      <c r="AC76">
+        <v>1.06</v>
+      </c>
+      <c r="AD76">
+        <v>10</v>
+      </c>
+      <c r="AE76">
+        <v>1.33</v>
+      </c>
+      <c r="AF76">
+        <v>3.4</v>
+      </c>
+      <c r="AG76">
+        <v>1.9</v>
+      </c>
+      <c r="AH76">
+        <v>1.9</v>
+      </c>
+      <c r="AI76">
+        <v>2</v>
+      </c>
+      <c r="AJ76">
+        <v>1.75</v>
+      </c>
+      <c r="AK76">
+        <v>2.25</v>
+      </c>
+      <c r="AL76">
+        <v>1.22</v>
+      </c>
+      <c r="AM76">
+        <v>1.16</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>1.33</v>
+      </c>
+      <c r="AP76">
+        <v>0.75</v>
+      </c>
+      <c r="AQ76">
+        <v>1.75</v>
+      </c>
+      <c r="AR76">
+        <v>0.85</v>
+      </c>
+      <c r="AS76">
+        <v>1.19</v>
+      </c>
+      <c r="AT76">
+        <v>2.04</v>
+      </c>
+      <c r="AU76">
+        <v>5</v>
+      </c>
+      <c r="AV76">
+        <v>2</v>
+      </c>
+      <c r="AW76">
+        <v>2</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>12</v>
+      </c>
+      <c r="AZ76">
+        <v>10</v>
+      </c>
+      <c r="BA76">
+        <v>7</v>
+      </c>
+      <c r="BB76">
+        <v>7</v>
+      </c>
+      <c r="BC76">
+        <v>14</v>
+      </c>
+      <c r="BD76">
+        <v>3.54</v>
+      </c>
+      <c r="BE76">
+        <v>9.5</v>
+      </c>
+      <c r="BF76">
+        <v>1.43</v>
+      </c>
+      <c r="BG76">
+        <v>1.23</v>
+      </c>
+      <c r="BH76">
+        <v>3.28</v>
+      </c>
+      <c r="BI76">
+        <v>1.48</v>
+      </c>
+      <c r="BJ76">
+        <v>2.43</v>
+      </c>
+      <c r="BK76">
+        <v>1.85</v>
+      </c>
+      <c r="BL76">
+        <v>1.85</v>
+      </c>
+      <c r="BM76">
+        <v>2.38</v>
+      </c>
+      <c r="BN76">
+        <v>1.5</v>
+      </c>
+      <c r="BO76">
+        <v>3.08</v>
+      </c>
+      <c r="BP76">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7492227</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45585.41666666666</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>87</v>
+      </c>
+      <c r="H77" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>93</v>
+      </c>
+      <c r="P77" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q77">
+        <v>5</v>
+      </c>
+      <c r="R77">
+        <v>2.3</v>
+      </c>
+      <c r="S77">
+        <v>2.2</v>
+      </c>
+      <c r="T77">
+        <v>1.33</v>
+      </c>
+      <c r="U77">
+        <v>3.25</v>
+      </c>
+      <c r="V77">
+        <v>2.63</v>
+      </c>
+      <c r="W77">
+        <v>1.44</v>
+      </c>
+      <c r="X77">
+        <v>6.5</v>
+      </c>
+      <c r="Y77">
+        <v>1.11</v>
+      </c>
+      <c r="Z77">
+        <v>5.5</v>
+      </c>
+      <c r="AA77">
+        <v>3.82</v>
+      </c>
+      <c r="AB77">
+        <v>1.64</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>13</v>
+      </c>
+      <c r="AE77">
+        <v>1.25</v>
+      </c>
+      <c r="AF77">
+        <v>4</v>
+      </c>
+      <c r="AG77">
+        <v>1.9</v>
+      </c>
+      <c r="AH77">
+        <v>1.9</v>
+      </c>
+      <c r="AI77">
+        <v>1.75</v>
+      </c>
+      <c r="AJ77">
+        <v>2</v>
+      </c>
+      <c r="AK77">
+        <v>2.3</v>
+      </c>
+      <c r="AL77">
+        <v>1.2</v>
+      </c>
+      <c r="AM77">
+        <v>1.17</v>
+      </c>
+      <c r="AN77">
+        <v>1.5</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+      <c r="AP77">
+        <v>1</v>
+      </c>
+      <c r="AQ77">
+        <v>1.4</v>
+      </c>
+      <c r="AR77">
+        <v>1.31</v>
+      </c>
+      <c r="AS77">
+        <v>1.79</v>
+      </c>
+      <c r="AT77">
+        <v>3.1</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>8</v>
+      </c>
+      <c r="AW77">
+        <v>7</v>
+      </c>
+      <c r="AX77">
+        <v>8</v>
+      </c>
+      <c r="AY77">
+        <v>13</v>
+      </c>
+      <c r="AZ77">
+        <v>17</v>
+      </c>
+      <c r="BA77">
+        <v>2</v>
+      </c>
+      <c r="BB77">
+        <v>5</v>
+      </c>
+      <c r="BC77">
+        <v>7</v>
+      </c>
+      <c r="BD77">
+        <v>3.64</v>
+      </c>
+      <c r="BE77">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF77">
+        <v>1.42</v>
+      </c>
+      <c r="BG77">
+        <v>1.26</v>
+      </c>
+      <c r="BH77">
+        <v>3.08</v>
+      </c>
+      <c r="BI77">
+        <v>1.54</v>
+      </c>
+      <c r="BJ77">
+        <v>2.28</v>
+      </c>
+      <c r="BK77">
+        <v>1.91</v>
+      </c>
+      <c r="BL77">
+        <v>1.8</v>
+      </c>
+      <c r="BM77">
+        <v>2.51</v>
+      </c>
+      <c r="BN77">
+        <v>1.45</v>
+      </c>
+      <c r="BO77">
+        <v>3.34</v>
+      </c>
+      <c r="BP77">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7492224</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45585.41666666666</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s">
+        <v>83</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>6</v>
+      </c>
+      <c r="N78">
+        <v>6</v>
+      </c>
+      <c r="O78" t="s">
+        <v>93</v>
+      </c>
+      <c r="P78" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q78">
+        <v>3.5</v>
+      </c>
+      <c r="R78">
+        <v>2.1</v>
+      </c>
+      <c r="S78">
+        <v>3.1</v>
+      </c>
+      <c r="T78">
+        <v>1.4</v>
+      </c>
+      <c r="U78">
+        <v>2.75</v>
+      </c>
+      <c r="V78">
+        <v>3</v>
+      </c>
+      <c r="W78">
+        <v>1.36</v>
+      </c>
+      <c r="X78">
+        <v>8</v>
+      </c>
+      <c r="Y78">
+        <v>1.08</v>
+      </c>
+      <c r="Z78">
+        <v>2.89</v>
+      </c>
+      <c r="AA78">
+        <v>3.28</v>
+      </c>
+      <c r="AB78">
+        <v>2.48</v>
+      </c>
+      <c r="AC78">
+        <v>1.06</v>
+      </c>
+      <c r="AD78">
+        <v>10</v>
+      </c>
+      <c r="AE78">
+        <v>1.33</v>
+      </c>
+      <c r="AF78">
+        <v>3.3</v>
+      </c>
+      <c r="AG78">
+        <v>1.9</v>
+      </c>
+      <c r="AH78">
+        <v>1.9</v>
+      </c>
+      <c r="AI78">
+        <v>1.75</v>
+      </c>
+      <c r="AJ78">
+        <v>2</v>
+      </c>
+      <c r="AK78">
+        <v>1.6</v>
+      </c>
+      <c r="AL78">
+        <v>1.28</v>
+      </c>
+      <c r="AM78">
+        <v>1.4</v>
+      </c>
+      <c r="AN78">
+        <v>1.33</v>
+      </c>
+      <c r="AO78">
+        <v>0.67</v>
+      </c>
+      <c r="AP78">
+        <v>1</v>
+      </c>
+      <c r="AQ78">
+        <v>1.25</v>
+      </c>
+      <c r="AR78">
+        <v>1.41</v>
+      </c>
+      <c r="AS78">
+        <v>1.26</v>
+      </c>
+      <c r="AT78">
+        <v>2.67</v>
+      </c>
+      <c r="AU78">
+        <v>3</v>
+      </c>
+      <c r="AV78">
+        <v>12</v>
+      </c>
+      <c r="AW78">
+        <v>2</v>
+      </c>
+      <c r="AX78">
+        <v>4</v>
+      </c>
+      <c r="AY78">
+        <v>6</v>
+      </c>
+      <c r="AZ78">
+        <v>20</v>
+      </c>
+      <c r="BA78">
+        <v>1</v>
+      </c>
+      <c r="BB78">
+        <v>3</v>
+      </c>
+      <c r="BC78">
+        <v>4</v>
+      </c>
+      <c r="BD78">
+        <v>2.38</v>
+      </c>
+      <c r="BE78">
+        <v>6.5</v>
+      </c>
+      <c r="BF78">
+        <v>1.95</v>
+      </c>
+      <c r="BG78">
+        <v>1.25</v>
+      </c>
+      <c r="BH78">
+        <v>3.14</v>
+      </c>
+      <c r="BI78">
+        <v>1.52</v>
+      </c>
+      <c r="BJ78">
+        <v>2.33</v>
+      </c>
+      <c r="BK78">
+        <v>1.91</v>
+      </c>
+      <c r="BL78">
+        <v>1.8</v>
+      </c>
+      <c r="BM78">
+        <v>2.49</v>
+      </c>
+      <c r="BN78">
+        <v>1.46</v>
+      </c>
+      <c r="BO78">
+        <v>3.28</v>
+      </c>
+      <c r="BP78">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7492218</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45585.54166666666</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s">
+        <v>84</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>5</v>
+      </c>
+      <c r="O79" t="s">
+        <v>147</v>
+      </c>
+      <c r="P79" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q79">
+        <v>3.4</v>
+      </c>
+      <c r="R79">
+        <v>2.05</v>
+      </c>
+      <c r="S79">
+        <v>3.25</v>
+      </c>
+      <c r="T79">
+        <v>1.44</v>
+      </c>
+      <c r="U79">
+        <v>2.63</v>
+      </c>
+      <c r="V79">
+        <v>3.25</v>
+      </c>
+      <c r="W79">
+        <v>1.33</v>
+      </c>
+      <c r="X79">
+        <v>9</v>
+      </c>
+      <c r="Y79">
+        <v>1.07</v>
+      </c>
+      <c r="Z79">
+        <v>2.7</v>
+      </c>
+      <c r="AA79">
+        <v>3.3</v>
+      </c>
+      <c r="AB79">
+        <v>2.6</v>
+      </c>
+      <c r="AC79">
+        <v>1.07</v>
+      </c>
+      <c r="AD79">
+        <v>9.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.36</v>
+      </c>
+      <c r="AF79">
+        <v>3.2</v>
+      </c>
+      <c r="AG79">
+        <v>1.85</v>
+      </c>
+      <c r="AH79">
+        <v>1.85</v>
+      </c>
+      <c r="AI79">
+        <v>1.8</v>
+      </c>
+      <c r="AJ79">
+        <v>1.95</v>
+      </c>
+      <c r="AK79">
+        <v>1.5</v>
+      </c>
+      <c r="AL79">
+        <v>1.3</v>
+      </c>
+      <c r="AM79">
+        <v>1.47</v>
+      </c>
+      <c r="AN79">
+        <v>0.5</v>
+      </c>
+      <c r="AO79">
+        <v>1.75</v>
+      </c>
+      <c r="AP79">
+        <v>1</v>
+      </c>
+      <c r="AQ79">
+        <v>1.4</v>
+      </c>
+      <c r="AR79">
+        <v>1.44</v>
+      </c>
+      <c r="AS79">
+        <v>1.12</v>
+      </c>
+      <c r="AT79">
+        <v>2.56</v>
+      </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
+      <c r="AV79">
+        <v>6</v>
+      </c>
+      <c r="AW79">
+        <v>7</v>
+      </c>
+      <c r="AX79">
+        <v>8</v>
+      </c>
+      <c r="AY79">
+        <v>18</v>
+      </c>
+      <c r="AZ79">
+        <v>18</v>
+      </c>
+      <c r="BA79">
+        <v>9</v>
+      </c>
+      <c r="BB79">
+        <v>12</v>
+      </c>
+      <c r="BC79">
+        <v>21</v>
+      </c>
+      <c r="BD79">
+        <v>1.85</v>
+      </c>
+      <c r="BE79">
+        <v>6.5</v>
+      </c>
+      <c r="BF79">
+        <v>2.45</v>
+      </c>
+      <c r="BG79">
+        <v>1.3</v>
+      </c>
+      <c r="BH79">
+        <v>3.3</v>
+      </c>
+      <c r="BI79">
+        <v>1.53</v>
+      </c>
+      <c r="BJ79">
+        <v>2.4</v>
+      </c>
+      <c r="BK79">
+        <v>1.9</v>
+      </c>
+      <c r="BL79">
+        <v>1.88</v>
+      </c>
+      <c r="BM79">
+        <v>2.4</v>
+      </c>
+      <c r="BN79">
+        <v>1.53</v>
+      </c>
+      <c r="BO79">
+        <v>3.1</v>
+      </c>
+      <c r="BP79">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7492226</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45585.65625</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80" t="s">
+        <v>81</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>93</v>
+      </c>
+      <c r="P80" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q80">
+        <v>4</v>
+      </c>
+      <c r="R80">
+        <v>2.3</v>
+      </c>
+      <c r="S80">
+        <v>2.5</v>
+      </c>
+      <c r="T80">
+        <v>1.33</v>
+      </c>
+      <c r="U80">
+        <v>3.25</v>
+      </c>
+      <c r="V80">
+        <v>2.5</v>
+      </c>
+      <c r="W80">
+        <v>1.5</v>
+      </c>
+      <c r="X80">
+        <v>6.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.11</v>
+      </c>
+      <c r="Z80">
+        <v>3.5</v>
+      </c>
+      <c r="AA80">
+        <v>3.4</v>
+      </c>
+      <c r="AB80">
+        <v>2.1</v>
+      </c>
+      <c r="AC80">
+        <v>1.04</v>
+      </c>
+      <c r="AD80">
+        <v>13</v>
+      </c>
+      <c r="AE80">
+        <v>1.24</v>
+      </c>
+      <c r="AF80">
+        <v>4.2</v>
+      </c>
+      <c r="AG80">
+        <v>1.85</v>
+      </c>
+      <c r="AH80">
+        <v>1.85</v>
+      </c>
+      <c r="AI80">
+        <v>1.67</v>
+      </c>
+      <c r="AJ80">
+        <v>2.1</v>
+      </c>
+      <c r="AK80">
+        <v>1.98</v>
+      </c>
+      <c r="AL80">
+        <v>1.24</v>
+      </c>
+      <c r="AM80">
+        <v>1.24</v>
+      </c>
+      <c r="AN80">
+        <v>2</v>
+      </c>
+      <c r="AO80">
+        <v>1.67</v>
+      </c>
+      <c r="AP80">
+        <v>1.5</v>
+      </c>
+      <c r="AQ80">
+        <v>2</v>
+      </c>
+      <c r="AR80">
+        <v>2.02</v>
+      </c>
+      <c r="AS80">
+        <v>1.69</v>
+      </c>
+      <c r="AT80">
+        <v>3.71</v>
+      </c>
+      <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>7</v>
+      </c>
+      <c r="AW80">
+        <v>5</v>
+      </c>
+      <c r="AX80">
+        <v>4</v>
+      </c>
+      <c r="AY80">
+        <v>15</v>
+      </c>
+      <c r="AZ80">
+        <v>12</v>
+      </c>
+      <c r="BA80">
+        <v>3</v>
+      </c>
+      <c r="BB80">
+        <v>3</v>
+      </c>
+      <c r="BC80">
+        <v>6</v>
+      </c>
+      <c r="BD80">
+        <v>3.3</v>
+      </c>
+      <c r="BE80">
+        <v>7</v>
+      </c>
+      <c r="BF80">
+        <v>1.53</v>
+      </c>
+      <c r="BG80">
+        <v>1.38</v>
+      </c>
+      <c r="BH80">
+        <v>2.9</v>
+      </c>
+      <c r="BI80">
+        <v>1.65</v>
+      </c>
+      <c r="BJ80">
+        <v>2.15</v>
+      </c>
+      <c r="BK80">
+        <v>2.1</v>
+      </c>
+      <c r="BL80">
+        <v>1.72</v>
+      </c>
+      <c r="BM80">
+        <v>2.7</v>
+      </c>
+      <c r="BN80">
+        <v>1.42</v>
+      </c>
+      <c r="BO80">
+        <v>3.6</v>
+      </c>
+      <c r="BP80">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,16 +589,19 @@
     <t>['37', '56']</t>
   </si>
   <si>
+    <t>['7', '47']</t>
+  </si>
+  <si>
+    <t>['41', '55']</t>
+  </si>
+  <si>
     <t>['63']</t>
   </si>
   <si>
-    <t>['7', '47']</t>
-  </si>
-  <si>
     <t>['20', '34', '45', '54', '61', '72']</t>
   </si>
   <si>
-    <t>['41', '55']</t>
+    <t>['9', '74', '79']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1918,7 +1921,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2327,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
         <v>1.75</v>
@@ -5211,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
         <v>2.33</v>
@@ -6656,7 +6659,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -9743,7 +9746,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
         <v>1.4</v>
@@ -13248,7 +13251,7 @@
         <v>3</v>
       </c>
       <c r="AQ60">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR60">
         <v>1.84</v>
@@ -13863,7 +13866,7 @@
         <v>0.25</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ63">
         <v>0.2</v>
@@ -16421,7 +16424,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7492220</v>
+        <v>7492227</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16430,34 +16433,34 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45585.3125</v>
+        <v>45584.875</v>
       </c>
       <c r="F76">
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O76" t="s">
         <v>93</v>
@@ -16466,52 +16469,52 @@
         <v>191</v>
       </c>
       <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76">
+        <v>2.3</v>
+      </c>
+      <c r="S76">
+        <v>2.2</v>
+      </c>
+      <c r="T76">
+        <v>1.33</v>
+      </c>
+      <c r="U76">
+        <v>3.25</v>
+      </c>
+      <c r="V76">
+        <v>2.63</v>
+      </c>
+      <c r="W76">
+        <v>1.44</v>
+      </c>
+      <c r="X76">
+        <v>6.5</v>
+      </c>
+      <c r="Y76">
+        <v>1.11</v>
+      </c>
+      <c r="Z76">
         <v>5.5</v>
       </c>
-      <c r="R76">
-        <v>2.2</v>
-      </c>
-      <c r="S76">
-        <v>2.3</v>
-      </c>
-      <c r="T76">
-        <v>1.44</v>
-      </c>
-      <c r="U76">
-        <v>2.63</v>
-      </c>
-      <c r="V76">
-        <v>3</v>
-      </c>
-      <c r="W76">
-        <v>1.36</v>
-      </c>
-      <c r="X76">
-        <v>9</v>
-      </c>
-      <c r="Y76">
-        <v>1.07</v>
-      </c>
-      <c r="Z76">
-        <v>5.05</v>
-      </c>
       <c r="AA76">
-        <v>3.54</v>
+        <v>3.82</v>
       </c>
       <c r="AB76">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="AC76">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD76">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE76">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AF76">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AG76">
         <v>1.9</v>
@@ -16520,106 +16523,106 @@
         <v>1.9</v>
       </c>
       <c r="AI76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AJ76">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AK76">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AL76">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM76">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AN76">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO76">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP76">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR76">
-        <v>0.85</v>
+        <v>1.31</v>
       </c>
       <c r="AS76">
-        <v>1.19</v>
+        <v>1.79</v>
       </c>
       <c r="AT76">
-        <v>2.04</v>
+        <v>3.1</v>
       </c>
       <c r="AU76">
         <v>5</v>
       </c>
       <c r="AV76">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW76">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX76">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY76">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ76">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA76">
+        <v>2</v>
+      </c>
+      <c r="BB76">
+        <v>5</v>
+      </c>
+      <c r="BC76">
         <v>7</v>
       </c>
-      <c r="BB76">
-        <v>7</v>
-      </c>
-      <c r="BC76">
-        <v>14</v>
-      </c>
       <c r="BD76">
-        <v>3.54</v>
+        <v>3.64</v>
       </c>
       <c r="BE76">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF76">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="BG76">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BH76">
-        <v>3.28</v>
+        <v>3.08</v>
       </c>
       <c r="BI76">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="BJ76">
-        <v>2.43</v>
+        <v>2.28</v>
       </c>
       <c r="BK76">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="BL76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BM76">
-        <v>2.38</v>
+        <v>2.51</v>
       </c>
       <c r="BN76">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="BO76">
-        <v>3.08</v>
+        <v>3.34</v>
       </c>
       <c r="BP76">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16627,7 +16630,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7492227</v>
+        <v>7492218</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16636,115 +16639,115 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45585.41666666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F77">
         <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H77" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M77">
         <v>2</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O77" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="P77" t="s">
         <v>192</v>
       </c>
       <c r="Q77">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="R77">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="S77">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="T77">
+        <v>1.44</v>
+      </c>
+      <c r="U77">
+        <v>2.63</v>
+      </c>
+      <c r="V77">
+        <v>3.25</v>
+      </c>
+      <c r="W77">
         <v>1.33</v>
       </c>
-      <c r="U77">
-        <v>3.25</v>
-      </c>
-      <c r="V77">
-        <v>2.63</v>
-      </c>
-      <c r="W77">
-        <v>1.44</v>
-      </c>
       <c r="X77">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y77">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z77">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="AA77">
-        <v>3.82</v>
+        <v>3.3</v>
       </c>
       <c r="AB77">
-        <v>1.64</v>
+        <v>2.6</v>
       </c>
       <c r="AC77">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AD77">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AE77">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AF77">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="AG77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AH77">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AI77">
+        <v>1.8</v>
+      </c>
+      <c r="AJ77">
+        <v>1.95</v>
+      </c>
+      <c r="AK77">
+        <v>1.5</v>
+      </c>
+      <c r="AL77">
+        <v>1.3</v>
+      </c>
+      <c r="AM77">
+        <v>1.47</v>
+      </c>
+      <c r="AN77">
+        <v>0.5</v>
+      </c>
+      <c r="AO77">
         <v>1.75</v>
-      </c>
-      <c r="AJ77">
-        <v>2</v>
-      </c>
-      <c r="AK77">
-        <v>2.3</v>
-      </c>
-      <c r="AL77">
-        <v>1.2</v>
-      </c>
-      <c r="AM77">
-        <v>1.17</v>
-      </c>
-      <c r="AN77">
-        <v>1.5</v>
-      </c>
-      <c r="AO77">
-        <v>1</v>
       </c>
       <c r="AP77">
         <v>1</v>
@@ -16753,19 +16756,19 @@
         <v>1.4</v>
       </c>
       <c r="AR77">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AS77">
-        <v>1.79</v>
+        <v>1.12</v>
       </c>
       <c r="AT77">
-        <v>3.1</v>
+        <v>2.56</v>
       </c>
       <c r="AU77">
         <v>5</v>
       </c>
       <c r="AV77">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW77">
         <v>7</v>
@@ -16774,58 +16777,58 @@
         <v>8</v>
       </c>
       <c r="AY77">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ77">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA77">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BB77">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BC77">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="BD77">
-        <v>3.64</v>
+        <v>1.85</v>
       </c>
       <c r="BE77">
-        <v>9.199999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="BF77">
-        <v>1.42</v>
+        <v>2.45</v>
       </c>
       <c r="BG77">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BH77">
-        <v>3.08</v>
+        <v>3.3</v>
       </c>
       <c r="BI77">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="BJ77">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="BK77">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="BL77">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BM77">
-        <v>2.51</v>
+        <v>2.4</v>
       </c>
       <c r="BN77">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="BO77">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="BP77">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16833,7 +16836,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7492224</v>
+        <v>7492220</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16842,34 +16845,34 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45585.41666666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F78">
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H78" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N78">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O78" t="s">
         <v>93</v>
@@ -16878,19 +16881,19 @@
         <v>193</v>
       </c>
       <c r="Q78">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="R78">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S78">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="T78">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U78">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V78">
         <v>3</v>
@@ -16899,19 +16902,19 @@
         <v>1.36</v>
       </c>
       <c r="X78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y78">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z78">
-        <v>2.89</v>
+        <v>5.05</v>
       </c>
       <c r="AA78">
-        <v>3.28</v>
+        <v>3.54</v>
       </c>
       <c r="AB78">
-        <v>2.48</v>
+        <v>1.74</v>
       </c>
       <c r="AC78">
         <v>1.06</v>
@@ -16923,7 +16926,7 @@
         <v>1.33</v>
       </c>
       <c r="AF78">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AG78">
         <v>1.9</v>
@@ -16932,46 +16935,46 @@
         <v>1.9</v>
       </c>
       <c r="AI78">
+        <v>2</v>
+      </c>
+      <c r="AJ78">
         <v>1.75</v>
       </c>
-      <c r="AJ78">
-        <v>2</v>
-      </c>
       <c r="AK78">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="AL78">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM78">
-        <v>1.4</v>
+        <v>1.16</v>
       </c>
       <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>1.33</v>
       </c>
-      <c r="AO78">
-        <v>0.67</v>
-      </c>
       <c r="AP78">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AR78">
-        <v>1.41</v>
+        <v>0.85</v>
       </c>
       <c r="AS78">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AT78">
-        <v>2.67</v>
+        <v>2.04</v>
       </c>
       <c r="AU78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV78">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AW78">
         <v>2</v>
@@ -16980,58 +16983,58 @@
         <v>4</v>
       </c>
       <c r="AY78">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ78">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BA78">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BB78">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC78">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BD78">
+        <v>3.54</v>
+      </c>
+      <c r="BE78">
+        <v>9.5</v>
+      </c>
+      <c r="BF78">
+        <v>1.43</v>
+      </c>
+      <c r="BG78">
+        <v>1.23</v>
+      </c>
+      <c r="BH78">
+        <v>3.28</v>
+      </c>
+      <c r="BI78">
+        <v>1.48</v>
+      </c>
+      <c r="BJ78">
+        <v>2.43</v>
+      </c>
+      <c r="BK78">
+        <v>1.85</v>
+      </c>
+      <c r="BL78">
+        <v>1.85</v>
+      </c>
+      <c r="BM78">
         <v>2.38</v>
       </c>
-      <c r="BE78">
-        <v>6.5</v>
-      </c>
-      <c r="BF78">
-        <v>1.95</v>
-      </c>
-      <c r="BG78">
-        <v>1.25</v>
-      </c>
-      <c r="BH78">
-        <v>3.14</v>
-      </c>
-      <c r="BI78">
-        <v>1.52</v>
-      </c>
-      <c r="BJ78">
-        <v>2.33</v>
-      </c>
-      <c r="BK78">
-        <v>1.91</v>
-      </c>
-      <c r="BL78">
-        <v>1.8</v>
-      </c>
-      <c r="BM78">
-        <v>2.49</v>
-      </c>
       <c r="BN78">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="BO78">
-        <v>3.28</v>
+        <v>3.08</v>
       </c>
       <c r="BP78">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17039,7 +17042,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7492218</v>
+        <v>7492224</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17048,196 +17051,196 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45585.54166666666</v>
+        <v>45584.875</v>
       </c>
       <c r="F79">
         <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O79" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="P79" t="s">
         <v>194</v>
       </c>
       <c r="Q79">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S79">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="T79">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U79">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W79">
+        <v>1.36</v>
+      </c>
+      <c r="X79">
+        <v>8</v>
+      </c>
+      <c r="Y79">
+        <v>1.08</v>
+      </c>
+      <c r="Z79">
+        <v>2.89</v>
+      </c>
+      <c r="AA79">
+        <v>3.28</v>
+      </c>
+      <c r="AB79">
+        <v>2.48</v>
+      </c>
+      <c r="AC79">
+        <v>1.06</v>
+      </c>
+      <c r="AD79">
+        <v>10</v>
+      </c>
+      <c r="AE79">
         <v>1.33</v>
       </c>
-      <c r="X79">
-        <v>9</v>
-      </c>
-      <c r="Y79">
-        <v>1.07</v>
-      </c>
-      <c r="Z79">
-        <v>2.7</v>
-      </c>
-      <c r="AA79">
+      <c r="AF79">
         <v>3.3</v>
       </c>
-      <c r="AB79">
-        <v>2.6</v>
-      </c>
-      <c r="AC79">
-        <v>1.07</v>
-      </c>
-      <c r="AD79">
-        <v>9.5</v>
-      </c>
-      <c r="AE79">
-        <v>1.36</v>
-      </c>
-      <c r="AF79">
-        <v>3.2</v>
-      </c>
       <c r="AG79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AH79">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AI79">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK79">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AL79">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM79">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AN79">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO79">
-        <v>1.75</v>
+        <v>0.67</v>
       </c>
       <c r="AP79">
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AR79">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AS79">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="AT79">
-        <v>2.56</v>
+        <v>2.67</v>
       </c>
       <c r="AU79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV79">
+        <v>12</v>
+      </c>
+      <c r="AW79">
+        <v>2</v>
+      </c>
+      <c r="AX79">
+        <v>4</v>
+      </c>
+      <c r="AY79">
         <v>6</v>
       </c>
-      <c r="AW79">
-        <v>7</v>
-      </c>
-      <c r="AX79">
-        <v>8</v>
-      </c>
-      <c r="AY79">
-        <v>18</v>
-      </c>
       <c r="AZ79">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA79">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BB79">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BC79">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="BD79">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="BE79">
         <v>6.5</v>
       </c>
       <c r="BF79">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="BG79">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH79">
-        <v>3.3</v>
+        <v>3.14</v>
       </c>
       <c r="BI79">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="BJ79">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="BK79">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="BL79">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BM79">
-        <v>2.4</v>
+        <v>2.49</v>
       </c>
       <c r="BN79">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="BO79">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="BP79">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17254,7 +17257,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45585.65625</v>
+        <v>45584.875</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -17444,6 +17447,212 @@
       </c>
       <c r="BP80">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7492222</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45586.65625</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>75</v>
+      </c>
+      <c r="H81" t="s">
+        <v>82</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>93</v>
+      </c>
+      <c r="P81" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q81">
+        <v>3.1</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>3.75</v>
+      </c>
+      <c r="T81">
+        <v>1.5</v>
+      </c>
+      <c r="U81">
+        <v>2.5</v>
+      </c>
+      <c r="V81">
+        <v>3.4</v>
+      </c>
+      <c r="W81">
+        <v>1.3</v>
+      </c>
+      <c r="X81">
+        <v>10</v>
+      </c>
+      <c r="Y81">
+        <v>1.06</v>
+      </c>
+      <c r="Z81">
+        <v>2.35</v>
+      </c>
+      <c r="AA81">
+        <v>3.6</v>
+      </c>
+      <c r="AB81">
+        <v>3.21</v>
+      </c>
+      <c r="AC81">
+        <v>1.1</v>
+      </c>
+      <c r="AD81">
+        <v>7.5</v>
+      </c>
+      <c r="AE81">
+        <v>1.44</v>
+      </c>
+      <c r="AF81">
+        <v>2.8</v>
+      </c>
+      <c r="AG81">
+        <v>1.75</v>
+      </c>
+      <c r="AH81">
+        <v>1.95</v>
+      </c>
+      <c r="AI81">
+        <v>1.95</v>
+      </c>
+      <c r="AJ81">
+        <v>1.8</v>
+      </c>
+      <c r="AK81">
+        <v>1.33</v>
+      </c>
+      <c r="AL81">
+        <v>1.33</v>
+      </c>
+      <c r="AM81">
+        <v>1.63</v>
+      </c>
+      <c r="AN81">
+        <v>1.5</v>
+      </c>
+      <c r="AO81">
+        <v>0.67</v>
+      </c>
+      <c r="AP81">
+        <v>1.2</v>
+      </c>
+      <c r="AQ81">
+        <v>1.25</v>
+      </c>
+      <c r="AR81">
+        <v>1.08</v>
+      </c>
+      <c r="AS81">
+        <v>0.61</v>
+      </c>
+      <c r="AT81">
+        <v>1.69</v>
+      </c>
+      <c r="AU81">
+        <v>5</v>
+      </c>
+      <c r="AV81">
+        <v>5</v>
+      </c>
+      <c r="AW81">
+        <v>8</v>
+      </c>
+      <c r="AX81">
+        <v>3</v>
+      </c>
+      <c r="AY81">
+        <v>17</v>
+      </c>
+      <c r="AZ81">
+        <v>11</v>
+      </c>
+      <c r="BA81">
+        <v>9</v>
+      </c>
+      <c r="BB81">
+        <v>6</v>
+      </c>
+      <c r="BC81">
+        <v>15</v>
+      </c>
+      <c r="BD81">
+        <v>1.78</v>
+      </c>
+      <c r="BE81">
+        <v>6.5</v>
+      </c>
+      <c r="BF81">
+        <v>2.6</v>
+      </c>
+      <c r="BG81">
+        <v>1.36</v>
+      </c>
+      <c r="BH81">
+        <v>3</v>
+      </c>
+      <c r="BI81">
+        <v>1.62</v>
+      </c>
+      <c r="BJ81">
+        <v>2.2</v>
+      </c>
+      <c r="BK81">
+        <v>2.05</v>
+      </c>
+      <c r="BL81">
+        <v>1.75</v>
+      </c>
+      <c r="BM81">
+        <v>2.65</v>
+      </c>
+      <c r="BN81">
+        <v>1.45</v>
+      </c>
+      <c r="BO81">
+        <v>3.5</v>
+      </c>
+      <c r="BP81">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -17463,7 +17463,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45586.65625</v>
+        <v>45585.875</v>
       </c>
       <c r="F81">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -589,16 +589,16 @@
     <t>['37', '56']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['7', '47']</t>
   </si>
   <si>
+    <t>['20', '34', '45', '54', '61', '72']</t>
+  </si>
+  <si>
     <t>['41', '55']</t>
-  </si>
-  <si>
-    <t>['63']</t>
-  </si>
-  <si>
-    <t>['20', '34', '45', '54', '61', '72']</t>
   </si>
   <si>
     <t>['9', '74', '79']</t>
@@ -16424,7 +16424,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7492227</v>
+        <v>7492220</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16433,34 +16433,34 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45584.875</v>
+        <v>45585.3125</v>
       </c>
       <c r="F76">
         <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O76" t="s">
         <v>93</v>
@@ -16469,52 +16469,52 @@
         <v>191</v>
       </c>
       <c r="Q76">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="R76">
+        <v>2.2</v>
+      </c>
+      <c r="S76">
         <v>2.3</v>
       </c>
-      <c r="S76">
-        <v>2.2</v>
-      </c>
       <c r="T76">
+        <v>1.44</v>
+      </c>
+      <c r="U76">
+        <v>2.63</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
+        <v>1.36</v>
+      </c>
+      <c r="X76">
+        <v>9</v>
+      </c>
+      <c r="Y76">
+        <v>1.07</v>
+      </c>
+      <c r="Z76">
+        <v>5.05</v>
+      </c>
+      <c r="AA76">
+        <v>3.54</v>
+      </c>
+      <c r="AB76">
+        <v>1.74</v>
+      </c>
+      <c r="AC76">
+        <v>1.06</v>
+      </c>
+      <c r="AD76">
+        <v>10</v>
+      </c>
+      <c r="AE76">
         <v>1.33</v>
       </c>
-      <c r="U76">
-        <v>3.25</v>
-      </c>
-      <c r="V76">
-        <v>2.63</v>
-      </c>
-      <c r="W76">
-        <v>1.44</v>
-      </c>
-      <c r="X76">
-        <v>6.5</v>
-      </c>
-      <c r="Y76">
-        <v>1.11</v>
-      </c>
-      <c r="Z76">
-        <v>5.5</v>
-      </c>
-      <c r="AA76">
-        <v>3.82</v>
-      </c>
-      <c r="AB76">
-        <v>1.64</v>
-      </c>
-      <c r="AC76">
-        <v>1.03</v>
-      </c>
-      <c r="AD76">
-        <v>13</v>
-      </c>
-      <c r="AE76">
-        <v>1.25</v>
-      </c>
       <c r="AF76">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AG76">
         <v>1.9</v>
@@ -16523,106 +16523,106 @@
         <v>1.9</v>
       </c>
       <c r="AI76">
+        <v>2</v>
+      </c>
+      <c r="AJ76">
         <v>1.75</v>
       </c>
-      <c r="AJ76">
-        <v>2</v>
-      </c>
       <c r="AK76">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AL76">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM76">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AN76">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO76">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ76">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR76">
-        <v>1.31</v>
+        <v>0.85</v>
       </c>
       <c r="AS76">
-        <v>1.79</v>
+        <v>1.19</v>
       </c>
       <c r="AT76">
-        <v>3.1</v>
+        <v>2.04</v>
       </c>
       <c r="AU76">
         <v>5</v>
       </c>
       <c r="AV76">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW76">
+        <v>2</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>12</v>
+      </c>
+      <c r="AZ76">
+        <v>10</v>
+      </c>
+      <c r="BA76">
         <v>7</v>
       </c>
-      <c r="AX76">
-        <v>8</v>
-      </c>
-      <c r="AY76">
-        <v>13</v>
-      </c>
-      <c r="AZ76">
-        <v>17</v>
-      </c>
-      <c r="BA76">
-        <v>2</v>
-      </c>
       <c r="BB76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC76">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD76">
-        <v>3.64</v>
+        <v>3.54</v>
       </c>
       <c r="BE76">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="BF76">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="BG76">
+        <v>1.23</v>
+      </c>
+      <c r="BH76">
+        <v>3.28</v>
+      </c>
+      <c r="BI76">
+        <v>1.48</v>
+      </c>
+      <c r="BJ76">
+        <v>2.43</v>
+      </c>
+      <c r="BK76">
+        <v>1.85</v>
+      </c>
+      <c r="BL76">
+        <v>1.85</v>
+      </c>
+      <c r="BM76">
+        <v>2.38</v>
+      </c>
+      <c r="BN76">
+        <v>1.5</v>
+      </c>
+      <c r="BO76">
+        <v>3.08</v>
+      </c>
+      <c r="BP76">
         <v>1.26</v>
-      </c>
-      <c r="BH76">
-        <v>3.08</v>
-      </c>
-      <c r="BI76">
-        <v>1.54</v>
-      </c>
-      <c r="BJ76">
-        <v>2.28</v>
-      </c>
-      <c r="BK76">
-        <v>1.91</v>
-      </c>
-      <c r="BL76">
-        <v>1.8</v>
-      </c>
-      <c r="BM76">
-        <v>2.51</v>
-      </c>
-      <c r="BN76">
-        <v>1.45</v>
-      </c>
-      <c r="BO76">
-        <v>3.34</v>
-      </c>
-      <c r="BP76">
-        <v>1.22</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16630,7 +16630,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7492218</v>
+        <v>7492227</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16639,115 +16639,115 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45584.875</v>
+        <v>45585.41666666666</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M77">
         <v>2</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O77" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="P77" t="s">
         <v>192</v>
       </c>
       <c r="Q77">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="R77">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S77">
+        <v>2.2</v>
+      </c>
+      <c r="T77">
+        <v>1.33</v>
+      </c>
+      <c r="U77">
         <v>3.25</v>
       </c>
-      <c r="T77">
+      <c r="V77">
+        <v>2.63</v>
+      </c>
+      <c r="W77">
         <v>1.44</v>
       </c>
-      <c r="U77">
-        <v>2.63</v>
-      </c>
-      <c r="V77">
-        <v>3.25</v>
-      </c>
-      <c r="W77">
-        <v>1.33</v>
-      </c>
       <c r="X77">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Y77">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z77">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="AA77">
-        <v>3.3</v>
+        <v>3.82</v>
       </c>
       <c r="AB77">
-        <v>2.6</v>
+        <v>1.64</v>
       </c>
       <c r="AC77">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AD77">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AE77">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AF77">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AG77">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AH77">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AI77">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK77">
+        <v>2.3</v>
+      </c>
+      <c r="AL77">
+        <v>1.2</v>
+      </c>
+      <c r="AM77">
+        <v>1.17</v>
+      </c>
+      <c r="AN77">
         <v>1.5</v>
       </c>
-      <c r="AL77">
-        <v>1.3</v>
-      </c>
-      <c r="AM77">
-        <v>1.47</v>
-      </c>
-      <c r="AN77">
-        <v>0.5</v>
-      </c>
       <c r="AO77">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AP77">
         <v>1</v>
@@ -16756,19 +16756,19 @@
         <v>1.4</v>
       </c>
       <c r="AR77">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AS77">
-        <v>1.12</v>
+        <v>1.79</v>
       </c>
       <c r="AT77">
-        <v>2.56</v>
+        <v>3.1</v>
       </c>
       <c r="AU77">
         <v>5</v>
       </c>
       <c r="AV77">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW77">
         <v>7</v>
@@ -16777,58 +16777,58 @@
         <v>8</v>
       </c>
       <c r="AY77">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ77">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA77">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BB77">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BC77">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="BD77">
-        <v>1.85</v>
+        <v>3.64</v>
       </c>
       <c r="BE77">
-        <v>6.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF77">
-        <v>2.45</v>
+        <v>1.42</v>
       </c>
       <c r="BG77">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BH77">
-        <v>3.3</v>
+        <v>3.08</v>
       </c>
       <c r="BI77">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="BJ77">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="BK77">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="BL77">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BM77">
-        <v>2.4</v>
+        <v>2.51</v>
       </c>
       <c r="BN77">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="BO77">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="BP77">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16836,7 +16836,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7492220</v>
+        <v>7492224</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16845,34 +16845,34 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45584.875</v>
+        <v>45585.41666666666</v>
       </c>
       <c r="F78">
         <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O78" t="s">
         <v>93</v>
@@ -16881,19 +16881,19 @@
         <v>193</v>
       </c>
       <c r="Q78">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="R78">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S78">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="T78">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U78">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V78">
         <v>3</v>
@@ -16902,19 +16902,19 @@
         <v>1.36</v>
       </c>
       <c r="X78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y78">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z78">
-        <v>5.05</v>
+        <v>2.89</v>
       </c>
       <c r="AA78">
-        <v>3.54</v>
+        <v>3.28</v>
       </c>
       <c r="AB78">
-        <v>1.74</v>
+        <v>2.48</v>
       </c>
       <c r="AC78">
         <v>1.06</v>
@@ -16926,7 +16926,7 @@
         <v>1.33</v>
       </c>
       <c r="AF78">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AG78">
         <v>1.9</v>
@@ -16935,46 +16935,46 @@
         <v>1.9</v>
       </c>
       <c r="AI78">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AJ78">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AK78">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="AL78">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM78">
-        <v>1.16</v>
+        <v>1.4</v>
       </c>
       <c r="AN78">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO78">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP78">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR78">
-        <v>0.85</v>
+        <v>1.41</v>
       </c>
       <c r="AS78">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AT78">
-        <v>2.04</v>
+        <v>2.67</v>
       </c>
       <c r="AU78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV78">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AW78">
         <v>2</v>
@@ -16983,58 +16983,58 @@
         <v>4</v>
       </c>
       <c r="AY78">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AZ78">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BA78">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BB78">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC78">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BD78">
-        <v>3.54</v>
+        <v>2.38</v>
       </c>
       <c r="BE78">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="BF78">
-        <v>1.43</v>
+        <v>1.95</v>
       </c>
       <c r="BG78">
+        <v>1.25</v>
+      </c>
+      <c r="BH78">
+        <v>3.14</v>
+      </c>
+      <c r="BI78">
+        <v>1.52</v>
+      </c>
+      <c r="BJ78">
+        <v>2.33</v>
+      </c>
+      <c r="BK78">
+        <v>1.91</v>
+      </c>
+      <c r="BL78">
+        <v>1.8</v>
+      </c>
+      <c r="BM78">
+        <v>2.49</v>
+      </c>
+      <c r="BN78">
+        <v>1.46</v>
+      </c>
+      <c r="BO78">
+        <v>3.28</v>
+      </c>
+      <c r="BP78">
         <v>1.23</v>
-      </c>
-      <c r="BH78">
-        <v>3.28</v>
-      </c>
-      <c r="BI78">
-        <v>1.48</v>
-      </c>
-      <c r="BJ78">
-        <v>2.43</v>
-      </c>
-      <c r="BK78">
-        <v>1.85</v>
-      </c>
-      <c r="BL78">
-        <v>1.85</v>
-      </c>
-      <c r="BM78">
-        <v>2.38</v>
-      </c>
-      <c r="BN78">
-        <v>1.5</v>
-      </c>
-      <c r="BO78">
-        <v>3.08</v>
-      </c>
-      <c r="BP78">
-        <v>1.26</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17042,7 +17042,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7492224</v>
+        <v>7492218</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17051,196 +17051,196 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45584.875</v>
+        <v>45585.54166666666</v>
       </c>
       <c r="F79">
         <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O79" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="P79" t="s">
         <v>194</v>
       </c>
       <c r="Q79">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R79">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S79">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T79">
+        <v>1.44</v>
+      </c>
+      <c r="U79">
+        <v>2.63</v>
+      </c>
+      <c r="V79">
+        <v>3.25</v>
+      </c>
+      <c r="W79">
+        <v>1.33</v>
+      </c>
+      <c r="X79">
+        <v>9</v>
+      </c>
+      <c r="Y79">
+        <v>1.07</v>
+      </c>
+      <c r="Z79">
+        <v>2.7</v>
+      </c>
+      <c r="AA79">
+        <v>3.3</v>
+      </c>
+      <c r="AB79">
+        <v>2.6</v>
+      </c>
+      <c r="AC79">
+        <v>1.07</v>
+      </c>
+      <c r="AD79">
+        <v>9.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.36</v>
+      </c>
+      <c r="AF79">
+        <v>3.2</v>
+      </c>
+      <c r="AG79">
+        <v>1.85</v>
+      </c>
+      <c r="AH79">
+        <v>1.85</v>
+      </c>
+      <c r="AI79">
+        <v>1.8</v>
+      </c>
+      <c r="AJ79">
+        <v>1.95</v>
+      </c>
+      <c r="AK79">
+        <v>1.5</v>
+      </c>
+      <c r="AL79">
+        <v>1.3</v>
+      </c>
+      <c r="AM79">
+        <v>1.47</v>
+      </c>
+      <c r="AN79">
+        <v>0.5</v>
+      </c>
+      <c r="AO79">
+        <v>1.75</v>
+      </c>
+      <c r="AP79">
+        <v>1</v>
+      </c>
+      <c r="AQ79">
         <v>1.4</v>
       </c>
-      <c r="U79">
-        <v>2.75</v>
-      </c>
-      <c r="V79">
-        <v>3</v>
-      </c>
-      <c r="W79">
-        <v>1.36</v>
-      </c>
-      <c r="X79">
+      <c r="AR79">
+        <v>1.44</v>
+      </c>
+      <c r="AS79">
+        <v>1.12</v>
+      </c>
+      <c r="AT79">
+        <v>2.56</v>
+      </c>
+      <c r="AU79">
+        <v>3</v>
+      </c>
+      <c r="AV79">
+        <v>5</v>
+      </c>
+      <c r="AW79">
+        <v>5</v>
+      </c>
+      <c r="AX79">
+        <v>6</v>
+      </c>
+      <c r="AY79">
         <v>8</v>
       </c>
-      <c r="Y79">
-        <v>1.08</v>
-      </c>
-      <c r="Z79">
-        <v>2.89</v>
-      </c>
-      <c r="AA79">
-        <v>3.28</v>
-      </c>
-      <c r="AB79">
-        <v>2.48</v>
-      </c>
-      <c r="AC79">
-        <v>1.06</v>
-      </c>
-      <c r="AD79">
-        <v>10</v>
-      </c>
-      <c r="AE79">
-        <v>1.33</v>
-      </c>
-      <c r="AF79">
-        <v>3.3</v>
-      </c>
-      <c r="AG79">
-        <v>1.9</v>
-      </c>
-      <c r="AH79">
-        <v>1.9</v>
-      </c>
-      <c r="AI79">
-        <v>1.75</v>
-      </c>
-      <c r="AJ79">
-        <v>2</v>
-      </c>
-      <c r="AK79">
-        <v>1.6</v>
-      </c>
-      <c r="AL79">
-        <v>1.28</v>
-      </c>
-      <c r="AM79">
-        <v>1.4</v>
-      </c>
-      <c r="AN79">
-        <v>1.33</v>
-      </c>
-      <c r="AO79">
-        <v>0.67</v>
-      </c>
-      <c r="AP79">
-        <v>1</v>
-      </c>
-      <c r="AQ79">
-        <v>1.25</v>
-      </c>
-      <c r="AR79">
-        <v>1.41</v>
-      </c>
-      <c r="AS79">
-        <v>1.26</v>
-      </c>
-      <c r="AT79">
-        <v>2.67</v>
-      </c>
-      <c r="AU79">
-        <v>3</v>
-      </c>
-      <c r="AV79">
+      <c r="AZ79">
+        <v>11</v>
+      </c>
+      <c r="BA79">
+        <v>9</v>
+      </c>
+      <c r="BB79">
         <v>12</v>
       </c>
-      <c r="AW79">
-        <v>2</v>
-      </c>
-      <c r="AX79">
-        <v>4</v>
-      </c>
-      <c r="AY79">
-        <v>6</v>
-      </c>
-      <c r="AZ79">
-        <v>20</v>
-      </c>
-      <c r="BA79">
-        <v>1</v>
-      </c>
-      <c r="BB79">
-        <v>3</v>
-      </c>
       <c r="BC79">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="BD79">
-        <v>2.38</v>
+        <v>1.85</v>
       </c>
       <c r="BE79">
         <v>6.5</v>
       </c>
       <c r="BF79">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="BG79">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BH79">
-        <v>3.14</v>
+        <v>3.3</v>
       </c>
       <c r="BI79">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="BJ79">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="BK79">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="BL79">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BM79">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="BN79">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="BO79">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="BP79">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17257,7 +17257,7 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45584.875</v>
+        <v>45585.65625</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -17463,7 +17463,7 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45585.875</v>
+        <v>45586.65625</v>
       </c>
       <c r="F81">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>['38', '74', '78']</t>
+  </si>
+  <si>
+    <t>['38', '78']</t>
   </si>
   <si>
     <t>['30', '82']</t>
@@ -963,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1428,7 +1431,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1634,7 +1637,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2046,7 +2049,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2458,7 +2461,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2870,7 +2873,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3157,7 +3160,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ11">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3282,7 +3285,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3360,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ12">
         <v>0.75</v>
@@ -3488,7 +3491,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3900,7 +3903,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4390,7 +4393,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
         <v>1.4</v>
@@ -4518,7 +4521,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4930,7 +4933,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5011,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5136,7 +5139,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5342,7 +5345,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5754,7 +5757,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6041,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.74</v>
@@ -6166,7 +6169,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6372,7 +6375,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6578,7 +6581,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6784,7 +6787,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7068,10 +7071,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ30">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>0.95</v>
@@ -7402,7 +7405,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8020,7 +8023,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8226,7 +8229,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -8510,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>0.25</v>
@@ -8638,7 +8641,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8844,7 +8847,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9050,7 +9053,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9256,7 +9259,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9462,7 +9465,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9668,7 +9671,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10286,7 +10289,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10492,7 +10495,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10698,7 +10701,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11110,7 +11113,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11316,7 +11319,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11397,7 +11400,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
         <v>1.68</v>
@@ -11728,7 +11731,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11806,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ53">
         <v>2</v>
@@ -11934,7 +11937,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12140,7 +12143,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12346,7 +12349,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12424,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56">
         <v>0.75</v>
@@ -12758,7 +12761,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13376,7 +13379,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13457,7 +13460,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13663,7 +13666,7 @@
         <v>3</v>
       </c>
       <c r="AQ62">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14072,7 +14075,7 @@
         <v>0.33</v>
       </c>
       <c r="AP64">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ64">
         <v>0.25</v>
@@ -14200,7 +14203,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14406,7 +14409,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14612,7 +14615,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14693,7 +14696,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ67">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.09</v>
@@ -14818,7 +14821,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -15230,7 +15233,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15436,7 +15439,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15642,7 +15645,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15848,7 +15851,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16466,7 +16469,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16672,7 +16675,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16878,7 +16881,7 @@
         <v>93</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17084,7 +17087,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17290,7 +17293,7 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17496,7 +17499,7 @@
         <v>93</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -17653,6 +17656,418 @@
       </c>
       <c r="BP81">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7492237</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45590.5625</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s">
+        <v>77</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>148</v>
+      </c>
+      <c r="P82" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q82">
+        <v>2.75</v>
+      </c>
+      <c r="R82">
+        <v>2.1</v>
+      </c>
+      <c r="S82">
+        <v>4</v>
+      </c>
+      <c r="T82">
+        <v>1.4</v>
+      </c>
+      <c r="U82">
+        <v>2.75</v>
+      </c>
+      <c r="V82">
+        <v>3</v>
+      </c>
+      <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>8</v>
+      </c>
+      <c r="Y82">
+        <v>1.08</v>
+      </c>
+      <c r="Z82">
+        <v>2.12</v>
+      </c>
+      <c r="AA82">
+        <v>3.45</v>
+      </c>
+      <c r="AB82">
+        <v>3.45</v>
+      </c>
+      <c r="AC82">
+        <v>1.06</v>
+      </c>
+      <c r="AD82">
+        <v>10</v>
+      </c>
+      <c r="AE82">
+        <v>1.33</v>
+      </c>
+      <c r="AF82">
+        <v>3.3</v>
+      </c>
+      <c r="AG82">
+        <v>2</v>
+      </c>
+      <c r="AH82">
+        <v>1.83</v>
+      </c>
+      <c r="AI82">
+        <v>1.8</v>
+      </c>
+      <c r="AJ82">
+        <v>1.95</v>
+      </c>
+      <c r="AK82">
+        <v>1.32</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.75</v>
+      </c>
+      <c r="AN82">
+        <v>2.25</v>
+      </c>
+      <c r="AO82">
+        <v>1.33</v>
+      </c>
+      <c r="AP82">
+        <v>2.4</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+      <c r="AR82">
+        <v>1.1</v>
+      </c>
+      <c r="AS82">
+        <v>1.3</v>
+      </c>
+      <c r="AT82">
+        <v>2.4</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>0</v>
+      </c>
+      <c r="AW82">
+        <v>7</v>
+      </c>
+      <c r="AX82">
+        <v>4</v>
+      </c>
+      <c r="AY82">
+        <v>14</v>
+      </c>
+      <c r="AZ82">
+        <v>4</v>
+      </c>
+      <c r="BA82">
+        <v>2</v>
+      </c>
+      <c r="BB82">
+        <v>4</v>
+      </c>
+      <c r="BC82">
+        <v>6</v>
+      </c>
+      <c r="BD82">
+        <v>1.74</v>
+      </c>
+      <c r="BE82">
+        <v>6.75</v>
+      </c>
+      <c r="BF82">
+        <v>2.3</v>
+      </c>
+      <c r="BG82">
+        <v>1.2</v>
+      </c>
+      <c r="BH82">
+        <v>3.9</v>
+      </c>
+      <c r="BI82">
+        <v>1.36</v>
+      </c>
+      <c r="BJ82">
+        <v>2.8</v>
+      </c>
+      <c r="BK82">
+        <v>1.6</v>
+      </c>
+      <c r="BL82">
+        <v>2.17</v>
+      </c>
+      <c r="BM82">
+        <v>1.96</v>
+      </c>
+      <c r="BN82">
+        <v>1.74</v>
+      </c>
+      <c r="BO82">
+        <v>2.43</v>
+      </c>
+      <c r="BP82">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7492236</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45590.65625</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>84</v>
+      </c>
+      <c r="H83" t="s">
+        <v>88</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>136</v>
+      </c>
+      <c r="P83" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q83">
+        <v>3.2</v>
+      </c>
+      <c r="R83">
+        <v>2.05</v>
+      </c>
+      <c r="S83">
+        <v>3.5</v>
+      </c>
+      <c r="T83">
+        <v>1.44</v>
+      </c>
+      <c r="U83">
+        <v>2.63</v>
+      </c>
+      <c r="V83">
+        <v>3.25</v>
+      </c>
+      <c r="W83">
+        <v>1.33</v>
+      </c>
+      <c r="X83">
+        <v>9</v>
+      </c>
+      <c r="Y83">
+        <v>1.07</v>
+      </c>
+      <c r="Z83">
+        <v>1.7</v>
+      </c>
+      <c r="AA83">
+        <v>3.58</v>
+      </c>
+      <c r="AB83">
+        <v>4.28</v>
+      </c>
+      <c r="AC83">
+        <v>1.07</v>
+      </c>
+      <c r="AD83">
+        <v>9.5</v>
+      </c>
+      <c r="AE83">
+        <v>1.38</v>
+      </c>
+      <c r="AF83">
+        <v>3.1</v>
+      </c>
+      <c r="AG83">
+        <v>1.6</v>
+      </c>
+      <c r="AH83">
+        <v>2.2</v>
+      </c>
+      <c r="AI83">
+        <v>1.8</v>
+      </c>
+      <c r="AJ83">
+        <v>1.95</v>
+      </c>
+      <c r="AK83">
+        <v>1.44</v>
+      </c>
+      <c r="AL83">
+        <v>1.3</v>
+      </c>
+      <c r="AM83">
+        <v>1.55</v>
+      </c>
+      <c r="AN83">
+        <v>1.33</v>
+      </c>
+      <c r="AO83">
+        <v>0.8</v>
+      </c>
+      <c r="AP83">
+        <v>1.75</v>
+      </c>
+      <c r="AQ83">
+        <v>0.67</v>
+      </c>
+      <c r="AR83">
+        <v>1.23</v>
+      </c>
+      <c r="AS83">
+        <v>1.23</v>
+      </c>
+      <c r="AT83">
+        <v>2.46</v>
+      </c>
+      <c r="AU83">
+        <v>3</v>
+      </c>
+      <c r="AV83">
+        <v>7</v>
+      </c>
+      <c r="AW83">
+        <v>4</v>
+      </c>
+      <c r="AX83">
+        <v>6</v>
+      </c>
+      <c r="AY83">
+        <v>10</v>
+      </c>
+      <c r="AZ83">
+        <v>21</v>
+      </c>
+      <c r="BA83">
+        <v>1</v>
+      </c>
+      <c r="BB83">
+        <v>3</v>
+      </c>
+      <c r="BC83">
+        <v>4</v>
+      </c>
+      <c r="BD83">
+        <v>1.67</v>
+      </c>
+      <c r="BE83">
+        <v>6.5</v>
+      </c>
+      <c r="BF83">
+        <v>2.48</v>
+      </c>
+      <c r="BG83">
+        <v>1.3</v>
+      </c>
+      <c r="BH83">
+        <v>3.15</v>
+      </c>
+      <c r="BI83">
+        <v>1.52</v>
+      </c>
+      <c r="BJ83">
+        <v>2.33</v>
+      </c>
+      <c r="BK83">
+        <v>1.85</v>
+      </c>
+      <c r="BL83">
+        <v>1.83</v>
+      </c>
+      <c r="BM83">
+        <v>2.33</v>
+      </c>
+      <c r="BN83">
+        <v>1.52</v>
+      </c>
+      <c r="BO83">
+        <v>3</v>
+      </c>
+      <c r="BP83">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>['38', '78']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
   <si>
     <t>['30', '82']</t>
@@ -966,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1431,7 +1434,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1637,7 +1640,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2049,7 +2052,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2461,7 +2464,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2873,7 +2876,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3285,7 +3288,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3491,7 +3494,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3778,7 +3781,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3903,7 +3906,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4521,7 +4524,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4933,7 +4936,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5139,7 +5142,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5345,7 +5348,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5757,7 +5760,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6169,7 +6172,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6375,7 +6378,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6581,7 +6584,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6787,7 +6790,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7405,7 +7408,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8023,7 +8026,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8229,7 +8232,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -8516,7 +8519,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ37">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR37">
         <v>1.46</v>
@@ -8641,7 +8644,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8847,7 +8850,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9053,7 +9056,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9259,7 +9262,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9465,7 +9468,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9671,7 +9674,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10289,7 +10292,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10495,7 +10498,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10701,7 +10704,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11113,7 +11116,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11319,7 +11322,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11606,7 +11609,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ52">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR52">
         <v>1.92</v>
@@ -11731,7 +11734,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11937,7 +11940,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12143,7 +12146,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12349,7 +12352,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12761,7 +12764,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13379,7 +13382,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14078,7 +14081,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ64">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR64">
         <v>1.02</v>
@@ -14203,7 +14206,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14409,7 +14412,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14615,7 +14618,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14821,7 +14824,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -15233,7 +15236,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15439,7 +15442,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15645,7 +15648,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15851,7 +15854,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16469,7 +16472,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16675,7 +16678,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16881,7 +16884,7 @@
         <v>93</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17087,7 +17090,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17293,7 +17296,7 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17499,7 +17502,7 @@
         <v>93</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -17663,7 +17666,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7492237</v>
+        <v>7492236</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17672,94 +17675,94 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45590.5625</v>
+        <v>45589.875</v>
       </c>
       <c r="F82">
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O82" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="P82" t="s">
         <v>93</v>
       </c>
       <c r="Q82">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R82">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T82">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U82">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V82">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W82">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y82">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z82">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="AA82">
-        <v>3.45</v>
+        <v>3.58</v>
       </c>
       <c r="AB82">
-        <v>3.45</v>
+        <v>4.28</v>
       </c>
       <c r="AC82">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD82">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE82">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AF82">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AG82">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AH82">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AI82">
         <v>1.8</v>
@@ -17768,100 +17771,100 @@
         <v>1.95</v>
       </c>
       <c r="AK82">
+        <v>1.44</v>
+      </c>
+      <c r="AL82">
+        <v>1.3</v>
+      </c>
+      <c r="AM82">
+        <v>1.55</v>
+      </c>
+      <c r="AN82">
+        <v>1.33</v>
+      </c>
+      <c r="AO82">
+        <v>0.8</v>
+      </c>
+      <c r="AP82">
+        <v>1.75</v>
+      </c>
+      <c r="AQ82">
+        <v>0.67</v>
+      </c>
+      <c r="AR82">
+        <v>1.23</v>
+      </c>
+      <c r="AS82">
+        <v>1.23</v>
+      </c>
+      <c r="AT82">
+        <v>2.46</v>
+      </c>
+      <c r="AU82">
+        <v>2</v>
+      </c>
+      <c r="AV82">
+        <v>8</v>
+      </c>
+      <c r="AW82">
+        <v>3</v>
+      </c>
+      <c r="AX82">
+        <v>5</v>
+      </c>
+      <c r="AY82">
+        <v>5</v>
+      </c>
+      <c r="AZ82">
+        <v>13</v>
+      </c>
+      <c r="BA82">
+        <v>1</v>
+      </c>
+      <c r="BB82">
+        <v>3</v>
+      </c>
+      <c r="BC82">
+        <v>4</v>
+      </c>
+      <c r="BD82">
+        <v>1.67</v>
+      </c>
+      <c r="BE82">
+        <v>6.5</v>
+      </c>
+      <c r="BF82">
+        <v>2.48</v>
+      </c>
+      <c r="BG82">
+        <v>1.3</v>
+      </c>
+      <c r="BH82">
+        <v>3.15</v>
+      </c>
+      <c r="BI82">
+        <v>1.52</v>
+      </c>
+      <c r="BJ82">
+        <v>2.33</v>
+      </c>
+      <c r="BK82">
+        <v>1.85</v>
+      </c>
+      <c r="BL82">
+        <v>1.83</v>
+      </c>
+      <c r="BM82">
+        <v>2.33</v>
+      </c>
+      <c r="BN82">
+        <v>1.52</v>
+      </c>
+      <c r="BO82">
+        <v>3</v>
+      </c>
+      <c r="BP82">
         <v>1.32</v>
-      </c>
-      <c r="AL82">
-        <v>1.28</v>
-      </c>
-      <c r="AM82">
-        <v>1.75</v>
-      </c>
-      <c r="AN82">
-        <v>2.25</v>
-      </c>
-      <c r="AO82">
-        <v>1.33</v>
-      </c>
-      <c r="AP82">
-        <v>2.4</v>
-      </c>
-      <c r="AQ82">
-        <v>1</v>
-      </c>
-      <c r="AR82">
-        <v>1.1</v>
-      </c>
-      <c r="AS82">
-        <v>1.3</v>
-      </c>
-      <c r="AT82">
-        <v>2.4</v>
-      </c>
-      <c r="AU82">
-        <v>5</v>
-      </c>
-      <c r="AV82">
-        <v>0</v>
-      </c>
-      <c r="AW82">
-        <v>7</v>
-      </c>
-      <c r="AX82">
-        <v>4</v>
-      </c>
-      <c r="AY82">
-        <v>14</v>
-      </c>
-      <c r="AZ82">
-        <v>4</v>
-      </c>
-      <c r="BA82">
-        <v>2</v>
-      </c>
-      <c r="BB82">
-        <v>4</v>
-      </c>
-      <c r="BC82">
-        <v>6</v>
-      </c>
-      <c r="BD82">
-        <v>1.74</v>
-      </c>
-      <c r="BE82">
-        <v>6.75</v>
-      </c>
-      <c r="BF82">
-        <v>2.3</v>
-      </c>
-      <c r="BG82">
-        <v>1.2</v>
-      </c>
-      <c r="BH82">
-        <v>3.9</v>
-      </c>
-      <c r="BI82">
-        <v>1.36</v>
-      </c>
-      <c r="BJ82">
-        <v>2.8</v>
-      </c>
-      <c r="BK82">
-        <v>1.6</v>
-      </c>
-      <c r="BL82">
-        <v>2.17</v>
-      </c>
-      <c r="BM82">
-        <v>1.96</v>
-      </c>
-      <c r="BN82">
-        <v>1.74</v>
-      </c>
-      <c r="BO82">
-        <v>2.43</v>
-      </c>
-      <c r="BP82">
-        <v>1.48</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17869,7 +17872,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7492236</v>
+        <v>7492237</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17878,94 +17881,94 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45590.65625</v>
+        <v>45589.875</v>
       </c>
       <c r="F83">
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O83" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P83" t="s">
         <v>93</v>
       </c>
       <c r="Q83">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R83">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S83">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T83">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U83">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V83">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W83">
+        <v>1.36</v>
+      </c>
+      <c r="X83">
+        <v>8</v>
+      </c>
+      <c r="Y83">
+        <v>1.08</v>
+      </c>
+      <c r="Z83">
+        <v>2.12</v>
+      </c>
+      <c r="AA83">
+        <v>3.45</v>
+      </c>
+      <c r="AB83">
+        <v>3.45</v>
+      </c>
+      <c r="AC83">
+        <v>1.06</v>
+      </c>
+      <c r="AD83">
+        <v>10</v>
+      </c>
+      <c r="AE83">
         <v>1.33</v>
       </c>
-      <c r="X83">
-        <v>9</v>
-      </c>
-      <c r="Y83">
-        <v>1.07</v>
-      </c>
-      <c r="Z83">
-        <v>1.7</v>
-      </c>
-      <c r="AA83">
-        <v>3.58</v>
-      </c>
-      <c r="AB83">
-        <v>4.28</v>
-      </c>
-      <c r="AC83">
-        <v>1.07</v>
-      </c>
-      <c r="AD83">
-        <v>9.5</v>
-      </c>
-      <c r="AE83">
-        <v>1.38</v>
-      </c>
       <c r="AF83">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AG83">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AH83">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AI83">
         <v>1.8</v>
@@ -17974,100 +17977,306 @@
         <v>1.95</v>
       </c>
       <c r="AK83">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="AL83">
+        <v>1.28</v>
+      </c>
+      <c r="AM83">
+        <v>1.75</v>
+      </c>
+      <c r="AN83">
+        <v>2.25</v>
+      </c>
+      <c r="AO83">
+        <v>1.33</v>
+      </c>
+      <c r="AP83">
+        <v>2.4</v>
+      </c>
+      <c r="AQ83">
+        <v>1</v>
+      </c>
+      <c r="AR83">
+        <v>1.1</v>
+      </c>
+      <c r="AS83">
         <v>1.3</v>
       </c>
-      <c r="AM83">
-        <v>1.55</v>
-      </c>
-      <c r="AN83">
+      <c r="AT83">
+        <v>2.4</v>
+      </c>
+      <c r="AU83">
+        <v>5</v>
+      </c>
+      <c r="AV83">
+        <v>0</v>
+      </c>
+      <c r="AW83">
+        <v>7</v>
+      </c>
+      <c r="AX83">
+        <v>4</v>
+      </c>
+      <c r="AY83">
+        <v>14</v>
+      </c>
+      <c r="AZ83">
+        <v>4</v>
+      </c>
+      <c r="BA83">
+        <v>2</v>
+      </c>
+      <c r="BB83">
+        <v>4</v>
+      </c>
+      <c r="BC83">
+        <v>6</v>
+      </c>
+      <c r="BD83">
+        <v>1.74</v>
+      </c>
+      <c r="BE83">
+        <v>6.75</v>
+      </c>
+      <c r="BF83">
+        <v>2.3</v>
+      </c>
+      <c r="BG83">
+        <v>1.2</v>
+      </c>
+      <c r="BH83">
+        <v>3.9</v>
+      </c>
+      <c r="BI83">
+        <v>1.36</v>
+      </c>
+      <c r="BJ83">
+        <v>2.8</v>
+      </c>
+      <c r="BK83">
+        <v>1.6</v>
+      </c>
+      <c r="BL83">
+        <v>2.17</v>
+      </c>
+      <c r="BM83">
+        <v>1.96</v>
+      </c>
+      <c r="BN83">
+        <v>1.74</v>
+      </c>
+      <c r="BO83">
+        <v>2.43</v>
+      </c>
+      <c r="BP83">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7492234</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45591.41666666666</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>86</v>
+      </c>
+      <c r="H84" t="s">
+        <v>78</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>149</v>
+      </c>
+      <c r="P84" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q84">
+        <v>1.8</v>
+      </c>
+      <c r="R84">
+        <v>2.5</v>
+      </c>
+      <c r="S84">
+        <v>8.5</v>
+      </c>
+      <c r="T84">
         <v>1.33</v>
       </c>
-      <c r="AO83">
-        <v>0.8</v>
-      </c>
-      <c r="AP83">
-        <v>1.75</v>
-      </c>
-      <c r="AQ83">
-        <v>0.67</v>
-      </c>
-      <c r="AR83">
-        <v>1.23</v>
-      </c>
-      <c r="AS83">
-        <v>1.23</v>
-      </c>
-      <c r="AT83">
-        <v>2.46</v>
-      </c>
-      <c r="AU83">
-        <v>3</v>
-      </c>
-      <c r="AV83">
+      <c r="U84">
+        <v>3.25</v>
+      </c>
+      <c r="V84">
+        <v>2.5</v>
+      </c>
+      <c r="W84">
+        <v>1.5</v>
+      </c>
+      <c r="X84">
+        <v>6.5</v>
+      </c>
+      <c r="Y84">
+        <v>1.11</v>
+      </c>
+      <c r="Z84">
+        <v>1.29</v>
+      </c>
+      <c r="AA84">
+        <v>5.5</v>
+      </c>
+      <c r="AB84">
+        <v>11</v>
+      </c>
+      <c r="AC84">
+        <v>1.03</v>
+      </c>
+      <c r="AD84">
+        <v>15</v>
+      </c>
+      <c r="AE84">
+        <v>1.22</v>
+      </c>
+      <c r="AF84">
+        <v>4.33</v>
+      </c>
+      <c r="AG84">
+        <v>1.65</v>
+      </c>
+      <c r="AH84">
+        <v>2.1</v>
+      </c>
+      <c r="AI84">
+        <v>2.2</v>
+      </c>
+      <c r="AJ84">
+        <v>1.62</v>
+      </c>
+      <c r="AK84">
+        <v>1.04</v>
+      </c>
+      <c r="AL84">
+        <v>1.12</v>
+      </c>
+      <c r="AM84">
+        <v>3.5</v>
+      </c>
+      <c r="AN84">
+        <v>3</v>
+      </c>
+      <c r="AO84">
+        <v>0.25</v>
+      </c>
+      <c r="AP84">
+        <v>3</v>
+      </c>
+      <c r="AQ84">
+        <v>0.2</v>
+      </c>
+      <c r="AR84">
+        <v>1.49</v>
+      </c>
+      <c r="AS84">
+        <v>1.5</v>
+      </c>
+      <c r="AT84">
+        <v>2.99</v>
+      </c>
+      <c r="AU84">
+        <v>9</v>
+      </c>
+      <c r="AV84">
+        <v>3</v>
+      </c>
+      <c r="AW84">
         <v>7</v>
       </c>
-      <c r="AW83">
+      <c r="AX84">
         <v>4</v>
       </c>
-      <c r="AX83">
-        <v>6</v>
-      </c>
-      <c r="AY83">
-        <v>10</v>
-      </c>
-      <c r="AZ83">
+      <c r="AY84">
+        <v>25</v>
+      </c>
+      <c r="AZ84">
+        <v>12</v>
+      </c>
+      <c r="BA84">
+        <v>16</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
         <v>21</v>
       </c>
-      <c r="BA83">
-        <v>1</v>
-      </c>
-      <c r="BB83">
-        <v>3</v>
-      </c>
-      <c r="BC83">
-        <v>4</v>
-      </c>
-      <c r="BD83">
-        <v>1.67</v>
-      </c>
-      <c r="BE83">
-        <v>6.5</v>
-      </c>
-      <c r="BF83">
-        <v>2.48</v>
-      </c>
-      <c r="BG83">
-        <v>1.3</v>
-      </c>
-      <c r="BH83">
-        <v>3.15</v>
-      </c>
-      <c r="BI83">
-        <v>1.52</v>
-      </c>
-      <c r="BJ83">
-        <v>2.33</v>
-      </c>
-      <c r="BK83">
-        <v>1.85</v>
-      </c>
-      <c r="BL83">
-        <v>1.83</v>
-      </c>
-      <c r="BM83">
-        <v>2.33</v>
-      </c>
-      <c r="BN83">
-        <v>1.52</v>
-      </c>
-      <c r="BO83">
-        <v>3</v>
-      </c>
-      <c r="BP83">
-        <v>1.32</v>
+      <c r="BD84">
+        <v>1.2</v>
+      </c>
+      <c r="BE84">
+        <v>8.5</v>
+      </c>
+      <c r="BF84">
+        <v>4.9</v>
+      </c>
+      <c r="BG84">
+        <v>1.28</v>
+      </c>
+      <c r="BH84">
+        <v>3.2</v>
+      </c>
+      <c r="BI84">
+        <v>1.49</v>
+      </c>
+      <c r="BJ84">
+        <v>2.4</v>
+      </c>
+      <c r="BK84">
+        <v>1.79</v>
+      </c>
+      <c r="BL84">
+        <v>1.9</v>
+      </c>
+      <c r="BM84">
+        <v>2.23</v>
+      </c>
+      <c r="BN84">
+        <v>1.57</v>
+      </c>
+      <c r="BO84">
+        <v>2.8</v>
+      </c>
+      <c r="BP84">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="200">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,9 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['6', '9', '14', '29', '34', '58']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -608,6 +611,9 @@
   </si>
   <si>
     <t>['9', '74', '79']</t>
+  </si>
+  <si>
+    <t>['42']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1434,7 +1440,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1640,7 +1646,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2052,7 +2058,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2464,7 +2470,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2876,7 +2882,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3288,7 +3294,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3494,7 +3500,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3906,7 +3912,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4524,7 +4530,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4936,7 +4942,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5142,7 +5148,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5348,7 +5354,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5760,7 +5766,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6172,7 +6178,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6378,7 +6384,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6584,7 +6590,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6790,7 +6796,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6871,7 +6877,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -7408,7 +7414,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8026,7 +8032,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8232,7 +8238,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -8310,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ36">
         <v>1.25</v>
@@ -8644,7 +8650,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8850,7 +8856,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9056,7 +9062,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9262,7 +9268,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9343,7 +9349,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -9468,7 +9474,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9674,7 +9680,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10292,7 +10298,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10498,7 +10504,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10704,7 +10710,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11116,7 +11122,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11322,7 +11328,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11400,7 +11406,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ51">
         <v>0.67</v>
@@ -11734,7 +11740,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11940,7 +11946,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12146,7 +12152,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12352,7 +12358,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12764,7 +12770,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12845,7 +12851,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13382,7 +13388,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14206,7 +14212,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14284,7 +14290,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14412,7 +14418,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14618,7 +14624,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14824,7 +14830,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -15236,7 +15242,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15442,7 +15448,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15648,7 +15654,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15854,7 +15860,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16472,7 +16478,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16678,7 +16684,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16884,7 +16890,7 @@
         <v>93</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17090,7 +17096,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17296,7 +17302,7 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17502,7 +17508,7 @@
         <v>93</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -17801,22 +17807,22 @@
         <v>2.46</v>
       </c>
       <c r="AU82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV82">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY82">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ82">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA82">
         <v>1</v>
@@ -18277,6 +18283,212 @@
       </c>
       <c r="BP84">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7492228</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45591.65625</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>89</v>
+      </c>
+      <c r="H85" t="s">
+        <v>75</v>
+      </c>
+      <c r="I85">
+        <v>5</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>6</v>
+      </c>
+      <c r="L85">
+        <v>6</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>7</v>
+      </c>
+      <c r="O85" t="s">
+        <v>150</v>
+      </c>
+      <c r="P85" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q85">
+        <v>1.83</v>
+      </c>
+      <c r="R85">
+        <v>2.63</v>
+      </c>
+      <c r="S85">
+        <v>6.5</v>
+      </c>
+      <c r="T85">
+        <v>1.25</v>
+      </c>
+      <c r="U85">
+        <v>3.75</v>
+      </c>
+      <c r="V85">
+        <v>2.2</v>
+      </c>
+      <c r="W85">
+        <v>1.62</v>
+      </c>
+      <c r="X85">
+        <v>5</v>
+      </c>
+      <c r="Y85">
+        <v>1.17</v>
+      </c>
+      <c r="Z85">
+        <v>1.38</v>
+      </c>
+      <c r="AA85">
+        <v>4.7</v>
+      </c>
+      <c r="AB85">
+        <v>8</v>
+      </c>
+      <c r="AC85">
+        <v>1.01</v>
+      </c>
+      <c r="AD85">
+        <v>21</v>
+      </c>
+      <c r="AE85">
+        <v>1.16</v>
+      </c>
+      <c r="AF85">
+        <v>5.5</v>
+      </c>
+      <c r="AG85">
+        <v>1.52</v>
+      </c>
+      <c r="AH85">
+        <v>2.55</v>
+      </c>
+      <c r="AI85">
+        <v>1.75</v>
+      </c>
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AK85">
+        <v>1.08</v>
+      </c>
+      <c r="AL85">
+        <v>1.13</v>
+      </c>
+      <c r="AM85">
+        <v>3</v>
+      </c>
+      <c r="AN85">
+        <v>2</v>
+      </c>
+      <c r="AO85">
+        <v>1</v>
+      </c>
+      <c r="AP85">
+        <v>2.25</v>
+      </c>
+      <c r="AQ85">
+        <v>0.75</v>
+      </c>
+      <c r="AR85">
+        <v>1.74</v>
+      </c>
+      <c r="AS85">
+        <v>0.91</v>
+      </c>
+      <c r="AT85">
+        <v>2.65</v>
+      </c>
+      <c r="AU85">
+        <v>11</v>
+      </c>
+      <c r="AV85">
+        <v>3</v>
+      </c>
+      <c r="AW85">
+        <v>6</v>
+      </c>
+      <c r="AX85">
+        <v>2</v>
+      </c>
+      <c r="AY85">
+        <v>21</v>
+      </c>
+      <c r="AZ85">
+        <v>5</v>
+      </c>
+      <c r="BA85">
+        <v>4</v>
+      </c>
+      <c r="BB85">
+        <v>2</v>
+      </c>
+      <c r="BC85">
+        <v>6</v>
+      </c>
+      <c r="BD85">
+        <v>1.35</v>
+      </c>
+      <c r="BE85">
+        <v>7</v>
+      </c>
+      <c r="BF85">
+        <v>3.55</v>
+      </c>
+      <c r="BG85">
+        <v>1.3</v>
+      </c>
+      <c r="BH85">
+        <v>3.05</v>
+      </c>
+      <c r="BI85">
+        <v>1.55</v>
+      </c>
+      <c r="BJ85">
+        <v>2.28</v>
+      </c>
+      <c r="BK85">
+        <v>1.9</v>
+      </c>
+      <c r="BL85">
+        <v>1.79</v>
+      </c>
+      <c r="BM85">
+        <v>2.4</v>
+      </c>
+      <c r="BN85">
+        <v>1.49</v>
+      </c>
+      <c r="BO85">
+        <v>3.1</v>
+      </c>
+      <c r="BP85">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,18 @@
     <t>['6', '9', '14', '29', '34', '58']</t>
   </si>
   <si>
+    <t>['21', '86', '90+4']</t>
+  </si>
+  <si>
+    <t>['23', '44']</t>
+  </si>
+  <si>
+    <t>['15', '35', '37', '53']</t>
+  </si>
+  <si>
+    <t>['9', '17', '41', '52', '71']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -614,6 +626,18 @@
   </si>
   <si>
     <t>['42']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['15', '39']</t>
+  </si>
+  <si>
+    <t>['20', '26', '71', '82']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -975,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1440,7 +1464,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1646,7 +1670,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2058,7 +2082,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2470,7 +2494,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2548,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ8">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2757,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2882,7 +2906,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3294,7 +3318,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3500,7 +3524,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3784,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.2</v>
@@ -3912,7 +3936,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -3990,10 +4014,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4196,10 +4220,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ16">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4530,7 +4554,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4611,7 +4635,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4942,7 +4966,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5148,7 +5172,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5229,7 +5253,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>1.14</v>
@@ -5354,7 +5378,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5638,7 +5662,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>1.4</v>
@@ -5766,7 +5790,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -5847,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR24">
         <v>2.04</v>
@@ -6178,7 +6202,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6384,7 +6408,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6462,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6590,7 +6614,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6668,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ28">
         <v>1.25</v>
@@ -6796,7 +6820,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7289,7 +7313,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR31">
         <v>1.66</v>
@@ -7414,7 +7438,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7701,7 +7725,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ33">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>0.96</v>
@@ -7907,7 +7931,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ34">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR34">
         <v>2.22</v>
@@ -8032,7 +8056,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8113,7 +8137,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR35">
         <v>1.23</v>
@@ -8238,7 +8262,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -8650,7 +8674,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8856,7 +8880,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -8934,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9062,7 +9086,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9268,7 +9292,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9346,7 +9370,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ41">
         <v>0.75</v>
@@ -9474,7 +9498,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9555,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -9680,7 +9704,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9967,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10298,7 +10322,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10504,7 +10528,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10582,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ47">
         <v>0.75</v>
@@ -10710,7 +10734,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10788,7 +10812,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ48">
         <v>1.25</v>
@@ -11122,7 +11146,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11200,7 +11224,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11328,7 +11352,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11740,7 +11764,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11946,7 +11970,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12027,7 +12051,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ54">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12152,7 +12176,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12358,7 +12382,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12645,7 +12669,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR57">
         <v>2.07</v>
@@ -12770,7 +12794,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13388,7 +13412,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13881,7 +13905,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ63">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR63">
         <v>0.9</v>
@@ -14212,7 +14236,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14293,7 +14317,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
         <v>1.65</v>
@@ -14418,7 +14442,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14496,7 +14520,7 @@
         <v>2.33</v>
       </c>
       <c r="AP66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1.4</v>
@@ -14624,7 +14648,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14830,7 +14854,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -14908,10 +14932,10 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ68">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR68">
         <v>1.44</v>
@@ -15242,7 +15266,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15320,10 +15344,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR70">
         <v>0.9399999999999999</v>
@@ -15448,7 +15472,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15526,7 +15550,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15654,7 +15678,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15860,7 +15884,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16478,7 +16502,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16684,7 +16708,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16890,7 +16914,7 @@
         <v>93</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17096,7 +17120,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17302,7 +17326,7 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17508,7 +17532,7 @@
         <v>93</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -17672,7 +17696,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7492236</v>
+        <v>7492237</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17681,94 +17705,94 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45589.875</v>
+        <v>45590.5625</v>
       </c>
       <c r="F82">
         <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O82" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P82" t="s">
         <v>93</v>
       </c>
       <c r="Q82">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S82">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T82">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U82">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V82">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W82">
+        <v>1.36</v>
+      </c>
+      <c r="X82">
+        <v>8</v>
+      </c>
+      <c r="Y82">
+        <v>1.08</v>
+      </c>
+      <c r="Z82">
+        <v>2.12</v>
+      </c>
+      <c r="AA82">
+        <v>3.45</v>
+      </c>
+      <c r="AB82">
+        <v>3.45</v>
+      </c>
+      <c r="AC82">
+        <v>1.06</v>
+      </c>
+      <c r="AD82">
+        <v>10</v>
+      </c>
+      <c r="AE82">
         <v>1.33</v>
       </c>
-      <c r="X82">
-        <v>9</v>
-      </c>
-      <c r="Y82">
-        <v>1.07</v>
-      </c>
-      <c r="Z82">
-        <v>1.7</v>
-      </c>
-      <c r="AA82">
-        <v>3.58</v>
-      </c>
-      <c r="AB82">
-        <v>4.28</v>
-      </c>
-      <c r="AC82">
-        <v>1.07</v>
-      </c>
-      <c r="AD82">
-        <v>9.5</v>
-      </c>
-      <c r="AE82">
-        <v>1.38</v>
-      </c>
       <c r="AF82">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AG82">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AH82">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AI82">
         <v>1.8</v>
@@ -17777,100 +17801,100 @@
         <v>1.95</v>
       </c>
       <c r="AK82">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.75</v>
+      </c>
+      <c r="AN82">
+        <v>2.25</v>
+      </c>
+      <c r="AO82">
+        <v>1.33</v>
+      </c>
+      <c r="AP82">
+        <v>2.4</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+      <c r="AR82">
+        <v>1.1</v>
+      </c>
+      <c r="AS82">
         <v>1.3</v>
       </c>
-      <c r="AM82">
-        <v>1.55</v>
-      </c>
-      <c r="AN82">
-        <v>1.33</v>
-      </c>
-      <c r="AO82">
-        <v>0.8</v>
-      </c>
-      <c r="AP82">
-        <v>1.75</v>
-      </c>
-      <c r="AQ82">
-        <v>0.67</v>
-      </c>
-      <c r="AR82">
-        <v>1.23</v>
-      </c>
-      <c r="AS82">
-        <v>1.23</v>
-      </c>
       <c r="AT82">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="AU82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV82">
+        <v>0</v>
+      </c>
+      <c r="AW82">
         <v>7</v>
       </c>
-      <c r="AW82">
+      <c r="AX82">
         <v>4</v>
       </c>
-      <c r="AX82">
+      <c r="AY82">
+        <v>14</v>
+      </c>
+      <c r="AZ82">
+        <v>4</v>
+      </c>
+      <c r="BA82">
+        <v>2</v>
+      </c>
+      <c r="BB82">
+        <v>4</v>
+      </c>
+      <c r="BC82">
         <v>6</v>
       </c>
-      <c r="AY82">
-        <v>10</v>
-      </c>
-      <c r="AZ82">
-        <v>21</v>
-      </c>
-      <c r="BA82">
-        <v>1</v>
-      </c>
-      <c r="BB82">
-        <v>3</v>
-      </c>
-      <c r="BC82">
-        <v>4</v>
-      </c>
       <c r="BD82">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="BE82">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF82">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="BG82">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BH82">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="BI82">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="BJ82">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="BK82">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="BL82">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="BM82">
-        <v>2.33</v>
+        <v>1.96</v>
       </c>
       <c r="BN82">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="BO82">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="BP82">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17878,7 +17902,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7492237</v>
+        <v>7492236</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17887,94 +17911,94 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45589.875</v>
+        <v>45590.65625</v>
       </c>
       <c r="F83">
         <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O83" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="P83" t="s">
         <v>93</v>
       </c>
       <c r="Q83">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R83">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S83">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T83">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U83">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V83">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W83">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X83">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y83">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z83">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="AA83">
-        <v>3.45</v>
+        <v>3.58</v>
       </c>
       <c r="AB83">
-        <v>3.45</v>
+        <v>4.28</v>
       </c>
       <c r="AC83">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD83">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE83">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AF83">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AG83">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AH83">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AI83">
         <v>1.8</v>
@@ -17983,100 +18007,100 @@
         <v>1.95</v>
       </c>
       <c r="AK83">
+        <v>1.44</v>
+      </c>
+      <c r="AL83">
+        <v>1.3</v>
+      </c>
+      <c r="AM83">
+        <v>1.55</v>
+      </c>
+      <c r="AN83">
+        <v>1.33</v>
+      </c>
+      <c r="AO83">
+        <v>0.8</v>
+      </c>
+      <c r="AP83">
+        <v>1.75</v>
+      </c>
+      <c r="AQ83">
+        <v>0.67</v>
+      </c>
+      <c r="AR83">
+        <v>1.23</v>
+      </c>
+      <c r="AS83">
+        <v>1.23</v>
+      </c>
+      <c r="AT83">
+        <v>2.46</v>
+      </c>
+      <c r="AU83">
+        <v>3</v>
+      </c>
+      <c r="AV83">
+        <v>7</v>
+      </c>
+      <c r="AW83">
+        <v>4</v>
+      </c>
+      <c r="AX83">
+        <v>6</v>
+      </c>
+      <c r="AY83">
+        <v>10</v>
+      </c>
+      <c r="AZ83">
+        <v>21</v>
+      </c>
+      <c r="BA83">
+        <v>1</v>
+      </c>
+      <c r="BB83">
+        <v>3</v>
+      </c>
+      <c r="BC83">
+        <v>4</v>
+      </c>
+      <c r="BD83">
+        <v>1.67</v>
+      </c>
+      <c r="BE83">
+        <v>6.5</v>
+      </c>
+      <c r="BF83">
+        <v>2.48</v>
+      </c>
+      <c r="BG83">
+        <v>1.3</v>
+      </c>
+      <c r="BH83">
+        <v>3.15</v>
+      </c>
+      <c r="BI83">
+        <v>1.52</v>
+      </c>
+      <c r="BJ83">
+        <v>2.33</v>
+      </c>
+      <c r="BK83">
+        <v>1.85</v>
+      </c>
+      <c r="BL83">
+        <v>1.83</v>
+      </c>
+      <c r="BM83">
+        <v>2.33</v>
+      </c>
+      <c r="BN83">
+        <v>1.52</v>
+      </c>
+      <c r="BO83">
+        <v>3</v>
+      </c>
+      <c r="BP83">
         <v>1.32</v>
-      </c>
-      <c r="AL83">
-        <v>1.28</v>
-      </c>
-      <c r="AM83">
-        <v>1.75</v>
-      </c>
-      <c r="AN83">
-        <v>2.25</v>
-      </c>
-      <c r="AO83">
-        <v>1.33</v>
-      </c>
-      <c r="AP83">
-        <v>2.4</v>
-      </c>
-      <c r="AQ83">
-        <v>1</v>
-      </c>
-      <c r="AR83">
-        <v>1.1</v>
-      </c>
-      <c r="AS83">
-        <v>1.3</v>
-      </c>
-      <c r="AT83">
-        <v>2.4</v>
-      </c>
-      <c r="AU83">
-        <v>5</v>
-      </c>
-      <c r="AV83">
-        <v>0</v>
-      </c>
-      <c r="AW83">
-        <v>7</v>
-      </c>
-      <c r="AX83">
-        <v>4</v>
-      </c>
-      <c r="AY83">
-        <v>14</v>
-      </c>
-      <c r="AZ83">
-        <v>4</v>
-      </c>
-      <c r="BA83">
-        <v>2</v>
-      </c>
-      <c r="BB83">
-        <v>4</v>
-      </c>
-      <c r="BC83">
-        <v>6</v>
-      </c>
-      <c r="BD83">
-        <v>1.74</v>
-      </c>
-      <c r="BE83">
-        <v>6.75</v>
-      </c>
-      <c r="BF83">
-        <v>2.3</v>
-      </c>
-      <c r="BG83">
-        <v>1.2</v>
-      </c>
-      <c r="BH83">
-        <v>3.9</v>
-      </c>
-      <c r="BI83">
-        <v>1.36</v>
-      </c>
-      <c r="BJ83">
-        <v>2.8</v>
-      </c>
-      <c r="BK83">
-        <v>1.6</v>
-      </c>
-      <c r="BL83">
-        <v>2.17</v>
-      </c>
-      <c r="BM83">
-        <v>1.96</v>
-      </c>
-      <c r="BN83">
-        <v>1.74</v>
-      </c>
-      <c r="BO83">
-        <v>2.43</v>
-      </c>
-      <c r="BP83">
-        <v>1.48</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18332,7 +18356,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18489,6 +18513,1036 @@
       </c>
       <c r="BP85">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7492235</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45591.875</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" t="s">
+        <v>73</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>102</v>
+      </c>
+      <c r="P86" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q86">
+        <v>2.88</v>
+      </c>
+      <c r="R86">
+        <v>2.2</v>
+      </c>
+      <c r="S86">
+        <v>3.75</v>
+      </c>
+      <c r="T86">
+        <v>1.4</v>
+      </c>
+      <c r="U86">
+        <v>2.75</v>
+      </c>
+      <c r="V86">
+        <v>3</v>
+      </c>
+      <c r="W86">
+        <v>1.36</v>
+      </c>
+      <c r="X86">
+        <v>8</v>
+      </c>
+      <c r="Y86">
+        <v>1.08</v>
+      </c>
+      <c r="Z86">
+        <v>2.21</v>
+      </c>
+      <c r="AA86">
+        <v>3.1</v>
+      </c>
+      <c r="AB86">
+        <v>3</v>
+      </c>
+      <c r="AC86">
+        <v>1.07</v>
+      </c>
+      <c r="AD86">
+        <v>10</v>
+      </c>
+      <c r="AE86">
+        <v>1.33</v>
+      </c>
+      <c r="AF86">
+        <v>3.3</v>
+      </c>
+      <c r="AG86">
+        <v>2.02</v>
+      </c>
+      <c r="AH86">
+        <v>1.79</v>
+      </c>
+      <c r="AI86">
+        <v>1.75</v>
+      </c>
+      <c r="AJ86">
+        <v>2</v>
+      </c>
+      <c r="AK86">
+        <v>1.33</v>
+      </c>
+      <c r="AL86">
+        <v>1.28</v>
+      </c>
+      <c r="AM86">
+        <v>1.7</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>1.75</v>
+      </c>
+      <c r="AP86">
+        <v>1</v>
+      </c>
+      <c r="AQ86">
+        <v>1.6</v>
+      </c>
+      <c r="AR86">
+        <v>1.33</v>
+      </c>
+      <c r="AS86">
+        <v>0.91</v>
+      </c>
+      <c r="AT86">
+        <v>2.24</v>
+      </c>
+      <c r="AU86">
+        <v>5</v>
+      </c>
+      <c r="AV86">
+        <v>2</v>
+      </c>
+      <c r="AW86">
+        <v>8</v>
+      </c>
+      <c r="AX86">
+        <v>4</v>
+      </c>
+      <c r="AY86">
+        <v>18</v>
+      </c>
+      <c r="AZ86">
+        <v>6</v>
+      </c>
+      <c r="BA86">
+        <v>9</v>
+      </c>
+      <c r="BB86">
+        <v>3</v>
+      </c>
+      <c r="BC86">
+        <v>12</v>
+      </c>
+      <c r="BD86">
+        <v>1.71</v>
+      </c>
+      <c r="BE86">
+        <v>9</v>
+      </c>
+      <c r="BF86">
+        <v>2.55</v>
+      </c>
+      <c r="BG86">
+        <v>1.15</v>
+      </c>
+      <c r="BH86">
+        <v>4.05</v>
+      </c>
+      <c r="BI86">
+        <v>1.32</v>
+      </c>
+      <c r="BJ86">
+        <v>2.78</v>
+      </c>
+      <c r="BK86">
+        <v>1.62</v>
+      </c>
+      <c r="BL86">
+        <v>2.14</v>
+      </c>
+      <c r="BM86">
+        <v>2.07</v>
+      </c>
+      <c r="BN86">
+        <v>1.72</v>
+      </c>
+      <c r="BO86">
+        <v>2.64</v>
+      </c>
+      <c r="BP86">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7492232</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45592.45833333334</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>76</v>
+      </c>
+      <c r="H87" t="s">
+        <v>71</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>151</v>
+      </c>
+      <c r="P87" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q87">
+        <v>2.1</v>
+      </c>
+      <c r="R87">
+        <v>2.3</v>
+      </c>
+      <c r="S87">
+        <v>6</v>
+      </c>
+      <c r="T87">
+        <v>1.36</v>
+      </c>
+      <c r="U87">
+        <v>3</v>
+      </c>
+      <c r="V87">
+        <v>2.63</v>
+      </c>
+      <c r="W87">
+        <v>1.44</v>
+      </c>
+      <c r="X87">
+        <v>7</v>
+      </c>
+      <c r="Y87">
+        <v>1.1</v>
+      </c>
+      <c r="Z87">
+        <v>1.51</v>
+      </c>
+      <c r="AA87">
+        <v>3.9</v>
+      </c>
+      <c r="AB87">
+        <v>5.4</v>
+      </c>
+      <c r="AC87">
+        <v>1.04</v>
+      </c>
+      <c r="AD87">
+        <v>13</v>
+      </c>
+      <c r="AE87">
+        <v>1.28</v>
+      </c>
+      <c r="AF87">
+        <v>3.75</v>
+      </c>
+      <c r="AG87">
+        <v>1.81</v>
+      </c>
+      <c r="AH87">
+        <v>2</v>
+      </c>
+      <c r="AI87">
+        <v>1.95</v>
+      </c>
+      <c r="AJ87">
+        <v>1.8</v>
+      </c>
+      <c r="AK87">
+        <v>1.12</v>
+      </c>
+      <c r="AL87">
+        <v>1.19</v>
+      </c>
+      <c r="AM87">
+        <v>2.5</v>
+      </c>
+      <c r="AN87">
+        <v>2.5</v>
+      </c>
+      <c r="AO87">
+        <v>1</v>
+      </c>
+      <c r="AP87">
+        <v>2.6</v>
+      </c>
+      <c r="AQ87">
+        <v>0.75</v>
+      </c>
+      <c r="AR87">
+        <v>1.49</v>
+      </c>
+      <c r="AS87">
+        <v>0.68</v>
+      </c>
+      <c r="AT87">
+        <v>2.17</v>
+      </c>
+      <c r="AU87">
+        <v>5</v>
+      </c>
+      <c r="AV87">
+        <v>3</v>
+      </c>
+      <c r="AW87">
+        <v>10</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>19</v>
+      </c>
+      <c r="AZ87">
+        <v>8</v>
+      </c>
+      <c r="BA87">
+        <v>7</v>
+      </c>
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
+        <v>11</v>
+      </c>
+      <c r="BD87">
+        <v>1.32</v>
+      </c>
+      <c r="BE87">
+        <v>10.25</v>
+      </c>
+      <c r="BF87">
+        <v>4.33</v>
+      </c>
+      <c r="BG87">
+        <v>1.24</v>
+      </c>
+      <c r="BH87">
+        <v>3.22</v>
+      </c>
+      <c r="BI87">
+        <v>1.5</v>
+      </c>
+      <c r="BJ87">
+        <v>2.38</v>
+      </c>
+      <c r="BK87">
+        <v>1.89</v>
+      </c>
+      <c r="BL87">
+        <v>1.87</v>
+      </c>
+      <c r="BM87">
+        <v>2.4</v>
+      </c>
+      <c r="BN87">
+        <v>1.49</v>
+      </c>
+      <c r="BO87">
+        <v>3.14</v>
+      </c>
+      <c r="BP87">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7492233</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45592.45833333334</v>
+      </c>
+      <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>82</v>
+      </c>
+      <c r="H88" t="s">
+        <v>87</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>152</v>
+      </c>
+      <c r="P88" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q88">
+        <v>2.88</v>
+      </c>
+      <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
+        <v>4</v>
+      </c>
+      <c r="T88">
+        <v>1.5</v>
+      </c>
+      <c r="U88">
+        <v>2.5</v>
+      </c>
+      <c r="V88">
+        <v>3.4</v>
+      </c>
+      <c r="W88">
+        <v>1.3</v>
+      </c>
+      <c r="X88">
+        <v>10</v>
+      </c>
+      <c r="Y88">
+        <v>1.06</v>
+      </c>
+      <c r="Z88">
+        <v>2.16</v>
+      </c>
+      <c r="AA88">
+        <v>3</v>
+      </c>
+      <c r="AB88">
+        <v>3.3</v>
+      </c>
+      <c r="AC88">
+        <v>1.08</v>
+      </c>
+      <c r="AD88">
+        <v>8.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.42</v>
+      </c>
+      <c r="AF88">
+        <v>2.9</v>
+      </c>
+      <c r="AG88">
+        <v>2.3</v>
+      </c>
+      <c r="AH88">
+        <v>1.62</v>
+      </c>
+      <c r="AI88">
+        <v>1.95</v>
+      </c>
+      <c r="AJ88">
+        <v>1.8</v>
+      </c>
+      <c r="AK88">
+        <v>1.3</v>
+      </c>
+      <c r="AL88">
+        <v>1.3</v>
+      </c>
+      <c r="AM88">
+        <v>1.72</v>
+      </c>
+      <c r="AN88">
+        <v>0.5</v>
+      </c>
+      <c r="AO88">
+        <v>0.2</v>
+      </c>
+      <c r="AP88">
+        <v>0.6</v>
+      </c>
+      <c r="AQ88">
+        <v>0.33</v>
+      </c>
+      <c r="AR88">
+        <v>0.85</v>
+      </c>
+      <c r="AS88">
+        <v>1.11</v>
+      </c>
+      <c r="AT88">
+        <v>1.96</v>
+      </c>
+      <c r="AU88">
+        <v>3</v>
+      </c>
+      <c r="AV88">
+        <v>3</v>
+      </c>
+      <c r="AW88">
+        <v>8</v>
+      </c>
+      <c r="AX88">
+        <v>2</v>
+      </c>
+      <c r="AY88">
+        <v>14</v>
+      </c>
+      <c r="AZ88">
+        <v>7</v>
+      </c>
+      <c r="BA88">
+        <v>4</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>7</v>
+      </c>
+      <c r="BD88">
+        <v>1.72</v>
+      </c>
+      <c r="BE88">
+        <v>8.4</v>
+      </c>
+      <c r="BF88">
+        <v>2.58</v>
+      </c>
+      <c r="BG88">
+        <v>1.3</v>
+      </c>
+      <c r="BH88">
+        <v>2.88</v>
+      </c>
+      <c r="BI88">
+        <v>1.61</v>
+      </c>
+      <c r="BJ88">
+        <v>2.15</v>
+      </c>
+      <c r="BK88">
+        <v>2.07</v>
+      </c>
+      <c r="BL88">
+        <v>1.72</v>
+      </c>
+      <c r="BM88">
+        <v>2.72</v>
+      </c>
+      <c r="BN88">
+        <v>1.39</v>
+      </c>
+      <c r="BO88">
+        <v>3.62</v>
+      </c>
+      <c r="BP88">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7492231</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45592.58333333334</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s">
+        <v>79</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>4</v>
+      </c>
+      <c r="N89">
+        <v>8</v>
+      </c>
+      <c r="O89" t="s">
+        <v>153</v>
+      </c>
+      <c r="P89" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q89">
+        <v>2.4</v>
+      </c>
+      <c r="R89">
+        <v>2.1</v>
+      </c>
+      <c r="S89">
+        <v>5</v>
+      </c>
+      <c r="T89">
+        <v>1.44</v>
+      </c>
+      <c r="U89">
+        <v>2.63</v>
+      </c>
+      <c r="V89">
+        <v>3.25</v>
+      </c>
+      <c r="W89">
+        <v>1.33</v>
+      </c>
+      <c r="X89">
+        <v>10</v>
+      </c>
+      <c r="Y89">
+        <v>1.06</v>
+      </c>
+      <c r="Z89">
+        <v>1.81</v>
+      </c>
+      <c r="AA89">
+        <v>2.99</v>
+      </c>
+      <c r="AB89">
+        <v>4.51</v>
+      </c>
+      <c r="AC89">
+        <v>1.08</v>
+      </c>
+      <c r="AD89">
+        <v>9</v>
+      </c>
+      <c r="AE89">
+        <v>1.4</v>
+      </c>
+      <c r="AF89">
+        <v>3</v>
+      </c>
+      <c r="AG89">
+        <v>2.08</v>
+      </c>
+      <c r="AH89">
+        <v>1.7</v>
+      </c>
+      <c r="AI89">
+        <v>2</v>
+      </c>
+      <c r="AJ89">
+        <v>1.75</v>
+      </c>
+      <c r="AK89">
+        <v>1.18</v>
+      </c>
+      <c r="AL89">
+        <v>1.26</v>
+      </c>
+      <c r="AM89">
+        <v>2.05</v>
+      </c>
+      <c r="AN89">
+        <v>2.25</v>
+      </c>
+      <c r="AO89">
+        <v>2.33</v>
+      </c>
+      <c r="AP89">
+        <v>2</v>
+      </c>
+      <c r="AQ89">
+        <v>2</v>
+      </c>
+      <c r="AR89">
+        <v>1.46</v>
+      </c>
+      <c r="AS89">
+        <v>1.26</v>
+      </c>
+      <c r="AT89">
+        <v>2.72</v>
+      </c>
+      <c r="AU89">
+        <v>10</v>
+      </c>
+      <c r="AV89">
+        <v>6</v>
+      </c>
+      <c r="AW89">
+        <v>4</v>
+      </c>
+      <c r="AX89">
+        <v>3</v>
+      </c>
+      <c r="AY89">
+        <v>19</v>
+      </c>
+      <c r="AZ89">
+        <v>11</v>
+      </c>
+      <c r="BA89">
+        <v>13</v>
+      </c>
+      <c r="BB89">
+        <v>5</v>
+      </c>
+      <c r="BC89">
+        <v>18</v>
+      </c>
+      <c r="BD89">
+        <v>1.48</v>
+      </c>
+      <c r="BE89">
+        <v>9</v>
+      </c>
+      <c r="BF89">
+        <v>3.32</v>
+      </c>
+      <c r="BG89">
+        <v>1.25</v>
+      </c>
+      <c r="BH89">
+        <v>3.14</v>
+      </c>
+      <c r="BI89">
+        <v>1.52</v>
+      </c>
+      <c r="BJ89">
+        <v>2.33</v>
+      </c>
+      <c r="BK89">
+        <v>1.93</v>
+      </c>
+      <c r="BL89">
+        <v>1.83</v>
+      </c>
+      <c r="BM89">
+        <v>2.46</v>
+      </c>
+      <c r="BN89">
+        <v>1.47</v>
+      </c>
+      <c r="BO89">
+        <v>3.22</v>
+      </c>
+      <c r="BP89">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7492230</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45592.69791666666</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>83</v>
+      </c>
+      <c r="H90" t="s">
+        <v>85</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+      <c r="L90">
+        <v>5</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>6</v>
+      </c>
+      <c r="O90" t="s">
+        <v>154</v>
+      </c>
+      <c r="P90" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q90">
+        <v>3.2</v>
+      </c>
+      <c r="R90">
+        <v>2.1</v>
+      </c>
+      <c r="S90">
+        <v>3.4</v>
+      </c>
+      <c r="T90">
+        <v>1.4</v>
+      </c>
+      <c r="U90">
+        <v>2.75</v>
+      </c>
+      <c r="V90">
+        <v>3</v>
+      </c>
+      <c r="W90">
+        <v>1.36</v>
+      </c>
+      <c r="X90">
+        <v>8</v>
+      </c>
+      <c r="Y90">
+        <v>1.08</v>
+      </c>
+      <c r="Z90">
+        <v>2.6</v>
+      </c>
+      <c r="AA90">
+        <v>3.32</v>
+      </c>
+      <c r="AB90">
+        <v>2.79</v>
+      </c>
+      <c r="AC90">
+        <v>1.07</v>
+      </c>
+      <c r="AD90">
+        <v>10</v>
+      </c>
+      <c r="AE90">
+        <v>1.33</v>
+      </c>
+      <c r="AF90">
+        <v>3.3</v>
+      </c>
+      <c r="AG90">
+        <v>1.91</v>
+      </c>
+      <c r="AH90">
+        <v>1.83</v>
+      </c>
+      <c r="AI90">
+        <v>1.8</v>
+      </c>
+      <c r="AJ90">
+        <v>1.95</v>
+      </c>
+      <c r="AK90">
+        <v>1.44</v>
+      </c>
+      <c r="AL90">
+        <v>1.3</v>
+      </c>
+      <c r="AM90">
+        <v>1.55</v>
+      </c>
+      <c r="AN90">
+        <v>2</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>2.2</v>
+      </c>
+      <c r="AQ90">
+        <v>0.8</v>
+      </c>
+      <c r="AR90">
+        <v>1.56</v>
+      </c>
+      <c r="AS90">
+        <v>1.34</v>
+      </c>
+      <c r="AT90">
+        <v>2.9</v>
+      </c>
+      <c r="AU90">
+        <v>11</v>
+      </c>
+      <c r="AV90">
+        <v>6</v>
+      </c>
+      <c r="AW90">
+        <v>8</v>
+      </c>
+      <c r="AX90">
+        <v>1</v>
+      </c>
+      <c r="AY90">
+        <v>22</v>
+      </c>
+      <c r="AZ90">
+        <v>15</v>
+      </c>
+      <c r="BA90">
+        <v>6</v>
+      </c>
+      <c r="BB90">
+        <v>2</v>
+      </c>
+      <c r="BC90">
+        <v>8</v>
+      </c>
+      <c r="BD90">
+        <v>1.62</v>
+      </c>
+      <c r="BE90">
+        <v>6.65</v>
+      </c>
+      <c r="BF90">
+        <v>3.14</v>
+      </c>
+      <c r="BG90">
+        <v>1.35</v>
+      </c>
+      <c r="BH90">
+        <v>2.65</v>
+      </c>
+      <c r="BI90">
+        <v>1.69</v>
+      </c>
+      <c r="BJ90">
+        <v>2.02</v>
+      </c>
+      <c r="BK90">
+        <v>2.22</v>
+      </c>
+      <c r="BL90">
+        <v>1.63</v>
+      </c>
+      <c r="BM90">
+        <v>2.93</v>
+      </c>
+      <c r="BN90">
+        <v>1.34</v>
+      </c>
+      <c r="BO90">
+        <v>4</v>
+      </c>
+      <c r="BP90">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -469,18 +469,18 @@
     <t>['6', '9', '14', '29', '34', '58']</t>
   </si>
   <si>
+    <t>['9', '17', '41', '52', '71']</t>
+  </si>
+  <si>
+    <t>['15', '35', '37', '53']</t>
+  </si>
+  <si>
     <t>['21', '86', '90+4']</t>
   </si>
   <si>
     <t>['23', '44']</t>
   </si>
   <si>
-    <t>['15', '35', '37', '53']</t>
-  </si>
-  <si>
-    <t>['9', '17', '41', '52', '71']</t>
-  </si>
-  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -628,16 +628,16 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['20', '26', '71', '82']</t>
+  </si>
+  <si>
+    <t>['15', '39']</t>
+  </si>
+  <si>
     <t>['35']</t>
-  </si>
-  <si>
-    <t>['15', '39']</t>
-  </si>
-  <si>
-    <t>['20', '26', '71', '82']</t>
-  </si>
-  <si>
-    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -18520,7 +18520,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7492235</v>
+        <v>7492230</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18532,46 +18532,46 @@
         <v>45591.875</v>
       </c>
       <c r="F86">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H86" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M86">
         <v>1</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O86" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="P86" t="s">
         <v>204</v>
       </c>
       <c r="Q86">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="R86">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T86">
         <v>1.4</v>
@@ -18592,13 +18592,13 @@
         <v>1.08</v>
       </c>
       <c r="Z86">
-        <v>2.21</v>
+        <v>2.6</v>
       </c>
       <c r="AA86">
-        <v>3.1</v>
+        <v>3.32</v>
       </c>
       <c r="AB86">
-        <v>3</v>
+        <v>2.79</v>
       </c>
       <c r="AC86">
         <v>1.07</v>
@@ -18613,112 +18613,112 @@
         <v>3.3</v>
       </c>
       <c r="AG86">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="AH86">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AI86">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AJ86">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AK86">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AL86">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM86">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AN86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO86">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AQ86">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AR86">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AS86">
-        <v>0.91</v>
+        <v>1.34</v>
       </c>
       <c r="AT86">
-        <v>2.24</v>
+        <v>2.9</v>
       </c>
       <c r="AU86">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW86">
         <v>8</v>
       </c>
       <c r="AX86">
+        <v>1</v>
+      </c>
+      <c r="AY86">
+        <v>22</v>
+      </c>
+      <c r="AZ86">
+        <v>15</v>
+      </c>
+      <c r="BA86">
+        <v>6</v>
+      </c>
+      <c r="BB86">
+        <v>2</v>
+      </c>
+      <c r="BC86">
+        <v>8</v>
+      </c>
+      <c r="BD86">
+        <v>1.62</v>
+      </c>
+      <c r="BE86">
+        <v>6.65</v>
+      </c>
+      <c r="BF86">
+        <v>3.14</v>
+      </c>
+      <c r="BG86">
+        <v>1.35</v>
+      </c>
+      <c r="BH86">
+        <v>2.65</v>
+      </c>
+      <c r="BI86">
+        <v>1.69</v>
+      </c>
+      <c r="BJ86">
+        <v>2.02</v>
+      </c>
+      <c r="BK86">
+        <v>2.22</v>
+      </c>
+      <c r="BL86">
+        <v>1.63</v>
+      </c>
+      <c r="BM86">
+        <v>2.93</v>
+      </c>
+      <c r="BN86">
+        <v>1.34</v>
+      </c>
+      <c r="BO86">
         <v>4</v>
       </c>
-      <c r="AY86">
-        <v>18</v>
-      </c>
-      <c r="AZ86">
-        <v>6</v>
-      </c>
-      <c r="BA86">
-        <v>9</v>
-      </c>
-      <c r="BB86">
-        <v>3</v>
-      </c>
-      <c r="BC86">
-        <v>12</v>
-      </c>
-      <c r="BD86">
-        <v>1.71</v>
-      </c>
-      <c r="BE86">
-        <v>9</v>
-      </c>
-      <c r="BF86">
-        <v>2.55</v>
-      </c>
-      <c r="BG86">
+      <c r="BP86">
         <v>1.15</v>
-      </c>
-      <c r="BH86">
-        <v>4.05</v>
-      </c>
-      <c r="BI86">
-        <v>1.32</v>
-      </c>
-      <c r="BJ86">
-        <v>2.78</v>
-      </c>
-      <c r="BK86">
-        <v>1.62</v>
-      </c>
-      <c r="BL86">
-        <v>2.14</v>
-      </c>
-      <c r="BM86">
-        <v>2.07</v>
-      </c>
-      <c r="BN86">
-        <v>1.72</v>
-      </c>
-      <c r="BO86">
-        <v>2.64</v>
-      </c>
-      <c r="BP86">
-        <v>1.41</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18726,7 +18726,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7492232</v>
+        <v>7492231</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18735,196 +18735,196 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45592.45833333334</v>
+        <v>45591.875</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O87" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="Q87">
+        <v>2.4</v>
+      </c>
+      <c r="R87">
         <v>2.1</v>
       </c>
-      <c r="R87">
-        <v>2.3</v>
-      </c>
       <c r="S87">
+        <v>5</v>
+      </c>
+      <c r="T87">
+        <v>1.44</v>
+      </c>
+      <c r="U87">
+        <v>2.63</v>
+      </c>
+      <c r="V87">
+        <v>3.25</v>
+      </c>
+      <c r="W87">
+        <v>1.33</v>
+      </c>
+      <c r="X87">
+        <v>10</v>
+      </c>
+      <c r="Y87">
+        <v>1.06</v>
+      </c>
+      <c r="Z87">
+        <v>1.81</v>
+      </c>
+      <c r="AA87">
+        <v>2.99</v>
+      </c>
+      <c r="AB87">
+        <v>4.51</v>
+      </c>
+      <c r="AC87">
+        <v>1.08</v>
+      </c>
+      <c r="AD87">
+        <v>9</v>
+      </c>
+      <c r="AE87">
+        <v>1.4</v>
+      </c>
+      <c r="AF87">
+        <v>3</v>
+      </c>
+      <c r="AG87">
+        <v>2.08</v>
+      </c>
+      <c r="AH87">
+        <v>1.7</v>
+      </c>
+      <c r="AI87">
+        <v>2</v>
+      </c>
+      <c r="AJ87">
+        <v>1.75</v>
+      </c>
+      <c r="AK87">
+        <v>1.18</v>
+      </c>
+      <c r="AL87">
+        <v>1.26</v>
+      </c>
+      <c r="AM87">
+        <v>2.05</v>
+      </c>
+      <c r="AN87">
+        <v>2.25</v>
+      </c>
+      <c r="AO87">
+        <v>2.33</v>
+      </c>
+      <c r="AP87">
+        <v>2</v>
+      </c>
+      <c r="AQ87">
+        <v>2</v>
+      </c>
+      <c r="AR87">
+        <v>1.46</v>
+      </c>
+      <c r="AS87">
+        <v>1.26</v>
+      </c>
+      <c r="AT87">
+        <v>2.72</v>
+      </c>
+      <c r="AU87">
+        <v>10</v>
+      </c>
+      <c r="AV87">
         <v>6</v>
       </c>
-      <c r="T87">
-        <v>1.36</v>
-      </c>
-      <c r="U87">
-        <v>3</v>
-      </c>
-      <c r="V87">
-        <v>2.63</v>
-      </c>
-      <c r="W87">
-        <v>1.44</v>
-      </c>
-      <c r="X87">
-        <v>7</v>
-      </c>
-      <c r="Y87">
-        <v>1.1</v>
-      </c>
-      <c r="Z87">
-        <v>1.51</v>
-      </c>
-      <c r="AA87">
-        <v>3.9</v>
-      </c>
-      <c r="AB87">
-        <v>5.4</v>
-      </c>
-      <c r="AC87">
-        <v>1.04</v>
-      </c>
-      <c r="AD87">
-        <v>13</v>
-      </c>
-      <c r="AE87">
-        <v>1.28</v>
-      </c>
-      <c r="AF87">
-        <v>3.75</v>
-      </c>
-      <c r="AG87">
-        <v>1.81</v>
-      </c>
-      <c r="AH87">
-        <v>2</v>
-      </c>
-      <c r="AI87">
-        <v>1.95</v>
-      </c>
-      <c r="AJ87">
-        <v>1.8</v>
-      </c>
-      <c r="AK87">
-        <v>1.12</v>
-      </c>
-      <c r="AL87">
-        <v>1.19</v>
-      </c>
-      <c r="AM87">
-        <v>2.5</v>
-      </c>
-      <c r="AN87">
-        <v>2.5</v>
-      </c>
-      <c r="AO87">
-        <v>1</v>
-      </c>
-      <c r="AP87">
-        <v>2.6</v>
-      </c>
-      <c r="AQ87">
-        <v>0.75</v>
-      </c>
-      <c r="AR87">
-        <v>1.49</v>
-      </c>
-      <c r="AS87">
-        <v>0.68</v>
-      </c>
-      <c r="AT87">
-        <v>2.17</v>
-      </c>
-      <c r="AU87">
-        <v>5</v>
-      </c>
-      <c r="AV87">
-        <v>3</v>
-      </c>
       <c r="AW87">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY87">
         <v>19</v>
       </c>
       <c r="AZ87">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA87">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BB87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC87">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BD87">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="BE87">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="BF87">
-        <v>4.33</v>
+        <v>3.32</v>
       </c>
       <c r="BG87">
+        <v>1.25</v>
+      </c>
+      <c r="BH87">
+        <v>3.14</v>
+      </c>
+      <c r="BI87">
+        <v>1.52</v>
+      </c>
+      <c r="BJ87">
+        <v>2.33</v>
+      </c>
+      <c r="BK87">
+        <v>1.93</v>
+      </c>
+      <c r="BL87">
+        <v>1.83</v>
+      </c>
+      <c r="BM87">
+        <v>2.46</v>
+      </c>
+      <c r="BN87">
+        <v>1.47</v>
+      </c>
+      <c r="BO87">
+        <v>3.22</v>
+      </c>
+      <c r="BP87">
         <v>1.24</v>
-      </c>
-      <c r="BH87">
-        <v>3.22</v>
-      </c>
-      <c r="BI87">
-        <v>1.5</v>
-      </c>
-      <c r="BJ87">
-        <v>2.38</v>
-      </c>
-      <c r="BK87">
-        <v>1.89</v>
-      </c>
-      <c r="BL87">
-        <v>1.87</v>
-      </c>
-      <c r="BM87">
-        <v>2.4</v>
-      </c>
-      <c r="BN87">
-        <v>1.49</v>
-      </c>
-      <c r="BO87">
-        <v>3.14</v>
-      </c>
-      <c r="BP87">
-        <v>1.25</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18932,7 +18932,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7492233</v>
+        <v>7492232</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18941,94 +18941,94 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45592.45833333334</v>
+        <v>45591.875</v>
       </c>
       <c r="F88">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H88" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O88" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="Q88">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R88">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T88">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U88">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V88">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="W88">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="X88">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y88">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z88">
-        <v>2.16</v>
+        <v>1.51</v>
       </c>
       <c r="AA88">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="AB88">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="AC88">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AD88">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AE88">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AF88">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="AG88">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="AH88">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AI88">
         <v>1.95</v>
@@ -19037,100 +19037,100 @@
         <v>1.8</v>
       </c>
       <c r="AK88">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AL88">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AM88">
-        <v>1.72</v>
+        <v>2.5</v>
       </c>
       <c r="AN88">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AO88">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AP88">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="AQ88">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AR88">
-        <v>0.85</v>
+        <v>1.49</v>
       </c>
       <c r="AS88">
-        <v>1.11</v>
+        <v>0.68</v>
       </c>
       <c r="AT88">
-        <v>1.96</v>
+        <v>2.17</v>
       </c>
       <c r="AU88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV88">
         <v>3</v>
       </c>
       <c r="AW88">
+        <v>10</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>19</v>
+      </c>
+      <c r="AZ88">
         <v>8</v>
       </c>
-      <c r="AX88">
-        <v>2</v>
-      </c>
-      <c r="AY88">
-        <v>14</v>
-      </c>
-      <c r="AZ88">
+      <c r="BA88">
         <v>7</v>
       </c>
-      <c r="BA88">
+      <c r="BB88">
         <v>4</v>
       </c>
-      <c r="BB88">
-        <v>3</v>
-      </c>
       <c r="BC88">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD88">
-        <v>1.72</v>
+        <v>1.32</v>
       </c>
       <c r="BE88">
-        <v>8.4</v>
+        <v>10.25</v>
       </c>
       <c r="BF88">
-        <v>2.58</v>
+        <v>4.33</v>
       </c>
       <c r="BG88">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="BH88">
-        <v>2.88</v>
+        <v>3.22</v>
       </c>
       <c r="BI88">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BJ88">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="BK88">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="BL88">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="BM88">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="BN88">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="BO88">
-        <v>3.62</v>
+        <v>3.14</v>
       </c>
       <c r="BP88">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19138,7 +19138,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7492231</v>
+        <v>7492233</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19147,61 +19147,61 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45592.58333333334</v>
+        <v>45591.875</v>
       </c>
       <c r="F89">
         <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H89" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J89">
         <v>2</v>
       </c>
       <c r="K89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
         <v>4</v>
       </c>
-      <c r="M89">
-        <v>4</v>
-      </c>
-      <c r="N89">
-        <v>8</v>
-      </c>
       <c r="O89" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P89" t="s">
         <v>206</v>
       </c>
       <c r="Q89">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R89">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T89">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U89">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V89">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W89">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X89">
         <v>10</v>
@@ -19210,133 +19210,133 @@
         <v>1.06</v>
       </c>
       <c r="Z89">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="AA89">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="AB89">
-        <v>4.51</v>
+        <v>3.3</v>
       </c>
       <c r="AC89">
         <v>1.08</v>
       </c>
       <c r="AD89">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE89">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AF89">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AG89">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="AH89">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AI89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ89">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AK89">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AL89">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AM89">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="AN89">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="AO89">
-        <v>2.33</v>
+        <v>0.2</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="AQ89">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AR89">
-        <v>1.46</v>
+        <v>0.85</v>
       </c>
       <c r="AS89">
-        <v>1.26</v>
+        <v>1.11</v>
       </c>
       <c r="AT89">
+        <v>1.96</v>
+      </c>
+      <c r="AU89">
+        <v>3</v>
+      </c>
+      <c r="AV89">
+        <v>3</v>
+      </c>
+      <c r="AW89">
+        <v>8</v>
+      </c>
+      <c r="AX89">
+        <v>2</v>
+      </c>
+      <c r="AY89">
+        <v>14</v>
+      </c>
+      <c r="AZ89">
+        <v>7</v>
+      </c>
+      <c r="BA89">
+        <v>4</v>
+      </c>
+      <c r="BB89">
+        <v>3</v>
+      </c>
+      <c r="BC89">
+        <v>7</v>
+      </c>
+      <c r="BD89">
+        <v>1.72</v>
+      </c>
+      <c r="BE89">
+        <v>8.4</v>
+      </c>
+      <c r="BF89">
+        <v>2.58</v>
+      </c>
+      <c r="BG89">
+        <v>1.3</v>
+      </c>
+      <c r="BH89">
+        <v>2.88</v>
+      </c>
+      <c r="BI89">
+        <v>1.61</v>
+      </c>
+      <c r="BJ89">
+        <v>2.15</v>
+      </c>
+      <c r="BK89">
+        <v>2.07</v>
+      </c>
+      <c r="BL89">
+        <v>1.72</v>
+      </c>
+      <c r="BM89">
         <v>2.72</v>
       </c>
-      <c r="AU89">
-        <v>10</v>
-      </c>
-      <c r="AV89">
-        <v>6</v>
-      </c>
-      <c r="AW89">
-        <v>4</v>
-      </c>
-      <c r="AX89">
-        <v>3</v>
-      </c>
-      <c r="AY89">
-        <v>19</v>
-      </c>
-      <c r="AZ89">
-        <v>11</v>
-      </c>
-      <c r="BA89">
-        <v>13</v>
-      </c>
-      <c r="BB89">
-        <v>5</v>
-      </c>
-      <c r="BC89">
-        <v>18</v>
-      </c>
-      <c r="BD89">
-        <v>1.48</v>
-      </c>
-      <c r="BE89">
-        <v>9</v>
-      </c>
-      <c r="BF89">
-        <v>3.32</v>
-      </c>
-      <c r="BG89">
-        <v>1.25</v>
-      </c>
-      <c r="BH89">
-        <v>3.14</v>
-      </c>
-      <c r="BI89">
-        <v>1.52</v>
-      </c>
-      <c r="BJ89">
-        <v>2.33</v>
-      </c>
-      <c r="BK89">
-        <v>1.93</v>
-      </c>
-      <c r="BL89">
-        <v>1.83</v>
-      </c>
-      <c r="BM89">
-        <v>2.46</v>
-      </c>
       <c r="BN89">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="BO89">
-        <v>3.22</v>
+        <v>3.62</v>
       </c>
       <c r="BP89">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19344,7 +19344,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7492230</v>
+        <v>7492235</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19353,49 +19353,49 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45592.69791666666</v>
+        <v>45591.875</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H90" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
       <c r="K90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M90">
         <v>1</v>
       </c>
       <c r="N90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O90" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="P90" t="s">
         <v>207</v>
       </c>
       <c r="Q90">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="R90">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S90">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T90">
         <v>1.4</v>
@@ -19416,13 +19416,13 @@
         <v>1.08</v>
       </c>
       <c r="Z90">
-        <v>2.6</v>
+        <v>2.21</v>
       </c>
       <c r="AA90">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="AB90">
-        <v>2.79</v>
+        <v>3</v>
       </c>
       <c r="AC90">
         <v>1.07</v>
@@ -19437,112 +19437,112 @@
         <v>3.3</v>
       </c>
       <c r="AG90">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AH90">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AI90">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ90">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK90">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AL90">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM90">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AN90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP90">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AR90">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>1.34</v>
+        <v>0.91</v>
       </c>
       <c r="AT90">
-        <v>2.9</v>
+        <v>2.24</v>
       </c>
       <c r="AU90">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AV90">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW90">
         <v>8</v>
       </c>
       <c r="AX90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY90">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ90">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="BA90">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC90">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD90">
+        <v>1.71</v>
+      </c>
+      <c r="BE90">
+        <v>9</v>
+      </c>
+      <c r="BF90">
+        <v>2.55</v>
+      </c>
+      <c r="BG90">
+        <v>1.15</v>
+      </c>
+      <c r="BH90">
+        <v>4.05</v>
+      </c>
+      <c r="BI90">
+        <v>1.32</v>
+      </c>
+      <c r="BJ90">
+        <v>2.78</v>
+      </c>
+      <c r="BK90">
         <v>1.62</v>
       </c>
-      <c r="BE90">
-        <v>6.65</v>
-      </c>
-      <c r="BF90">
-        <v>3.14</v>
-      </c>
-      <c r="BG90">
-        <v>1.35</v>
-      </c>
-      <c r="BH90">
-        <v>2.65</v>
-      </c>
-      <c r="BI90">
-        <v>1.69</v>
-      </c>
-      <c r="BJ90">
-        <v>2.02</v>
-      </c>
-      <c r="BK90">
-        <v>2.22</v>
-      </c>
       <c r="BL90">
-        <v>1.63</v>
+        <v>2.14</v>
       </c>
       <c r="BM90">
-        <v>2.93</v>
+        <v>2.07</v>
       </c>
       <c r="BN90">
-        <v>1.34</v>
+        <v>1.72</v>
       </c>
       <c r="BO90">
-        <v>4</v>
+        <v>2.64</v>
       </c>
       <c r="BP90">
-        <v>1.15</v>
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="210">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,16 +469,19 @@
     <t>['6', '9', '14', '29', '34', '58']</t>
   </si>
   <si>
+    <t>['21', '86', '90+4']</t>
+  </si>
+  <si>
+    <t>['23', '44']</t>
+  </si>
+  <si>
+    <t>['15', '35', '37', '53']</t>
+  </si>
+  <si>
     <t>['9', '17', '41', '52', '71']</t>
   </si>
   <si>
-    <t>['15', '35', '37', '53']</t>
-  </si>
-  <si>
-    <t>['21', '86', '90+4']</t>
-  </si>
-  <si>
-    <t>['23', '44']</t>
+    <t>['51']</t>
   </si>
   <si>
     <t>['30', '82']</t>
@@ -628,16 +631,19 @@
     <t>['42']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['15', '39']</t>
+  </si>
+  <si>
+    <t>['20', '26', '71', '82']</t>
+  </si>
+  <si>
     <t>['39']</t>
   </si>
   <si>
-    <t>['20', '26', '71', '82']</t>
-  </si>
-  <si>
-    <t>['15', '39']</t>
-  </si>
-  <si>
-    <t>['35']</t>
+    <t>['35', '51']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1005,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1464,7 +1470,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1670,7 +1676,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -2082,7 +2088,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2494,7 +2500,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2778,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ9">
         <v>0.8</v>
@@ -2906,7 +2912,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -2984,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ10">
         <v>1.4</v>
@@ -3318,7 +3324,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3524,7 +3530,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3936,7 +3942,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4554,7 +4560,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4841,7 +4847,7 @@
         <v>3</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4966,7 +4972,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5044,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5172,7 +5178,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5378,7 +5384,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5790,7 +5796,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6074,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6202,7 +6208,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6408,7 +6414,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6614,7 +6620,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6820,7 +6826,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6901,7 +6907,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR29">
         <v>1.56</v>
@@ -7438,7 +7444,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7519,7 +7525,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8056,7 +8062,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8262,7 +8268,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -8674,7 +8680,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8752,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ38">
         <v>1.75</v>
@@ -8880,7 +8886,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9086,7 +9092,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9292,7 +9298,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9373,7 +9379,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ41">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -9498,7 +9504,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9576,7 +9582,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ42">
         <v>1.6</v>
@@ -9704,7 +9710,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10322,7 +10328,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10400,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ46">
         <v>0.75</v>
@@ -10528,7 +10534,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10734,7 +10740,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10815,7 +10821,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR48">
         <v>0.9399999999999999</v>
@@ -11146,7 +11152,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11352,7 +11358,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11764,7 +11770,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11970,7 +11976,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12176,7 +12182,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12382,7 +12388,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12794,7 +12800,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12875,7 +12881,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ58">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13412,7 +13418,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14236,7 +14242,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14442,7 +14448,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14648,7 +14654,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14854,7 +14860,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -15266,7 +15272,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15472,7 +15478,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15678,7 +15684,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15884,7 +15890,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15965,7 +15971,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ73">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR73">
         <v>1.29</v>
@@ -16502,7 +16508,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16708,7 +16714,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16914,7 +16920,7 @@
         <v>93</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -16992,7 +16998,7 @@
         <v>0.67</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78">
         <v>1.25</v>
@@ -17120,7 +17126,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17198,7 +17204,7 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ79">
         <v>1.4</v>
@@ -17326,7 +17332,7 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17532,7 +17538,7 @@
         <v>93</v>
       </c>
       <c r="P81" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18356,7 +18362,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18437,7 +18443,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ85">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR85">
         <v>1.74</v>
@@ -18520,7 +18526,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7492230</v>
+        <v>7492235</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18529,49 +18535,49 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45591.875</v>
+        <v>45592.35416666666</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H86" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86">
         <v>1</v>
       </c>
       <c r="K86">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <v>1</v>
       </c>
       <c r="N86">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O86" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q86">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="R86">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S86">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T86">
         <v>1.4</v>
@@ -18592,13 +18598,13 @@
         <v>1.08</v>
       </c>
       <c r="Z86">
-        <v>2.6</v>
+        <v>2.21</v>
       </c>
       <c r="AA86">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="AB86">
-        <v>2.79</v>
+        <v>3</v>
       </c>
       <c r="AC86">
         <v>1.07</v>
@@ -18613,112 +18619,112 @@
         <v>3.3</v>
       </c>
       <c r="AG86">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AH86">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AI86">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK86">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AL86">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM86">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AN86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO86">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AR86">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AS86">
-        <v>1.34</v>
+        <v>0.91</v>
       </c>
       <c r="AT86">
-        <v>2.9</v>
+        <v>2.24</v>
       </c>
       <c r="AU86">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AV86">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW86">
+        <v>4</v>
+      </c>
+      <c r="AX86">
+        <v>3</v>
+      </c>
+      <c r="AY86">
         <v>8</v>
       </c>
-      <c r="AX86">
-        <v>1</v>
-      </c>
-      <c r="AY86">
-        <v>22</v>
-      </c>
       <c r="AZ86">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BA86">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BB86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC86">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD86">
+        <v>1.71</v>
+      </c>
+      <c r="BE86">
+        <v>9</v>
+      </c>
+      <c r="BF86">
+        <v>2.55</v>
+      </c>
+      <c r="BG86">
+        <v>1.15</v>
+      </c>
+      <c r="BH86">
+        <v>4.05</v>
+      </c>
+      <c r="BI86">
+        <v>1.32</v>
+      </c>
+      <c r="BJ86">
+        <v>2.78</v>
+      </c>
+      <c r="BK86">
         <v>1.62</v>
       </c>
-      <c r="BE86">
-        <v>6.65</v>
-      </c>
-      <c r="BF86">
-        <v>3.14</v>
-      </c>
-      <c r="BG86">
-        <v>1.35</v>
-      </c>
-      <c r="BH86">
-        <v>2.65</v>
-      </c>
-      <c r="BI86">
-        <v>1.69</v>
-      </c>
-      <c r="BJ86">
-        <v>2.02</v>
-      </c>
-      <c r="BK86">
-        <v>2.22</v>
-      </c>
       <c r="BL86">
-        <v>1.63</v>
+        <v>2.14</v>
       </c>
       <c r="BM86">
-        <v>2.93</v>
+        <v>2.07</v>
       </c>
       <c r="BN86">
-        <v>1.34</v>
+        <v>1.72</v>
       </c>
       <c r="BO86">
-        <v>4</v>
+        <v>2.64</v>
       </c>
       <c r="BP86">
-        <v>1.15</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18726,7 +18732,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7492231</v>
+        <v>7492232</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18735,196 +18741,196 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45591.875</v>
+        <v>45592.45833333334</v>
       </c>
       <c r="F87">
         <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H87" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>151</v>
+      </c>
+      <c r="P87" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q87">
+        <v>2.1</v>
+      </c>
+      <c r="R87">
+        <v>2.3</v>
+      </c>
+      <c r="S87">
+        <v>6</v>
+      </c>
+      <c r="T87">
+        <v>1.36</v>
+      </c>
+      <c r="U87">
+        <v>3</v>
+      </c>
+      <c r="V87">
+        <v>2.63</v>
+      </c>
+      <c r="W87">
+        <v>1.44</v>
+      </c>
+      <c r="X87">
+        <v>7</v>
+      </c>
+      <c r="Y87">
+        <v>1.1</v>
+      </c>
+      <c r="Z87">
+        <v>1.51</v>
+      </c>
+      <c r="AA87">
+        <v>3.9</v>
+      </c>
+      <c r="AB87">
+        <v>5.4</v>
+      </c>
+      <c r="AC87">
+        <v>1.04</v>
+      </c>
+      <c r="AD87">
+        <v>13</v>
+      </c>
+      <c r="AE87">
+        <v>1.28</v>
+      </c>
+      <c r="AF87">
+        <v>3.75</v>
+      </c>
+      <c r="AG87">
+        <v>1.81</v>
+      </c>
+      <c r="AH87">
+        <v>2</v>
+      </c>
+      <c r="AI87">
+        <v>1.95</v>
+      </c>
+      <c r="AJ87">
+        <v>1.8</v>
+      </c>
+      <c r="AK87">
+        <v>1.12</v>
+      </c>
+      <c r="AL87">
+        <v>1.19</v>
+      </c>
+      <c r="AM87">
+        <v>2.5</v>
+      </c>
+      <c r="AN87">
+        <v>2.5</v>
+      </c>
+      <c r="AO87">
+        <v>1</v>
+      </c>
+      <c r="AP87">
+        <v>2.6</v>
+      </c>
+      <c r="AQ87">
+        <v>0.75</v>
+      </c>
+      <c r="AR87">
+        <v>1.49</v>
+      </c>
+      <c r="AS87">
+        <v>0.68</v>
+      </c>
+      <c r="AT87">
+        <v>2.17</v>
+      </c>
+      <c r="AU87">
+        <v>3</v>
+      </c>
+      <c r="AV87">
+        <v>3</v>
+      </c>
+      <c r="AW87">
+        <v>8</v>
+      </c>
+      <c r="AX87">
+        <v>2</v>
+      </c>
+      <c r="AY87">
+        <v>11</v>
+      </c>
+      <c r="AZ87">
         <v>5</v>
       </c>
-      <c r="L87">
+      <c r="BA87">
+        <v>7</v>
+      </c>
+      <c r="BB87">
         <v>4</v>
       </c>
-      <c r="M87">
-        <v>4</v>
-      </c>
-      <c r="N87">
-        <v>8</v>
-      </c>
-      <c r="O87" t="s">
-        <v>152</v>
-      </c>
-      <c r="P87" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q87">
+      <c r="BC87">
+        <v>11</v>
+      </c>
+      <c r="BD87">
+        <v>1.32</v>
+      </c>
+      <c r="BE87">
+        <v>10.25</v>
+      </c>
+      <c r="BF87">
+        <v>4.33</v>
+      </c>
+      <c r="BG87">
+        <v>1.24</v>
+      </c>
+      <c r="BH87">
+        <v>3.22</v>
+      </c>
+      <c r="BI87">
+        <v>1.5</v>
+      </c>
+      <c r="BJ87">
+        <v>2.38</v>
+      </c>
+      <c r="BK87">
+        <v>1.89</v>
+      </c>
+      <c r="BL87">
+        <v>1.87</v>
+      </c>
+      <c r="BM87">
         <v>2.4</v>
       </c>
-      <c r="R87">
-        <v>2.1</v>
-      </c>
-      <c r="S87">
-        <v>5</v>
-      </c>
-      <c r="T87">
-        <v>1.44</v>
-      </c>
-      <c r="U87">
-        <v>2.63</v>
-      </c>
-      <c r="V87">
-        <v>3.25</v>
-      </c>
-      <c r="W87">
-        <v>1.33</v>
-      </c>
-      <c r="X87">
-        <v>10</v>
-      </c>
-      <c r="Y87">
-        <v>1.06</v>
-      </c>
-      <c r="Z87">
-        <v>1.81</v>
-      </c>
-      <c r="AA87">
-        <v>2.99</v>
-      </c>
-      <c r="AB87">
-        <v>4.51</v>
-      </c>
-      <c r="AC87">
-        <v>1.08</v>
-      </c>
-      <c r="AD87">
-        <v>9</v>
-      </c>
-      <c r="AE87">
-        <v>1.4</v>
-      </c>
-      <c r="AF87">
-        <v>3</v>
-      </c>
-      <c r="AG87">
-        <v>2.08</v>
-      </c>
-      <c r="AH87">
-        <v>1.7</v>
-      </c>
-      <c r="AI87">
-        <v>2</v>
-      </c>
-      <c r="AJ87">
-        <v>1.75</v>
-      </c>
-      <c r="AK87">
-        <v>1.18</v>
-      </c>
-      <c r="AL87">
-        <v>1.26</v>
-      </c>
-      <c r="AM87">
-        <v>2.05</v>
-      </c>
-      <c r="AN87">
-        <v>2.25</v>
-      </c>
-      <c r="AO87">
-        <v>2.33</v>
-      </c>
-      <c r="AP87">
-        <v>2</v>
-      </c>
-      <c r="AQ87">
-        <v>2</v>
-      </c>
-      <c r="AR87">
-        <v>1.46</v>
-      </c>
-      <c r="AS87">
-        <v>1.26</v>
-      </c>
-      <c r="AT87">
-        <v>2.72</v>
-      </c>
-      <c r="AU87">
-        <v>10</v>
-      </c>
-      <c r="AV87">
-        <v>6</v>
-      </c>
-      <c r="AW87">
-        <v>4</v>
-      </c>
-      <c r="AX87">
-        <v>3</v>
-      </c>
-      <c r="AY87">
-        <v>19</v>
-      </c>
-      <c r="AZ87">
-        <v>11</v>
-      </c>
-      <c r="BA87">
-        <v>13</v>
-      </c>
-      <c r="BB87">
-        <v>5</v>
-      </c>
-      <c r="BC87">
-        <v>18</v>
-      </c>
-      <c r="BD87">
-        <v>1.48</v>
-      </c>
-      <c r="BE87">
-        <v>9</v>
-      </c>
-      <c r="BF87">
-        <v>3.32</v>
-      </c>
-      <c r="BG87">
+      <c r="BN87">
+        <v>1.49</v>
+      </c>
+      <c r="BO87">
+        <v>3.14</v>
+      </c>
+      <c r="BP87">
         <v>1.25</v>
-      </c>
-      <c r="BH87">
-        <v>3.14</v>
-      </c>
-      <c r="BI87">
-        <v>1.52</v>
-      </c>
-      <c r="BJ87">
-        <v>2.33</v>
-      </c>
-      <c r="BK87">
-        <v>1.93</v>
-      </c>
-      <c r="BL87">
-        <v>1.83</v>
-      </c>
-      <c r="BM87">
-        <v>2.46</v>
-      </c>
-      <c r="BN87">
-        <v>1.47</v>
-      </c>
-      <c r="BO87">
-        <v>3.22</v>
-      </c>
-      <c r="BP87">
-        <v>1.24</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18932,7 +18938,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7492232</v>
+        <v>7492233</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18941,94 +18947,94 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45591.875</v>
+        <v>45592.45833333334</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="Q88">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
+        <v>4</v>
+      </c>
+      <c r="T88">
+        <v>1.5</v>
+      </c>
+      <c r="U88">
+        <v>2.5</v>
+      </c>
+      <c r="V88">
+        <v>3.4</v>
+      </c>
+      <c r="W88">
+        <v>1.3</v>
+      </c>
+      <c r="X88">
+        <v>10</v>
+      </c>
+      <c r="Y88">
+        <v>1.06</v>
+      </c>
+      <c r="Z88">
+        <v>2.16</v>
+      </c>
+      <c r="AA88">
+        <v>3</v>
+      </c>
+      <c r="AB88">
+        <v>3.3</v>
+      </c>
+      <c r="AC88">
+        <v>1.08</v>
+      </c>
+      <c r="AD88">
+        <v>8.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.42</v>
+      </c>
+      <c r="AF88">
+        <v>2.9</v>
+      </c>
+      <c r="AG88">
         <v>2.3</v>
       </c>
-      <c r="S88">
-        <v>6</v>
-      </c>
-      <c r="T88">
-        <v>1.36</v>
-      </c>
-      <c r="U88">
-        <v>3</v>
-      </c>
-      <c r="V88">
-        <v>2.63</v>
-      </c>
-      <c r="W88">
-        <v>1.44</v>
-      </c>
-      <c r="X88">
-        <v>7</v>
-      </c>
-      <c r="Y88">
-        <v>1.1</v>
-      </c>
-      <c r="Z88">
-        <v>1.51</v>
-      </c>
-      <c r="AA88">
-        <v>3.9</v>
-      </c>
-      <c r="AB88">
-        <v>5.4</v>
-      </c>
-      <c r="AC88">
-        <v>1.04</v>
-      </c>
-      <c r="AD88">
-        <v>13</v>
-      </c>
-      <c r="AE88">
-        <v>1.28</v>
-      </c>
-      <c r="AF88">
-        <v>3.75</v>
-      </c>
-      <c r="AG88">
-        <v>1.81</v>
-      </c>
       <c r="AH88">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AI88">
         <v>1.95</v>
@@ -19037,100 +19043,100 @@
         <v>1.8</v>
       </c>
       <c r="AK88">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AL88">
+        <v>1.3</v>
+      </c>
+      <c r="AM88">
+        <v>1.72</v>
+      </c>
+      <c r="AN88">
+        <v>0.5</v>
+      </c>
+      <c r="AO88">
+        <v>0.2</v>
+      </c>
+      <c r="AP88">
+        <v>0.6</v>
+      </c>
+      <c r="AQ88">
+        <v>0.33</v>
+      </c>
+      <c r="AR88">
+        <v>0.85</v>
+      </c>
+      <c r="AS88">
+        <v>1.11</v>
+      </c>
+      <c r="AT88">
+        <v>1.96</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+      <c r="AV88">
+        <v>2</v>
+      </c>
+      <c r="AW88">
+        <v>7</v>
+      </c>
+      <c r="AX88">
+        <v>3</v>
+      </c>
+      <c r="AY88">
+        <v>7</v>
+      </c>
+      <c r="AZ88">
+        <v>5</v>
+      </c>
+      <c r="BA88">
+        <v>4</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>7</v>
+      </c>
+      <c r="BD88">
+        <v>1.72</v>
+      </c>
+      <c r="BE88">
+        <v>8.4</v>
+      </c>
+      <c r="BF88">
+        <v>2.58</v>
+      </c>
+      <c r="BG88">
+        <v>1.3</v>
+      </c>
+      <c r="BH88">
+        <v>2.88</v>
+      </c>
+      <c r="BI88">
+        <v>1.61</v>
+      </c>
+      <c r="BJ88">
+        <v>2.15</v>
+      </c>
+      <c r="BK88">
+        <v>2.07</v>
+      </c>
+      <c r="BL88">
+        <v>1.72</v>
+      </c>
+      <c r="BM88">
+        <v>2.72</v>
+      </c>
+      <c r="BN88">
+        <v>1.39</v>
+      </c>
+      <c r="BO88">
+        <v>3.62</v>
+      </c>
+      <c r="BP88">
         <v>1.19</v>
-      </c>
-      <c r="AM88">
-        <v>2.5</v>
-      </c>
-      <c r="AN88">
-        <v>2.5</v>
-      </c>
-      <c r="AO88">
-        <v>1</v>
-      </c>
-      <c r="AP88">
-        <v>2.6</v>
-      </c>
-      <c r="AQ88">
-        <v>0.75</v>
-      </c>
-      <c r="AR88">
-        <v>1.49</v>
-      </c>
-      <c r="AS88">
-        <v>0.68</v>
-      </c>
-      <c r="AT88">
-        <v>2.17</v>
-      </c>
-      <c r="AU88">
-        <v>5</v>
-      </c>
-      <c r="AV88">
-        <v>3</v>
-      </c>
-      <c r="AW88">
-        <v>10</v>
-      </c>
-      <c r="AX88">
-        <v>4</v>
-      </c>
-      <c r="AY88">
-        <v>19</v>
-      </c>
-      <c r="AZ88">
-        <v>8</v>
-      </c>
-      <c r="BA88">
-        <v>7</v>
-      </c>
-      <c r="BB88">
-        <v>4</v>
-      </c>
-      <c r="BC88">
-        <v>11</v>
-      </c>
-      <c r="BD88">
-        <v>1.32</v>
-      </c>
-      <c r="BE88">
-        <v>10.25</v>
-      </c>
-      <c r="BF88">
-        <v>4.33</v>
-      </c>
-      <c r="BG88">
-        <v>1.24</v>
-      </c>
-      <c r="BH88">
-        <v>3.22</v>
-      </c>
-      <c r="BI88">
-        <v>1.5</v>
-      </c>
-      <c r="BJ88">
-        <v>2.38</v>
-      </c>
-      <c r="BK88">
-        <v>1.89</v>
-      </c>
-      <c r="BL88">
-        <v>1.87</v>
-      </c>
-      <c r="BM88">
-        <v>2.4</v>
-      </c>
-      <c r="BN88">
-        <v>1.49</v>
-      </c>
-      <c r="BO88">
-        <v>3.14</v>
-      </c>
-      <c r="BP88">
-        <v>1.25</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19138,7 +19144,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7492233</v>
+        <v>7492231</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19147,61 +19153,61 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45591.875</v>
+        <v>45592.58333333334</v>
       </c>
       <c r="F89">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89">
         <v>2</v>
       </c>
       <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89">
         <v>4</v>
       </c>
-      <c r="L89">
-        <v>2</v>
-      </c>
       <c r="M89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O89" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q89">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S89">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T89">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U89">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V89">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W89">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X89">
         <v>10</v>
@@ -19210,133 +19216,133 @@
         <v>1.06</v>
       </c>
       <c r="Z89">
-        <v>2.16</v>
+        <v>1.81</v>
       </c>
       <c r="AA89">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="AB89">
-        <v>3.3</v>
+        <v>4.51</v>
       </c>
       <c r="AC89">
         <v>1.08</v>
       </c>
       <c r="AD89">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE89">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AF89">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AG89">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="AH89">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AI89">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ89">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK89">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AL89">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AM89">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="AN89">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO89">
-        <v>0.2</v>
+        <v>2.33</v>
       </c>
       <c r="AP89">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AR89">
-        <v>0.85</v>
+        <v>1.46</v>
       </c>
       <c r="AS89">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AT89">
-        <v>1.96</v>
+        <v>2.72</v>
       </c>
       <c r="AU89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW89">
+        <v>4</v>
+      </c>
+      <c r="AX89">
+        <v>3</v>
+      </c>
+      <c r="AY89">
         <v>8</v>
       </c>
-      <c r="AX89">
-        <v>2</v>
-      </c>
-      <c r="AY89">
-        <v>14</v>
-      </c>
       <c r="AZ89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA89">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BB89">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC89">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="BD89">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="BE89">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="BF89">
-        <v>2.58</v>
+        <v>3.32</v>
       </c>
       <c r="BG89">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH89">
-        <v>2.88</v>
+        <v>3.14</v>
       </c>
       <c r="BI89">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="BJ89">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="BK89">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="BL89">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="BM89">
-        <v>2.72</v>
+        <v>2.46</v>
       </c>
       <c r="BN89">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="BO89">
-        <v>3.62</v>
+        <v>3.22</v>
       </c>
       <c r="BP89">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19344,7 +19350,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7492235</v>
+        <v>7492230</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19353,49 +19359,49 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45591.875</v>
+        <v>45592.69791666666</v>
       </c>
       <c r="F90">
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H90" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90">
         <v>1</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M90">
         <v>1</v>
       </c>
       <c r="N90">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O90" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q90">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="R90">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S90">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T90">
         <v>1.4</v>
@@ -19416,13 +19422,13 @@
         <v>1.08</v>
       </c>
       <c r="Z90">
-        <v>2.21</v>
+        <v>2.6</v>
       </c>
       <c r="AA90">
-        <v>3.1</v>
+        <v>3.32</v>
       </c>
       <c r="AB90">
-        <v>3</v>
+        <v>2.79</v>
       </c>
       <c r="AC90">
         <v>1.07</v>
@@ -19437,112 +19443,524 @@
         <v>3.3</v>
       </c>
       <c r="AG90">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="AH90">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="AI90">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AJ90">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AK90">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AL90">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM90">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AN90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO90">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="AQ90">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AR90">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AS90">
-        <v>0.91</v>
+        <v>1.34</v>
       </c>
       <c r="AT90">
-        <v>2.24</v>
+        <v>2.9</v>
       </c>
       <c r="AU90">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV90">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW90">
         <v>8</v>
       </c>
       <c r="AX90">
+        <v>1</v>
+      </c>
+      <c r="AY90">
+        <v>22</v>
+      </c>
+      <c r="AZ90">
+        <v>15</v>
+      </c>
+      <c r="BA90">
+        <v>6</v>
+      </c>
+      <c r="BB90">
+        <v>2</v>
+      </c>
+      <c r="BC90">
+        <v>8</v>
+      </c>
+      <c r="BD90">
+        <v>1.62</v>
+      </c>
+      <c r="BE90">
+        <v>6.65</v>
+      </c>
+      <c r="BF90">
+        <v>3.14</v>
+      </c>
+      <c r="BG90">
+        <v>1.35</v>
+      </c>
+      <c r="BH90">
+        <v>2.65</v>
+      </c>
+      <c r="BI90">
+        <v>1.69</v>
+      </c>
+      <c r="BJ90">
+        <v>2.02</v>
+      </c>
+      <c r="BK90">
+        <v>2.22</v>
+      </c>
+      <c r="BL90">
+        <v>1.63</v>
+      </c>
+      <c r="BM90">
+        <v>2.93</v>
+      </c>
+      <c r="BN90">
+        <v>1.34</v>
+      </c>
+      <c r="BO90">
         <v>4</v>
       </c>
-      <c r="AY90">
-        <v>18</v>
-      </c>
-      <c r="AZ90">
-        <v>6</v>
-      </c>
-      <c r="BA90">
+      <c r="BP90">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7492244</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45594.60416666666</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s">
+        <v>75</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" t="s">
+        <v>155</v>
+      </c>
+      <c r="P91" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q91">
+        <v>2.75</v>
+      </c>
+      <c r="R91">
+        <v>2.1</v>
+      </c>
+      <c r="S91">
+        <v>4.33</v>
+      </c>
+      <c r="T91">
+        <v>1.44</v>
+      </c>
+      <c r="U91">
+        <v>2.63</v>
+      </c>
+      <c r="V91">
+        <v>3.25</v>
+      </c>
+      <c r="W91">
+        <v>1.33</v>
+      </c>
+      <c r="X91">
         <v>9</v>
       </c>
-      <c r="BB90">
-        <v>3</v>
-      </c>
-      <c r="BC90">
+      <c r="Y91">
+        <v>1.07</v>
+      </c>
+      <c r="Z91">
+        <v>2.15</v>
+      </c>
+      <c r="AA91">
+        <v>3.4</v>
+      </c>
+      <c r="AB91">
+        <v>3.5</v>
+      </c>
+      <c r="AC91">
+        <v>1.07</v>
+      </c>
+      <c r="AD91">
+        <v>9.5</v>
+      </c>
+      <c r="AE91">
+        <v>1.38</v>
+      </c>
+      <c r="AF91">
+        <v>3.1</v>
+      </c>
+      <c r="AG91">
+        <v>2.1</v>
+      </c>
+      <c r="AH91">
+        <v>1.67</v>
+      </c>
+      <c r="AI91">
+        <v>1.95</v>
+      </c>
+      <c r="AJ91">
+        <v>1.8</v>
+      </c>
+      <c r="AK91">
+        <v>1.28</v>
+      </c>
+      <c r="AL91">
+        <v>1.28</v>
+      </c>
+      <c r="AM91">
+        <v>1.8</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
+        <v>0.75</v>
+      </c>
+      <c r="AP91">
+        <v>1.4</v>
+      </c>
+      <c r="AQ91">
+        <v>0.6</v>
+      </c>
+      <c r="AR91">
+        <v>1.25</v>
+      </c>
+      <c r="AS91">
+        <v>0.85</v>
+      </c>
+      <c r="AT91">
+        <v>2.1</v>
+      </c>
+      <c r="AU91">
+        <v>7</v>
+      </c>
+      <c r="AV91">
+        <v>2</v>
+      </c>
+      <c r="AW91">
+        <v>4</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>15</v>
+      </c>
+      <c r="AZ91">
+        <v>8</v>
+      </c>
+      <c r="BA91">
+        <v>3</v>
+      </c>
+      <c r="BB91">
+        <v>4</v>
+      </c>
+      <c r="BC91">
+        <v>7</v>
+      </c>
+      <c r="BD91">
+        <v>1.64</v>
+      </c>
+      <c r="BE91">
+        <v>6.4</v>
+      </c>
+      <c r="BF91">
+        <v>2.55</v>
+      </c>
+      <c r="BG91">
+        <v>1.3</v>
+      </c>
+      <c r="BH91">
+        <v>3.05</v>
+      </c>
+      <c r="BI91">
+        <v>1.54</v>
+      </c>
+      <c r="BJ91">
+        <v>2.28</v>
+      </c>
+      <c r="BK91">
+        <v>1.9</v>
+      </c>
+      <c r="BL91">
+        <v>1.79</v>
+      </c>
+      <c r="BM91">
+        <v>2.4</v>
+      </c>
+      <c r="BN91">
+        <v>1.49</v>
+      </c>
+      <c r="BO91">
+        <v>3.1</v>
+      </c>
+      <c r="BP91">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7492239</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45594.60416666666</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>77</v>
+      </c>
+      <c r="H92" t="s">
+        <v>74</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>93</v>
+      </c>
+      <c r="P92" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q92">
+        <v>3.5</v>
+      </c>
+      <c r="R92">
+        <v>2.05</v>
+      </c>
+      <c r="S92">
+        <v>3.25</v>
+      </c>
+      <c r="T92">
+        <v>1.44</v>
+      </c>
+      <c r="U92">
+        <v>2.63</v>
+      </c>
+      <c r="V92">
+        <v>3.25</v>
+      </c>
+      <c r="W92">
+        <v>1.33</v>
+      </c>
+      <c r="X92">
+        <v>9</v>
+      </c>
+      <c r="Y92">
+        <v>1.07</v>
+      </c>
+      <c r="Z92">
+        <v>2.95</v>
+      </c>
+      <c r="AA92">
+        <v>3.4</v>
+      </c>
+      <c r="AB92">
+        <v>2.4</v>
+      </c>
+      <c r="AC92">
+        <v>1.07</v>
+      </c>
+      <c r="AD92">
+        <v>9.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.38</v>
+      </c>
+      <c r="AF92">
+        <v>3.1</v>
+      </c>
+      <c r="AG92">
+        <v>2.15</v>
+      </c>
+      <c r="AH92">
+        <v>1.65</v>
+      </c>
+      <c r="AI92">
+        <v>1.91</v>
+      </c>
+      <c r="AJ92">
+        <v>1.91</v>
+      </c>
+      <c r="AK92">
+        <v>1.55</v>
+      </c>
+      <c r="AL92">
+        <v>1.28</v>
+      </c>
+      <c r="AM92">
+        <v>1.45</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
+        <v>1.25</v>
+      </c>
+      <c r="AP92">
+        <v>0.83</v>
+      </c>
+      <c r="AQ92">
+        <v>1.6</v>
+      </c>
+      <c r="AR92">
+        <v>1.35</v>
+      </c>
+      <c r="AS92">
+        <v>1.36</v>
+      </c>
+      <c r="AT92">
+        <v>2.71</v>
+      </c>
+      <c r="AU92">
+        <v>3</v>
+      </c>
+      <c r="AV92">
+        <v>5</v>
+      </c>
+      <c r="AW92">
+        <v>7</v>
+      </c>
+      <c r="AX92">
+        <v>4</v>
+      </c>
+      <c r="AY92">
+        <v>15</v>
+      </c>
+      <c r="AZ92">
         <v>12</v>
       </c>
-      <c r="BD90">
-        <v>1.71</v>
-      </c>
-      <c r="BE90">
+      <c r="BA92">
+        <v>7</v>
+      </c>
+      <c r="BB92">
+        <v>2</v>
+      </c>
+      <c r="BC92">
         <v>9</v>
       </c>
-      <c r="BF90">
-        <v>2.55</v>
-      </c>
-      <c r="BG90">
-        <v>1.15</v>
-      </c>
-      <c r="BH90">
-        <v>4.05</v>
-      </c>
-      <c r="BI90">
-        <v>1.32</v>
-      </c>
-      <c r="BJ90">
-        <v>2.78</v>
-      </c>
-      <c r="BK90">
-        <v>1.62</v>
-      </c>
-      <c r="BL90">
-        <v>2.14</v>
-      </c>
-      <c r="BM90">
-        <v>2.07</v>
-      </c>
-      <c r="BN90">
-        <v>1.72</v>
-      </c>
-      <c r="BO90">
-        <v>2.64</v>
-      </c>
-      <c r="BP90">
-        <v>1.41</v>
+      <c r="BD92">
+        <v>1.85</v>
+      </c>
+      <c r="BE92">
+        <v>6.5</v>
+      </c>
+      <c r="BF92">
+        <v>2.15</v>
+      </c>
+      <c r="BG92">
+        <v>1.3</v>
+      </c>
+      <c r="BH92">
+        <v>3.05</v>
+      </c>
+      <c r="BI92">
+        <v>1.54</v>
+      </c>
+      <c r="BJ92">
+        <v>2.3</v>
+      </c>
+      <c r="BK92">
+        <v>1.88</v>
+      </c>
+      <c r="BL92">
+        <v>1.81</v>
+      </c>
+      <c r="BM92">
+        <v>2.35</v>
+      </c>
+      <c r="BN92">
+        <v>1.5</v>
+      </c>
+      <c r="BO92">
+        <v>3.05</v>
+      </c>
+      <c r="BP92">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>['35', '51']</t>
+  </si>
+  <si>
+    <t>['5', '43']</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1754,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>1.4</v>
@@ -2375,7 +2378,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -7934,7 +7937,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.33</v>
@@ -8761,7 +8764,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -10203,7 +10206,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.23</v>
@@ -11642,7 +11645,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.2</v>
@@ -16174,7 +16177,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16589,7 +16592,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ76">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>0.85</v>
@@ -18661,22 +18664,22 @@
         <v>2.24</v>
       </c>
       <c r="AU86">
+        <v>5</v>
+      </c>
+      <c r="AV86">
+        <v>2</v>
+      </c>
+      <c r="AW86">
+        <v>8</v>
+      </c>
+      <c r="AX86">
         <v>4</v>
       </c>
-      <c r="AV86">
-        <v>2</v>
-      </c>
-      <c r="AW86">
-        <v>4</v>
-      </c>
-      <c r="AX86">
-        <v>3</v>
-      </c>
       <c r="AY86">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AZ86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA86">
         <v>9</v>
@@ -18867,22 +18870,22 @@
         <v>2.17</v>
       </c>
       <c r="AU87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV87">
         <v>3</v>
       </c>
       <c r="AW87">
+        <v>10</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>19</v>
+      </c>
+      <c r="AZ87">
         <v>8</v>
-      </c>
-      <c r="AX87">
-        <v>2</v>
-      </c>
-      <c r="AY87">
-        <v>11</v>
-      </c>
-      <c r="AZ87">
-        <v>5</v>
       </c>
       <c r="BA87">
         <v>7</v>
@@ -19073,22 +19076,22 @@
         <v>1.96</v>
       </c>
       <c r="AU88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW88">
+        <v>8</v>
+      </c>
+      <c r="AX88">
+        <v>2</v>
+      </c>
+      <c r="AY88">
+        <v>14</v>
+      </c>
+      <c r="AZ88">
         <v>7</v>
-      </c>
-      <c r="AX88">
-        <v>3</v>
-      </c>
-      <c r="AY88">
-        <v>7</v>
-      </c>
-      <c r="AZ88">
-        <v>5</v>
       </c>
       <c r="BA88">
         <v>4</v>
@@ -19279,10 +19282,10 @@
         <v>2.72</v>
       </c>
       <c r="AU89">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW89">
         <v>4</v>
@@ -19291,10 +19294,10 @@
         <v>3</v>
       </c>
       <c r="AY89">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AZ89">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA89">
         <v>13</v>
@@ -19774,7 +19777,7 @@
         <v>45594.60416666666</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
         <v>77</v>
@@ -19961,6 +19964,212 @@
       </c>
       <c r="BP92">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7492245</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45594.69791666666</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" t="s">
+        <v>86</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>93</v>
+      </c>
+      <c r="P93" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q93">
+        <v>3.1</v>
+      </c>
+      <c r="R93">
+        <v>2.25</v>
+      </c>
+      <c r="S93">
+        <v>3.2</v>
+      </c>
+      <c r="T93">
+        <v>1.33</v>
+      </c>
+      <c r="U93">
+        <v>3.25</v>
+      </c>
+      <c r="V93">
+        <v>2.63</v>
+      </c>
+      <c r="W93">
+        <v>1.44</v>
+      </c>
+      <c r="X93">
+        <v>6.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.11</v>
+      </c>
+      <c r="Z93">
+        <v>2.4</v>
+      </c>
+      <c r="AA93">
+        <v>3.55</v>
+      </c>
+      <c r="AB93">
+        <v>2.85</v>
+      </c>
+      <c r="AC93">
+        <v>1.04</v>
+      </c>
+      <c r="AD93">
+        <v>13</v>
+      </c>
+      <c r="AE93">
+        <v>1.26</v>
+      </c>
+      <c r="AF93">
+        <v>4</v>
+      </c>
+      <c r="AG93">
+        <v>1.7</v>
+      </c>
+      <c r="AH93">
+        <v>2.05</v>
+      </c>
+      <c r="AI93">
+        <v>1.62</v>
+      </c>
+      <c r="AJ93">
+        <v>2.2</v>
+      </c>
+      <c r="AK93">
+        <v>1.5</v>
+      </c>
+      <c r="AL93">
+        <v>1.25</v>
+      </c>
+      <c r="AM93">
+        <v>1.55</v>
+      </c>
+      <c r="AN93">
+        <v>2.5</v>
+      </c>
+      <c r="AO93">
+        <v>1.75</v>
+      </c>
+      <c r="AP93">
+        <v>2</v>
+      </c>
+      <c r="AQ93">
+        <v>2</v>
+      </c>
+      <c r="AR93">
+        <v>1.71</v>
+      </c>
+      <c r="AS93">
+        <v>1.08</v>
+      </c>
+      <c r="AT93">
+        <v>2.79</v>
+      </c>
+      <c r="AU93">
+        <v>6</v>
+      </c>
+      <c r="AV93">
+        <v>5</v>
+      </c>
+      <c r="AW93">
+        <v>6</v>
+      </c>
+      <c r="AX93">
+        <v>4</v>
+      </c>
+      <c r="AY93">
+        <v>15</v>
+      </c>
+      <c r="AZ93">
+        <v>10</v>
+      </c>
+      <c r="BA93">
+        <v>5</v>
+      </c>
+      <c r="BB93">
+        <v>1</v>
+      </c>
+      <c r="BC93">
+        <v>6</v>
+      </c>
+      <c r="BD93">
+        <v>1.92</v>
+      </c>
+      <c r="BE93">
+        <v>6.1</v>
+      </c>
+      <c r="BF93">
+        <v>2.1</v>
+      </c>
+      <c r="BG93">
+        <v>1.38</v>
+      </c>
+      <c r="BH93">
+        <v>2.7</v>
+      </c>
+      <c r="BI93">
+        <v>1.66</v>
+      </c>
+      <c r="BJ93">
+        <v>2.07</v>
+      </c>
+      <c r="BK93">
+        <v>2.06</v>
+      </c>
+      <c r="BL93">
+        <v>1.66</v>
+      </c>
+      <c r="BM93">
+        <v>2.65</v>
+      </c>
+      <c r="BN93">
+        <v>1.41</v>
+      </c>
+      <c r="BO93">
+        <v>3.45</v>
+      </c>
+      <c r="BP93">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -484,6 +484,21 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['41', '56', '86']</t>
+  </si>
+  <si>
+    <t>['31', '49']</t>
+  </si>
+  <si>
+    <t>['70', '88']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -511,9 +526,6 @@
     <t>['45', '61']</t>
   </si>
   <si>
-    <t>['53']</t>
-  </si>
-  <si>
     <t>['28', '39', '53']</t>
   </si>
   <si>
@@ -607,9 +619,6 @@
     <t>['60']</t>
   </si>
   <si>
-    <t>['20']</t>
-  </si>
-  <si>
     <t>['37', '56']</t>
   </si>
   <si>
@@ -647,6 +656,21 @@
   </si>
   <si>
     <t>['5', '43']</t>
+  </si>
+  <si>
+    <t>['50', '67', '79']</t>
+  </si>
+  <si>
+    <t>['19', '25']</t>
+  </si>
+  <si>
+    <t>['3', '38']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['28', '31', '71', '81', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1473,7 +1497,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1551,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1679,7 +1703,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>2.3</v>
@@ -1760,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1963,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2091,7 +2115,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2172,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2503,7 +2527,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2915,7 +2939,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3199,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -3327,7 +3351,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3408,7 +3432,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3533,7 +3557,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3945,7 +3969,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4563,7 +4587,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>2.05</v>
@@ -4641,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18">
         <v>1.6</v>
@@ -4975,7 +4999,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>2.75</v>
@@ -5181,7 +5205,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5387,7 +5411,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5465,10 +5489,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5799,7 +5823,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6211,7 +6235,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6292,7 +6316,7 @@
         <v>3</v>
       </c>
       <c r="AQ26">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -6417,7 +6441,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6623,7 +6647,7 @@
         <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>2.25</v>
@@ -6704,7 +6728,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -6829,7 +6853,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6907,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29">
         <v>0.6</v>
@@ -7319,7 +7343,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>0.8</v>
@@ -7447,7 +7471,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7525,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ32">
         <v>1.6</v>
@@ -7731,7 +7755,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -8065,7 +8089,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8143,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ35">
         <v>0.8</v>
@@ -8271,7 +8295,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q36">
         <v>2.38</v>
@@ -8349,10 +8373,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8683,7 +8707,7 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8889,7 +8913,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -8970,7 +8994,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR39">
         <v>1.18</v>
@@ -9095,7 +9119,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9176,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9301,7 +9325,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9507,7 +9531,7 @@
         <v>93</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9713,7 +9737,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9794,7 +9818,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR43">
         <v>0.93</v>
@@ -9997,7 +10021,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
         <v>0.75</v>
@@ -10203,7 +10227,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10331,7 +10355,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10412,7 +10436,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR46">
         <v>1.54</v>
@@ -10537,7 +10561,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10618,7 +10642,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ47">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR47">
         <v>1.69</v>
@@ -10743,7 +10767,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11027,10 +11051,10 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR49">
         <v>2.26</v>
@@ -11155,7 +11179,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11361,7 +11385,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11439,7 +11463,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ51">
         <v>0.67</v>
@@ -11773,7 +11797,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11854,7 +11878,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR53">
         <v>1.05</v>
@@ -11979,7 +12003,7 @@
         <v>93</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12057,7 +12081,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -12185,7 +12209,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12391,7 +12415,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12472,7 +12496,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR56">
         <v>1.02</v>
@@ -12675,7 +12699,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
         <v>0.33</v>
@@ -12803,7 +12827,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12881,7 +12905,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
         <v>0.6</v>
@@ -13087,10 +13111,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR59">
         <v>0.91</v>
@@ -13296,7 +13320,7 @@
         <v>3</v>
       </c>
       <c r="AQ60">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.84</v>
@@ -13421,7 +13445,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14245,7 +14269,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14323,7 +14347,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ65">
         <v>0.75</v>
@@ -14451,7 +14475,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14532,7 +14556,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR66">
         <v>1.21</v>
@@ -14657,7 +14681,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14735,7 +14759,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14863,7 +14887,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -15150,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR69">
         <v>1.35</v>
@@ -15275,7 +15299,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15481,7 +15505,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15687,7 +15711,7 @@
         <v>143</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="Q72">
         <v>2.5</v>
@@ -15765,10 +15789,10 @@
         <v>0.67</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ72">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR72">
         <v>1.87</v>
@@ -15893,7 +15917,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -15971,7 +15995,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ73">
         <v>1.6</v>
@@ -16180,7 +16204,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR74">
         <v>1.89</v>
@@ -16383,10 +16407,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -16511,7 +16535,7 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16589,7 +16613,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -16717,7 +16741,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16795,7 +16819,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
         <v>1.4</v>
@@ -16923,7 +16947,7 @@
         <v>93</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>3.5</v>
@@ -17004,7 +17028,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR78">
         <v>1.41</v>
@@ -17129,7 +17153,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17210,7 +17234,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ79">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR79">
         <v>1.44</v>
@@ -17335,7 +17359,7 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17413,10 +17437,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR80">
         <v>2.02</v>
@@ -17541,7 +17565,7 @@
         <v>93</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -17622,7 +17646,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.08</v>
@@ -18365,7 +18389,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18443,7 +18467,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ85">
         <v>0.6</v>
@@ -18571,7 +18595,7 @@
         <v>102</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18983,7 +19007,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19189,7 +19213,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19395,7 +19419,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19571,7 +19595,7 @@
         <v>45594.60416666666</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G91" t="s">
         <v>78</v>
@@ -19777,7 +19801,7 @@
         <v>45594.60416666666</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G92" t="s">
         <v>77</v>
@@ -19807,7 +19831,7 @@
         <v>93</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20013,7 +20037,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20170,6 +20194,1448 @@
       </c>
       <c r="BP93">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7492241</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45595.60416666666</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>73</v>
+      </c>
+      <c r="H94" t="s">
+        <v>81</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" t="s">
+        <v>93</v>
+      </c>
+      <c r="P94" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q94">
+        <v>6.5</v>
+      </c>
+      <c r="R94">
+        <v>2.4</v>
+      </c>
+      <c r="S94">
+        <v>1.95</v>
+      </c>
+      <c r="T94">
+        <v>1.33</v>
+      </c>
+      <c r="U94">
+        <v>3.25</v>
+      </c>
+      <c r="V94">
+        <v>2.5</v>
+      </c>
+      <c r="W94">
+        <v>1.5</v>
+      </c>
+      <c r="X94">
+        <v>6.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.11</v>
+      </c>
+      <c r="Z94">
+        <v>7.17</v>
+      </c>
+      <c r="AA94">
+        <v>4.57</v>
+      </c>
+      <c r="AB94">
+        <v>1.46</v>
+      </c>
+      <c r="AC94">
+        <v>1.03</v>
+      </c>
+      <c r="AD94">
+        <v>15</v>
+      </c>
+      <c r="AE94">
+        <v>1.22</v>
+      </c>
+      <c r="AF94">
+        <v>4.33</v>
+      </c>
+      <c r="AG94">
+        <v>1.7</v>
+      </c>
+      <c r="AH94">
+        <v>2.15</v>
+      </c>
+      <c r="AI94">
+        <v>1.95</v>
+      </c>
+      <c r="AJ94">
+        <v>1.8</v>
+      </c>
+      <c r="AK94">
+        <v>2.9</v>
+      </c>
+      <c r="AL94">
+        <v>1.16</v>
+      </c>
+      <c r="AM94">
+        <v>1.08</v>
+      </c>
+      <c r="AN94">
+        <v>0.75</v>
+      </c>
+      <c r="AO94">
+        <v>2</v>
+      </c>
+      <c r="AP94">
+        <v>0.6</v>
+      </c>
+      <c r="AQ94">
+        <v>2.2</v>
+      </c>
+      <c r="AR94">
+        <v>0.91</v>
+      </c>
+      <c r="AS94">
+        <v>1.62</v>
+      </c>
+      <c r="AT94">
+        <v>2.53</v>
+      </c>
+      <c r="AU94">
+        <v>2</v>
+      </c>
+      <c r="AV94">
+        <v>6</v>
+      </c>
+      <c r="AW94">
+        <v>1</v>
+      </c>
+      <c r="AX94">
+        <v>6</v>
+      </c>
+      <c r="AY94">
+        <v>7</v>
+      </c>
+      <c r="AZ94">
+        <v>16</v>
+      </c>
+      <c r="BA94">
+        <v>1</v>
+      </c>
+      <c r="BB94">
+        <v>4</v>
+      </c>
+      <c r="BC94">
+        <v>5</v>
+      </c>
+      <c r="BD94">
+        <v>3.45</v>
+      </c>
+      <c r="BE94">
+        <v>7</v>
+      </c>
+      <c r="BF94">
+        <v>1.36</v>
+      </c>
+      <c r="BG94">
+        <v>1.28</v>
+      </c>
+      <c r="BH94">
+        <v>3.3</v>
+      </c>
+      <c r="BI94">
+        <v>1.49</v>
+      </c>
+      <c r="BJ94">
+        <v>2.4</v>
+      </c>
+      <c r="BK94">
+        <v>1.78</v>
+      </c>
+      <c r="BL94">
+        <v>1.91</v>
+      </c>
+      <c r="BM94">
+        <v>2.23</v>
+      </c>
+      <c r="BN94">
+        <v>1.56</v>
+      </c>
+      <c r="BO94">
+        <v>2.9</v>
+      </c>
+      <c r="BP94">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7492247</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45595.60416666666</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>87</v>
+      </c>
+      <c r="H95" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>5</v>
+      </c>
+      <c r="O95" t="s">
+        <v>156</v>
+      </c>
+      <c r="P95" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q95">
+        <v>3.4</v>
+      </c>
+      <c r="R95">
+        <v>2.05</v>
+      </c>
+      <c r="S95">
+        <v>3.25</v>
+      </c>
+      <c r="T95">
+        <v>1.44</v>
+      </c>
+      <c r="U95">
+        <v>2.63</v>
+      </c>
+      <c r="V95">
+        <v>3.25</v>
+      </c>
+      <c r="W95">
+        <v>1.33</v>
+      </c>
+      <c r="X95">
+        <v>9</v>
+      </c>
+      <c r="Y95">
+        <v>1.07</v>
+      </c>
+      <c r="Z95">
+        <v>2.81</v>
+      </c>
+      <c r="AA95">
+        <v>3.23</v>
+      </c>
+      <c r="AB95">
+        <v>2.65</v>
+      </c>
+      <c r="AC95">
+        <v>1.07</v>
+      </c>
+      <c r="AD95">
+        <v>9.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.36</v>
+      </c>
+      <c r="AF95">
+        <v>3.2</v>
+      </c>
+      <c r="AG95">
+        <v>2.08</v>
+      </c>
+      <c r="AH95">
+        <v>1.74</v>
+      </c>
+      <c r="AI95">
+        <v>1.91</v>
+      </c>
+      <c r="AJ95">
+        <v>1.91</v>
+      </c>
+      <c r="AK95">
+        <v>1.53</v>
+      </c>
+      <c r="AL95">
+        <v>1.3</v>
+      </c>
+      <c r="AM95">
+        <v>1.47</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95">
+        <v>1.5</v>
+      </c>
+      <c r="AQ95">
+        <v>0.8</v>
+      </c>
+      <c r="AR95">
+        <v>1.33</v>
+      </c>
+      <c r="AS95">
+        <v>1.23</v>
+      </c>
+      <c r="AT95">
+        <v>2.56</v>
+      </c>
+      <c r="AU95">
+        <v>8</v>
+      </c>
+      <c r="AV95">
+        <v>6</v>
+      </c>
+      <c r="AW95">
+        <v>5</v>
+      </c>
+      <c r="AX95">
+        <v>8</v>
+      </c>
+      <c r="AY95">
+        <v>19</v>
+      </c>
+      <c r="AZ95">
+        <v>17</v>
+      </c>
+      <c r="BA95">
+        <v>2</v>
+      </c>
+      <c r="BB95">
+        <v>6</v>
+      </c>
+      <c r="BC95">
+        <v>8</v>
+      </c>
+      <c r="BD95">
+        <v>1.8</v>
+      </c>
+      <c r="BE95">
+        <v>6.4</v>
+      </c>
+      <c r="BF95">
+        <v>2.2</v>
+      </c>
+      <c r="BG95">
+        <v>1.28</v>
+      </c>
+      <c r="BH95">
+        <v>3.3</v>
+      </c>
+      <c r="BI95">
+        <v>1.48</v>
+      </c>
+      <c r="BJ95">
+        <v>2.43</v>
+      </c>
+      <c r="BK95">
+        <v>1.77</v>
+      </c>
+      <c r="BL95">
+        <v>1.91</v>
+      </c>
+      <c r="BM95">
+        <v>2.2</v>
+      </c>
+      <c r="BN95">
+        <v>1.58</v>
+      </c>
+      <c r="BO95">
+        <v>2.8</v>
+      </c>
+      <c r="BP95">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7492243</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45595.69791666666</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s">
+        <v>70</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>157</v>
+      </c>
+      <c r="P96" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q96">
+        <v>1.95</v>
+      </c>
+      <c r="R96">
+        <v>2.38</v>
+      </c>
+      <c r="S96">
+        <v>7</v>
+      </c>
+      <c r="T96">
+        <v>1.36</v>
+      </c>
+      <c r="U96">
+        <v>3</v>
+      </c>
+      <c r="V96">
+        <v>2.63</v>
+      </c>
+      <c r="W96">
+        <v>1.44</v>
+      </c>
+      <c r="X96">
+        <v>7</v>
+      </c>
+      <c r="Y96">
+        <v>1.1</v>
+      </c>
+      <c r="Z96">
+        <v>1.48</v>
+      </c>
+      <c r="AA96">
+        <v>4.48</v>
+      </c>
+      <c r="AB96">
+        <v>6.85</v>
+      </c>
+      <c r="AC96">
+        <v>1.04</v>
+      </c>
+      <c r="AD96">
+        <v>13</v>
+      </c>
+      <c r="AE96">
+        <v>1.28</v>
+      </c>
+      <c r="AF96">
+        <v>3.75</v>
+      </c>
+      <c r="AG96">
+        <v>1.8</v>
+      </c>
+      <c r="AH96">
+        <v>2.02</v>
+      </c>
+      <c r="AI96">
+        <v>2</v>
+      </c>
+      <c r="AJ96">
+        <v>1.75</v>
+      </c>
+      <c r="AK96">
+        <v>1.08</v>
+      </c>
+      <c r="AL96">
+        <v>1.17</v>
+      </c>
+      <c r="AM96">
+        <v>2.85</v>
+      </c>
+      <c r="AN96">
+        <v>1.8</v>
+      </c>
+      <c r="AO96">
+        <v>0.75</v>
+      </c>
+      <c r="AP96">
+        <v>1.67</v>
+      </c>
+      <c r="AQ96">
+        <v>0.8</v>
+      </c>
+      <c r="AR96">
+        <v>1.25</v>
+      </c>
+      <c r="AS96">
+        <v>1.41</v>
+      </c>
+      <c r="AT96">
+        <v>2.66</v>
+      </c>
+      <c r="AU96">
+        <v>7</v>
+      </c>
+      <c r="AV96">
+        <v>6</v>
+      </c>
+      <c r="AW96">
+        <v>10</v>
+      </c>
+      <c r="AX96">
+        <v>3</v>
+      </c>
+      <c r="AY96">
+        <v>27</v>
+      </c>
+      <c r="AZ96">
+        <v>14</v>
+      </c>
+      <c r="BA96">
+        <v>10</v>
+      </c>
+      <c r="BB96">
+        <v>6</v>
+      </c>
+      <c r="BC96">
+        <v>16</v>
+      </c>
+      <c r="BD96">
+        <v>1.3</v>
+      </c>
+      <c r="BE96">
+        <v>7.5</v>
+      </c>
+      <c r="BF96">
+        <v>3.8</v>
+      </c>
+      <c r="BG96">
+        <v>1.29</v>
+      </c>
+      <c r="BH96">
+        <v>3.15</v>
+      </c>
+      <c r="BI96">
+        <v>1.49</v>
+      </c>
+      <c r="BJ96">
+        <v>2.4</v>
+      </c>
+      <c r="BK96">
+        <v>1.81</v>
+      </c>
+      <c r="BL96">
+        <v>1.88</v>
+      </c>
+      <c r="BM96">
+        <v>2.28</v>
+      </c>
+      <c r="BN96">
+        <v>1.55</v>
+      </c>
+      <c r="BO96">
+        <v>2.9</v>
+      </c>
+      <c r="BP96">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7492238</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45595.69791666666</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>89</v>
+      </c>
+      <c r="H97" t="s">
+        <v>82</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>158</v>
+      </c>
+      <c r="P97" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q97">
+        <v>1.8</v>
+      </c>
+      <c r="R97">
+        <v>2.6</v>
+      </c>
+      <c r="S97">
+        <v>7.5</v>
+      </c>
+      <c r="T97">
+        <v>1.29</v>
+      </c>
+      <c r="U97">
+        <v>3.5</v>
+      </c>
+      <c r="V97">
+        <v>2.38</v>
+      </c>
+      <c r="W97">
+        <v>1.53</v>
+      </c>
+      <c r="X97">
+        <v>5.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.14</v>
+      </c>
+      <c r="Z97">
+        <v>1.39</v>
+      </c>
+      <c r="AA97">
+        <v>5.1</v>
+      </c>
+      <c r="AB97">
+        <v>7.83</v>
+      </c>
+      <c r="AC97">
+        <v>1.03</v>
+      </c>
+      <c r="AD97">
+        <v>11</v>
+      </c>
+      <c r="AE97">
+        <v>1.2</v>
+      </c>
+      <c r="AF97">
+        <v>4.5</v>
+      </c>
+      <c r="AG97">
+        <v>1.62</v>
+      </c>
+      <c r="AH97">
+        <v>2.3</v>
+      </c>
+      <c r="AI97">
+        <v>1.95</v>
+      </c>
+      <c r="AJ97">
+        <v>1.8</v>
+      </c>
+      <c r="AK97">
+        <v>1.07</v>
+      </c>
+      <c r="AL97">
+        <v>1.12</v>
+      </c>
+      <c r="AM97">
+        <v>3.1</v>
+      </c>
+      <c r="AN97">
+        <v>2.25</v>
+      </c>
+      <c r="AO97">
+        <v>1.25</v>
+      </c>
+      <c r="AP97">
+        <v>2.4</v>
+      </c>
+      <c r="AQ97">
+        <v>1</v>
+      </c>
+      <c r="AR97">
+        <v>1.88</v>
+      </c>
+      <c r="AS97">
+        <v>0.72</v>
+      </c>
+      <c r="AT97">
+        <v>2.6</v>
+      </c>
+      <c r="AU97">
+        <v>7</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>1</v>
+      </c>
+      <c r="AY97">
+        <v>17</v>
+      </c>
+      <c r="AZ97">
+        <v>5</v>
+      </c>
+      <c r="BA97">
+        <v>5</v>
+      </c>
+      <c r="BB97">
+        <v>1</v>
+      </c>
+      <c r="BC97">
+        <v>6</v>
+      </c>
+      <c r="BD97">
+        <v>1.25</v>
+      </c>
+      <c r="BE97">
+        <v>7.5</v>
+      </c>
+      <c r="BF97">
+        <v>4.35</v>
+      </c>
+      <c r="BG97">
+        <v>1.35</v>
+      </c>
+      <c r="BH97">
+        <v>2.88</v>
+      </c>
+      <c r="BI97">
+        <v>1.61</v>
+      </c>
+      <c r="BJ97">
+        <v>2.15</v>
+      </c>
+      <c r="BK97">
+        <v>1.97</v>
+      </c>
+      <c r="BL97">
+        <v>1.73</v>
+      </c>
+      <c r="BM97">
+        <v>2.48</v>
+      </c>
+      <c r="BN97">
+        <v>1.46</v>
+      </c>
+      <c r="BO97">
+        <v>3.3</v>
+      </c>
+      <c r="BP97">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7492242</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45595.875</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>71</v>
+      </c>
+      <c r="H98" t="s">
+        <v>83</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>93</v>
+      </c>
+      <c r="P98" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q98">
+        <v>4.5</v>
+      </c>
+      <c r="R98">
+        <v>2.1</v>
+      </c>
+      <c r="S98">
+        <v>2.6</v>
+      </c>
+      <c r="T98">
+        <v>1.44</v>
+      </c>
+      <c r="U98">
+        <v>2.63</v>
+      </c>
+      <c r="V98">
+        <v>3</v>
+      </c>
+      <c r="W98">
+        <v>1.36</v>
+      </c>
+      <c r="X98">
+        <v>9</v>
+      </c>
+      <c r="Y98">
+        <v>1.07</v>
+      </c>
+      <c r="Z98">
+        <v>3.45</v>
+      </c>
+      <c r="AA98">
+        <v>3.5</v>
+      </c>
+      <c r="AB98">
+        <v>2.06</v>
+      </c>
+      <c r="AC98">
+        <v>1.06</v>
+      </c>
+      <c r="AD98">
+        <v>10</v>
+      </c>
+      <c r="AE98">
+        <v>1.33</v>
+      </c>
+      <c r="AF98">
+        <v>3.3</v>
+      </c>
+      <c r="AG98">
+        <v>2.08</v>
+      </c>
+      <c r="AH98">
+        <v>1.75</v>
+      </c>
+      <c r="AI98">
+        <v>1.95</v>
+      </c>
+      <c r="AJ98">
+        <v>1.8</v>
+      </c>
+      <c r="AK98">
+        <v>1.9</v>
+      </c>
+      <c r="AL98">
+        <v>1.26</v>
+      </c>
+      <c r="AM98">
+        <v>1.26</v>
+      </c>
+      <c r="AN98">
+        <v>0.6</v>
+      </c>
+      <c r="AO98">
+        <v>1.25</v>
+      </c>
+      <c r="AP98">
+        <v>0.5</v>
+      </c>
+      <c r="AQ98">
+        <v>1.6</v>
+      </c>
+      <c r="AR98">
+        <v>1.23</v>
+      </c>
+      <c r="AS98">
+        <v>1.48</v>
+      </c>
+      <c r="AT98">
+        <v>2.71</v>
+      </c>
+      <c r="AU98">
+        <v>5</v>
+      </c>
+      <c r="AV98">
+        <v>5</v>
+      </c>
+      <c r="AW98">
+        <v>6</v>
+      </c>
+      <c r="AX98">
+        <v>2</v>
+      </c>
+      <c r="AY98">
+        <v>15</v>
+      </c>
+      <c r="AZ98">
+        <v>14</v>
+      </c>
+      <c r="BA98">
+        <v>4</v>
+      </c>
+      <c r="BB98">
+        <v>4</v>
+      </c>
+      <c r="BC98">
+        <v>8</v>
+      </c>
+      <c r="BD98">
+        <v>2.55</v>
+      </c>
+      <c r="BE98">
+        <v>6.25</v>
+      </c>
+      <c r="BF98">
+        <v>1.65</v>
+      </c>
+      <c r="BG98">
+        <v>1.48</v>
+      </c>
+      <c r="BH98">
+        <v>2.43</v>
+      </c>
+      <c r="BI98">
+        <v>1.8</v>
+      </c>
+      <c r="BJ98">
+        <v>1.89</v>
+      </c>
+      <c r="BK98">
+        <v>2.3</v>
+      </c>
+      <c r="BL98">
+        <v>1.54</v>
+      </c>
+      <c r="BM98">
+        <v>2.95</v>
+      </c>
+      <c r="BN98">
+        <v>1.33</v>
+      </c>
+      <c r="BO98">
+        <v>4</v>
+      </c>
+      <c r="BP98">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7492246</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45595.875</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" t="s">
+        <v>84</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" t="s">
+        <v>159</v>
+      </c>
+      <c r="P99" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q99">
+        <v>2.3</v>
+      </c>
+      <c r="R99">
+        <v>2.2</v>
+      </c>
+      <c r="S99">
+        <v>5</v>
+      </c>
+      <c r="T99">
+        <v>1.4</v>
+      </c>
+      <c r="U99">
+        <v>2.75</v>
+      </c>
+      <c r="V99">
+        <v>3</v>
+      </c>
+      <c r="W99">
+        <v>1.36</v>
+      </c>
+      <c r="X99">
+        <v>8</v>
+      </c>
+      <c r="Y99">
+        <v>1.08</v>
+      </c>
+      <c r="Z99">
+        <v>1.7</v>
+      </c>
+      <c r="AA99">
+        <v>3.85</v>
+      </c>
+      <c r="AB99">
+        <v>4.6</v>
+      </c>
+      <c r="AC99">
+        <v>1.05</v>
+      </c>
+      <c r="AD99">
+        <v>11</v>
+      </c>
+      <c r="AE99">
+        <v>1.33</v>
+      </c>
+      <c r="AF99">
+        <v>3.4</v>
+      </c>
+      <c r="AG99">
+        <v>2.02</v>
+      </c>
+      <c r="AH99">
+        <v>1.79</v>
+      </c>
+      <c r="AI99">
+        <v>1.95</v>
+      </c>
+      <c r="AJ99">
+        <v>1.8</v>
+      </c>
+      <c r="AK99">
+        <v>1.18</v>
+      </c>
+      <c r="AL99">
+        <v>1.22</v>
+      </c>
+      <c r="AM99">
+        <v>2.15</v>
+      </c>
+      <c r="AN99">
+        <v>1.5</v>
+      </c>
+      <c r="AO99">
+        <v>1.4</v>
+      </c>
+      <c r="AP99">
+        <v>1.8</v>
+      </c>
+      <c r="AQ99">
+        <v>1.17</v>
+      </c>
+      <c r="AR99">
+        <v>1.81</v>
+      </c>
+      <c r="AS99">
+        <v>1.19</v>
+      </c>
+      <c r="AT99">
+        <v>3</v>
+      </c>
+      <c r="AU99">
+        <v>4</v>
+      </c>
+      <c r="AV99">
+        <v>3</v>
+      </c>
+      <c r="AW99">
+        <v>2</v>
+      </c>
+      <c r="AX99">
+        <v>0</v>
+      </c>
+      <c r="AY99">
+        <v>11</v>
+      </c>
+      <c r="AZ99">
+        <v>5</v>
+      </c>
+      <c r="BA99">
+        <v>3</v>
+      </c>
+      <c r="BB99">
+        <v>5</v>
+      </c>
+      <c r="BC99">
+        <v>8</v>
+      </c>
+      <c r="BD99">
+        <v>1.63</v>
+      </c>
+      <c r="BE99">
+        <v>6.5</v>
+      </c>
+      <c r="BF99">
+        <v>2.55</v>
+      </c>
+      <c r="BG99">
+        <v>1.32</v>
+      </c>
+      <c r="BH99">
+        <v>3.05</v>
+      </c>
+      <c r="BI99">
+        <v>1.56</v>
+      </c>
+      <c r="BJ99">
+        <v>2.23</v>
+      </c>
+      <c r="BK99">
+        <v>1.91</v>
+      </c>
+      <c r="BL99">
+        <v>1.78</v>
+      </c>
+      <c r="BM99">
+        <v>2.4</v>
+      </c>
+      <c r="BN99">
+        <v>1.49</v>
+      </c>
+      <c r="BO99">
+        <v>3.15</v>
+      </c>
+      <c r="BP99">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7492240</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45596.69791666666</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>88</v>
+      </c>
+      <c r="H100" t="s">
+        <v>76</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>6</v>
+      </c>
+      <c r="O100" t="s">
+        <v>160</v>
+      </c>
+      <c r="P100" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q100">
+        <v>3.4</v>
+      </c>
+      <c r="R100">
+        <v>2.1</v>
+      </c>
+      <c r="S100">
+        <v>3.2</v>
+      </c>
+      <c r="T100">
+        <v>1.4</v>
+      </c>
+      <c r="U100">
+        <v>2.75</v>
+      </c>
+      <c r="V100">
+        <v>3</v>
+      </c>
+      <c r="W100">
+        <v>1.36</v>
+      </c>
+      <c r="X100">
+        <v>8</v>
+      </c>
+      <c r="Y100">
+        <v>1.08</v>
+      </c>
+      <c r="Z100">
+        <v>2.75</v>
+      </c>
+      <c r="AA100">
+        <v>3.4</v>
+      </c>
+      <c r="AB100">
+        <v>2.45</v>
+      </c>
+      <c r="AC100">
+        <v>1.06</v>
+      </c>
+      <c r="AD100">
+        <v>11</v>
+      </c>
+      <c r="AE100">
+        <v>1.33</v>
+      </c>
+      <c r="AF100">
+        <v>3.4</v>
+      </c>
+      <c r="AG100">
+        <v>2</v>
+      </c>
+      <c r="AH100">
+        <v>1.8</v>
+      </c>
+      <c r="AI100">
+        <v>1.75</v>
+      </c>
+      <c r="AJ100">
+        <v>2</v>
+      </c>
+      <c r="AK100">
+        <v>1.55</v>
+      </c>
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.47</v>
+      </c>
+      <c r="AN100">
+        <v>1.67</v>
+      </c>
+      <c r="AO100">
+        <v>0.75</v>
+      </c>
+      <c r="AP100">
+        <v>1.25</v>
+      </c>
+      <c r="AQ100">
+        <v>1.2</v>
+      </c>
+      <c r="AR100">
+        <v>1.62</v>
+      </c>
+      <c r="AS100">
+        <v>1.45</v>
+      </c>
+      <c r="AT100">
+        <v>3.07</v>
+      </c>
+      <c r="AU100">
+        <v>3</v>
+      </c>
+      <c r="AV100">
+        <v>8</v>
+      </c>
+      <c r="AW100">
+        <v>7</v>
+      </c>
+      <c r="AX100">
+        <v>4</v>
+      </c>
+      <c r="AY100">
+        <v>15</v>
+      </c>
+      <c r="AZ100">
+        <v>15</v>
+      </c>
+      <c r="BA100">
+        <v>3</v>
+      </c>
+      <c r="BB100">
+        <v>5</v>
+      </c>
+      <c r="BC100">
+        <v>8</v>
+      </c>
+      <c r="BD100">
+        <v>2.08</v>
+      </c>
+      <c r="BE100">
+        <v>6.4</v>
+      </c>
+      <c r="BF100">
+        <v>1.92</v>
+      </c>
+      <c r="BG100">
+        <v>1.34</v>
+      </c>
+      <c r="BH100">
+        <v>2.9</v>
+      </c>
+      <c r="BI100">
+        <v>1.6</v>
+      </c>
+      <c r="BJ100">
+        <v>2.17</v>
+      </c>
+      <c r="BK100">
+        <v>1.95</v>
+      </c>
+      <c r="BL100">
+        <v>1.74</v>
+      </c>
+      <c r="BM100">
+        <v>2.48</v>
+      </c>
+      <c r="BN100">
+        <v>1.47</v>
+      </c>
+      <c r="BO100">
+        <v>3.2</v>
+      </c>
+      <c r="BP100">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -469,10 +469,10 @@
     <t>['6', '9', '14', '29', '34', '58']</t>
   </si>
   <si>
-    <t>['23', '44']</t>
+    <t>['21', '86', '90+4']</t>
   </si>
   <si>
-    <t>['21', '86', '90+4']</t>
+    <t>['23', '44']</t>
   </si>
   <si>
     <t>['15', '35', '37', '53']</t>
@@ -487,10 +487,10 @@
     <t>['41', '56', '86']</t>
   </si>
   <si>
-    <t>['70', '88']</t>
+    <t>['31', '49']</t>
   </si>
   <si>
-    <t>['31', '49']</t>
+    <t>['70', '88']</t>
   </si>
   <si>
     <t>['53']</t>
@@ -499,10 +499,10 @@
     <t>['20']</t>
   </si>
   <si>
-    <t>['65']</t>
+    <t>['13', '34', '88']</t>
   </si>
   <si>
-    <t>['13', '34', '88']</t>
+    <t>['65']</t>
   </si>
   <si>
     <t>['47']</t>
@@ -670,10 +670,10 @@
     <t>['5', '43']</t>
   </si>
   <si>
-    <t>['19', '25']</t>
+    <t>['50', '67', '79']</t>
   </si>
   <si>
-    <t>['50', '67', '79']</t>
+    <t>['19', '25']</t>
   </si>
   <si>
     <t>['3', '38']</t>
@@ -688,10 +688,10 @@
     <t>['19', '37']</t>
   </si>
   <si>
-    <t>['28', '53']</t>
+    <t>['10', '31', '90+2']</t>
   </si>
   <si>
-    <t>['10', '31', '90+2']</t>
+    <t>['28', '53']</t>
   </si>
   <si>
     <t>['79']</t>
@@ -18783,7 +18783,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7492233</v>
+        <v>7492232</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18795,91 +18795,91 @@
         <v>45592.45833333334</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O87" t="s">
         <v>151</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="Q87">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R87">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T87">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U87">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V87">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="W87">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="X87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y87">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="Z87">
-        <v>2.16</v>
+        <v>1.51</v>
       </c>
       <c r="AA87">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="AB87">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="AC87">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AD87">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AE87">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AF87">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="AG87">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="AH87">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AI87">
         <v>1.95</v>
@@ -18888,100 +18888,100 @@
         <v>1.8</v>
       </c>
       <c r="AK87">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="AL87">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AM87">
-        <v>1.72</v>
+        <v>2.5</v>
       </c>
       <c r="AN87">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AO87">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AP87">
-        <v>0.5</v>
+        <v>2.67</v>
       </c>
       <c r="AQ87">
-        <v>0.29</v>
+        <v>1.2</v>
       </c>
       <c r="AR87">
-        <v>0.85</v>
+        <v>1.49</v>
       </c>
       <c r="AS87">
-        <v>1.11</v>
+        <v>0.68</v>
       </c>
       <c r="AT87">
-        <v>1.96</v>
+        <v>2.17</v>
       </c>
       <c r="AU87">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV87">
         <v>3</v>
       </c>
       <c r="AW87">
+        <v>10</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>19</v>
+      </c>
+      <c r="AZ87">
         <v>8</v>
       </c>
-      <c r="AX87">
-        <v>2</v>
-      </c>
-      <c r="AY87">
-        <v>14</v>
-      </c>
-      <c r="AZ87">
+      <c r="BA87">
         <v>7</v>
       </c>
-      <c r="BA87">
+      <c r="BB87">
         <v>4</v>
       </c>
-      <c r="BB87">
-        <v>3</v>
-      </c>
       <c r="BC87">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD87">
-        <v>1.72</v>
+        <v>1.32</v>
       </c>
       <c r="BE87">
-        <v>8.4</v>
+        <v>10.25</v>
       </c>
       <c r="BF87">
-        <v>2.58</v>
+        <v>4.33</v>
       </c>
       <c r="BG87">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="BH87">
-        <v>2.88</v>
+        <v>3.22</v>
       </c>
       <c r="BI87">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BJ87">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="BK87">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="BL87">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="BM87">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="BN87">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="BO87">
-        <v>3.62</v>
+        <v>3.14</v>
       </c>
       <c r="BP87">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18989,7 +18989,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7492232</v>
+        <v>7492233</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -19001,91 +19001,91 @@
         <v>45592.45833333334</v>
       </c>
       <c r="F88">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O88" t="s">
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="Q88">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
+        <v>4</v>
+      </c>
+      <c r="T88">
+        <v>1.5</v>
+      </c>
+      <c r="U88">
+        <v>2.5</v>
+      </c>
+      <c r="V88">
+        <v>3.4</v>
+      </c>
+      <c r="W88">
+        <v>1.3</v>
+      </c>
+      <c r="X88">
+        <v>10</v>
+      </c>
+      <c r="Y88">
+        <v>1.06</v>
+      </c>
+      <c r="Z88">
+        <v>2.16</v>
+      </c>
+      <c r="AA88">
+        <v>3</v>
+      </c>
+      <c r="AB88">
+        <v>3.3</v>
+      </c>
+      <c r="AC88">
+        <v>1.08</v>
+      </c>
+      <c r="AD88">
+        <v>8.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.42</v>
+      </c>
+      <c r="AF88">
+        <v>2.9</v>
+      </c>
+      <c r="AG88">
         <v>2.3</v>
       </c>
-      <c r="S88">
-        <v>6</v>
-      </c>
-      <c r="T88">
-        <v>1.36</v>
-      </c>
-      <c r="U88">
-        <v>3</v>
-      </c>
-      <c r="V88">
-        <v>2.63</v>
-      </c>
-      <c r="W88">
-        <v>1.44</v>
-      </c>
-      <c r="X88">
-        <v>7</v>
-      </c>
-      <c r="Y88">
-        <v>1.1</v>
-      </c>
-      <c r="Z88">
-        <v>1.51</v>
-      </c>
-      <c r="AA88">
-        <v>3.9</v>
-      </c>
-      <c r="AB88">
-        <v>5.4</v>
-      </c>
-      <c r="AC88">
-        <v>1.04</v>
-      </c>
-      <c r="AD88">
-        <v>13</v>
-      </c>
-      <c r="AE88">
-        <v>1.28</v>
-      </c>
-      <c r="AF88">
-        <v>3.75</v>
-      </c>
-      <c r="AG88">
-        <v>1.81</v>
-      </c>
       <c r="AH88">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AI88">
         <v>1.95</v>
@@ -19094,100 +19094,100 @@
         <v>1.8</v>
       </c>
       <c r="AK88">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="AL88">
+        <v>1.3</v>
+      </c>
+      <c r="AM88">
+        <v>1.72</v>
+      </c>
+      <c r="AN88">
+        <v>0.5</v>
+      </c>
+      <c r="AO88">
+        <v>0.2</v>
+      </c>
+      <c r="AP88">
+        <v>0.5</v>
+      </c>
+      <c r="AQ88">
+        <v>0.29</v>
+      </c>
+      <c r="AR88">
+        <v>0.85</v>
+      </c>
+      <c r="AS88">
+        <v>1.11</v>
+      </c>
+      <c r="AT88">
+        <v>1.96</v>
+      </c>
+      <c r="AU88">
+        <v>3</v>
+      </c>
+      <c r="AV88">
+        <v>3</v>
+      </c>
+      <c r="AW88">
+        <v>8</v>
+      </c>
+      <c r="AX88">
+        <v>2</v>
+      </c>
+      <c r="AY88">
+        <v>14</v>
+      </c>
+      <c r="AZ88">
+        <v>7</v>
+      </c>
+      <c r="BA88">
+        <v>4</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>7</v>
+      </c>
+      <c r="BD88">
+        <v>1.72</v>
+      </c>
+      <c r="BE88">
+        <v>8.4</v>
+      </c>
+      <c r="BF88">
+        <v>2.58</v>
+      </c>
+      <c r="BG88">
+        <v>1.3</v>
+      </c>
+      <c r="BH88">
+        <v>2.88</v>
+      </c>
+      <c r="BI88">
+        <v>1.61</v>
+      </c>
+      <c r="BJ88">
+        <v>2.15</v>
+      </c>
+      <c r="BK88">
+        <v>2.07</v>
+      </c>
+      <c r="BL88">
+        <v>1.72</v>
+      </c>
+      <c r="BM88">
+        <v>2.72</v>
+      </c>
+      <c r="BN88">
+        <v>1.39</v>
+      </c>
+      <c r="BO88">
+        <v>3.62</v>
+      </c>
+      <c r="BP88">
         <v>1.19</v>
-      </c>
-      <c r="AM88">
-        <v>2.5</v>
-      </c>
-      <c r="AN88">
-        <v>2.5</v>
-      </c>
-      <c r="AO88">
-        <v>1</v>
-      </c>
-      <c r="AP88">
-        <v>2.67</v>
-      </c>
-      <c r="AQ88">
-        <v>1.2</v>
-      </c>
-      <c r="AR88">
-        <v>1.49</v>
-      </c>
-      <c r="AS88">
-        <v>0.68</v>
-      </c>
-      <c r="AT88">
-        <v>2.17</v>
-      </c>
-      <c r="AU88">
-        <v>5</v>
-      </c>
-      <c r="AV88">
-        <v>3</v>
-      </c>
-      <c r="AW88">
-        <v>10</v>
-      </c>
-      <c r="AX88">
-        <v>4</v>
-      </c>
-      <c r="AY88">
-        <v>19</v>
-      </c>
-      <c r="AZ88">
-        <v>8</v>
-      </c>
-      <c r="BA88">
-        <v>7</v>
-      </c>
-      <c r="BB88">
-        <v>4</v>
-      </c>
-      <c r="BC88">
-        <v>11</v>
-      </c>
-      <c r="BD88">
-        <v>1.32</v>
-      </c>
-      <c r="BE88">
-        <v>10.25</v>
-      </c>
-      <c r="BF88">
-        <v>4.33</v>
-      </c>
-      <c r="BG88">
-        <v>1.24</v>
-      </c>
-      <c r="BH88">
-        <v>3.22</v>
-      </c>
-      <c r="BI88">
-        <v>1.5</v>
-      </c>
-      <c r="BJ88">
-        <v>2.38</v>
-      </c>
-      <c r="BK88">
-        <v>1.89</v>
-      </c>
-      <c r="BL88">
-        <v>1.87</v>
-      </c>
-      <c r="BM88">
-        <v>2.4</v>
-      </c>
-      <c r="BN88">
-        <v>1.49</v>
-      </c>
-      <c r="BO88">
-        <v>3.14</v>
-      </c>
-      <c r="BP88">
-        <v>1.25</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -20225,7 +20225,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7492247</v>
+        <v>7492241</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20237,163 +20237,163 @@
         <v>45595.60416666666</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H94" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O94" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="P94" t="s">
         <v>218</v>
       </c>
       <c r="Q94">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="R94">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="S94">
+        <v>1.95</v>
+      </c>
+      <c r="T94">
+        <v>1.33</v>
+      </c>
+      <c r="U94">
         <v>3.25</v>
       </c>
-      <c r="T94">
-        <v>1.44</v>
-      </c>
-      <c r="U94">
-        <v>2.63</v>
-      </c>
       <c r="V94">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="W94">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X94">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Y94">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z94">
-        <v>2.81</v>
+        <v>7.17</v>
       </c>
       <c r="AA94">
-        <v>3.23</v>
+        <v>4.57</v>
       </c>
       <c r="AB94">
-        <v>2.65</v>
+        <v>1.46</v>
       </c>
       <c r="AC94">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AD94">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AE94">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AF94">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="AG94">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="AH94">
-        <v>1.74</v>
+        <v>2.15</v>
       </c>
       <c r="AI94">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AJ94">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AK94">
-        <v>1.53</v>
+        <v>2.9</v>
       </c>
       <c r="AL94">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AM94">
-        <v>1.47</v>
+        <v>1.08</v>
       </c>
       <c r="AN94">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="AR94">
-        <v>1.33</v>
+        <v>0.91</v>
       </c>
       <c r="AS94">
-        <v>1.23</v>
+        <v>1.62</v>
       </c>
       <c r="AT94">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="AU94">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV94">
         <v>6</v>
       </c>
       <c r="AW94">
+        <v>1</v>
+      </c>
+      <c r="AX94">
+        <v>6</v>
+      </c>
+      <c r="AY94">
+        <v>7</v>
+      </c>
+      <c r="AZ94">
+        <v>16</v>
+      </c>
+      <c r="BA94">
+        <v>1</v>
+      </c>
+      <c r="BB94">
+        <v>4</v>
+      </c>
+      <c r="BC94">
         <v>5</v>
       </c>
-      <c r="AX94">
-        <v>8</v>
-      </c>
-      <c r="AY94">
-        <v>19</v>
-      </c>
-      <c r="AZ94">
-        <v>17</v>
-      </c>
-      <c r="BA94">
-        <v>2</v>
-      </c>
-      <c r="BB94">
-        <v>6</v>
-      </c>
-      <c r="BC94">
-        <v>8</v>
-      </c>
       <c r="BD94">
-        <v>1.8</v>
+        <v>3.45</v>
       </c>
       <c r="BE94">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="BF94">
-        <v>2.2</v>
+        <v>1.36</v>
       </c>
       <c r="BG94">
         <v>1.28</v>
@@ -20402,28 +20402,28 @@
         <v>3.3</v>
       </c>
       <c r="BI94">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="BJ94">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="BK94">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="BL94">
         <v>1.91</v>
       </c>
       <c r="BM94">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="BN94">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="BO94">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BP94">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20431,7 +20431,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7492241</v>
+        <v>7492247</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20443,163 +20443,163 @@
         <v>45595.60416666666</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O95" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="P95" t="s">
         <v>219</v>
       </c>
       <c r="Q95">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="R95">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="S95">
-        <v>1.95</v>
+        <v>3.25</v>
       </c>
       <c r="T95">
+        <v>1.44</v>
+      </c>
+      <c r="U95">
+        <v>2.63</v>
+      </c>
+      <c r="V95">
+        <v>3.25</v>
+      </c>
+      <c r="W95">
         <v>1.33</v>
       </c>
-      <c r="U95">
-        <v>3.25</v>
-      </c>
-      <c r="V95">
-        <v>2.5</v>
-      </c>
-      <c r="W95">
+      <c r="X95">
+        <v>9</v>
+      </c>
+      <c r="Y95">
+        <v>1.07</v>
+      </c>
+      <c r="Z95">
+        <v>2.81</v>
+      </c>
+      <c r="AA95">
+        <v>3.23</v>
+      </c>
+      <c r="AB95">
+        <v>2.65</v>
+      </c>
+      <c r="AC95">
+        <v>1.07</v>
+      </c>
+      <c r="AD95">
+        <v>9.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.36</v>
+      </c>
+      <c r="AF95">
+        <v>3.2</v>
+      </c>
+      <c r="AG95">
+        <v>2.08</v>
+      </c>
+      <c r="AH95">
+        <v>1.74</v>
+      </c>
+      <c r="AI95">
+        <v>1.91</v>
+      </c>
+      <c r="AJ95">
+        <v>1.91</v>
+      </c>
+      <c r="AK95">
+        <v>1.53</v>
+      </c>
+      <c r="AL95">
+        <v>1.3</v>
+      </c>
+      <c r="AM95">
+        <v>1.47</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95">
         <v>1.5</v>
       </c>
-      <c r="X95">
-        <v>6.5</v>
-      </c>
-      <c r="Y95">
-        <v>1.11</v>
-      </c>
-      <c r="Z95">
-        <v>7.17</v>
-      </c>
-      <c r="AA95">
-        <v>4.57</v>
-      </c>
-      <c r="AB95">
-        <v>1.46</v>
-      </c>
-      <c r="AC95">
-        <v>1.03</v>
-      </c>
-      <c r="AD95">
-        <v>15</v>
-      </c>
-      <c r="AE95">
-        <v>1.22</v>
-      </c>
-      <c r="AF95">
-        <v>4.33</v>
-      </c>
-      <c r="AG95">
-        <v>1.7</v>
-      </c>
-      <c r="AH95">
-        <v>2.15</v>
-      </c>
-      <c r="AI95">
-        <v>1.95</v>
-      </c>
-      <c r="AJ95">
-        <v>1.8</v>
-      </c>
-      <c r="AK95">
-        <v>2.9</v>
-      </c>
-      <c r="AL95">
-        <v>1.16</v>
-      </c>
-      <c r="AM95">
-        <v>1.08</v>
-      </c>
-      <c r="AN95">
-        <v>0.75</v>
-      </c>
-      <c r="AO95">
-        <v>2</v>
-      </c>
-      <c r="AP95">
-        <v>1</v>
-      </c>
       <c r="AQ95">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="AR95">
-        <v>0.91</v>
+        <v>1.33</v>
       </c>
       <c r="AS95">
-        <v>1.62</v>
+        <v>1.23</v>
       </c>
       <c r="AT95">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU95">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV95">
         <v>6</v>
       </c>
       <c r="AW95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX95">
+        <v>8</v>
+      </c>
+      <c r="AY95">
+        <v>19</v>
+      </c>
+      <c r="AZ95">
+        <v>17</v>
+      </c>
+      <c r="BA95">
+        <v>2</v>
+      </c>
+      <c r="BB95">
         <v>6</v>
       </c>
-      <c r="AY95">
-        <v>7</v>
-      </c>
-      <c r="AZ95">
-        <v>16</v>
-      </c>
-      <c r="BA95">
-        <v>1</v>
-      </c>
-      <c r="BB95">
-        <v>4</v>
-      </c>
       <c r="BC95">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD95">
-        <v>3.45</v>
+        <v>1.8</v>
       </c>
       <c r="BE95">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF95">
-        <v>1.36</v>
+        <v>2.2</v>
       </c>
       <c r="BG95">
         <v>1.28</v>
@@ -20608,28 +20608,28 @@
         <v>3.3</v>
       </c>
       <c r="BI95">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="BJ95">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="BK95">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="BL95">
         <v>1.91</v>
       </c>
       <c r="BM95">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="BN95">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="BO95">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BP95">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20637,7 +20637,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7492238</v>
+        <v>7492243</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20649,193 +20649,193 @@
         <v>45595.69791666666</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L96">
         <v>2</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O96" t="s">
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="Q96">
+        <v>1.95</v>
+      </c>
+      <c r="R96">
+        <v>2.38</v>
+      </c>
+      <c r="S96">
+        <v>7</v>
+      </c>
+      <c r="T96">
+        <v>1.36</v>
+      </c>
+      <c r="U96">
+        <v>3</v>
+      </c>
+      <c r="V96">
+        <v>2.63</v>
+      </c>
+      <c r="W96">
+        <v>1.44</v>
+      </c>
+      <c r="X96">
+        <v>7</v>
+      </c>
+      <c r="Y96">
+        <v>1.1</v>
+      </c>
+      <c r="Z96">
+        <v>1.48</v>
+      </c>
+      <c r="AA96">
+        <v>4.48</v>
+      </c>
+      <c r="AB96">
+        <v>6.85</v>
+      </c>
+      <c r="AC96">
+        <v>1.04</v>
+      </c>
+      <c r="AD96">
+        <v>13</v>
+      </c>
+      <c r="AE96">
+        <v>1.28</v>
+      </c>
+      <c r="AF96">
+        <v>3.75</v>
+      </c>
+      <c r="AG96">
         <v>1.8</v>
       </c>
-      <c r="R96">
-        <v>2.6</v>
-      </c>
-      <c r="S96">
-        <v>7.5</v>
-      </c>
-      <c r="T96">
-        <v>1.29</v>
-      </c>
-      <c r="U96">
-        <v>3.5</v>
-      </c>
-      <c r="V96">
-        <v>2.38</v>
-      </c>
-      <c r="W96">
-        <v>1.53</v>
-      </c>
-      <c r="X96">
-        <v>5.5</v>
-      </c>
-      <c r="Y96">
-        <v>1.14</v>
-      </c>
-      <c r="Z96">
-        <v>1.39</v>
-      </c>
-      <c r="AA96">
-        <v>5.1</v>
-      </c>
-      <c r="AB96">
-        <v>7.83</v>
-      </c>
-      <c r="AC96">
-        <v>1.03</v>
-      </c>
-      <c r="AD96">
-        <v>11</v>
-      </c>
-      <c r="AE96">
-        <v>1.2</v>
-      </c>
-      <c r="AF96">
-        <v>4.5</v>
-      </c>
-      <c r="AG96">
-        <v>1.62</v>
-      </c>
       <c r="AH96">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="AI96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ96">
+        <v>1.75</v>
+      </c>
+      <c r="AK96">
+        <v>1.08</v>
+      </c>
+      <c r="AL96">
+        <v>1.17</v>
+      </c>
+      <c r="AM96">
+        <v>2.85</v>
+      </c>
+      <c r="AN96">
         <v>1.8</v>
       </c>
-      <c r="AK96">
-        <v>1.07</v>
-      </c>
-      <c r="AL96">
-        <v>1.12</v>
-      </c>
-      <c r="AM96">
-        <v>3.1</v>
-      </c>
-      <c r="AN96">
-        <v>2.25</v>
-      </c>
       <c r="AO96">
+        <v>0.75</v>
+      </c>
+      <c r="AP96">
+        <v>1.67</v>
+      </c>
+      <c r="AQ96">
+        <v>0.8</v>
+      </c>
+      <c r="AR96">
         <v>1.25</v>
       </c>
-      <c r="AP96">
-        <v>2.4</v>
-      </c>
-      <c r="AQ96">
-        <v>1</v>
-      </c>
-      <c r="AR96">
-        <v>1.88</v>
-      </c>
       <c r="AS96">
-        <v>0.72</v>
+        <v>1.41</v>
       </c>
       <c r="AT96">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="AU96">
         <v>7</v>
       </c>
       <c r="AV96">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW96">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AX96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY96">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AZ96">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BA96">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BB96">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC96">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BD96">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BE96">
         <v>7.5</v>
       </c>
       <c r="BF96">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="BG96">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="BH96">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="BI96">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="BJ96">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BK96">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="BL96">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="BM96">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="BN96">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="BO96">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BP96">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20843,7 +20843,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7492243</v>
+        <v>7492238</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20855,193 +20855,193 @@
         <v>45595.69791666666</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H97" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L97">
         <v>2</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O97" t="s">
         <v>158</v>
       </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="Q97">
+        <v>1.8</v>
+      </c>
+      <c r="R97">
+        <v>2.6</v>
+      </c>
+      <c r="S97">
+        <v>7.5</v>
+      </c>
+      <c r="T97">
+        <v>1.29</v>
+      </c>
+      <c r="U97">
+        <v>3.5</v>
+      </c>
+      <c r="V97">
+        <v>2.38</v>
+      </c>
+      <c r="W97">
+        <v>1.53</v>
+      </c>
+      <c r="X97">
+        <v>5.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.14</v>
+      </c>
+      <c r="Z97">
+        <v>1.39</v>
+      </c>
+      <c r="AA97">
+        <v>5.1</v>
+      </c>
+      <c r="AB97">
+        <v>7.83</v>
+      </c>
+      <c r="AC97">
+        <v>1.03</v>
+      </c>
+      <c r="AD97">
+        <v>11</v>
+      </c>
+      <c r="AE97">
+        <v>1.2</v>
+      </c>
+      <c r="AF97">
+        <v>4.5</v>
+      </c>
+      <c r="AG97">
+        <v>1.62</v>
+      </c>
+      <c r="AH97">
+        <v>2.3</v>
+      </c>
+      <c r="AI97">
         <v>1.95</v>
       </c>
-      <c r="R97">
-        <v>2.38</v>
-      </c>
-      <c r="S97">
-        <v>7</v>
-      </c>
-      <c r="T97">
-        <v>1.36</v>
-      </c>
-      <c r="U97">
-        <v>3</v>
-      </c>
-      <c r="V97">
-        <v>2.63</v>
-      </c>
-      <c r="W97">
-        <v>1.44</v>
-      </c>
-      <c r="X97">
-        <v>7</v>
-      </c>
-      <c r="Y97">
-        <v>1.1</v>
-      </c>
-      <c r="Z97">
-        <v>1.48</v>
-      </c>
-      <c r="AA97">
-        <v>4.48</v>
-      </c>
-      <c r="AB97">
-        <v>6.85</v>
-      </c>
-      <c r="AC97">
-        <v>1.04</v>
-      </c>
-      <c r="AD97">
-        <v>13</v>
-      </c>
-      <c r="AE97">
-        <v>1.28</v>
-      </c>
-      <c r="AF97">
-        <v>3.75</v>
-      </c>
-      <c r="AG97">
+      <c r="AJ97">
         <v>1.8</v>
       </c>
-      <c r="AH97">
-        <v>2.02</v>
-      </c>
-      <c r="AI97">
-        <v>2</v>
-      </c>
-      <c r="AJ97">
-        <v>1.75</v>
-      </c>
       <c r="AK97">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AL97">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AM97">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="AN97">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AO97">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="AQ97">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR97">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="AS97">
-        <v>1.41</v>
+        <v>0.72</v>
       </c>
       <c r="AT97">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="AU97">
         <v>7</v>
       </c>
       <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>1</v>
+      </c>
+      <c r="AY97">
+        <v>17</v>
+      </c>
+      <c r="AZ97">
+        <v>5</v>
+      </c>
+      <c r="BA97">
+        <v>5</v>
+      </c>
+      <c r="BB97">
+        <v>1</v>
+      </c>
+      <c r="BC97">
         <v>6</v>
       </c>
-      <c r="AW97">
-        <v>10</v>
-      </c>
-      <c r="AX97">
-        <v>3</v>
-      </c>
-      <c r="AY97">
-        <v>27</v>
-      </c>
-      <c r="AZ97">
-        <v>14</v>
-      </c>
-      <c r="BA97">
-        <v>10</v>
-      </c>
-      <c r="BB97">
-        <v>6</v>
-      </c>
-      <c r="BC97">
-        <v>16</v>
-      </c>
       <c r="BD97">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BE97">
         <v>7.5</v>
       </c>
       <c r="BF97">
-        <v>3.8</v>
+        <v>4.35</v>
       </c>
       <c r="BG97">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="BH97">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="BI97">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="BJ97">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BK97">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="BL97">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="BM97">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="BN97">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="BO97">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BP97">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -22285,7 +22285,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7492251</v>
+        <v>7492254</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22294,196 +22294,196 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45598.875</v>
+        <v>45599.35416666666</v>
       </c>
       <c r="F104">
         <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H104" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O104" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="Q104">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="R104">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="S104">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="T104">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="U104">
+        <v>3.25</v>
+      </c>
+      <c r="V104">
+        <v>2.63</v>
+      </c>
+      <c r="W104">
+        <v>1.44</v>
+      </c>
+      <c r="X104">
+        <v>6.5</v>
+      </c>
+      <c r="Y104">
+        <v>1.11</v>
+      </c>
+      <c r="Z104">
+        <v>2.1</v>
+      </c>
+      <c r="AA104">
+        <v>3.75</v>
+      </c>
+      <c r="AB104">
+        <v>3.1</v>
+      </c>
+      <c r="AC104">
+        <v>1.05</v>
+      </c>
+      <c r="AD104">
+        <v>9.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.25</v>
+      </c>
+      <c r="AF104">
+        <v>3.95</v>
+      </c>
+      <c r="AG104">
+        <v>1.77</v>
+      </c>
+      <c r="AH104">
+        <v>1.93</v>
+      </c>
+      <c r="AI104">
+        <v>1.62</v>
+      </c>
+      <c r="AJ104">
+        <v>2.2</v>
+      </c>
+      <c r="AK104">
+        <v>1.25</v>
+      </c>
+      <c r="AL104">
+        <v>1.25</v>
+      </c>
+      <c r="AM104">
+        <v>1.8</v>
+      </c>
+      <c r="AN104">
+        <v>3</v>
+      </c>
+      <c r="AO104">
+        <v>1.4</v>
+      </c>
+      <c r="AP104">
+        <v>2.5</v>
+      </c>
+      <c r="AQ104">
+        <v>1.67</v>
+      </c>
+      <c r="AR104">
+        <v>1.61</v>
+      </c>
+      <c r="AS104">
+        <v>1.81</v>
+      </c>
+      <c r="AT104">
+        <v>3.42</v>
+      </c>
+      <c r="AU104">
         <v>4</v>
-      </c>
-      <c r="V104">
-        <v>2.1</v>
-      </c>
-      <c r="W104">
-        <v>1.67</v>
-      </c>
-      <c r="X104">
-        <v>4.5</v>
-      </c>
-      <c r="Y104">
-        <v>1.18</v>
-      </c>
-      <c r="Z104">
-        <v>1.18</v>
-      </c>
-      <c r="AA104">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="AB104">
-        <v>19</v>
-      </c>
-      <c r="AC104">
-        <v>1.01</v>
-      </c>
-      <c r="AD104">
-        <v>17</v>
-      </c>
-      <c r="AE104">
-        <v>1.12</v>
-      </c>
-      <c r="AF104">
-        <v>5.75</v>
-      </c>
-      <c r="AG104">
-        <v>1.4</v>
-      </c>
-      <c r="AH104">
-        <v>2.82</v>
-      </c>
-      <c r="AI104">
-        <v>2.1</v>
-      </c>
-      <c r="AJ104">
-        <v>1.67</v>
-      </c>
-      <c r="AK104">
-        <v>1.03</v>
-      </c>
-      <c r="AL104">
-        <v>1.08</v>
-      </c>
-      <c r="AM104">
-        <v>4.75</v>
-      </c>
-      <c r="AN104">
-        <v>2</v>
-      </c>
-      <c r="AO104">
-        <v>0.33</v>
-      </c>
-      <c r="AP104">
-        <v>2.17</v>
-      </c>
-      <c r="AQ104">
-        <v>0.29</v>
-      </c>
-      <c r="AR104">
-        <v>1.54</v>
-      </c>
-      <c r="AS104">
-        <v>1.05</v>
-      </c>
-      <c r="AT104">
-        <v>2.59</v>
-      </c>
-      <c r="AU104">
-        <v>9</v>
       </c>
       <c r="AV104">
         <v>4</v>
       </c>
       <c r="AW104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX104">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY104">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AZ104">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA104">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB104">
         <v>3</v>
       </c>
       <c r="BC104">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD104">
-        <v>1.03</v>
+        <v>1.62</v>
       </c>
       <c r="BE104">
-        <v>14.5</v>
+        <v>6.1</v>
       </c>
       <c r="BF104">
-        <v>11.5</v>
+        <v>2.82</v>
       </c>
       <c r="BG104">
+        <v>1.36</v>
+      </c>
+      <c r="BH104">
+        <v>2.85</v>
+      </c>
+      <c r="BI104">
+        <v>1.62</v>
+      </c>
+      <c r="BJ104">
+        <v>2.12</v>
+      </c>
+      <c r="BK104">
+        <v>2.05</v>
+      </c>
+      <c r="BL104">
+        <v>1.68</v>
+      </c>
+      <c r="BM104">
+        <v>2.68</v>
+      </c>
+      <c r="BN104">
+        <v>1.41</v>
+      </c>
+      <c r="BO104">
+        <v>3.55</v>
+      </c>
+      <c r="BP104">
         <v>1.25</v>
-      </c>
-      <c r="BH104">
-        <v>3.55</v>
-      </c>
-      <c r="BI104">
-        <v>1.43</v>
-      </c>
-      <c r="BJ104">
-        <v>2.6</v>
-      </c>
-      <c r="BK104">
-        <v>1.72</v>
-      </c>
-      <c r="BL104">
-        <v>1.95</v>
-      </c>
-      <c r="BM104">
-        <v>2.18</v>
-      </c>
-      <c r="BN104">
-        <v>1.6</v>
-      </c>
-      <c r="BO104">
-        <v>2.85</v>
-      </c>
-      <c r="BP104">
-        <v>1.36</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -22491,7 +22491,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7492250</v>
+        <v>7492256</v>
       </c>
       <c r="C105" t="s">
         <v>68</v>
@@ -22500,94 +22500,94 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45598.875</v>
+        <v>45599.45833333334</v>
       </c>
       <c r="F105">
         <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H105" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105">
         <v>1</v>
       </c>
       <c r="K105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O105" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="Q105">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="R105">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S105">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T105">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U105">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W105">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X105">
+        <v>9</v>
+      </c>
+      <c r="Y105">
+        <v>1.07</v>
+      </c>
+      <c r="Z105">
+        <v>2.6</v>
+      </c>
+      <c r="AA105">
+        <v>3.5</v>
+      </c>
+      <c r="AB105">
+        <v>2.6</v>
+      </c>
+      <c r="AC105">
+        <v>1.07</v>
+      </c>
+      <c r="AD105">
         <v>8</v>
       </c>
-      <c r="Y105">
-        <v>1.08</v>
-      </c>
-      <c r="Z105">
-        <v>4.08</v>
-      </c>
-      <c r="AA105">
-        <v>3.71</v>
-      </c>
-      <c r="AB105">
-        <v>2</v>
-      </c>
-      <c r="AC105">
-        <v>1.06</v>
-      </c>
-      <c r="AD105">
-        <v>8.5</v>
-      </c>
       <c r="AE105">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF105">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AG105">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AH105">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AI105">
         <v>1.8</v>
@@ -22596,100 +22596,100 @@
         <v>1.95</v>
       </c>
       <c r="AK105">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="AL105">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM105">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AN105">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AO105">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ105">
-        <v>0.67</v>
+        <v>1.83</v>
       </c>
       <c r="AR105">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AS105">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AT105">
-        <v>2.51</v>
+        <v>2.55</v>
       </c>
       <c r="AU105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV105">
         <v>4</v>
       </c>
       <c r="AW105">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX105">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY105">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ105">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC105">
         <v>4</v>
       </c>
       <c r="BD105">
-        <v>2.72</v>
+        <v>2.3</v>
       </c>
       <c r="BE105">
-        <v>6.1</v>
+        <v>5.75</v>
       </c>
       <c r="BF105">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="BG105">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="BH105">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="BI105">
+        <v>1.88</v>
+      </c>
+      <c r="BJ105">
         <v>1.8</v>
       </c>
-      <c r="BJ105">
-        <v>1.88</v>
-      </c>
       <c r="BK105">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="BL105">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="BM105">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="BN105">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BO105">
-        <v>3.65</v>
+        <v>4.85</v>
       </c>
       <c r="BP105">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="106" spans="1:68">
@@ -22697,7 +22697,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>7492254</v>
+        <v>7492250</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -22706,130 +22706,130 @@
         <v>69</v>
       </c>
       <c r="E106" s="2">
-        <v>45599.35416666666</v>
+        <v>45599.58333333334</v>
       </c>
       <c r="F106">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H106" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O106" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="P106" t="s">
         <v>225</v>
       </c>
       <c r="Q106">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="R106">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S106">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="T106">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U106">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V106">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W106">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X106">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y106">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z106">
-        <v>2.1</v>
+        <v>4.08</v>
       </c>
       <c r="AA106">
-        <v>3.75</v>
+        <v>3.71</v>
       </c>
       <c r="AB106">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="AC106">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD106">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE106">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AF106">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="AG106">
-        <v>1.77</v>
+        <v>2.02</v>
       </c>
       <c r="AH106">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AI106">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ106">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK106">
-        <v>1.25</v>
+        <v>1.91</v>
       </c>
       <c r="AL106">
         <v>1.25</v>
       </c>
       <c r="AM106">
-        <v>1.8</v>
+        <v>1.22</v>
       </c>
       <c r="AN106">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AO106">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AP106">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AR106">
-        <v>1.61</v>
+        <v>1.19</v>
       </c>
       <c r="AS106">
-        <v>1.81</v>
+        <v>1.32</v>
       </c>
       <c r="AT106">
-        <v>3.42</v>
+        <v>2.51</v>
       </c>
       <c r="AU106">
         <v>4</v>
@@ -22838,64 +22838,64 @@
         <v>4</v>
       </c>
       <c r="AW106">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX106">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY106">
+        <v>8</v>
+      </c>
+      <c r="AZ106">
         <v>15</v>
       </c>
-      <c r="AZ106">
-        <v>13</v>
-      </c>
       <c r="BA106">
+        <v>2</v>
+      </c>
+      <c r="BB106">
+        <v>2</v>
+      </c>
+      <c r="BC106">
         <v>4</v>
       </c>
-      <c r="BB106">
-        <v>3</v>
-      </c>
-      <c r="BC106">
-        <v>7</v>
-      </c>
       <c r="BD106">
-        <v>1.62</v>
+        <v>2.72</v>
       </c>
       <c r="BE106">
         <v>6.1</v>
       </c>
       <c r="BF106">
-        <v>2.82</v>
+        <v>1.65</v>
       </c>
       <c r="BG106">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="BH106">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="BI106">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="BJ106">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="BK106">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="BL106">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="BM106">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="BN106">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="BO106">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="BP106">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="107" spans="1:68">
@@ -22903,7 +22903,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7492256</v>
+        <v>7492251</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -22912,196 +22912,196 @@
         <v>69</v>
       </c>
       <c r="E107" s="2">
-        <v>45599.45833333334</v>
+        <v>45599.69791666666</v>
       </c>
       <c r="F107">
         <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H107" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N107">
         <v>1</v>
       </c>
       <c r="O107" t="s">
+        <v>162</v>
+      </c>
+      <c r="P107" t="s">
         <v>92</v>
       </c>
-      <c r="P107" t="s">
-        <v>190</v>
-      </c>
       <c r="Q107">
-        <v>3.75</v>
+        <v>1.53</v>
       </c>
       <c r="R107">
+        <v>3</v>
+      </c>
+      <c r="S107">
+        <v>11</v>
+      </c>
+      <c r="T107">
+        <v>1.22</v>
+      </c>
+      <c r="U107">
+        <v>4</v>
+      </c>
+      <c r="V107">
         <v>2.1</v>
       </c>
-      <c r="S107">
-        <v>3</v>
-      </c>
-      <c r="T107">
-        <v>1.44</v>
-      </c>
-      <c r="U107">
-        <v>2.63</v>
-      </c>
-      <c r="V107">
-        <v>3</v>
-      </c>
       <c r="W107">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="X107">
+        <v>4.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.18</v>
+      </c>
+      <c r="Z107">
+        <v>1.18</v>
+      </c>
+      <c r="AA107">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AB107">
+        <v>19</v>
+      </c>
+      <c r="AC107">
+        <v>1.01</v>
+      </c>
+      <c r="AD107">
+        <v>17</v>
+      </c>
+      <c r="AE107">
+        <v>1.12</v>
+      </c>
+      <c r="AF107">
+        <v>5.75</v>
+      </c>
+      <c r="AG107">
+        <v>1.4</v>
+      </c>
+      <c r="AH107">
+        <v>2.82</v>
+      </c>
+      <c r="AI107">
+        <v>2.1</v>
+      </c>
+      <c r="AJ107">
+        <v>1.67</v>
+      </c>
+      <c r="AK107">
+        <v>1.03</v>
+      </c>
+      <c r="AL107">
+        <v>1.08</v>
+      </c>
+      <c r="AM107">
+        <v>4.75</v>
+      </c>
+      <c r="AN107">
+        <v>2</v>
+      </c>
+      <c r="AO107">
+        <v>0.33</v>
+      </c>
+      <c r="AP107">
+        <v>2.17</v>
+      </c>
+      <c r="AQ107">
+        <v>0.29</v>
+      </c>
+      <c r="AR107">
+        <v>1.54</v>
+      </c>
+      <c r="AS107">
+        <v>1.05</v>
+      </c>
+      <c r="AT107">
+        <v>2.59</v>
+      </c>
+      <c r="AU107">
         <v>9</v>
-      </c>
-      <c r="Y107">
-        <v>1.07</v>
-      </c>
-      <c r="Z107">
-        <v>2.6</v>
-      </c>
-      <c r="AA107">
-        <v>3.5</v>
-      </c>
-      <c r="AB107">
-        <v>2.6</v>
-      </c>
-      <c r="AC107">
-        <v>1.07</v>
-      </c>
-      <c r="AD107">
-        <v>8</v>
-      </c>
-      <c r="AE107">
-        <v>1.33</v>
-      </c>
-      <c r="AF107">
-        <v>3.25</v>
-      </c>
-      <c r="AG107">
-        <v>2</v>
-      </c>
-      <c r="AH107">
-        <v>1.72</v>
-      </c>
-      <c r="AI107">
-        <v>1.8</v>
-      </c>
-      <c r="AJ107">
-        <v>1.95</v>
-      </c>
-      <c r="AK107">
-        <v>1.62</v>
-      </c>
-      <c r="AL107">
-        <v>1.28</v>
-      </c>
-      <c r="AM107">
-        <v>1.33</v>
-      </c>
-      <c r="AN107">
-        <v>1.75</v>
-      </c>
-      <c r="AO107">
-        <v>1.6</v>
-      </c>
-      <c r="AP107">
-        <v>1.4</v>
-      </c>
-      <c r="AQ107">
-        <v>1.83</v>
-      </c>
-      <c r="AR107">
-        <v>1.14</v>
-      </c>
-      <c r="AS107">
-        <v>1.41</v>
-      </c>
-      <c r="AT107">
-        <v>2.55</v>
-      </c>
-      <c r="AU107">
-        <v>2</v>
       </c>
       <c r="AV107">
         <v>4</v>
       </c>
       <c r="AW107">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX107">
         <v>3</v>
       </c>
       <c r="AY107">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AZ107">
         <v>9</v>
       </c>
       <c r="BA107">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BB107">
         <v>3</v>
       </c>
       <c r="BC107">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD107">
-        <v>2.3</v>
+        <v>1.03</v>
       </c>
       <c r="BE107">
-        <v>5.75</v>
+        <v>14.5</v>
       </c>
       <c r="BF107">
-        <v>1.92</v>
+        <v>11.5</v>
       </c>
       <c r="BG107">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="BH107">
-        <v>2.32</v>
+        <v>3.55</v>
       </c>
       <c r="BI107">
-        <v>1.88</v>
+        <v>1.43</v>
       </c>
       <c r="BJ107">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="BK107">
-        <v>2.48</v>
+        <v>1.72</v>
       </c>
       <c r="BL107">
-        <v>1.47</v>
+        <v>1.95</v>
       </c>
       <c r="BM107">
-        <v>3.35</v>
+        <v>2.18</v>
       </c>
       <c r="BN107">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="BO107">
-        <v>4.85</v>
+        <v>2.85</v>
       </c>
       <c r="BP107">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -23121,7 +23121,7 @@
         <v>45600.60416666666</v>
       </c>
       <c r="F108">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>71</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,12 @@
     <t>['2', '76']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -695,6 +701,12 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1327,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1393,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ2">
         <v>2.2</v>
@@ -1933,7 +1945,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2139,7 +2151,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2757,7 +2769,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2963,7 +2975,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3041,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>1.67</v>
@@ -3250,7 +3262,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3375,7 +3387,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3581,7 +3593,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3993,7 +4005,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4817,7 +4829,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -4898,7 +4910,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ19">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5104,7 +5116,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ20">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR20">
         <v>1.16</v>
@@ -5229,7 +5241,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5435,7 +5447,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5847,7 +5859,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -5928,7 +5940,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>2.04</v>
@@ -6131,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>0.8</v>
@@ -6259,7 +6271,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6465,7 +6477,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6671,7 +6683,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6749,7 +6761,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ28">
         <v>0.6</v>
@@ -6877,7 +6889,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7164,7 +7176,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR30">
         <v>0.95</v>
@@ -7495,7 +7507,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8113,7 +8125,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8191,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8525,7 +8537,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8731,7 +8743,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8937,7 +8949,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9143,7 +9155,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9349,7 +9361,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9555,7 +9567,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9636,7 +9648,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ42">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.4</v>
@@ -9761,7 +9773,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10379,7 +10391,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10457,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46">
         <v>0.8</v>
@@ -10585,7 +10597,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10791,7 +10803,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11203,7 +11215,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11409,7 +11421,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11490,7 +11502,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ51">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR51">
         <v>1.68</v>
@@ -11821,7 +11833,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12027,7 +12039,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12105,7 +12117,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ54">
         <v>2.2</v>
@@ -12233,7 +12245,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12439,7 +12451,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12851,7 +12863,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13469,7 +13481,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13756,7 +13768,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ62">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14293,7 +14305,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14499,7 +14511,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14705,7 +14717,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15117,7 +15129,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15198,7 +15210,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ69">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.44</v>
@@ -15323,7 +15335,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15529,7 +15541,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15941,7 +15953,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16019,7 +16031,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ73">
         <v>1.6</v>
@@ -16559,7 +16571,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16765,7 +16777,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -16843,7 +16855,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
         <v>1.83</v>
@@ -16971,7 +16983,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17177,7 +17189,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17383,7 +17395,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17589,7 +17601,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18082,7 +18094,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ83">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR83">
         <v>1.23</v>
@@ -18413,7 +18425,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18619,7 +18631,7 @@
         <v>103</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18700,7 +18712,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ86">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.33</v>
@@ -19031,7 +19043,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19237,7 +19249,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19443,7 +19455,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19727,7 +19739,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ91">
         <v>0.6</v>
@@ -19855,7 +19867,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -20061,7 +20073,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20267,7 +20279,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20473,7 +20485,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20679,7 +20691,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -21091,7 +21103,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21169,7 +21181,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ98">
         <v>1.83</v>
@@ -21297,7 +21309,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21915,7 +21927,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22327,7 +22339,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22533,7 +22545,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22739,7 +22751,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23151,7 +23163,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23438,7 +23450,7 @@
         <v>1</v>
       </c>
       <c r="AQ109">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR109">
         <v>0.82</v>
@@ -23563,7 +23575,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23720,6 +23732,418 @@
       </c>
       <c r="BP110">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7492261</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45602.875</v>
+      </c>
+      <c r="F111">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>70</v>
+      </c>
+      <c r="H111" t="s">
+        <v>88</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>165</v>
+      </c>
+      <c r="P111" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q111">
+        <v>3.75</v>
+      </c>
+      <c r="R111">
+        <v>2.05</v>
+      </c>
+      <c r="S111">
+        <v>3.1</v>
+      </c>
+      <c r="T111">
+        <v>1.52</v>
+      </c>
+      <c r="U111">
+        <v>2.55</v>
+      </c>
+      <c r="V111">
+        <v>3.4</v>
+      </c>
+      <c r="W111">
+        <v>1.3</v>
+      </c>
+      <c r="X111">
+        <v>9.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.05</v>
+      </c>
+      <c r="Z111">
+        <v>3.03</v>
+      </c>
+      <c r="AA111">
+        <v>3.21</v>
+      </c>
+      <c r="AB111">
+        <v>2.31</v>
+      </c>
+      <c r="AC111">
+        <v>1.08</v>
+      </c>
+      <c r="AD111">
+        <v>8.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.44</v>
+      </c>
+      <c r="AF111">
+        <v>2.8</v>
+      </c>
+      <c r="AG111">
+        <v>1.99</v>
+      </c>
+      <c r="AH111">
+        <v>1.78</v>
+      </c>
+      <c r="AI111">
+        <v>1.98</v>
+      </c>
+      <c r="AJ111">
+        <v>1.8</v>
+      </c>
+      <c r="AK111">
+        <v>1.63</v>
+      </c>
+      <c r="AL111">
+        <v>1.3</v>
+      </c>
+      <c r="AM111">
+        <v>1.36</v>
+      </c>
+      <c r="AN111">
+        <v>0.5</v>
+      </c>
+      <c r="AO111">
+        <v>0.57</v>
+      </c>
+      <c r="AP111">
+        <v>0.57</v>
+      </c>
+      <c r="AQ111">
+        <v>0.63</v>
+      </c>
+      <c r="AR111">
+        <v>1.25</v>
+      </c>
+      <c r="AS111">
+        <v>1.28</v>
+      </c>
+      <c r="AT111">
+        <v>2.53</v>
+      </c>
+      <c r="AU111">
+        <v>5</v>
+      </c>
+      <c r="AV111">
+        <v>9</v>
+      </c>
+      <c r="AW111">
+        <v>4</v>
+      </c>
+      <c r="AX111">
+        <v>5</v>
+      </c>
+      <c r="AY111">
+        <v>10</v>
+      </c>
+      <c r="AZ111">
+        <v>19</v>
+      </c>
+      <c r="BA111">
+        <v>8</v>
+      </c>
+      <c r="BB111">
+        <v>5</v>
+      </c>
+      <c r="BC111">
+        <v>13</v>
+      </c>
+      <c r="BD111">
+        <v>1.96</v>
+      </c>
+      <c r="BE111">
+        <v>6.1</v>
+      </c>
+      <c r="BF111">
+        <v>2.05</v>
+      </c>
+      <c r="BG111">
+        <v>1.47</v>
+      </c>
+      <c r="BH111">
+        <v>2.48</v>
+      </c>
+      <c r="BI111">
+        <v>1.78</v>
+      </c>
+      <c r="BJ111">
+        <v>1.9</v>
+      </c>
+      <c r="BK111">
+        <v>2.23</v>
+      </c>
+      <c r="BL111">
+        <v>1.56</v>
+      </c>
+      <c r="BM111">
+        <v>2.9</v>
+      </c>
+      <c r="BN111">
+        <v>1.34</v>
+      </c>
+      <c r="BO111">
+        <v>3.9</v>
+      </c>
+      <c r="BP111">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7492264</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45604.69791666666</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>78</v>
+      </c>
+      <c r="H112" t="s">
+        <v>72</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>166</v>
+      </c>
+      <c r="P112" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q112">
+        <v>3.1</v>
+      </c>
+      <c r="R112">
+        <v>1.98</v>
+      </c>
+      <c r="S112">
+        <v>4</v>
+      </c>
+      <c r="T112">
+        <v>1.55</v>
+      </c>
+      <c r="U112">
+        <v>2.5</v>
+      </c>
+      <c r="V112">
+        <v>3.6</v>
+      </c>
+      <c r="W112">
+        <v>1.28</v>
+      </c>
+      <c r="X112">
+        <v>10</v>
+      </c>
+      <c r="Y112">
+        <v>1.05</v>
+      </c>
+      <c r="Z112">
+        <v>2.18</v>
+      </c>
+      <c r="AA112">
+        <v>3.2</v>
+      </c>
+      <c r="AB112">
+        <v>3.68</v>
+      </c>
+      <c r="AC112">
+        <v>1.09</v>
+      </c>
+      <c r="AD112">
+        <v>8</v>
+      </c>
+      <c r="AE112">
+        <v>1.48</v>
+      </c>
+      <c r="AF112">
+        <v>2.75</v>
+      </c>
+      <c r="AG112">
+        <v>2.3</v>
+      </c>
+      <c r="AH112">
+        <v>1.6</v>
+      </c>
+      <c r="AI112">
+        <v>2.05</v>
+      </c>
+      <c r="AJ112">
+        <v>1.75</v>
+      </c>
+      <c r="AK112">
+        <v>1.35</v>
+      </c>
+      <c r="AL112">
+        <v>1.3</v>
+      </c>
+      <c r="AM112">
+        <v>1.65</v>
+      </c>
+      <c r="AN112">
+        <v>1.4</v>
+      </c>
+      <c r="AO112">
+        <v>1.6</v>
+      </c>
+      <c r="AP112">
+        <v>1.33</v>
+      </c>
+      <c r="AQ112">
+        <v>1.5</v>
+      </c>
+      <c r="AR112">
+        <v>1.28</v>
+      </c>
+      <c r="AS112">
+        <v>0.88</v>
+      </c>
+      <c r="AT112">
+        <v>2.16</v>
+      </c>
+      <c r="AU112">
+        <v>5</v>
+      </c>
+      <c r="AV112">
+        <v>7</v>
+      </c>
+      <c r="AW112">
+        <v>13</v>
+      </c>
+      <c r="AX112">
+        <v>2</v>
+      </c>
+      <c r="AY112">
+        <v>20</v>
+      </c>
+      <c r="AZ112">
+        <v>12</v>
+      </c>
+      <c r="BA112">
+        <v>4</v>
+      </c>
+      <c r="BB112">
+        <v>3</v>
+      </c>
+      <c r="BC112">
+        <v>7</v>
+      </c>
+      <c r="BD112">
+        <v>1.61</v>
+      </c>
+      <c r="BE112">
+        <v>6.75</v>
+      </c>
+      <c r="BF112">
+        <v>2.55</v>
+      </c>
+      <c r="BG112">
+        <v>1.25</v>
+      </c>
+      <c r="BH112">
+        <v>3.45</v>
+      </c>
+      <c r="BI112">
+        <v>1.44</v>
+      </c>
+      <c r="BJ112">
+        <v>2.55</v>
+      </c>
+      <c r="BK112">
+        <v>1.72</v>
+      </c>
+      <c r="BL112">
+        <v>1.98</v>
+      </c>
+      <c r="BM112">
+        <v>2.12</v>
+      </c>
+      <c r="BN112">
+        <v>1.62</v>
+      </c>
+      <c r="BO112">
+        <v>2.7</v>
+      </c>
+      <c r="BP112">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="236">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,15 @@
     <t>['77']</t>
   </si>
   <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['2', '53', '89']</t>
+  </si>
+  <si>
+    <t>['18', '84']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -707,6 +716,12 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['17', '68']</t>
+  </si>
+  <si>
+    <t>['15', '40', '69']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1342,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1945,7 +1960,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2026,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2151,7 +2166,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2641,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -2769,7 +2784,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2975,7 +2990,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3259,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ11">
         <v>0.63</v>
@@ -3387,7 +3402,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3593,7 +3608,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3674,7 +3689,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>1.45</v>
@@ -4005,7 +4020,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4829,7 +4844,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -5113,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ20">
         <v>0.63</v>
@@ -5241,7 +5256,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5447,7 +5462,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5525,10 +5540,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5859,7 +5874,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6271,7 +6286,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6352,7 +6367,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -6477,7 +6492,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6558,7 +6573,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ27">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>1.67</v>
@@ -6683,7 +6698,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6889,7 +6904,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7379,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -7507,7 +7522,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8125,7 +8140,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8537,7 +8552,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8743,7 +8758,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8821,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -8949,7 +8964,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9155,7 +9170,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9361,7 +9376,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9567,7 +9582,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9645,7 +9660,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -9773,7 +9788,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -9854,7 +9869,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>0.93</v>
@@ -10057,7 +10072,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ44">
         <v>1.2</v>
@@ -10263,7 +10278,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10391,7 +10406,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10472,7 +10487,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ46">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
         <v>1.54</v>
@@ -10597,7 +10612,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10803,7 +10818,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11215,7 +11230,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11296,7 +11311,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ50">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.2</v>
@@ -11421,7 +11436,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11833,7 +11848,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12039,7 +12054,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12245,7 +12260,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12451,7 +12466,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12863,7 +12878,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13481,7 +13496,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14305,7 +14320,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14511,7 +14526,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14592,7 +14607,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.21</v>
@@ -14717,7 +14732,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -14795,7 +14810,7 @@
         <v>1.5</v>
       </c>
       <c r="AP67">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ67">
         <v>0.8</v>
@@ -15004,7 +15019,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ68">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR68">
         <v>1.35</v>
@@ -15129,7 +15144,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15335,7 +15350,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15541,7 +15556,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15622,7 +15637,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ71">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.68</v>
@@ -15828,7 +15843,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ72">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR72">
         <v>1.87</v>
@@ -15953,7 +15968,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16443,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ75">
         <v>1.2</v>
@@ -16571,7 +16586,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16777,7 +16792,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -16983,7 +16998,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17061,7 +17076,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ78">
         <v>1.67</v>
@@ -17189,7 +17204,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17267,10 +17282,10 @@
         <v>1.75</v>
       </c>
       <c r="AP79">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ79">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.44</v>
@@ -17395,7 +17410,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17601,7 +17616,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18425,7 +18440,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18631,7 +18646,7 @@
         <v>103</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19043,7 +19058,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19249,7 +19264,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19455,7 +19470,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19867,7 +19882,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -19945,7 +19960,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ92">
         <v>1.6</v>
@@ -20073,7 +20088,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20279,7 +20294,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20485,7 +20500,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20563,7 +20578,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ95">
         <v>0.8</v>
@@ -20691,7 +20706,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -20769,10 +20784,10 @@
         <v>0.75</v>
       </c>
       <c r="AP96">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ96">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR96">
         <v>1.25</v>
@@ -21103,7 +21118,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21309,7 +21324,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21596,7 +21611,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ100">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.81</v>
@@ -21927,7 +21942,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22214,7 +22229,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ103">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR103">
         <v>0.9399999999999999</v>
@@ -22339,7 +22354,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22545,7 +22560,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22751,7 +22766,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23163,7 +23178,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23575,7 +23590,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23748,7 +23763,7 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45602.875</v>
+        <v>45603.69791666666</v>
       </c>
       <c r="F111">
         <v>12</v>
@@ -23781,7 +23796,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -23954,7 +23969,7 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45604.69791666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F112">
         <v>12</v>
@@ -23987,7 +24002,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24144,6 +24159,624 @@
       </c>
       <c r="BP112">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7492267</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45605.45833333334</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>87</v>
+      </c>
+      <c r="H113" t="s">
+        <v>71</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>167</v>
+      </c>
+      <c r="P113" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q113">
+        <v>3.1</v>
+      </c>
+      <c r="R113">
+        <v>2.25</v>
+      </c>
+      <c r="S113">
+        <v>3.2</v>
+      </c>
+      <c r="T113">
+        <v>1.35</v>
+      </c>
+      <c r="U113">
+        <v>3.3</v>
+      </c>
+      <c r="V113">
+        <v>2.5</v>
+      </c>
+      <c r="W113">
+        <v>1.52</v>
+      </c>
+      <c r="X113">
+        <v>6</v>
+      </c>
+      <c r="Y113">
+        <v>1.12</v>
+      </c>
+      <c r="Z113">
+        <v>2.45</v>
+      </c>
+      <c r="AA113">
+        <v>3.4</v>
+      </c>
+      <c r="AB113">
+        <v>2.63</v>
+      </c>
+      <c r="AC113">
+        <v>1.03</v>
+      </c>
+      <c r="AD113">
+        <v>13</v>
+      </c>
+      <c r="AE113">
+        <v>1.22</v>
+      </c>
+      <c r="AF113">
+        <v>4.33</v>
+      </c>
+      <c r="AG113">
+        <v>1.6</v>
+      </c>
+      <c r="AH113">
+        <v>2.25</v>
+      </c>
+      <c r="AI113">
+        <v>1.55</v>
+      </c>
+      <c r="AJ113">
+        <v>2.4</v>
+      </c>
+      <c r="AK113">
+        <v>1.5</v>
+      </c>
+      <c r="AL113">
+        <v>1.26</v>
+      </c>
+      <c r="AM113">
+        <v>1.53</v>
+      </c>
+      <c r="AN113">
+        <v>1.5</v>
+      </c>
+      <c r="AO113">
+        <v>0.8</v>
+      </c>
+      <c r="AP113">
+        <v>1.2</v>
+      </c>
+      <c r="AQ113">
+        <v>1.17</v>
+      </c>
+      <c r="AR113">
+        <v>1.44</v>
+      </c>
+      <c r="AS113">
+        <v>1.37</v>
+      </c>
+      <c r="AT113">
+        <v>2.81</v>
+      </c>
+      <c r="AU113">
+        <v>7</v>
+      </c>
+      <c r="AV113">
+        <v>4</v>
+      </c>
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>4</v>
+      </c>
+      <c r="AY113">
+        <v>13</v>
+      </c>
+      <c r="AZ113">
+        <v>11</v>
+      </c>
+      <c r="BA113">
+        <v>6</v>
+      </c>
+      <c r="BB113">
+        <v>6</v>
+      </c>
+      <c r="BC113">
+        <v>12</v>
+      </c>
+      <c r="BD113">
+        <v>1.88</v>
+      </c>
+      <c r="BE113">
+        <v>6.5</v>
+      </c>
+      <c r="BF113">
+        <v>2.12</v>
+      </c>
+      <c r="BG113">
+        <v>1.24</v>
+      </c>
+      <c r="BH113">
+        <v>3.55</v>
+      </c>
+      <c r="BI113">
+        <v>1.41</v>
+      </c>
+      <c r="BJ113">
+        <v>2.65</v>
+      </c>
+      <c r="BK113">
+        <v>1.67</v>
+      </c>
+      <c r="BL113">
+        <v>2.04</v>
+      </c>
+      <c r="BM113">
+        <v>2.06</v>
+      </c>
+      <c r="BN113">
+        <v>1.66</v>
+      </c>
+      <c r="BO113">
+        <v>2.63</v>
+      </c>
+      <c r="BP113">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7492259</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45605.58333333334</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>76</v>
+      </c>
+      <c r="H114" t="s">
+        <v>73</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>6</v>
+      </c>
+      <c r="O114" t="s">
+        <v>168</v>
+      </c>
+      <c r="P114" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q114">
+        <v>4.75</v>
+      </c>
+      <c r="R114">
+        <v>2.35</v>
+      </c>
+      <c r="S114">
+        <v>2.25</v>
+      </c>
+      <c r="T114">
+        <v>1.33</v>
+      </c>
+      <c r="U114">
+        <v>3.4</v>
+      </c>
+      <c r="V114">
+        <v>2.45</v>
+      </c>
+      <c r="W114">
+        <v>1.53</v>
+      </c>
+      <c r="X114">
+        <v>6</v>
+      </c>
+      <c r="Y114">
+        <v>1.13</v>
+      </c>
+      <c r="Z114">
+        <v>4.45</v>
+      </c>
+      <c r="AA114">
+        <v>4.04</v>
+      </c>
+      <c r="AB114">
+        <v>1.84</v>
+      </c>
+      <c r="AC114">
+        <v>1.03</v>
+      </c>
+      <c r="AD114">
+        <v>15</v>
+      </c>
+      <c r="AE114">
+        <v>1.2</v>
+      </c>
+      <c r="AF114">
+        <v>4.5</v>
+      </c>
+      <c r="AG114">
+        <v>1.66</v>
+      </c>
+      <c r="AH114">
+        <v>2.25</v>
+      </c>
+      <c r="AI114">
+        <v>1.66</v>
+      </c>
+      <c r="AJ114">
+        <v>2.2</v>
+      </c>
+      <c r="AK114">
+        <v>2.2</v>
+      </c>
+      <c r="AL114">
+        <v>1.22</v>
+      </c>
+      <c r="AM114">
+        <v>1.19</v>
+      </c>
+      <c r="AN114">
+        <v>0.83</v>
+      </c>
+      <c r="AO114">
+        <v>1.4</v>
+      </c>
+      <c r="AP114">
+        <v>0.86</v>
+      </c>
+      <c r="AQ114">
+        <v>1.33</v>
+      </c>
+      <c r="AR114">
+        <v>1.3</v>
+      </c>
+      <c r="AS114">
+        <v>1.62</v>
+      </c>
+      <c r="AT114">
+        <v>2.92</v>
+      </c>
+      <c r="AU114">
+        <v>4</v>
+      </c>
+      <c r="AV114">
+        <v>3</v>
+      </c>
+      <c r="AW114">
+        <v>3</v>
+      </c>
+      <c r="AX114">
+        <v>5</v>
+      </c>
+      <c r="AY114">
+        <v>7</v>
+      </c>
+      <c r="AZ114">
+        <v>8</v>
+      </c>
+      <c r="BA114">
+        <v>6</v>
+      </c>
+      <c r="BB114">
+        <v>3</v>
+      </c>
+      <c r="BC114">
+        <v>9</v>
+      </c>
+      <c r="BD114">
+        <v>2.8</v>
+      </c>
+      <c r="BE114">
+        <v>7</v>
+      </c>
+      <c r="BF114">
+        <v>1.5</v>
+      </c>
+      <c r="BG114">
+        <v>1.21</v>
+      </c>
+      <c r="BH114">
+        <v>3.8</v>
+      </c>
+      <c r="BI114">
+        <v>1.38</v>
+      </c>
+      <c r="BJ114">
+        <v>2.7</v>
+      </c>
+      <c r="BK114">
+        <v>1.63</v>
+      </c>
+      <c r="BL114">
+        <v>2.12</v>
+      </c>
+      <c r="BM114">
+        <v>1.98</v>
+      </c>
+      <c r="BN114">
+        <v>1.72</v>
+      </c>
+      <c r="BO114">
+        <v>2.48</v>
+      </c>
+      <c r="BP114">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7492263</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45605.69791666666</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>79</v>
+      </c>
+      <c r="H115" t="s">
+        <v>83</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>169</v>
+      </c>
+      <c r="P115" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q115">
+        <v>2.2</v>
+      </c>
+      <c r="R115">
+        <v>2.15</v>
+      </c>
+      <c r="S115">
+        <v>6.5</v>
+      </c>
+      <c r="T115">
+        <v>1.48</v>
+      </c>
+      <c r="U115">
+        <v>2.65</v>
+      </c>
+      <c r="V115">
+        <v>3.25</v>
+      </c>
+      <c r="W115">
+        <v>1.33</v>
+      </c>
+      <c r="X115">
+        <v>9</v>
+      </c>
+      <c r="Y115">
+        <v>1.06</v>
+      </c>
+      <c r="Z115">
+        <v>1.68</v>
+      </c>
+      <c r="AA115">
+        <v>4</v>
+      </c>
+      <c r="AB115">
+        <v>5.9</v>
+      </c>
+      <c r="AC115">
+        <v>1.07</v>
+      </c>
+      <c r="AD115">
+        <v>9</v>
+      </c>
+      <c r="AE115">
+        <v>1.4</v>
+      </c>
+      <c r="AF115">
+        <v>2.95</v>
+      </c>
+      <c r="AG115">
+        <v>2.05</v>
+      </c>
+      <c r="AH115">
+        <v>1.78</v>
+      </c>
+      <c r="AI115">
+        <v>2.25</v>
+      </c>
+      <c r="AJ115">
+        <v>1.63</v>
+      </c>
+      <c r="AK115">
+        <v>1.11</v>
+      </c>
+      <c r="AL115">
+        <v>1.22</v>
+      </c>
+      <c r="AM115">
+        <v>2.45</v>
+      </c>
+      <c r="AN115">
+        <v>1.67</v>
+      </c>
+      <c r="AO115">
+        <v>1.17</v>
+      </c>
+      <c r="AP115">
+        <v>1.86</v>
+      </c>
+      <c r="AQ115">
+        <v>1</v>
+      </c>
+      <c r="AR115">
+        <v>1.41</v>
+      </c>
+      <c r="AS115">
+        <v>1.1</v>
+      </c>
+      <c r="AT115">
+        <v>2.51</v>
+      </c>
+      <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>2</v>
+      </c>
+      <c r="AW115">
+        <v>3</v>
+      </c>
+      <c r="AX115">
+        <v>2</v>
+      </c>
+      <c r="AY115">
+        <v>14</v>
+      </c>
+      <c r="AZ115">
+        <v>7</v>
+      </c>
+      <c r="BA115">
+        <v>5</v>
+      </c>
+      <c r="BB115">
+        <v>5</v>
+      </c>
+      <c r="BC115">
+        <v>10</v>
+      </c>
+      <c r="BD115">
+        <v>1.38</v>
+      </c>
+      <c r="BE115">
+        <v>7</v>
+      </c>
+      <c r="BF115">
+        <v>3.4</v>
+      </c>
+      <c r="BG115">
+        <v>1.35</v>
+      </c>
+      <c r="BH115">
+        <v>2.9</v>
+      </c>
+      <c r="BI115">
+        <v>1.6</v>
+      </c>
+      <c r="BJ115">
+        <v>2.17</v>
+      </c>
+      <c r="BK115">
+        <v>1.98</v>
+      </c>
+      <c r="BL115">
+        <v>1.72</v>
+      </c>
+      <c r="BM115">
+        <v>2.5</v>
+      </c>
+      <c r="BN115">
+        <v>1.46</v>
+      </c>
+      <c r="BO115">
+        <v>3.3</v>
+      </c>
+      <c r="BP115">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,15 @@
     <t>['18', '84']</t>
   </si>
   <si>
+    <t>['63', '82']</t>
+  </si>
+  <si>
+    <t>['4', '59', '90+2']</t>
+  </si>
+  <si>
+    <t>['56', '60']</t>
+  </si>
+  <si>
     <t>['30', '82']</t>
   </si>
   <si>
@@ -722,6 +731,21 @@
   </si>
   <si>
     <t>['15', '40', '69']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['25', '66', '77']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,7 +1366,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1960,7 +1984,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2166,7 +2190,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>2.63</v>
@@ -2247,7 +2271,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2453,7 +2477,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2784,7 +2808,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2990,7 +3014,7 @@
         <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>4.5</v>
@@ -3402,7 +3426,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>3.75</v>
@@ -3483,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3608,7 +3632,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3892,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.17</v>
@@ -4020,7 +4044,7 @@
         <v>92</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>3.3</v>
@@ -4098,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ15">
         <v>1.2</v>
@@ -4510,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>0.29</v>
@@ -4719,7 +4743,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4844,7 +4868,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>2.05</v>
@@ -4922,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -5256,7 +5280,7 @@
         <v>92</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>5.5</v>
@@ -5462,7 +5486,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5746,7 +5770,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>1.67</v>
@@ -5874,7 +5898,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>2.25</v>
@@ -6286,7 +6310,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6492,7 +6516,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>3.4</v>
@@ -6698,7 +6722,7 @@
         <v>92</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>2.75</v>
@@ -6779,7 +6803,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ28">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
         <v>1.56</v>
@@ -6904,7 +6928,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -6982,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7522,7 +7546,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7603,7 +7627,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ32">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8140,7 +8164,7 @@
         <v>114</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8552,7 +8576,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>2.38</v>
@@ -8630,7 +8654,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ37">
         <v>1.83</v>
@@ -8758,7 +8782,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>4.5</v>
@@ -8839,7 +8863,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -8964,7 +8988,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>6.5</v>
@@ -9042,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ39">
         <v>2.2</v>
@@ -9170,7 +9194,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -9251,7 +9275,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9376,7 +9400,7 @@
         <v>118</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>2.2</v>
@@ -9457,7 +9481,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ41">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>1.35</v>
@@ -9582,7 +9606,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9788,7 +9812,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>3.4</v>
@@ -10281,7 +10305,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR45">
         <v>1.23</v>
@@ -10406,7 +10430,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q46">
         <v>2.88</v>
@@ -10612,7 +10636,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q47">
         <v>2.88</v>
@@ -10690,10 +10714,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ47">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.69</v>
@@ -10818,7 +10842,7 @@
         <v>111</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10896,10 +10920,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ48">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR48">
         <v>0.9399999999999999</v>
@@ -11102,10 +11126,10 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>2.26</v>
@@ -11230,7 +11254,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>2.2</v>
@@ -11308,7 +11332,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1.33</v>
@@ -11436,7 +11460,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>1.95</v>
@@ -11514,7 +11538,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ51">
         <v>0.63</v>
@@ -11848,7 +11872,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12054,7 +12078,7 @@
         <v>92</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>5.5</v>
@@ -12260,7 +12284,7 @@
         <v>128</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>3.4</v>
@@ -12466,7 +12490,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12547,7 +12571,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ56">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR56">
         <v>1.02</v>
@@ -12750,7 +12774,7 @@
         <v>0.33</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>0.29</v>
@@ -12878,7 +12902,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12959,7 +12983,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>1.29</v>
@@ -13496,7 +13520,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14320,7 +14344,7 @@
         <v>137</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>2.05</v>
@@ -14398,7 +14422,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ65">
         <v>1.2</v>
@@ -14526,7 +14550,7 @@
         <v>138</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q66">
         <v>1.8</v>
@@ -14604,7 +14628,7 @@
         <v>2.33</v>
       </c>
       <c r="AP66">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14732,7 +14756,7 @@
         <v>139</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>1.91</v>
@@ -15144,7 +15168,7 @@
         <v>140</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>2.2</v>
@@ -15350,7 +15374,7 @@
         <v>141</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>4.75</v>
@@ -15428,7 +15452,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ70">
         <v>0.67</v>
@@ -15556,7 +15580,7 @@
         <v>142</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15634,7 +15658,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -15968,7 +15992,7 @@
         <v>144</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16049,7 +16073,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ73">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR73">
         <v>1.29</v>
@@ -16255,7 +16279,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.89</v>
@@ -16461,7 +16485,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ75">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>1.09</v>
@@ -16586,7 +16610,7 @@
         <v>92</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16667,7 +16691,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR76">
         <v>0.85</v>
@@ -16792,7 +16816,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>3.5</v>
@@ -16998,7 +17022,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -17204,7 +17228,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>3.4</v>
@@ -17410,7 +17434,7 @@
         <v>92</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -17488,7 +17512,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>2.2</v>
@@ -17616,7 +17640,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>3.1</v>
@@ -18440,7 +18464,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>1.83</v>
@@ -18518,10 +18542,10 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ85">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
         <v>1.74</v>
@@ -18646,7 +18670,7 @@
         <v>103</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19058,7 +19082,7 @@
         <v>152</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>2.88</v>
@@ -19136,7 +19160,7 @@
         <v>0.2</v>
       </c>
       <c r="AP88">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ88">
         <v>0.29</v>
@@ -19264,7 +19288,7 @@
         <v>153</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>2.4</v>
@@ -19342,7 +19366,7 @@
         <v>2.33</v>
       </c>
       <c r="AP89">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>2.2</v>
@@ -19470,7 +19494,7 @@
         <v>154</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>3.2</v>
@@ -19548,7 +19572,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ90">
         <v>0.67</v>
@@ -19757,7 +19781,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ91">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR91">
         <v>1.25</v>
@@ -19882,7 +19906,7 @@
         <v>92</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>3.5</v>
@@ -19963,7 +19987,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ92">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR92">
         <v>1.35</v>
@@ -20088,7 +20112,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>3.1</v>
@@ -20169,7 +20193,7 @@
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AR93">
         <v>1.71</v>
@@ -20294,7 +20318,7 @@
         <v>92</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>6.5</v>
@@ -20500,7 +20524,7 @@
         <v>156</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>3.4</v>
@@ -20581,7 +20605,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ95">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR95">
         <v>1.33</v>
@@ -20706,7 +20730,7 @@
         <v>157</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>1.95</v>
@@ -20990,7 +21014,7 @@
         <v>1.25</v>
       </c>
       <c r="AP97">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21118,7 +21142,7 @@
         <v>92</v>
       </c>
       <c r="P98" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>4.5</v>
@@ -21324,7 +21348,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>3.4</v>
@@ -21405,7 +21429,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ99">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.62</v>
@@ -21608,7 +21632,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -21942,7 +21966,7 @@
         <v>92</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>4.75</v>
@@ -22226,7 +22250,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ103">
         <v>1.33</v>
@@ -22354,7 +22378,7 @@
         <v>92</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>2.6</v>
@@ -22560,7 +22584,7 @@
         <v>92</v>
       </c>
       <c r="P105" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q105">
         <v>3.75</v>
@@ -22766,7 +22790,7 @@
         <v>161</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>4.75</v>
@@ -23050,7 +23074,7 @@
         <v>0.33</v>
       </c>
       <c r="AP107">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>0.29</v>
@@ -23178,7 +23202,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>2.5</v>
@@ -23590,7 +23614,7 @@
         <v>164</v>
       </c>
       <c r="P110" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q110">
         <v>2.1</v>
@@ -23796,7 +23820,7 @@
         <v>165</v>
       </c>
       <c r="P111" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>3.75</v>
@@ -23969,7 +23993,7 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45603.875</v>
+        <v>45604.69791666666</v>
       </c>
       <c r="F112">
         <v>12</v>
@@ -24002,7 +24026,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24208,7 +24232,7 @@
         <v>167</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24384,7 +24408,7 @@
         <v>45605.58333333334</v>
       </c>
       <c r="F114">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
         <v>76</v>
@@ -24414,7 +24438,7 @@
         <v>168</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>4.75</v>
@@ -24507,22 +24531,22 @@
         <v>2.92</v>
       </c>
       <c r="AU114">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV114">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW114">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX114">
         <v>5</v>
       </c>
       <c r="AY114">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AZ114">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA114">
         <v>6</v>
@@ -24777,6 +24801,1036 @@
       </c>
       <c r="BP115">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7492265</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>82</v>
+      </c>
+      <c r="H116" t="s">
+        <v>77</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116" t="s">
+        <v>92</v>
+      </c>
+      <c r="P116" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q116">
+        <v>5</v>
+      </c>
+      <c r="R116">
+        <v>2.1</v>
+      </c>
+      <c r="S116">
+        <v>2.5</v>
+      </c>
+      <c r="T116">
+        <v>1.44</v>
+      </c>
+      <c r="U116">
+        <v>2.63</v>
+      </c>
+      <c r="V116">
+        <v>3.25</v>
+      </c>
+      <c r="W116">
+        <v>1.33</v>
+      </c>
+      <c r="X116">
+        <v>9</v>
+      </c>
+      <c r="Y116">
+        <v>1.07</v>
+      </c>
+      <c r="Z116">
+        <v>4.28</v>
+      </c>
+      <c r="AA116">
+        <v>3.6</v>
+      </c>
+      <c r="AB116">
+        <v>1.84</v>
+      </c>
+      <c r="AC116">
+        <v>1.07</v>
+      </c>
+      <c r="AD116">
+        <v>9.5</v>
+      </c>
+      <c r="AE116">
+        <v>1.4</v>
+      </c>
+      <c r="AF116">
+        <v>3</v>
+      </c>
+      <c r="AG116">
+        <v>2.09</v>
+      </c>
+      <c r="AH116">
+        <v>1.69</v>
+      </c>
+      <c r="AI116">
+        <v>2</v>
+      </c>
+      <c r="AJ116">
+        <v>1.75</v>
+      </c>
+      <c r="AK116">
+        <v>2</v>
+      </c>
+      <c r="AL116">
+        <v>1.26</v>
+      </c>
+      <c r="AM116">
+        <v>1.2</v>
+      </c>
+      <c r="AN116">
+        <v>0.5</v>
+      </c>
+      <c r="AO116">
+        <v>1.2</v>
+      </c>
+      <c r="AP116">
+        <v>0.43</v>
+      </c>
+      <c r="AQ116">
+        <v>1.5</v>
+      </c>
+      <c r="AR116">
+        <v>0.96</v>
+      </c>
+      <c r="AS116">
+        <v>1.48</v>
+      </c>
+      <c r="AT116">
+        <v>2.44</v>
+      </c>
+      <c r="AU116">
+        <v>3</v>
+      </c>
+      <c r="AV116">
+        <v>7</v>
+      </c>
+      <c r="AW116">
+        <v>7</v>
+      </c>
+      <c r="AX116">
+        <v>7</v>
+      </c>
+      <c r="AY116">
+        <v>13</v>
+      </c>
+      <c r="AZ116">
+        <v>15</v>
+      </c>
+      <c r="BA116">
+        <v>6</v>
+      </c>
+      <c r="BB116">
+        <v>6</v>
+      </c>
+      <c r="BC116">
+        <v>12</v>
+      </c>
+      <c r="BD116">
+        <v>2.8</v>
+      </c>
+      <c r="BE116">
+        <v>6.75</v>
+      </c>
+      <c r="BF116">
+        <v>1.54</v>
+      </c>
+      <c r="BG116">
+        <v>1.36</v>
+      </c>
+      <c r="BH116">
+        <v>2.8</v>
+      </c>
+      <c r="BI116">
+        <v>1.63</v>
+      </c>
+      <c r="BJ116">
+        <v>2.12</v>
+      </c>
+      <c r="BK116">
+        <v>2</v>
+      </c>
+      <c r="BL116">
+        <v>1.71</v>
+      </c>
+      <c r="BM116">
+        <v>2.55</v>
+      </c>
+      <c r="BN116">
+        <v>1.43</v>
+      </c>
+      <c r="BO116">
+        <v>3.4</v>
+      </c>
+      <c r="BP116">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7492266</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>86</v>
+      </c>
+      <c r="H117" t="s">
+        <v>74</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117" t="s">
+        <v>170</v>
+      </c>
+      <c r="P117" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q117">
+        <v>2.75</v>
+      </c>
+      <c r="R117">
+        <v>2.05</v>
+      </c>
+      <c r="S117">
+        <v>4.33</v>
+      </c>
+      <c r="T117">
+        <v>1.44</v>
+      </c>
+      <c r="U117">
+        <v>2.63</v>
+      </c>
+      <c r="V117">
+        <v>3.25</v>
+      </c>
+      <c r="W117">
+        <v>1.33</v>
+      </c>
+      <c r="X117">
+        <v>10</v>
+      </c>
+      <c r="Y117">
+        <v>1.06</v>
+      </c>
+      <c r="Z117">
+        <v>2.74</v>
+      </c>
+      <c r="AA117">
+        <v>5.96</v>
+      </c>
+      <c r="AB117">
+        <v>1.73</v>
+      </c>
+      <c r="AC117">
+        <v>1.07</v>
+      </c>
+      <c r="AD117">
+        <v>9.5</v>
+      </c>
+      <c r="AE117">
+        <v>1.38</v>
+      </c>
+      <c r="AF117">
+        <v>3.1</v>
+      </c>
+      <c r="AG117">
+        <v>2.2</v>
+      </c>
+      <c r="AH117">
+        <v>1.67</v>
+      </c>
+      <c r="AI117">
+        <v>1.95</v>
+      </c>
+      <c r="AJ117">
+        <v>1.8</v>
+      </c>
+      <c r="AK117">
+        <v>1.28</v>
+      </c>
+      <c r="AL117">
+        <v>1.28</v>
+      </c>
+      <c r="AM117">
+        <v>1.78</v>
+      </c>
+      <c r="AN117">
+        <v>1.8</v>
+      </c>
+      <c r="AO117">
+        <v>1.6</v>
+      </c>
+      <c r="AP117">
+        <v>1.5</v>
+      </c>
+      <c r="AQ117">
+        <v>1.83</v>
+      </c>
+      <c r="AR117">
+        <v>1.63</v>
+      </c>
+      <c r="AS117">
+        <v>1.32</v>
+      </c>
+      <c r="AT117">
+        <v>2.95</v>
+      </c>
+      <c r="AU117">
+        <v>6</v>
+      </c>
+      <c r="AV117">
+        <v>5</v>
+      </c>
+      <c r="AW117">
+        <v>5</v>
+      </c>
+      <c r="AX117">
+        <v>3</v>
+      </c>
+      <c r="AY117">
+        <v>16</v>
+      </c>
+      <c r="AZ117">
+        <v>16</v>
+      </c>
+      <c r="BA117">
+        <v>4</v>
+      </c>
+      <c r="BB117">
+        <v>3</v>
+      </c>
+      <c r="BC117">
+        <v>7</v>
+      </c>
+      <c r="BD117">
+        <v>1.58</v>
+      </c>
+      <c r="BE117">
+        <v>6.4</v>
+      </c>
+      <c r="BF117">
+        <v>2.65</v>
+      </c>
+      <c r="BG117">
+        <v>1.37</v>
+      </c>
+      <c r="BH117">
+        <v>2.8</v>
+      </c>
+      <c r="BI117">
+        <v>1.65</v>
+      </c>
+      <c r="BJ117">
+        <v>2.08</v>
+      </c>
+      <c r="BK117">
+        <v>2.04</v>
+      </c>
+      <c r="BL117">
+        <v>1.67</v>
+      </c>
+      <c r="BM117">
+        <v>2.65</v>
+      </c>
+      <c r="BN117">
+        <v>1.41</v>
+      </c>
+      <c r="BO117">
+        <v>3.45</v>
+      </c>
+      <c r="BP117">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7492260</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>84</v>
+      </c>
+      <c r="H118" t="s">
+        <v>75</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>4</v>
+      </c>
+      <c r="O118" t="s">
+        <v>171</v>
+      </c>
+      <c r="P118" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q118">
+        <v>1.95</v>
+      </c>
+      <c r="R118">
+        <v>2.4</v>
+      </c>
+      <c r="S118">
+        <v>6.5</v>
+      </c>
+      <c r="T118">
+        <v>1.33</v>
+      </c>
+      <c r="U118">
+        <v>3.25</v>
+      </c>
+      <c r="V118">
+        <v>2.63</v>
+      </c>
+      <c r="W118">
+        <v>1.44</v>
+      </c>
+      <c r="X118">
+        <v>6.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.11</v>
+      </c>
+      <c r="Z118">
+        <v>1.71</v>
+      </c>
+      <c r="AA118">
+        <v>6.76</v>
+      </c>
+      <c r="AB118">
+        <v>2.66</v>
+      </c>
+      <c r="AC118">
+        <v>1.03</v>
+      </c>
+      <c r="AD118">
+        <v>15</v>
+      </c>
+      <c r="AE118">
+        <v>1.25</v>
+      </c>
+      <c r="AF118">
+        <v>4</v>
+      </c>
+      <c r="AG118">
+        <v>1.75</v>
+      </c>
+      <c r="AH118">
+        <v>2.05</v>
+      </c>
+      <c r="AI118">
+        <v>1.95</v>
+      </c>
+      <c r="AJ118">
+        <v>1.8</v>
+      </c>
+      <c r="AK118">
+        <v>1.08</v>
+      </c>
+      <c r="AL118">
+        <v>1.16</v>
+      </c>
+      <c r="AM118">
+        <v>2.85</v>
+      </c>
+      <c r="AN118">
+        <v>2.2</v>
+      </c>
+      <c r="AO118">
+        <v>0.6</v>
+      </c>
+      <c r="AP118">
+        <v>2.33</v>
+      </c>
+      <c r="AQ118">
+        <v>0.5</v>
+      </c>
+      <c r="AR118">
+        <v>1.7</v>
+      </c>
+      <c r="AS118">
+        <v>0.84</v>
+      </c>
+      <c r="AT118">
+        <v>2.54</v>
+      </c>
+      <c r="AU118">
+        <v>7</v>
+      </c>
+      <c r="AV118">
+        <v>3</v>
+      </c>
+      <c r="AW118">
+        <v>5</v>
+      </c>
+      <c r="AX118">
+        <v>3</v>
+      </c>
+      <c r="AY118">
+        <v>13</v>
+      </c>
+      <c r="AZ118">
+        <v>9</v>
+      </c>
+      <c r="BA118">
+        <v>8</v>
+      </c>
+      <c r="BB118">
+        <v>3</v>
+      </c>
+      <c r="BC118">
+        <v>11</v>
+      </c>
+      <c r="BD118">
+        <v>1.27</v>
+      </c>
+      <c r="BE118">
+        <v>7.5</v>
+      </c>
+      <c r="BF118">
+        <v>4.1</v>
+      </c>
+      <c r="BG118">
+        <v>1.34</v>
+      </c>
+      <c r="BH118">
+        <v>2.9</v>
+      </c>
+      <c r="BI118">
+        <v>1.57</v>
+      </c>
+      <c r="BJ118">
+        <v>2.23</v>
+      </c>
+      <c r="BK118">
+        <v>1.92</v>
+      </c>
+      <c r="BL118">
+        <v>1.77</v>
+      </c>
+      <c r="BM118">
+        <v>2.4</v>
+      </c>
+      <c r="BN118">
+        <v>1.49</v>
+      </c>
+      <c r="BO118">
+        <v>3.15</v>
+      </c>
+      <c r="BP118">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7492258</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>89</v>
+      </c>
+      <c r="H119" t="s">
+        <v>80</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>172</v>
+      </c>
+      <c r="P119" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q119">
+        <v>1.83</v>
+      </c>
+      <c r="R119">
+        <v>2.5</v>
+      </c>
+      <c r="S119">
+        <v>7</v>
+      </c>
+      <c r="T119">
+        <v>1.3</v>
+      </c>
+      <c r="U119">
+        <v>3.4</v>
+      </c>
+      <c r="V119">
+        <v>2.38</v>
+      </c>
+      <c r="W119">
+        <v>1.53</v>
+      </c>
+      <c r="X119">
+        <v>6</v>
+      </c>
+      <c r="Y119">
+        <v>1.13</v>
+      </c>
+      <c r="Z119">
+        <v>1.67</v>
+      </c>
+      <c r="AA119">
+        <v>3.08</v>
+      </c>
+      <c r="AB119">
+        <v>5.39</v>
+      </c>
+      <c r="AC119">
+        <v>1.02</v>
+      </c>
+      <c r="AD119">
+        <v>17</v>
+      </c>
+      <c r="AE119">
+        <v>1.2</v>
+      </c>
+      <c r="AF119">
+        <v>4.5</v>
+      </c>
+      <c r="AG119">
+        <v>1.65</v>
+      </c>
+      <c r="AH119">
+        <v>2.2</v>
+      </c>
+      <c r="AI119">
+        <v>1.95</v>
+      </c>
+      <c r="AJ119">
+        <v>1.8</v>
+      </c>
+      <c r="AK119">
+        <v>1.07</v>
+      </c>
+      <c r="AL119">
+        <v>1.13</v>
+      </c>
+      <c r="AM119">
+        <v>3.1</v>
+      </c>
+      <c r="AN119">
+        <v>2.4</v>
+      </c>
+      <c r="AO119">
+        <v>0.8</v>
+      </c>
+      <c r="AP119">
+        <v>2.5</v>
+      </c>
+      <c r="AQ119">
+        <v>0.67</v>
+      </c>
+      <c r="AR119">
+        <v>1.85</v>
+      </c>
+      <c r="AS119">
+        <v>1.3</v>
+      </c>
+      <c r="AT119">
+        <v>3.15</v>
+      </c>
+      <c r="AU119">
+        <v>4</v>
+      </c>
+      <c r="AV119">
+        <v>7</v>
+      </c>
+      <c r="AW119">
+        <v>4</v>
+      </c>
+      <c r="AX119">
+        <v>3</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>12</v>
+      </c>
+      <c r="BA119">
+        <v>4</v>
+      </c>
+      <c r="BB119">
+        <v>5</v>
+      </c>
+      <c r="BC119">
+        <v>9</v>
+      </c>
+      <c r="BD119">
+        <v>1.21</v>
+      </c>
+      <c r="BE119">
+        <v>8.5</v>
+      </c>
+      <c r="BF119">
+        <v>4.8</v>
+      </c>
+      <c r="BG119">
+        <v>1.25</v>
+      </c>
+      <c r="BH119">
+        <v>3.4</v>
+      </c>
+      <c r="BI119">
+        <v>1.44</v>
+      </c>
+      <c r="BJ119">
+        <v>2.55</v>
+      </c>
+      <c r="BK119">
+        <v>1.72</v>
+      </c>
+      <c r="BL119">
+        <v>1.98</v>
+      </c>
+      <c r="BM119">
+        <v>2.12</v>
+      </c>
+      <c r="BN119">
+        <v>1.63</v>
+      </c>
+      <c r="BO119">
+        <v>2.65</v>
+      </c>
+      <c r="BP119">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7492262</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>81</v>
+      </c>
+      <c r="H120" t="s">
+        <v>85</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>2</v>
+      </c>
+      <c r="O120" t="s">
+        <v>111</v>
+      </c>
+      <c r="P120" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q120">
+        <v>2.5</v>
+      </c>
+      <c r="R120">
+        <v>2.2</v>
+      </c>
+      <c r="S120">
+        <v>4.5</v>
+      </c>
+      <c r="T120">
+        <v>1.36</v>
+      </c>
+      <c r="U120">
+        <v>3</v>
+      </c>
+      <c r="V120">
+        <v>2.75</v>
+      </c>
+      <c r="W120">
+        <v>1.4</v>
+      </c>
+      <c r="X120">
+        <v>8</v>
+      </c>
+      <c r="Y120">
+        <v>1.08</v>
+      </c>
+      <c r="Z120">
+        <v>1.8</v>
+      </c>
+      <c r="AA120">
+        <v>3.75</v>
+      </c>
+      <c r="AB120">
+        <v>4.33</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>12</v>
+      </c>
+      <c r="AE120">
+        <v>1.3</v>
+      </c>
+      <c r="AF120">
+        <v>3.6</v>
+      </c>
+      <c r="AG120">
+        <v>1.87</v>
+      </c>
+      <c r="AH120">
+        <v>2.03</v>
+      </c>
+      <c r="AI120">
+        <v>1.8</v>
+      </c>
+      <c r="AJ120">
+        <v>1.95</v>
+      </c>
+      <c r="AK120">
+        <v>1.22</v>
+      </c>
+      <c r="AL120">
+        <v>1.24</v>
+      </c>
+      <c r="AM120">
+        <v>2</v>
+      </c>
+      <c r="AN120">
+        <v>2.17</v>
+      </c>
+      <c r="AO120">
+        <v>2</v>
+      </c>
+      <c r="AP120">
+        <v>2</v>
+      </c>
+      <c r="AQ120">
+        <v>1.83</v>
+      </c>
+      <c r="AR120">
+        <v>1.62</v>
+      </c>
+      <c r="AS120">
+        <v>1.08</v>
+      </c>
+      <c r="AT120">
+        <v>2.7</v>
+      </c>
+      <c r="AU120">
+        <v>5</v>
+      </c>
+      <c r="AV120">
+        <v>3</v>
+      </c>
+      <c r="AW120">
+        <v>4</v>
+      </c>
+      <c r="AX120">
+        <v>2</v>
+      </c>
+      <c r="AY120">
+        <v>14</v>
+      </c>
+      <c r="AZ120">
+        <v>6</v>
+      </c>
+      <c r="BA120">
+        <v>4</v>
+      </c>
+      <c r="BB120">
+        <v>2</v>
+      </c>
+      <c r="BC120">
+        <v>6</v>
+      </c>
+      <c r="BD120">
+        <v>1.5</v>
+      </c>
+      <c r="BE120">
+        <v>6.75</v>
+      </c>
+      <c r="BF120">
+        <v>2.9</v>
+      </c>
+      <c r="BG120">
+        <v>1.34</v>
+      </c>
+      <c r="BH120">
+        <v>2.9</v>
+      </c>
+      <c r="BI120">
+        <v>1.58</v>
+      </c>
+      <c r="BJ120">
+        <v>2.18</v>
+      </c>
+      <c r="BK120">
+        <v>1.95</v>
+      </c>
+      <c r="BL120">
+        <v>1.74</v>
+      </c>
+      <c r="BM120">
+        <v>2.48</v>
+      </c>
+      <c r="BN120">
+        <v>1.47</v>
+      </c>
+      <c r="BO120">
+        <v>3.2</v>
+      </c>
+      <c r="BP120">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie A_20242025.xlsx
@@ -526,13 +526,13 @@
     <t>['18', '84']</t>
   </si>
   <si>
+    <t>['56', '60']</t>
+  </si>
+  <si>
     <t>['63', '82']</t>
   </si>
   <si>
     <t>['4', '59', '90+2']</t>
-  </si>
-  <si>
-    <t>['56', '60']</t>
   </si>
   <si>
     <t>['30', '82']</t>
@@ -733,7 +733,7 @@
     <t>['15', '40', '69']</t>
   </si>
   <si>
-    <t>['36']</t>
+    <t>['45+3']</t>
   </si>
   <si>
     <t>['25', '66', '77']</t>
@@ -742,7 +742,7 @@
     <t>['18']</t>
   </si>
   <si>
-    <t>['45+3']</t>
+    <t>['36']</t>
   </si>
   <si>
     <t>['23']</t>
@@ -24808,7 +24808,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7492265</v>
+        <v>7492258</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24817,16 +24817,16 @@
         <v>69</v>
       </c>
       <c r="E116" s="2">
-        <v>45605.875</v>
+        <v>45606.35416666666</v>
       </c>
       <c r="F116">
         <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H116" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -24838,175 +24838,175 @@
         <v>1</v>
       </c>
       <c r="L116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M116">
         <v>1</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O116" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="P116" t="s">
         <v>239</v>
       </c>
       <c r="Q116">
-        <v>5</v>
+        <v>1.83</v>
       </c>
       <c r="R116">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="S116">
+        <v>7</v>
+      </c>
+      <c r="T116">
+        <v>1.3</v>
+      </c>
+      <c r="U116">
+        <v>3.4</v>
+      </c>
+      <c r="V116">
+        <v>2.38</v>
+      </c>
+      <c r="W116">
+        <v>1.53</v>
+      </c>
+      <c r="X116">
+        <v>6</v>
+      </c>
+      <c r="Y116">
+        <v>1.13</v>
+      </c>
+      <c r="Z116">
+        <v>1.67</v>
+      </c>
+      <c r="AA116">
+        <v>3.08</v>
+      </c>
+      <c r="AB116">
+        <v>5.39</v>
+      </c>
+      <c r="AC116">
+        <v>1.02</v>
+      </c>
+      <c r="AD116">
+        <v>17</v>
+      </c>
+      <c r="AE116">
+        <v>1.2</v>
+      </c>
+      <c r="AF116">
+        <v>4.5</v>
+      </c>
+      <c r="AG116">
+        <v>1.65</v>
+      </c>
+      <c r="AH116">
+        <v>2.2</v>
+      </c>
+      <c r="AI116">
+        <v>1.95</v>
+      </c>
+      <c r="AJ116">
+        <v>1.8</v>
+      </c>
+      <c r="AK116">
+        <v>1.07</v>
+      </c>
+      <c r="AL116">
+        <v>1.13</v>
+      </c>
+      <c r="AM116">
+        <v>3.1</v>
+      </c>
+      <c r="AN116">
+        <v>2.4</v>
+      </c>
+      <c r="AO116">
+        <v>0.8</v>
+      </c>
+      <c r="AP116">
         <v>2.5</v>
       </c>
-      <c r="T116">
-        <v>1.44</v>
-      </c>
-      <c r="U116">
-        <v>2.63</v>
-      </c>
-      <c r="V116">
-        <v>3.25</v>
-      </c>
-      <c r="W116">
-        <v>1.33</v>
-      </c>
-      <c r="X116">
-        <v>9</v>
-      </c>
-      <c r="Y116">
-        <v>1.07</v>
-      </c>
-      <c r="Z116">
-        <v>4.28</v>
-      </c>
-      <c r="AA116">
-        <v>3.6</v>
-      </c>
-      <c r="AB116">
-        <v>1.84</v>
-      </c>
-      <c r="AC116">
-        <v>1.07</v>
-      </c>
-      <c r="AD116">
-        <v>9.5</v>
-      </c>
-      <c r="AE116">
-        <v>1.4</v>
-      </c>
-      <c r="AF116">
-        <v>3</v>
-      </c>
-      <c r="AG116">
-        <v>2.09</v>
-      </c>
-      <c r="AH116">
-        <v>1.69</v>
-      </c>
-      <c r="AI116">
-        <v>2</v>
-      </c>
-      <c r="AJ116">
-        <v>1.75</v>
-      </c>
-      <c r="AK116">
-        <v>2</v>
-      </c>
-      <c r="AL116">
-        <v>1.26</v>
-      </c>
-      <c r="AM116">
-        <v>1.2</v>
-      </c>
-      <c r="AN116">
-        <v>0.5</v>
-      </c>
-      <c r="AO116">
-        <v>1.2</v>
-      </c>
-      <c r="AP116">
-        <v>0.43</v>
-      </c>
       <c r="AQ116">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR116">
-        <v>0.96</v>
+        <v>1.85</v>
       </c>
       <c r="AS116">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AT116">
-        <v>2.44</v>
+        <v>3.15</v>
       </c>
       <c r="AU116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV116">
         <v>7</v>
       </c>
       <c r="AW116">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX116">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY116">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ116">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC116">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD116">
-        <v>2.8</v>
+        <v>1.21</v>
       </c>
       <c r="BE116">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="BF116">
-        <v>1.54</v>
+        <v>4.8</v>
       </c>
       <c r="BG116">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="BH116">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="BI116">
+        <v>1.44</v>
+      </c>
+      <c r="BJ116">
+        <v>2.55</v>
+      </c>
+      <c r="BK116">
+        <v>1.72</v>
+      </c>
+      <c r="BL116">
+        <v>1.98</v>
+      </c>
+      <c r="BM116">
+        <v>2.12</v>
+      </c>
+      <c r="BN116">
         <v>1.63</v>
       </c>
-      <c r="BJ116">
-        <v>2.12</v>
-      </c>
-      <c r="BK116">
-        <v>2</v>
-      </c>
-      <c r="BL116">
-        <v>1.71</v>
-      </c>
-      <c r="BM116">
-        <v>2.55</v>
-      </c>
-      <c r="BN116">
-        <v>1.43</v>
-      </c>
       <c r="BO116">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="BP116">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -25023,10 +25023,10 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45605.875</v>
+        <v>45606.45833333334</v>
       </c>
       <c r="F117">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G117" t="s">
         <v>86</v>
@@ -25053,7 +25053,7 @@
         <v>5</v>
       </c>
       <c r="O117" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P117" t="s">
         <v>240</v>
@@ -25229,10 +25229,10 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45605.875</v>
+        <v>45606.45833333334</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G118" t="s">
         <v>84</v>
@@ -25259,7 +25259,7 @@
         <v>4</v>
       </c>
       <c r="O118" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P118" t="s">
         <v>241</v>
@@ -25426,7 +25426,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>7492258</v>
+        <v>7492265</v>
       </c>
       <c r="C119" t="s">
         <v>68</v>
@@ -25435,16 +25435,16 @@
         <v>69</v>
       </c>
       <c r="E119" s="2">
-        <v>45605.875</v>
+        <v>45606.58333333334</v>
       </c>
       <c r="F119">
         <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H119" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -25456,175 +25456,175 @@
         <v>1</v>
       </c>
       <c r="L119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M119">
         <v>1</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O119" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="P119" t="s">
         <v>242</v>
       </c>
       <c r="Q119">
-        <v>1.83</v>
+        <v>5</v>
       </c>
       <c r="R119">
+        <v>2.1</v>
+      </c>
+      <c r="S119">
         <v>2.5</v>
       </c>
-      <c r="S119">
-        <v>7</v>
-      </c>
       <c r="T119">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="U119">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="V119">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="W119">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="X119">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y119">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="Z119">
-        <v>1.67</v>
+        <v>4.28</v>
       </c>
       <c r="AA119">
-        <v>3.08</v>
+        <v>3.6</v>
       </c>
       <c r="AB119">
-        <v>5.39</v>
+        <v>1.84</v>
       </c>
       <c r="AC119">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AD119">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AE119">
+        <v>1.4</v>
+      </c>
+      <c r="AF119">
+        <v>3</v>
+      </c>
+      <c r="AG119">
+        <v>2.09</v>
+      </c>
+      <c r="AH119">
+        <v>1.69</v>
+      </c>
+      <c r="AI119">
+        <v>2</v>
+      </c>
+      <c r="AJ119">
+        <v>1.75</v>
+      </c>
+      <c r="AK119">
+        <v>2</v>
+      </c>
+      <c r="AL119">
+        <v>1.26</v>
+      </c>
+      <c r="AM119">
         <v>1.2</v>
       </c>
-      <c r="AF119">
-        <v>4.5</v>
-      </c>
-      <c r="AG119">
-        <v>1.65</v>
-      </c>
-      <c r="AH119">
-        <v>2.2</v>
-      </c>
-      <c r="AI119">
-        <v>1.95</v>
-      </c>
-      <c r="AJ119">
-        <v>1.8</v>
-      </c>
-      <c r="AK119">
-        <v>1.07</v>
-      </c>
-      <c r="AL119">
-        <v>1.13</v>
-      </c>
-      <c r="AM119">
-        <v>3.1</v>
-      </c>
       <c r="AN119">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO119">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AP119">
-        <v>2.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ119">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR119">
-        <v>1.85</v>
+        <v>0.96</v>
       </c>
       <c r="AS119">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AT119">
-        <v>3.15</v>
+        <v>2.44</v>
       </c>
       <c r="AU119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV119">
         <v>7</v>
       </c>
       <c r="AW119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX119">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY119">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ119">
+        <v>15</v>
+      </c>
+      <c r="BA119">
+        <v>6</v>
+      </c>
+      <c r="BB119">
+        <v>6</v>
+      </c>
+      <c r="BC119">
         <v>12</v>
       </c>
-      <c r="BA119">
-        <v>4</v>
-      </c>
-      <c r="BB119">
-        <v>5</v>
-      </c>
-      <c r="BC119">
-        <v>9</v>
-      </c>
       <c r="BD119">
-        <v>1.21</v>
+        <v>2.8</v>
       </c>
       <c r="BE119">
-        <v>8.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF119">
-        <v>4.8</v>
+        <v>1.54</v>
       </c>
       <c r="BG119">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="BH119">
+        <v>2.8</v>
+      </c>
+      <c r="BI119">
+        <v>1.63</v>
+      </c>
+      <c r="BJ119">
+        <v>2.12</v>
+      </c>
+      <c r="BK119">
+        <v>2</v>
+      </c>
+      <c r="BL119">
+        <v>1.71</v>
+      </c>
+      <c r="BM119">
+        <v>2.55</v>
+      </c>
+      <c r="BN119">
+        <v>1.43</v>
+      </c>
+      <c r="BO119">
         <v>3.4</v>
       </c>
-      <c r="BI119">
-        <v>1.44</v>
-      </c>
-      <c r="BJ119">
-        <v>2.55</v>
-      </c>
-      <c r="BK119">
-        <v>1.72</v>
-      </c>
-      <c r="BL119">
-        <v>1.98</v>
-      </c>
-      <c r="BM119">
-        <v>2.12</v>
-      </c>
-      <c r="BN119">
-        <v>1.63</v>
-      </c>
-      <c r="BO119">
-        <v>2.65</v>
-      </c>
       <c r="BP119">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="120" spans="1:68">
@@ -25641,10 +25641,10 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45605.875</v>
+        <v>45606.69791666666</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G120" t="s">
         <v>81</v>
